--- a/03_ips_clean/00_ips_wide_norm_complete.xlsx
+++ b/03_ips_clean/00_ips_wide_norm_complete.xlsx
@@ -950,13 +950,13 @@
         <v>0.422256551002962</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0625332305408447</v>
+        <v>0.0669019166655314</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.123212775155093</v>
+        <v>0.126006753086738</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.0360054274476526</v>
+        <v>-0.0375403915665097</v>
       </c>
       <c r="S2" t="n">
         <v>-0.18882416799571</v>
@@ -1126,13 +1126,13 @@
         <v>0.980729453309989</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0597997673844625</v>
+        <v>0.0641516598826344</v>
       </c>
       <c r="Q3" t="n">
-        <v>-1.65161203171721</v>
+        <v>-1.68906405373724</v>
       </c>
       <c r="R3" t="n">
-        <v>0.141107996962751</v>
+        <v>0.143326428547803</v>
       </c>
       <c r="S3" t="n">
         <v>1.77604750729784</v>
@@ -1302,13 +1302,13 @@
         <v>0.0836960557978047</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.286603452372981</v>
+        <v>-0.284379763535628</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.675458387937445</v>
+        <v>-0.690775109984053</v>
       </c>
       <c r="R4" t="n">
-        <v>-1.94430407731597</v>
+        <v>-1.98627979276712</v>
       </c>
       <c r="S4" t="n">
         <v>1.12109028219999</v>
@@ -1478,13 +1478,13 @@
         <v>0.101108296213635</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.848490893002359</v>
+        <v>-0.849719282090128</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.320493426562984</v>
+        <v>-0.327760948619257</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.964820110969772</v>
+        <v>-0.98603855788766</v>
       </c>
       <c r="S5" t="n">
         <v>0.557827068615837</v>
@@ -1654,13 +1654,13 @@
         <v>0.820924051315604</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.249398000495473</v>
+        <v>-0.246945731857553</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.54307262065294</v>
+        <v>1.57806339854592</v>
       </c>
       <c r="R6" t="n">
-        <v>0.825555632940874</v>
+        <v>0.842278909796593</v>
       </c>
       <c r="S6" t="n">
         <v>1.08834242094509</v>
@@ -1830,13 +1830,13 @@
         <v>0.693876926431495</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.525142335047296</v>
+        <v>-0.524384161812572</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.143010945875753</v>
+        <v>-0.146253867936859</v>
       </c>
       <c r="R7" t="n">
-        <v>-1.84718031638735</v>
+        <v>-1.88709778070237</v>
       </c>
       <c r="S7" t="n">
         <v>-0.300166896262345</v>
@@ -2006,13 +2006,13 @@
         <v>-0.161169421836911</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.75325633317396</v>
+        <v>-1.76004334588915</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.123212775155093</v>
+        <v>0.126006753086738</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0513143311985523</v>
+        <v>0.0516298513558593</v>
       </c>
       <c r="S8" t="n">
         <v>0.904954397917697</v>
@@ -2182,13 +2182,13 @@
         <v>0.705127161654617</v>
       </c>
       <c r="P9" t="n">
-        <v>1.00614094110653</v>
+        <v>1.01630688681041</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.18810765927848</v>
+        <v>1.21504923718112</v>
       </c>
       <c r="R9" t="n">
-        <v>0.403158899090921</v>
+        <v>0.41093072525082</v>
       </c>
       <c r="S9" t="n">
         <v>1.02939627068629</v>
@@ -2358,13 +2358,13 @@
         <v>-0.61382666269609</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.94815487051618</v>
+        <v>-1.95613928486334</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.7444014575604</v>
+        <v>0.76128153547513</v>
       </c>
       <c r="R10" t="n">
-        <v>0.388498708762072</v>
+        <v>0.395959855505197</v>
       </c>
       <c r="S10" t="n">
         <v>-0.215022456999624</v>
@@ -2534,13 +2534,13 @@
         <v>0.633241168403185</v>
       </c>
       <c r="P11" t="n">
-        <v>0.669127104480341</v>
+        <v>0.67722253224459</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.18810765927848</v>
+        <v>1.21504923718112</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0284077838097264</v>
+        <v>0.0282378673783229</v>
       </c>
       <c r="S11" t="n">
         <v>-0.53595149729757</v>
@@ -2710,13 +2710,13 @@
         <v>0.666121465418268</v>
       </c>
       <c r="P12" t="n">
-        <v>0.106426517128875</v>
+        <v>0.111064871223932</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.566918976873169</v>
+        <v>0.579774454792732</v>
       </c>
       <c r="R12" t="n">
-        <v>0.290458685937897</v>
+        <v>0.29584216408134</v>
       </c>
       <c r="S12" t="n">
         <v>0.151753589055171</v>
@@ -2886,13 +2886,13 @@
         <v>0.452912018420414</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0491181769779372</v>
+        <v>0.0534044447979595</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.91783575274806</v>
+        <v>-1.96132467476084</v>
       </c>
       <c r="R13" t="n">
-        <v>0.935507060407239</v>
+        <v>0.954560432888768</v>
       </c>
       <c r="S13" t="n">
         <v>0.361339901086483</v>
@@ -3062,13 +3062,13 @@
         <v>-1.63843593801321</v>
       </c>
       <c r="P14" t="n">
-        <v>0.863627386663889</v>
+        <v>0.872917769292771</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.409234666906599</v>
+        <v>-0.418514488960456</v>
       </c>
       <c r="R14" t="n">
-        <v>-1.14623996628927</v>
+        <v>-1.17130307098975</v>
       </c>
       <c r="S14" t="n">
         <v>-1.07956599412878</v>
@@ -3238,13 +3238,13 @@
         <v>0.791309820419164</v>
       </c>
       <c r="P15" t="n">
-        <v>0.703060616917027</v>
+        <v>0.711364522608943</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.833142697904015</v>
+        <v>0.852035075816329</v>
       </c>
       <c r="R15" t="n">
-        <v>1.33408098497281</v>
+        <v>1.3615809540979</v>
       </c>
       <c r="S15" t="n">
         <v>0.538178351862902</v>
@@ -3414,13 +3414,13 @@
         <v>0.489924722878264</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.669871247469737</v>
+        <v>-0.670002247844483</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.143010945875753</v>
+        <v>-0.146253867936859</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.795311660292459</v>
+        <v>-0.81293787645389</v>
       </c>
       <c r="S16" t="n">
         <v>0.0469604330395157</v>
@@ -3590,13 +3590,13 @@
         <v>0.452448342782151</v>
       </c>
       <c r="P17" t="n">
-        <v>0.886743161789851</v>
+        <v>0.896175561220078</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.675458387937445</v>
+        <v>-0.690775109984053</v>
       </c>
       <c r="R17" t="n">
-        <v>0.742175800445547</v>
+        <v>0.75713208811836</v>
       </c>
       <c r="S17" t="n">
         <v>-1.32844973966597</v>
@@ -3766,13 +3766,13 @@
         <v>0.352806888517492</v>
       </c>
       <c r="P18" t="n">
-        <v>0.452145267662214</v>
+        <v>0.458907620232268</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.566918976873169</v>
+        <v>0.579774454792732</v>
       </c>
       <c r="R18" t="n">
-        <v>0.00000366504758191066</v>
+        <v>-0.00076819275382247</v>
       </c>
       <c r="S18" t="n">
         <v>-0.62109593656029</v>
@@ -3942,13 +3942,13 @@
         <v>0.13003108098284</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.433731741782896</v>
+        <v>-0.432411967650354</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1.91783575274806</v>
+        <v>-1.96132467476084</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.144765714449799</v>
+        <v>-0.148605531491853</v>
       </c>
       <c r="S19" t="n">
         <v>-1.04681813287389</v>
@@ -4118,13 +4118,13 @@
         <v>0.628230217645815</v>
       </c>
       <c r="P20" t="n">
-        <v>0.502451039486188</v>
+        <v>0.509522456526923</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.45433138030932</v>
+        <v>1.48730985820472</v>
       </c>
       <c r="R20" t="n">
-        <v>0.675288682070174</v>
+        <v>0.688827494903954</v>
       </c>
       <c r="S20" t="n">
         <v>0.970450120427482</v>
@@ -4294,13 +4294,13 @@
         <v>0.748570315095748</v>
       </c>
       <c r="P21" t="n">
-        <v>-4.50807621951825</v>
+        <v>-4.53178806847232</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.566918976873169</v>
+        <v>0.579774454792732</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.912593182923249</v>
+        <v>-0.932704834418877</v>
       </c>
       <c r="S21" t="n">
         <v>-0.0250848617212482</v>
@@ -4470,13 +4470,13 @@
         <v>0.300484753336637</v>
       </c>
       <c r="P22" t="n">
-        <v>0.851399289652306</v>
+        <v>0.86061454630273</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.211954015498708</v>
+        <v>0.216760293427937</v>
       </c>
       <c r="R22" t="n">
-        <v>1.23054339077532</v>
+        <v>1.25584918651944</v>
       </c>
       <c r="S22" t="n">
         <v>-0.483554919289742</v>
@@ -4646,13 +4646,13 @@
         <v>0.708474574376465</v>
       </c>
       <c r="P23" t="n">
-        <v>0.579473519268888</v>
+        <v>0.587018140697139</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.143010945875753</v>
+        <v>-0.146253867936859</v>
       </c>
       <c r="R23" t="n">
-        <v>0.631308111083628</v>
+        <v>0.643914885667083</v>
       </c>
       <c r="S23" t="n">
         <v>0.191051022561042</v>
@@ -4822,13 +4822,13 @@
         <v>0.843013721415667</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.860590991552887</v>
+        <v>-0.861893720232677</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.389436496185939</v>
+        <v>0.398267374110335</v>
       </c>
       <c r="R24" t="n">
-        <v>1.06286746388911</v>
+        <v>1.08461986380387</v>
       </c>
       <c r="S24" t="n">
         <v>1.28482958847445</v>
@@ -4998,13 +4998,13 @@
         <v>0.73139397982921</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.470033395508338</v>
+        <v>-0.46893664849548</v>
       </c>
       <c r="Q25" t="n">
-        <v>-1.20790582999914</v>
+        <v>-1.23529635203125</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.284037522573861</v>
+        <v>-0.290828794075275</v>
       </c>
       <c r="S25" t="n">
         <v>0.610223646623665</v>
@@ -5174,13 +5174,13 @@
         <v>0.725911218773256</v>
       </c>
       <c r="P26" t="n">
-        <v>0.508173623202598</v>
+        <v>0.515280198183329</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.92188393824763</v>
+        <v>0.942788616157528</v>
       </c>
       <c r="R26" t="n">
-        <v>0.0623094739451889</v>
+        <v>0.0628580036650769</v>
       </c>
       <c r="S26" t="n">
         <v>0.073158722043429</v>
@@ -5350,13 +5350,13 @@
         <v>-0.362693429284501</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.0242351267606668</v>
+        <v>-0.020399520945631</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0344715348114776</v>
+        <v>0.0352532127455389</v>
       </c>
       <c r="R27" t="n">
-        <v>-1.29925570284663</v>
+        <v>-1.32756152395969</v>
       </c>
       <c r="S27" t="n">
         <v>-0.0119857172192911</v>
@@ -5526,13 +5526,13 @@
         <v>0.293342521575321</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.276107239047984</v>
+        <v>-0.273819064436975</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.833142697904015</v>
+        <v>0.852035075816329</v>
       </c>
       <c r="R28" t="n">
-        <v>-1.97454071986922</v>
+        <v>-2.01715721161747</v>
       </c>
       <c r="S28" t="n">
         <v>0.511980062858988</v>
@@ -5702,13 +5702,13 @@
         <v>0.494545209940255</v>
       </c>
       <c r="P29" t="n">
-        <v>0.711710868351421</v>
+        <v>0.720067918747888</v>
       </c>
       <c r="Q29" t="n">
-        <v>-1.82909451240444</v>
+        <v>-1.87057113441964</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.317022950813771</v>
+        <v>-0.324513251002927</v>
       </c>
       <c r="S29" t="n">
         <v>-1.21710701139933</v>
@@ -5878,13 +5878,13 @@
         <v>0.324408789338953</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.266015731732477</v>
+        <v>-0.263665557747366</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.123212775155093</v>
+        <v>0.126006753086738</v>
       </c>
       <c r="R30" t="n">
-        <v>-1.97454071986922</v>
+        <v>-2.01715721161747</v>
       </c>
       <c r="S30" t="n">
         <v>-1.08611556637976</v>
@@ -6054,13 +6054,13 @@
         <v>0.866929622757662</v>
       </c>
       <c r="P31" t="n">
-        <v>0.422957204801574</v>
+        <v>0.429540234147452</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.01062517859125</v>
+        <v>1.03354215649873</v>
       </c>
       <c r="R31" t="n">
-        <v>1.38722417491489</v>
+        <v>1.41585035692579</v>
       </c>
       <c r="S31" t="n">
         <v>0.728115947141277</v>
@@ -6230,13 +6230,13 @@
         <v>0.621661479437087</v>
       </c>
       <c r="P32" t="n">
-        <v>0.792005627093407</v>
+        <v>0.800855985836197</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.27684889962209</v>
+        <v>1.30580277752232</v>
       </c>
       <c r="R32" t="n">
-        <v>1.11784317762229</v>
+        <v>1.14076062534996</v>
       </c>
       <c r="S32" t="n">
         <v>-0.666942942317139</v>
@@ -6406,13 +6406,13 @@
         <v>1.0073419945482</v>
       </c>
       <c r="P33" t="n">
-        <v>0.314297036438038</v>
+        <v>0.320212488362844</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.92188393824763</v>
+        <v>0.942788616157528</v>
       </c>
       <c r="R33" t="n">
-        <v>1.0903553207557</v>
+        <v>1.11269024457691</v>
       </c>
       <c r="S33" t="n">
         <v>2.39170729888981</v>
@@ -6582,13 +6582,13 @@
         <v>0.262386071726014</v>
       </c>
       <c r="P34" t="n">
-        <v>0.562364504813988</v>
+        <v>0.569804013283931</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.211954015498708</v>
+        <v>0.216760293427937</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0558956406763179</v>
+        <v>0.0563082481513669</v>
       </c>
       <c r="S34" t="n">
         <v>-0.693141231321054</v>
@@ -6758,13 +6758,13 @@
         <v>0.304161619801461</v>
       </c>
       <c r="P35" t="n">
-        <v>0.135353829808903</v>
+        <v>0.140169905152587</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.123212775155093</v>
+        <v>0.126006753086738</v>
       </c>
       <c r="R35" t="n">
-        <v>0.238415010270484</v>
+        <v>0.242695576484378</v>
       </c>
       <c r="S35" t="n">
         <v>-0.136427589987883</v>
@@ -6932,13 +6932,13 @@
         <v>0.980111219125638</v>
       </c>
       <c r="P36" t="n">
-        <v>0.143511100433078</v>
+        <v>0.148377291746287</v>
       </c>
       <c r="Q36" t="n">
-        <v>-1.65161203171721</v>
+        <v>-1.68906405373724</v>
       </c>
       <c r="R36" t="n">
-        <v>0.471878541257399</v>
+        <v>0.481106677183429</v>
       </c>
       <c r="S36" t="n">
         <v>1.82189451305468</v>
@@ -7106,13 +7106,13 @@
         <v>-0.25860231582458</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0281624183220916</v>
+        <v>0.0323199398726138</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.675458387937445</v>
+        <v>-0.690775109984053</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.969401420447537</v>
+        <v>-0.990716954683167</v>
       </c>
       <c r="S37" t="n">
         <v>0.885305681164761</v>
@@ -7280,13 +7280,13 @@
         <v>-0.195318725861978</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.467965049023593</v>
+        <v>-0.46685559467342</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.320493426562984</v>
+        <v>-0.327760948619257</v>
       </c>
       <c r="R38" t="n">
-        <v>-1.75463786493649</v>
+        <v>-1.79259416543312</v>
       </c>
       <c r="S38" t="n">
         <v>1.71055178478805</v>
@@ -7454,13 +7454,13 @@
         <v>0.712920166241567</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.142267702332242</v>
+        <v>-0.13915725536418</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.54307262065294</v>
+        <v>1.57806339854592</v>
       </c>
       <c r="R39" t="n">
-        <v>1.27452396176186</v>
+        <v>1.30076179575631</v>
       </c>
       <c r="S39" t="n">
         <v>1.04249541518825</v>
@@ -7628,13 +7628,13 @@
         <v>0.774654103413132</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.578874527213365</v>
+        <v>-0.578446469409299</v>
       </c>
       <c r="Q40" t="n">
-        <v>-0.143010945875753</v>
+        <v>-0.146253867936859</v>
       </c>
       <c r="R40" t="n">
-        <v>0.411405256150898</v>
+        <v>0.419351839482733</v>
       </c>
       <c r="S40" t="n">
         <v>0.944251831423568</v>
@@ -7802,13 +7802,13 @@
         <v>-2.27560761159001</v>
       </c>
       <c r="P41" t="n">
-        <v>-1.82711789605368</v>
+        <v>-1.83435869337463</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.123212775155093</v>
+        <v>0.126006753086738</v>
       </c>
       <c r="R41" t="n">
-        <v>-0.316106688918218</v>
+        <v>-0.323577571643826</v>
       </c>
       <c r="S41" t="n">
         <v>-0.110229300983968</v>
@@ -7976,13 +7976,13 @@
         <v>0.701918038158217</v>
       </c>
       <c r="P42" t="n">
-        <v>0.978685101450939</v>
+        <v>0.988682366221351</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.18810765927848</v>
+        <v>1.21504923718112</v>
       </c>
       <c r="R42" t="n">
-        <v>0.767831133521032</v>
+        <v>0.783331110173201</v>
       </c>
       <c r="S42" t="n">
         <v>0.859107392160847</v>
@@ -8150,13 +8150,13 @@
         <v>-0.874595401257201</v>
       </c>
       <c r="P43" t="n">
-        <v>-1.81448950677264</v>
+        <v>-1.82165271883236</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.7444014575604</v>
+        <v>0.76128153547513</v>
       </c>
       <c r="R43" t="n">
-        <v>0.065974521527401</v>
+        <v>0.0666007211014827</v>
       </c>
       <c r="S43" t="n">
         <v>0.472682629353117</v>
@@ -8324,13 +8324,13 @@
         <v>0.543589077011985</v>
       </c>
       <c r="P44" t="n">
-        <v>0.702184319760572</v>
+        <v>0.710482841729965</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.18810765927848</v>
+        <v>1.21504923718112</v>
       </c>
       <c r="R44" t="n">
-        <v>0.297788781102321</v>
+        <v>0.303327598954152</v>
       </c>
       <c r="S44" t="n">
         <v>-0.935475404607257</v>
@@ -8498,13 +8498,13 @@
         <v>0.635124342267359</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0575433276704748</v>
+        <v>0.0618813572395922</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.566918976873169</v>
+        <v>0.579774454792732</v>
       </c>
       <c r="R45" t="n">
-        <v>0.420567875106429</v>
+        <v>0.428708633073748</v>
       </c>
       <c r="S45" t="n">
         <v>0.872206536662804</v>
@@ -8672,13 +8672,13 @@
         <v>0.282649510584146</v>
       </c>
       <c r="P46" t="n">
-        <v>-0.0118973652851027</v>
+        <v>-0.00798595974407987</v>
       </c>
       <c r="Q46" t="n">
-        <v>-1.91783575274806</v>
+        <v>-1.96132467476084</v>
       </c>
       <c r="R46" t="n">
-        <v>1.10318298729345</v>
+        <v>1.12578975560434</v>
       </c>
       <c r="S46" t="n">
         <v>0.701917658137364</v>
@@ -8846,13 +8846,13 @@
         <v>-1.81477096977866</v>
       </c>
       <c r="P47" t="n">
-        <v>0.791741481728153</v>
+        <v>0.800590217636334</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.409234666906599</v>
+        <v>-0.418514488960456</v>
       </c>
       <c r="R47" t="n">
-        <v>-1.70699224636774</v>
+        <v>-1.74393883875984</v>
       </c>
       <c r="S47" t="n">
         <v>-0.942024976858236</v>
@@ -9020,13 +9020,13 @@
         <v>0.81505489389443</v>
       </c>
       <c r="P48" t="n">
-        <v>0.768052259915925</v>
+        <v>0.776755455928092</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.833142697904015</v>
+        <v>0.852035075816329</v>
       </c>
       <c r="R48" t="n">
-        <v>1.26902639038855</v>
+        <v>1.2951477196017</v>
       </c>
       <c r="S48" t="n">
         <v>0.898404825666718</v>
@@ -9194,13 +9194,13 @@
         <v>0.461807269480779</v>
       </c>
       <c r="P49" t="n">
-        <v>-0.163308001085708</v>
+        <v>-0.160326819777657</v>
       </c>
       <c r="Q49" t="n">
-        <v>-0.143010945875753</v>
+        <v>-0.146253867936859</v>
       </c>
       <c r="R49" t="n">
-        <v>-0.0870412150299569</v>
+        <v>-0.0896577318684609</v>
       </c>
       <c r="S49" t="n">
         <v>0.0797082942944081</v>
@@ -9368,13 +9368,13 @@
         <v>0.442324758013405</v>
       </c>
       <c r="P50" t="n">
-        <v>0.860282450753235</v>
+        <v>0.869552283039498</v>
       </c>
       <c r="Q50" t="n">
-        <v>-0.675458387937445</v>
+        <v>-0.690775109984053</v>
       </c>
       <c r="R50" t="n">
-        <v>0.59557389715706</v>
+        <v>0.607423390662127</v>
       </c>
       <c r="S50" t="n">
         <v>-1.32844973966597</v>
@@ -9542,13 +9542,13 @@
         <v>-0.121622770689255</v>
       </c>
       <c r="P51" t="n">
-        <v>0.215686614618895</v>
+        <v>0.220996231930336</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.566918976873169</v>
+        <v>0.579774454792732</v>
       </c>
       <c r="R51" t="n">
-        <v>0.566253516499363</v>
+        <v>0.57748165117088</v>
       </c>
       <c r="S51" t="n">
         <v>-0.0905805842310331</v>
@@ -9718,13 +9718,13 @@
         <v>-0.253074814136863</v>
       </c>
       <c r="P52" t="n">
-        <v>-0.55850817261161</v>
+        <v>-0.557954989670279</v>
       </c>
       <c r="Q52" t="n">
-        <v>-1.91783575274806</v>
+        <v>-1.96132467476084</v>
       </c>
       <c r="R52" t="n">
-        <v>0.683535039130152</v>
+        <v>0.697248609135867</v>
       </c>
       <c r="S52" t="n">
         <v>-0.915826687854322</v>
@@ -9894,13 +9894,13 @@
         <v>0.619212946680644</v>
       </c>
       <c r="P53" t="n">
-        <v>0.545909402921401</v>
+        <v>0.55324781588735</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.45433138030932</v>
+        <v>1.48730985820472</v>
       </c>
       <c r="R53" t="n">
-        <v>1.22138077181979</v>
+        <v>1.24649239292842</v>
       </c>
       <c r="S53" t="n">
         <v>1.42892017799598</v>
@@ -10070,13 +10070,13 @@
         <v>0.636458426559906</v>
       </c>
       <c r="P54" t="n">
-        <v>-3.73795870952598</v>
+        <v>-3.75693917375107</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.566918976873169</v>
+        <v>0.579774454792732</v>
       </c>
       <c r="R54" t="n">
-        <v>-1.25710765565119</v>
+        <v>-1.28452027344102</v>
       </c>
       <c r="S54" t="n">
         <v>-0.208472884748646</v>
@@ -10246,13 +10246,13 @@
         <v>0.318055619628716</v>
       </c>
       <c r="P55" t="n">
-        <v>0.773494061862328</v>
+        <v>0.782230690770505</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.211954015498708</v>
+        <v>0.216760293427937</v>
       </c>
       <c r="R55" t="n">
-        <v>1.30476060431511</v>
+        <v>1.33163921460666</v>
       </c>
       <c r="S55" t="n">
         <v>-0.326365185266258</v>
@@ -10422,13 +10422,13 @@
         <v>0.647070090947876</v>
       </c>
       <c r="P56" t="n">
-        <v>0.687985657581973</v>
+        <v>0.696196946976425</v>
       </c>
       <c r="Q56" t="n">
-        <v>-0.143010945875753</v>
+        <v>-0.146253867936859</v>
       </c>
       <c r="R56" t="n">
-        <v>1.28093779503074</v>
+        <v>1.30731155127002</v>
       </c>
       <c r="S56" t="n">
         <v>0.125555300051257</v>
@@ -10598,13 +10598,13 @@
         <v>0.854536467759523</v>
       </c>
       <c r="P57" t="n">
-        <v>-1.24863037914744</v>
+        <v>-1.25231711235756</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.389436496185939</v>
+        <v>0.398267374110335</v>
       </c>
       <c r="R57" t="n">
-        <v>0.841132085165275</v>
+        <v>0.858185458901318</v>
       </c>
       <c r="S57" t="n">
         <v>0.538178351862902</v>
@@ -10774,13 +10774,13 @@
         <v>0.616536643435231</v>
       </c>
       <c r="P58" t="n">
-        <v>-0.292584070122288</v>
+        <v>-0.290397124513237</v>
       </c>
       <c r="Q58" t="n">
-        <v>-1.20790582999914</v>
+        <v>-1.23529635203125</v>
       </c>
       <c r="R58" t="n">
-        <v>0.295039995415662</v>
+        <v>0.300520560876848</v>
       </c>
       <c r="S58" t="n">
         <v>0.754314236145192</v>
@@ -10950,13 +10950,13 @@
         <v>0.632671742180757</v>
       </c>
       <c r="P59" t="n">
-        <v>0.602240269413511</v>
+        <v>0.609924763332083</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.92188393824763</v>
+        <v>0.942788616157528</v>
       </c>
       <c r="R59" t="n">
-        <v>-0.1603421666742</v>
+        <v>-0.164512080596578</v>
       </c>
       <c r="S59" t="n">
         <v>-0.116778873234946</v>
@@ -11126,13 +11126,13 @@
         <v>-0.619813772691909</v>
       </c>
       <c r="P60" t="n">
-        <v>0.162075970063058</v>
+        <v>0.167056218698069</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.0344715348114776</v>
+        <v>0.0352532127455389</v>
       </c>
       <c r="R60" t="n">
-        <v>-0.112696548105442</v>
+        <v>-0.115856753923302</v>
       </c>
       <c r="S60" t="n">
         <v>-0.123328445485926</v>
@@ -11302,13 +11302,13 @@
         <v>0.310998801800763</v>
       </c>
       <c r="P61" t="n">
-        <v>-0.395506376438518</v>
+        <v>-0.393951756444788</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.833142697904015</v>
+        <v>0.852035075816329</v>
       </c>
       <c r="R61" t="n">
-        <v>-1.67858812760559</v>
+        <v>-1.7149327786277</v>
       </c>
       <c r="S61" t="n">
         <v>1.24553215496858</v>
@@ -11478,13 +11478,13 @@
         <v>0.404783300634729</v>
       </c>
       <c r="P62" t="n">
-        <v>0.767454028381762</v>
+        <v>0.776153549028146</v>
       </c>
       <c r="Q62" t="n">
-        <v>-1.82909451240444</v>
+        <v>-1.87057113441964</v>
       </c>
       <c r="R62" t="n">
-        <v>-0.0677997152233431</v>
+        <v>-0.0700084653273303</v>
       </c>
       <c r="S62" t="n">
         <v>-1.15161128888955</v>
@@ -11654,13 +11654,13 @@
         <v>0.187551264108434</v>
       </c>
       <c r="P63" t="n">
-        <v>-0.240766422576618</v>
+        <v>-0.238261123958958</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.123212775155093</v>
+        <v>0.126006753086738</v>
       </c>
       <c r="R63" t="n">
-        <v>-1.17464408505142</v>
+        <v>-1.20030913112189</v>
       </c>
       <c r="S63" t="n">
         <v>-1.04026856062291</v>
@@ -11830,13 +11830,13 @@
         <v>0.821094879182332</v>
       </c>
       <c r="P64" t="n">
-        <v>0.474905566956014</v>
+        <v>0.481807752384182</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.01062517859125</v>
+        <v>1.03354215649873</v>
       </c>
       <c r="R64" t="n">
-        <v>1.53932364957669</v>
+        <v>1.57117313053663</v>
       </c>
       <c r="S64" t="n">
         <v>0.996648409431395</v>
@@ -12006,13 +12006,13 @@
         <v>0.485800450095818</v>
       </c>
       <c r="P65" t="n">
-        <v>0.877791417959126</v>
+        <v>0.88716882040057</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.27684889962209</v>
+        <v>1.30580277752232</v>
       </c>
       <c r="R65" t="n">
-        <v>0.98406894087155</v>
+        <v>1.00415143892115</v>
       </c>
       <c r="S65" t="n">
         <v>-0.968223265862149</v>
@@ -12182,13 +12182,13 @@
         <v>0.997413641627143</v>
       </c>
       <c r="P66" t="n">
-        <v>0.232118968774371</v>
+        <v>0.237529541834127</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.92188393824763</v>
+        <v>0.942788616157528</v>
       </c>
       <c r="R66" t="n">
-        <v>1.12150822520451</v>
+        <v>1.14450334278636</v>
       </c>
       <c r="S66" t="n">
         <v>2.54234746066232</v>
@@ -12358,13 +12358,13 @@
         <v>-0.351105605658082</v>
       </c>
       <c r="P67" t="n">
-        <v>0.660250733748699</v>
+        <v>0.668291627595223</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.211954015498708</v>
+        <v>0.216760293427937</v>
       </c>
       <c r="R67" t="n">
-        <v>0.400410113404262</v>
+        <v>0.408123687173516</v>
       </c>
       <c r="S67" t="n">
         <v>-0.797934387336709</v>
@@ -12534,13 +12534,13 @@
         <v>0.0662838153819746</v>
       </c>
       <c r="P68" t="n">
-        <v>0.12482739934058</v>
+        <v>0.129578803265003</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.389436496185939</v>
+        <v>0.398267374110335</v>
       </c>
       <c r="R68" t="n">
-        <v>0.140283361256753</v>
+        <v>0.142484317124611</v>
       </c>
       <c r="S68" t="n">
         <v>-0.260869462756473</v>
@@ -12708,13 +12708,13 @@
         <v>0.869821494501567</v>
       </c>
       <c r="P69" t="n">
-        <v>0.150554750494226</v>
+        <v>0.155464216006376</v>
       </c>
       <c r="Q69" t="n">
-        <v>-0.608902457679733</v>
+        <v>-0.622709954728153</v>
       </c>
       <c r="R69" t="n">
-        <v>-0.02473540613235</v>
+        <v>-0.0260315354495616</v>
       </c>
       <c r="S69" t="n">
         <v>1.74329964604294</v>
@@ -12882,13 +12882,13 @@
         <v>-1.42945244705181</v>
       </c>
       <c r="P70" t="n">
-        <v>-0.733798839601401</v>
+        <v>-0.734322593068041</v>
       </c>
       <c r="Q70" t="n">
-        <v>-0.426095502571886</v>
+        <v>-0.435757661625284</v>
       </c>
       <c r="R70" t="n">
-        <v>-1.17006277557365</v>
+        <v>-1.19563073432639</v>
       </c>
       <c r="S70" t="n">
         <v>0.806710814153019</v>
@@ -13056,13 +13056,13 @@
         <v>-2.93154187919583</v>
       </c>
       <c r="P71" t="n">
-        <v>-0.314298992064392</v>
+        <v>-0.31224545680991</v>
       </c>
       <c r="Q71" t="n">
-        <v>-1.04728418497719</v>
+        <v>-1.07103244401368</v>
       </c>
       <c r="R71" t="n">
-        <v>-1.97454071986922</v>
+        <v>-2.01715721161747</v>
       </c>
       <c r="S71" t="n">
         <v>0.616773218874644</v>
@@ -13230,13 +13230,13 @@
         <v>0.784366887835697</v>
       </c>
       <c r="P72" t="n">
-        <v>0.00485583381917229</v>
+        <v>0.00887016628936483</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.51822507335672</v>
+        <v>1.55265240725038</v>
       </c>
       <c r="R72" t="n">
-        <v>1.1801489865199</v>
+        <v>1.20438682176886</v>
       </c>
       <c r="S72" t="n">
         <v>0.832909103156933</v>
@@ -13404,13 +13404,13 @@
         <v>0.755924048025396</v>
       </c>
       <c r="P73" t="n">
-        <v>-0.534603356574528</v>
+        <v>-0.533903309187084</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.208404365884963</v>
+        <v>0.213130151814289</v>
       </c>
       <c r="R73" t="n">
-        <v>0.45996713661521</v>
+        <v>0.468942845515111</v>
       </c>
       <c r="S73" t="n">
         <v>0.911503970168675</v>
@@ -13578,13 +13578,13 @@
         <v>-3.59875078600573</v>
       </c>
       <c r="P74" t="n">
-        <v>-1.27998389077363</v>
+        <v>-1.28386325111426</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.23236450077774</v>
+        <v>0.237633607706412</v>
       </c>
       <c r="R74" t="n">
-        <v>0.307867661953405</v>
+        <v>0.313620071904268</v>
       </c>
       <c r="S74" t="n">
         <v>-0.27396860725843</v>
@@ -13752,13 +13752,13 @@
         <v>0.679458241013575</v>
       </c>
       <c r="P75" t="n">
-        <v>0.934966327353578</v>
+        <v>0.944694996309131</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.29282232288394</v>
+        <v>1.32213841478374</v>
       </c>
       <c r="R75" t="n">
-        <v>0.784323847640987</v>
+        <v>0.800173338637027</v>
       </c>
       <c r="S75" t="n">
         <v>0.603674074372686</v>
@@ -13926,13 +13926,13 @@
         <v>-1.36012073714098</v>
       </c>
       <c r="P76" t="n">
-        <v>-1.50326651125293</v>
+        <v>-1.5085176570251</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.895261566144546</v>
+        <v>0.915562554055168</v>
       </c>
       <c r="R76" t="n">
-        <v>-0.522265615417652</v>
+        <v>-0.534105427441654</v>
       </c>
       <c r="S76" t="n">
         <v>-0.254319890505495</v>
@@ -14100,13 +14100,13 @@
         <v>0.524850886963929</v>
       </c>
       <c r="P77" t="n">
-        <v>0.669234392315072</v>
+        <v>0.677330479225511</v>
       </c>
       <c r="Q77" t="n">
-        <v>-0.89109960197243</v>
+        <v>-0.911306213013166</v>
       </c>
       <c r="R77" t="n">
-        <v>0.463632184197422</v>
+        <v>0.472685562951516</v>
       </c>
       <c r="S77" t="n">
         <v>-1.00752069936802</v>
@@ -14274,13 +14274,13 @@
         <v>0.671071406223236</v>
       </c>
       <c r="P78" t="n">
-        <v>0.0701302956988629</v>
+        <v>0.074545656048726</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.290933719404525</v>
+        <v>0.297530944331604</v>
       </c>
       <c r="R78" t="n">
-        <v>-0.166755999943072</v>
+        <v>-0.171061836110288</v>
       </c>
       <c r="S78" t="n">
         <v>0.84600824765889</v>
@@ -14448,13 +14448,13 @@
         <v>-0.415845299818037</v>
       </c>
       <c r="P79" t="n">
-        <v>-0.00743066036827705</v>
+        <v>-0.00349181265231594</v>
       </c>
       <c r="Q79" t="n">
-        <v>-0.549445826649511</v>
+        <v>-0.56190508269955</v>
       </c>
       <c r="R79" t="n">
-        <v>0.872284989614079</v>
+        <v>0.889998557110767</v>
       </c>
       <c r="S79" t="n">
         <v>-0.31981561301528</v>
@@ -14622,13 +14622,13 @@
         <v>-1.84942462274359</v>
       </c>
       <c r="P80" t="n">
-        <v>0.738848579205926</v>
+        <v>0.747372356042255</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.296258193825143</v>
+        <v>0.302976156752076</v>
       </c>
       <c r="R80" t="n">
-        <v>-1.04086984830067</v>
+        <v>-1.06369994469308</v>
       </c>
       <c r="S80" t="n">
         <v>-0.83723182084258</v>
@@ -14796,13 +14796,13 @@
         <v>0.689150688785339</v>
       </c>
       <c r="P81" t="n">
-        <v>0.756752066867376</v>
+        <v>0.765385837681271</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.653885392409912</v>
+        <v>0.668712924327107</v>
       </c>
       <c r="R81" t="n">
-        <v>1.14074972501112</v>
+        <v>1.1641526093275</v>
       </c>
       <c r="S81" t="n">
         <v>0.996648409431395</v>
@@ -14970,13 +14970,13 @@
         <v>0.326568541654021</v>
       </c>
       <c r="P82" t="n">
-        <v>0.112229906239797</v>
+        <v>0.116903914720399</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.463091725671139</v>
+        <v>0.473592812593529</v>
       </c>
       <c r="R82" t="n">
-        <v>0.208911377233676</v>
+        <v>0.212566701121311</v>
       </c>
       <c r="S82" t="n">
         <v>0.302393750827676</v>
@@ -15144,13 +15144,13 @@
         <v>0.376145228976738</v>
       </c>
       <c r="P83" t="n">
-        <v>0.857077396449888</v>
+        <v>0.866327537786666</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.336191751979769</v>
+        <v>0.343815249905615</v>
       </c>
       <c r="R83" t="n">
-        <v>0.70094401514566</v>
+        <v>0.715026516958794</v>
       </c>
       <c r="S83" t="n">
         <v>-1.33499931191694</v>
@@ -15318,13 +15318,13 @@
         <v>-0.373764701980574</v>
       </c>
       <c r="P84" t="n">
-        <v>0.105016157428016</v>
+        <v>0.109645846670939</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.763924530435995</v>
+        <v>0.781247314350194</v>
       </c>
       <c r="R84" t="n">
-        <v>0.635889420561394</v>
+        <v>0.648593282462591</v>
       </c>
       <c r="S84" t="n">
         <v>-0.477005347038763</v>
@@ -15494,13 +15494,13 @@
         <v>-0.226690043387625</v>
       </c>
       <c r="P85" t="n">
-        <v>-0.451632852815097</v>
+        <v>-0.450423058058779</v>
       </c>
       <c r="Q85" t="n">
-        <v>-1.2389652641194</v>
+        <v>-1.26706009115067</v>
       </c>
       <c r="R85" t="n">
-        <v>0.845713394643041</v>
+        <v>0.862863855696825</v>
       </c>
       <c r="S85" t="n">
         <v>-1.04681813287389</v>
@@ -15670,13 +15670,13 @@
         <v>-0.44453217943795</v>
       </c>
       <c r="P86" t="n">
-        <v>0.684864464339318</v>
+        <v>0.693056578002985</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.63181386099655</v>
+        <v>1.66881693888712</v>
       </c>
       <c r="R86" t="n">
-        <v>0.973073798124913</v>
+        <v>0.992923286611928</v>
       </c>
       <c r="S86" t="n">
         <v>0.767413380647148</v>
@@ -15846,13 +15846,13 @@
         <v>0.61572317740319</v>
       </c>
       <c r="P87" t="n">
-        <v>-3.77122404962485</v>
+        <v>-3.79040888671526</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.452442776829905</v>
+        <v>0.462702387752586</v>
       </c>
       <c r="R87" t="n">
-        <v>-1.64010512799236</v>
+        <v>-1.67563424554544</v>
       </c>
       <c r="S87" t="n">
         <v>-0.0512831507251616</v>
@@ -16022,13 +16022,13 @@
         <v>0.10140521131533</v>
       </c>
       <c r="P88" t="n">
-        <v>0.758423855785775</v>
+        <v>0.767067897599167</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.818944099449037</v>
+        <v>0.837514509361737</v>
       </c>
       <c r="R88" t="n">
-        <v>1.21954824802868</v>
+        <v>1.24462103421022</v>
       </c>
       <c r="S88" t="n">
         <v>-0.247770318254516</v>
@@ -16198,13 +16198,13 @@
         <v>0.431326697260216</v>
       </c>
       <c r="P89" t="n">
-        <v>0.670680061936221</v>
+        <v>0.678785030632985</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.5873294621522</v>
+        <v>0.600647769071208</v>
       </c>
       <c r="R89" t="n">
-        <v>1.26536134280633</v>
+        <v>1.29140500216529</v>
       </c>
       <c r="S89" t="n">
         <v>0.145204016804193</v>
@@ -16374,13 +16374,13 @@
         <v>0.706928988915587</v>
       </c>
       <c r="P90" t="n">
-        <v>-1.07140615450325</v>
+        <v>-1.07400407207263</v>
       </c>
       <c r="Q90" t="n">
-        <v>-0.423433265361577</v>
+        <v>-0.433035055415047</v>
       </c>
       <c r="R90" t="n">
-        <v>0.776077490581009</v>
+        <v>0.791752224405114</v>
       </c>
       <c r="S90" t="n">
         <v>1.04249541518825</v>
@@ -16550,13 +16550,13 @@
         <v>-0.0346266458926679</v>
       </c>
       <c r="P91" t="n">
-        <v>-0.0714427925975605</v>
+        <v>-0.0678972173640047</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.800308438976877</v>
+        <v>0.818456265890085</v>
       </c>
       <c r="R91" t="n">
-        <v>-0.120942905165419</v>
+        <v>-0.124277868155215</v>
       </c>
       <c r="S91" t="n">
         <v>0.119005727800279</v>
@@ -16726,13 +16726,13 @@
         <v>0.382648889902903</v>
       </c>
       <c r="P92" t="n">
-        <v>0.589363013098114</v>
+        <v>0.596968392786596</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.474628086915809</v>
+        <v>0.485390772837886</v>
       </c>
       <c r="R92" t="n">
-        <v>-0.0732972865966612</v>
+        <v>-0.0756225414819389</v>
       </c>
       <c r="S92" t="n">
         <v>-0.221572029250603</v>
@@ -16902,13 +16902,13 @@
         <v>-1.04937264557129</v>
       </c>
       <c r="P93" t="n">
-        <v>0.190880037540532</v>
+        <v>0.196037250240412</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.978678332067544</v>
+        <v>1.0008708819759</v>
       </c>
       <c r="R93" t="n">
-        <v>-0.356422212322552</v>
+        <v>-0.36474746344429</v>
       </c>
       <c r="S93" t="n">
         <v>-0.27396860725843</v>
@@ -17078,13 +17078,13 @@
         <v>0.0731087953907957</v>
       </c>
       <c r="P94" t="n">
-        <v>-0.694231357767496</v>
+        <v>-0.694512019787852</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.620163721079338</v>
+        <v>0.634226578997451</v>
       </c>
       <c r="R94" t="n">
-        <v>-0.553418519866456</v>
+        <v>-0.565918525651104</v>
       </c>
       <c r="S94" t="n">
         <v>0.84600824765889</v>
@@ -17254,13 +17254,13 @@
         <v>0.3821892815948</v>
       </c>
       <c r="P95" t="n">
-        <v>0.801679187179314</v>
+        <v>0.810588977546332</v>
       </c>
       <c r="Q95" t="n">
-        <v>-1.43952046729597</v>
+        <v>-1.47216309232178</v>
       </c>
       <c r="R95" t="n">
-        <v>-0.545172162806478</v>
+        <v>-0.557497411419191</v>
       </c>
       <c r="S95" t="n">
         <v>-1.21055743914835</v>
@@ -17430,13 +17430,13 @@
         <v>-0.257707503189335</v>
       </c>
       <c r="P96" t="n">
-        <v>-0.253834488268973</v>
+        <v>-0.251409476160386</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.476402911722681</v>
+        <v>0.487205843644709</v>
       </c>
       <c r="R96" t="n">
-        <v>-1.01796330091185</v>
+        <v>-1.04030796071554</v>
       </c>
       <c r="S96" t="n">
         <v>-0.974772838113128</v>
@@ -17606,13 +17606,13 @@
         <v>0.733228345731462</v>
       </c>
       <c r="P97" t="n">
-        <v>0.266251439031159</v>
+        <v>0.271871712359302</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.07185663442834</v>
+        <v>1.09616209933415</v>
       </c>
       <c r="R97" t="n">
-        <v>1.46052512655913</v>
+        <v>1.4907047056539</v>
       </c>
       <c r="S97" t="n">
         <v>0.734665519392256</v>
@@ -17782,13 +17782,13 @@
         <v>0.219426930573947</v>
       </c>
       <c r="P98" t="n">
-        <v>0.781902236631649</v>
+        <v>0.790690522993638</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.30790833374236</v>
+        <v>1.33756651664174</v>
       </c>
       <c r="R98" t="n">
-        <v>0.352764494835504</v>
+        <v>0.35946836050024</v>
       </c>
       <c r="S98" t="n">
         <v>-1.28260273390912</v>
@@ -17958,13 +17958,13 @@
         <v>1.02123599437545</v>
       </c>
       <c r="P99" t="n">
-        <v>0.152595256464895</v>
+        <v>0.157517258270096</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.26176288876368</v>
+        <v>1.29037467566432</v>
       </c>
       <c r="R99" t="n">
-        <v>1.22687834319311</v>
+        <v>1.25210646908303</v>
       </c>
       <c r="S99" t="n">
         <v>2.82397906745439</v>
@@ -18134,13 +18134,13 @@
         <v>-0.65123796550964</v>
       </c>
       <c r="P100" t="n">
-        <v>0.614045665936994</v>
+        <v>0.621802688881469</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.471078437302065</v>
+        <v>0.481760631224238</v>
       </c>
       <c r="R100" t="n">
-        <v>-1.17830913263363</v>
+        <v>-1.2040518485583</v>
       </c>
       <c r="S100" t="n">
         <v>-0.922376260105301</v>
@@ -18310,13 +18310,13 @@
         <v>-0.0723999410904753</v>
       </c>
       <c r="P101" t="n">
-        <v>0.141951692126376</v>
+        <v>0.146808302874861</v>
       </c>
       <c r="Q101" t="n">
-        <v>-0.0542697055321378</v>
+        <v>-0.0555003275956601</v>
       </c>
       <c r="R101" t="n">
-        <v>0.0301486814112772</v>
+        <v>0.0300156581606157</v>
       </c>
       <c r="S101" t="n">
         <v>-0.594897647556377</v>
@@ -18486,13 +18486,13 @@
         <v>0.879208892511316</v>
       </c>
       <c r="P102" t="n">
-        <v>0.21375441503835</v>
+        <v>0.219052161460647</v>
       </c>
       <c r="Q102" t="n">
-        <v>-1.38183866107262</v>
+        <v>-1.4131732911</v>
       </c>
       <c r="R102" t="n">
-        <v>-0.355505950426999</v>
+        <v>-0.363811784085189</v>
       </c>
       <c r="S102" t="n">
         <v>0.616773218874644</v>
@@ -18662,13 +18662,13 @@
         <v>-2.2454483584521</v>
       </c>
       <c r="P103" t="n">
-        <v>-0.440133701946446</v>
+        <v>-0.438853259651136</v>
       </c>
       <c r="Q103" t="n">
-        <v>-1.61611553557977</v>
+        <v>-1.65276263760076</v>
       </c>
       <c r="R103" t="n">
-        <v>-1.7097410320544</v>
+        <v>-1.74674587683715</v>
       </c>
       <c r="S103" t="n">
         <v>-0.156076306740818</v>
@@ -18838,13 +18838,13 @@
         <v>0.0634814249015946</v>
       </c>
       <c r="P104" t="n">
-        <v>-0.23352551228769</v>
+        <v>-0.230975727559897</v>
       </c>
       <c r="Q104" t="n">
-        <v>-1.25138903776751</v>
+        <v>-1.27976558679843</v>
       </c>
       <c r="R104" t="n">
-        <v>-1.97454071986922</v>
+        <v>-2.01715721161747</v>
       </c>
       <c r="S104" t="n">
         <v>0.32859203983159</v>
@@ -19014,13 +19014,13 @@
         <v>0.785981617909298</v>
       </c>
       <c r="P105" t="n">
-        <v>-0.0629022056271481</v>
+        <v>-0.0593041594365709</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.52798660979452</v>
+        <v>1.56263529668792</v>
       </c>
       <c r="R105" t="n">
-        <v>1.22138077181979</v>
+        <v>1.24649239292842</v>
       </c>
       <c r="S105" t="n">
         <v>0.819809958654977</v>
@@ -19190,13 +19190,13 @@
         <v>0.801291048632303</v>
       </c>
       <c r="P106" t="n">
-        <v>-0.304710651113034</v>
+        <v>-0.302598207796646</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.529647655928851</v>
+        <v>0.541657967849429</v>
       </c>
       <c r="R106" t="n">
-        <v>-0.158509642883094</v>
+        <v>-0.162640721878375</v>
       </c>
       <c r="S106" t="n">
         <v>0.41373647909431</v>
@@ -19366,13 +19366,13 @@
         <v>-2.87784905375098</v>
       </c>
       <c r="P107" t="n">
-        <v>-1.07037062318702</v>
+        <v>-1.07296217874412</v>
       </c>
       <c r="Q107" t="n">
-        <v>-0.272573156777431</v>
+        <v>-0.278754036835009</v>
       </c>
       <c r="R107" t="n">
-        <v>-0.70826678021492</v>
+        <v>-0.724048337339251</v>
       </c>
       <c r="S107" t="n">
         <v>-0.666942942317139</v>
@@ -19542,13 +19542,13 @@
         <v>0.634217327641634</v>
       </c>
       <c r="P108" t="n">
-        <v>0.929775090033856</v>
+        <v>0.93947186549178</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.21650485618843</v>
+        <v>1.24409037009031</v>
       </c>
       <c r="R108" t="n">
-        <v>0.795318990387623</v>
+        <v>0.811401490946245</v>
       </c>
       <c r="S108" t="n">
         <v>-0.0709318674780978</v>
@@ -19718,13 +19718,13 @@
         <v>-2.1309204758011</v>
       </c>
       <c r="P109" t="n">
-        <v>-1.23073605848453</v>
+        <v>-1.23431285403653</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.261649110091133</v>
+        <v>0.267582276019008</v>
       </c>
       <c r="R109" t="n">
-        <v>-0.167672261838625</v>
+        <v>-0.171997515469389</v>
       </c>
       <c r="S109" t="n">
         <v>-0.693141231321054</v>
@@ -19894,13 +19894,13 @@
         <v>0.457316936983914</v>
       </c>
       <c r="P110" t="n">
-        <v>0.6938128129854</v>
+        <v>0.702059902778792</v>
       </c>
       <c r="Q110" t="n">
-        <v>-1.91783575274806</v>
+        <v>-1.96132467476084</v>
       </c>
       <c r="R110" t="n">
-        <v>0.137442949380539</v>
+        <v>0.139583711111397</v>
       </c>
       <c r="S110" t="n">
         <v>-1.17780957789346</v>
@@ -20070,13 +20070,13 @@
         <v>0.723926361655077</v>
       </c>
       <c r="P111" t="n">
-        <v>-0.00492263747221518</v>
+        <v>-0.00096838117110132</v>
       </c>
       <c r="Q111" t="n">
-        <v>-0.0560445303390103</v>
+        <v>-0.0573153984024842</v>
       </c>
       <c r="R111" t="n">
-        <v>-0.0732972865966612</v>
+        <v>-0.0756225414819389</v>
       </c>
       <c r="S111" t="n">
         <v>0.649521080129536</v>
@@ -20246,13 +20246,13 @@
         <v>-1.22029812822368</v>
       </c>
       <c r="P112" t="n">
-        <v>0.0608760409164128</v>
+        <v>0.065234545735545</v>
       </c>
       <c r="Q112" t="n">
-        <v>-0.965642243861067</v>
+        <v>-0.987539186899773</v>
       </c>
       <c r="R112" t="n">
-        <v>0.704609062727872</v>
+        <v>0.7187692343952</v>
       </c>
       <c r="S112" t="n">
         <v>-0.830682248591602</v>
@@ -20422,13 +20422,13 @@
         <v>-1.53420653532784</v>
       </c>
       <c r="P113" t="n">
-        <v>0.677479937739975</v>
+        <v>0.685626682955412</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.172907869747517</v>
+        <v>0.176828735677809</v>
       </c>
       <c r="R113" t="n">
-        <v>-1.1691465136781</v>
+        <v>-1.19469505496729</v>
       </c>
       <c r="S113" t="n">
         <v>-0.909277115603344</v>
@@ -20598,13 +20598,13 @@
         <v>0.659373764682491</v>
       </c>
       <c r="P114" t="n">
-        <v>0.774227761263761</v>
+        <v>0.782968897814082</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.00518692549808421</v>
+        <v>0.00530454443294297</v>
       </c>
       <c r="R114" t="n">
-        <v>1.04912353545582</v>
+        <v>1.07058467341735</v>
       </c>
       <c r="S114" t="n">
         <v>0.45958348485116</v>
@@ -20774,13 +20774,13 @@
         <v>-0.327303589560573</v>
       </c>
       <c r="P115" t="n">
-        <v>0.098534410425347</v>
+        <v>0.103124277643205</v>
       </c>
       <c r="Q115" t="n">
-        <v>-0.0329718078496701</v>
+        <v>-0.0337194779137723</v>
       </c>
       <c r="R115" t="n">
-        <v>-0.260214713289482</v>
+        <v>-0.266501130738637</v>
       </c>
       <c r="S115" t="n">
         <v>-0.215022456999624</v>
@@ -20950,13 +20950,13 @@
         <v>0.362239027159003</v>
       </c>
       <c r="P116" t="n">
-        <v>0.851645101020487</v>
+        <v>0.860861867866613</v>
       </c>
       <c r="Q116" t="n">
-        <v>-1.74035327206083</v>
+        <v>-1.77981759407844</v>
       </c>
       <c r="R116" t="n">
-        <v>0.46912975557074</v>
+        <v>0.478299639106125</v>
       </c>
       <c r="S116" t="n">
         <v>-1.40704460667771</v>
@@ -21126,13 +21126,13 @@
         <v>-0.656684120594152</v>
       </c>
       <c r="P117" t="n">
-        <v>0.0589669285914424</v>
+        <v>0.0633137043630163</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.52521059391167</v>
+        <v>0.537120290832369</v>
       </c>
       <c r="R117" t="n">
-        <v>0.852127227911912</v>
+        <v>0.869413611210535</v>
       </c>
       <c r="S117" t="n">
         <v>-0.758636953830839</v>
@@ -21302,13 +21302,13 @@
         <v>-0.555110684503396</v>
       </c>
       <c r="P118" t="n">
-        <v>-0.440042371479539</v>
+        <v>-0.438761368075606</v>
       </c>
       <c r="Q118" t="n">
-        <v>-1.24961421296064</v>
+        <v>-1.27795051599161</v>
       </c>
       <c r="R118" t="n">
-        <v>1.03537960702252</v>
+        <v>1.05654948303083</v>
       </c>
       <c r="S118" t="n">
         <v>-1.05336770512487</v>
@@ -21478,13 +21478,13 @@
         <v>-0.171191323351652</v>
       </c>
       <c r="P119" t="n">
-        <v>0.721336216815392</v>
+        <v>0.729752402637483</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.63181386099655</v>
+        <v>1.66881693888712</v>
       </c>
       <c r="R119" t="n">
-        <v>0.546095754797195</v>
+        <v>0.556896705270648</v>
       </c>
       <c r="S119" t="n">
         <v>-0.863430109846494</v>
@@ -21654,13 +21654,13 @@
         <v>0.484364682549266</v>
       </c>
       <c r="P120" t="n">
-        <v>-3.90152852008991</v>
+        <v>-3.92151391108758</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.250112748846463</v>
+        <v>0.255784315774652</v>
       </c>
       <c r="R120" t="n">
-        <v>-1.09767808582496</v>
+        <v>-1.12171206495737</v>
       </c>
       <c r="S120" t="n">
         <v>-0.313266040764301</v>
@@ -21830,13 +21830,13 @@
         <v>-0.00167720426486132</v>
       </c>
       <c r="P121" t="n">
-        <v>0.807492082807238</v>
+        <v>0.816437585965159</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.669858815671763</v>
+        <v>0.685048561588523</v>
       </c>
       <c r="R121" t="n">
-        <v>0.89977284648067</v>
+        <v>0.918068937883811</v>
       </c>
       <c r="S121" t="n">
         <v>-0.411509624528978</v>
@@ -22006,13 +22006,13 @@
         <v>0.334048361818635</v>
       </c>
       <c r="P122" t="n">
-        <v>0.73444604327886</v>
+        <v>0.742942772176422</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.405409919447789</v>
+        <v>0.41460301137175</v>
       </c>
       <c r="R122" t="n">
-        <v>1.17740020083324</v>
+        <v>1.20157978369155</v>
       </c>
       <c r="S122" t="n">
         <v>-0.725889092575946</v>
@@ -22182,13 +22182,13 @@
         <v>0.694385342701521</v>
       </c>
       <c r="P123" t="n">
-        <v>-1.21413360557842</v>
+        <v>-1.21760840034337</v>
       </c>
       <c r="Q123" t="n">
-        <v>-1.49808968592276</v>
+        <v>-1.53206042894697</v>
       </c>
       <c r="R123" t="n">
-        <v>0.227236615144737</v>
+        <v>0.23128028830334</v>
       </c>
       <c r="S123" t="n">
         <v>0.54472792411388</v>
@@ -22358,13 +22358,13 @@
         <v>-0.960952955218636</v>
       </c>
       <c r="P124" t="n">
-        <v>0.0883413870890033</v>
+        <v>0.0928686312469648</v>
       </c>
       <c r="Q124" t="n">
-        <v>-0.123487873000158</v>
+        <v>-0.126288089061795</v>
       </c>
       <c r="R124" t="n">
-        <v>-0.437053259131219</v>
+        <v>-0.447087247045219</v>
       </c>
       <c r="S124" t="n">
         <v>-0.195373740246688</v>
@@ -22534,13 +22534,13 @@
         <v>0.307614783107474</v>
       </c>
       <c r="P125" t="n">
-        <v>0.525221863852383</v>
+        <v>0.532433178414306</v>
       </c>
       <c r="Q125" t="n">
-        <v>-0.352440273086685</v>
+        <v>-0.360432223142089</v>
       </c>
       <c r="R125" t="n">
-        <v>-0.177751142689708</v>
+        <v>-0.182289988419506</v>
       </c>
       <c r="S125" t="n">
         <v>-0.719339520324967</v>
@@ -22710,13 +22710,13 @@
         <v>-0.472295775111498</v>
       </c>
       <c r="P126" t="n">
-        <v>0.221861776448268</v>
+        <v>0.227209332211956</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.761262293225687</v>
+        <v>0.778524708139958</v>
       </c>
       <c r="R126" t="n">
-        <v>-0.246470784856186</v>
+        <v>-0.252465940352115</v>
       </c>
       <c r="S126" t="n">
         <v>-0.149526734489839</v>
@@ -22886,13 +22886,13 @@
         <v>-0.150797729928393</v>
       </c>
       <c r="P127" t="n">
-        <v>-0.672158243845515</v>
+        <v>-0.672303294880826</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.842016821938377</v>
+        <v>0.861110429850449</v>
       </c>
       <c r="R127" t="n">
-        <v>0.281296066982366</v>
+        <v>0.286485370490326</v>
       </c>
       <c r="S127" t="n">
         <v>0.223798883815934</v>
@@ -23062,13 +23062,13 @@
         <v>0.198293083061531</v>
       </c>
       <c r="P128" t="n">
-        <v>0.840836530708299</v>
+        <v>0.849986892747557</v>
       </c>
       <c r="Q128" t="n">
-        <v>-1.71284348755431</v>
+        <v>-1.75168399657267</v>
       </c>
       <c r="R128" t="n">
-        <v>-1.18380670400695</v>
+        <v>-1.20966592471291</v>
       </c>
       <c r="S128" t="n">
         <v>-1.41359417892869</v>
@@ -23238,13 +23238,13 @@
         <v>-0.509686741274246</v>
       </c>
       <c r="P129" t="n">
-        <v>-0.0678924480159823</v>
+        <v>-0.0643250604668799</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.159596683695975</v>
+        <v>0.163215704626629</v>
       </c>
       <c r="R129" t="n">
-        <v>-0.270293594140566</v>
+        <v>-0.276793603688753</v>
       </c>
       <c r="S129" t="n">
         <v>-1.05336770512487</v>
@@ -23414,13 +23414,13 @@
         <v>0.659503919247617</v>
       </c>
       <c r="P130" t="n">
-        <v>0.275622148646877</v>
+        <v>0.281299992971395</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.879288142882695</v>
+        <v>0.899226916793752</v>
       </c>
       <c r="R130" t="n">
-        <v>1.46235765035024</v>
+        <v>1.49257606437211</v>
       </c>
       <c r="S130" t="n">
         <v>0.0993570110473433</v>
@@ -23590,13 +23590,13 @@
         <v>0.387074145117204</v>
       </c>
       <c r="P131" t="n">
-        <v>0.632430590780875</v>
+        <v>0.640300565517149</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.11090278017953</v>
+        <v>1.13609365708428</v>
       </c>
       <c r="R131" t="n">
-        <v>0.408656470464239</v>
+        <v>0.416544801405429</v>
       </c>
       <c r="S131" t="n">
         <v>-1.21055743914835</v>
@@ -23766,13 +23766,13 @@
         <v>1.00948547754263</v>
       </c>
       <c r="P132" t="n">
-        <v>0.171031448596891</v>
+        <v>0.176066717165647</v>
       </c>
       <c r="Q132" t="n">
-        <v>1.33985518026606</v>
+        <v>1.37023779116457</v>
       </c>
       <c r="R132" t="n">
-        <v>1.32400210412173</v>
+        <v>1.35128848114779</v>
       </c>
       <c r="S132" t="n">
         <v>2.47685173815253</v>
@@ -23942,13 +23942,13 @@
         <v>-0.796156939117681</v>
       </c>
       <c r="P133" t="n">
-        <v>0.622976699141395</v>
+        <v>0.630788591834407</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.449780539619597</v>
+        <v>0.45997978154235</v>
       </c>
       <c r="R133" t="n">
-        <v>-1.63644008041015</v>
+        <v>-1.67189152810903</v>
       </c>
       <c r="S133" t="n">
         <v>-1.2564044449052</v>
@@ -24118,13 +24118,13 @@
         <v>-0.0598725641970494</v>
       </c>
       <c r="P134" t="n">
-        <v>0.158952060672688</v>
+        <v>0.163913116889668</v>
       </c>
       <c r="Q134" t="n">
-        <v>-0.231752186219368</v>
+        <v>-0.237007408278058</v>
       </c>
       <c r="R134" t="n">
-        <v>-0.32444467216775</v>
+        <v>-0.332092253811649</v>
       </c>
       <c r="S134" t="n">
         <v>-0.562149786301484</v>
@@ -24294,13 +24294,13 @@
         <v>0.773328153780905</v>
       </c>
       <c r="P135" t="n">
-        <v>0.22815984396173</v>
+        <v>0.233546093275518</v>
       </c>
       <c r="Q135" t="n">
-        <v>-1.01178768883975</v>
+        <v>-1.0347310278772</v>
       </c>
       <c r="R135" t="n">
-        <v>-0.522265615417652</v>
+        <v>-0.534105427441654</v>
       </c>
       <c r="S135" t="n">
         <v>0.911503970168675</v>
@@ -24470,13 +24470,13 @@
         <v>-2.09041800206579</v>
       </c>
       <c r="P136" t="n">
-        <v>-0.0758741875940949</v>
+        <v>-0.0723558376012882</v>
       </c>
       <c r="Q136" t="n">
-        <v>-1.23009114008504</v>
+        <v>-1.25798473711655</v>
       </c>
       <c r="R136" t="n">
-        <v>-1.97454071986922</v>
+        <v>-2.01715721161747</v>
       </c>
       <c r="S136" t="n">
         <v>0.256546745070826</v>
@@ -24646,13 +24646,13 @@
         <v>0.581431516822516</v>
       </c>
       <c r="P137" t="n">
-        <v>-0.254356667667124</v>
+        <v>-0.251934863681451</v>
       </c>
       <c r="Q137" t="n">
-        <v>-1.22565407806786</v>
+        <v>-1.25344706009949</v>
       </c>
       <c r="R137" t="n">
-        <v>-1.97454071986922</v>
+        <v>-2.01715721161747</v>
       </c>
       <c r="S137" t="n">
         <v>1.44856889474891</v>
@@ -24822,13 +24822,13 @@
         <v>0.775093375070434</v>
       </c>
       <c r="P138" t="n">
-        <v>-0.103668187640164</v>
+        <v>-0.100320596142871</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.59542995245567</v>
+        <v>1.63160798734723</v>
       </c>
       <c r="R138" t="n">
-        <v>-0.485615139595531</v>
+        <v>-0.496678253077596</v>
       </c>
       <c r="S138" t="n">
         <v>0.610223646623665</v>
@@ -24998,13 +24998,13 @@
         <v>0.726236605186072</v>
       </c>
       <c r="P139" t="n">
-        <v>-0.304117851874301</v>
+        <v>-0.30200176656662</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.0531071952836367</v>
+        <v>0.0543114562171906</v>
       </c>
       <c r="R139" t="n">
-        <v>-0.525014401104312</v>
+        <v>-0.536912465518959</v>
       </c>
       <c r="S139" t="n">
         <v>0.865656964411826</v>
@@ -25174,13 +25174,13 @@
         <v>-3.24998535942862</v>
       </c>
       <c r="P140" t="n">
-        <v>-1.19332316082531</v>
+        <v>-1.19667010208839</v>
       </c>
       <c r="Q140" t="n">
-        <v>-0.510399680898321</v>
+        <v>-0.521973524949423</v>
       </c>
       <c r="R140" t="n">
-        <v>-1.79495338834083</v>
+        <v>-1.83376405723358</v>
       </c>
       <c r="S140" t="n">
         <v>-0.49010449154072</v>
@@ -25350,13 +25350,13 @@
         <v>0.67235668255386</v>
       </c>
       <c r="P141" t="n">
-        <v>0.915750261308999</v>
+        <v>0.925360872175683</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.888162266917056</v>
+        <v>0.908302270827872</v>
       </c>
       <c r="R141" t="n">
-        <v>0.844797132747487</v>
+        <v>0.861928176337724</v>
       </c>
       <c r="S141" t="n">
         <v>0.0993570110473433</v>
@@ -25526,13 +25526,13 @@
         <v>-2.05333208566506</v>
       </c>
       <c r="P142" t="n">
-        <v>-1.40847804878684</v>
+        <v>-1.41314684098572</v>
       </c>
       <c r="Q142" t="n">
-        <v>-0.00901167295689425</v>
+        <v>-0.00921602202164887</v>
       </c>
       <c r="R142" t="n">
-        <v>-0.653291066481737</v>
+        <v>-0.667907575793163</v>
       </c>
       <c r="S142" t="n">
         <v>-0.686591659070075</v>
@@ -25702,13 +25702,13 @@
         <v>0.532233091204698</v>
       </c>
       <c r="P143" t="n">
-        <v>0.730274379907544</v>
+        <v>0.738745479282191</v>
       </c>
       <c r="Q143" t="n">
-        <v>-1.91783575274806</v>
+        <v>-1.96132467476084</v>
       </c>
       <c r="R143" t="n">
-        <v>-0.615724328764062</v>
+        <v>-0.629544722070003</v>
       </c>
       <c r="S143" t="n">
         <v>-1.23675572815227</v>
@@ -25878,13 +25878,13 @@
         <v>0.734021475112701</v>
       </c>
       <c r="P144" t="n">
-        <v>0.0447703035236298</v>
+        <v>0.0490298592356968</v>
       </c>
       <c r="Q144" t="n">
-        <v>-0.196255690081922</v>
+        <v>-0.200705992141578</v>
       </c>
       <c r="R144" t="n">
-        <v>-0.3106091175449</v>
+        <v>-0.317963495489217</v>
       </c>
       <c r="S144" t="n">
         <v>0.367889473337461</v>
@@ -26054,13 +26054,13 @@
         <v>-1.52961451957697</v>
       </c>
       <c r="P145" t="n">
-        <v>0.0385598317739663</v>
+        <v>0.0427812320995958</v>
       </c>
       <c r="Q145" t="n">
-        <v>-1.09076739274556</v>
+        <v>-1.11550167878086</v>
       </c>
       <c r="R145" t="n">
-        <v>0.6377219443525</v>
+        <v>0.650464641180794</v>
       </c>
       <c r="S145" t="n">
         <v>-1.21055743914835</v>
@@ -26230,13 +26230,13 @@
         <v>-1.04388581718518</v>
       </c>
       <c r="P146" t="n">
-        <v>0.611517611451536</v>
+        <v>0.619259102742424</v>
       </c>
       <c r="Q146" t="n">
-        <v>-0.166971080768529</v>
+        <v>-0.170757323828983</v>
       </c>
       <c r="R146" t="n">
-        <v>-1.65843036590343</v>
+        <v>-1.69434783272747</v>
       </c>
       <c r="S146" t="n">
         <v>-0.942024976858236</v>
@@ -26406,13 +26406,13 @@
         <v>0.479536761649105</v>
       </c>
       <c r="P147" t="n">
-        <v>0.808880713326379</v>
+        <v>0.817834747838473</v>
       </c>
       <c r="Q147" t="n">
-        <v>-0.254824908708708</v>
+        <v>-0.26060332876677</v>
       </c>
       <c r="R147" t="n">
-        <v>0.690865134294576</v>
+        <v>0.704734044008678</v>
       </c>
       <c r="S147" t="n">
         <v>0.315492895329633</v>
@@ -26582,13 +26582,13 @@
         <v>-0.115359082242542</v>
       </c>
       <c r="P148" t="n">
-        <v>0.313648556171153</v>
+        <v>0.319560024016138</v>
       </c>
       <c r="Q148" t="n">
-        <v>-0.133249409437955</v>
+        <v>-0.136270978499327</v>
       </c>
       <c r="R148" t="n">
-        <v>0.0623094739451889</v>
+        <v>0.0628580036650769</v>
       </c>
       <c r="S148" t="n">
         <v>-0.483554919289742</v>
@@ -26758,13 +26758,13 @@
         <v>0.353534940616168</v>
       </c>
       <c r="P149" t="n">
-        <v>0.795057898087802</v>
+        <v>0.803927009122527</v>
       </c>
       <c r="Q149" t="n">
-        <v>-1.83086933721132</v>
+        <v>-1.87238620522646</v>
       </c>
       <c r="R149" t="n">
-        <v>-0.293200141529392</v>
+        <v>-0.300185587666289</v>
       </c>
       <c r="S149" t="n">
         <v>-1.21055743914835</v>
@@ -26934,13 +26934,13 @@
         <v>-0.971536148295485</v>
       </c>
       <c r="P150" t="n">
-        <v>0.129107708620484</v>
+        <v>0.133885409557635</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.396535795413428</v>
+        <v>0.40552765733763</v>
       </c>
       <c r="R150" t="n">
-        <v>0.680786253443493</v>
+        <v>0.694441571058563</v>
       </c>
       <c r="S150" t="n">
         <v>-0.647294225564204</v>
@@ -27110,13 +27110,13 @@
         <v>-1.0114651284782</v>
       </c>
       <c r="P151" t="n">
-        <v>-0.551500851026146</v>
+        <v>-0.55090461707778</v>
       </c>
       <c r="Q151" t="n">
-        <v>-1.56730785339078</v>
+        <v>-1.6028481904131</v>
       </c>
       <c r="R151" t="n">
-        <v>-0.349092117158127</v>
+        <v>-0.357262028571478</v>
       </c>
       <c r="S151" t="n">
         <v>-1.19090872239542</v>
@@ -27286,13 +27286,13 @@
         <v>0.420340838497507</v>
       </c>
       <c r="P152" t="n">
-        <v>0.765180612744557</v>
+        <v>0.773866166166604</v>
       </c>
       <c r="Q152" t="n">
-        <v>1.63181386099655</v>
+        <v>1.66881693888712</v>
       </c>
       <c r="R152" t="n">
-        <v>0.676204943965727</v>
+        <v>0.689763174263055</v>
       </c>
       <c r="S152" t="n">
         <v>0.642971507878557</v>
@@ -27462,13 +27462,13 @@
         <v>0.392626050785882</v>
       </c>
       <c r="P153" t="n">
-        <v>-3.58897427267153</v>
+        <v>-3.60703941854554</v>
       </c>
       <c r="Q153" t="n">
-        <v>-0.415446553730652</v>
+        <v>-0.42486723678434</v>
       </c>
       <c r="R153" t="n">
-        <v>-1.26627027460672</v>
+        <v>-1.29387706703204</v>
       </c>
       <c r="S153" t="n">
         <v>-0.745537809328881</v>
@@ -27638,13 +27638,13 @@
         <v>-0.0307545475801543</v>
       </c>
       <c r="P154" t="n">
-        <v>0.725236265415238</v>
+        <v>0.733676412035711</v>
       </c>
       <c r="Q154" t="n">
-        <v>-0.031196983042798</v>
+        <v>-0.0319044071069485</v>
       </c>
       <c r="R154" t="n">
-        <v>1.02896577375365</v>
+        <v>1.04999972751712</v>
       </c>
       <c r="S154" t="n">
         <v>-0.0578327229761407</v>
@@ -27814,13 +27814,13 @@
         <v>0.326137404657039</v>
       </c>
       <c r="P155" t="n">
-        <v>0.739243778698415</v>
+        <v>0.747769983528939</v>
       </c>
       <c r="Q155" t="n">
-        <v>-0.231752186219368</v>
+        <v>-0.237007408278058</v>
       </c>
       <c r="R155" t="n">
-        <v>1.05370484493358</v>
+        <v>1.07526307021286</v>
       </c>
       <c r="S155" t="n">
         <v>-1.13851214438759</v>
@@ -27990,13 +27990,13 @@
         <v>0.711260695536204</v>
       </c>
       <c r="P156" t="n">
-        <v>-0.900642966235401</v>
+        <v>-0.90219176294886</v>
       </c>
       <c r="Q156" t="n">
-        <v>-0.127037522613903</v>
+        <v>-0.129918230675443</v>
       </c>
       <c r="R156" t="n">
-        <v>-1.20671325139578</v>
+        <v>-1.23305790869044</v>
       </c>
       <c r="S156" t="n">
         <v>0.54472792411388</v>
@@ -28166,13 +28166,13 @@
         <v>-0.692720665813553</v>
       </c>
       <c r="P157" t="n">
-        <v>-0.164852810098444</v>
+        <v>-0.161881119661172</v>
       </c>
       <c r="Q157" t="n">
-        <v>-1.03397299892565</v>
+        <v>-1.0574194129625</v>
       </c>
       <c r="R157" t="n">
-        <v>-1.97454071986922</v>
+        <v>-2.01715721161747</v>
       </c>
       <c r="S157" t="n">
         <v>-0.771736098332795</v>
@@ -28342,13 +28342,13 @@
         <v>0.372134841438778</v>
       </c>
       <c r="P158" t="n">
-        <v>0.468930381502136</v>
+        <v>0.475795857076493</v>
       </c>
       <c r="Q158" t="n">
-        <v>-0.149222832699806</v>
+        <v>-0.152606615760743</v>
       </c>
       <c r="R158" t="n">
-        <v>-0.694522851781624</v>
+        <v>-0.710013146952729</v>
       </c>
       <c r="S158" t="n">
         <v>-0.477005347038763</v>
@@ -28518,13 +28518,13 @@
         <v>-0.35366395632885</v>
       </c>
       <c r="P159" t="n">
-        <v>0.12922789815686</v>
+        <v>0.134006337504616</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.103689702279497</v>
+        <v>0.106040974211674</v>
       </c>
       <c r="R159" t="n">
-        <v>-0.275791165513884</v>
+        <v>-0.282407679843362</v>
       </c>
       <c r="S159" t="n">
         <v>0.37443904558844</v>
@@ -28694,13 +28694,13 @@
         <v>-0.734919216225661</v>
       </c>
       <c r="P160" t="n">
-        <v>-0.726490025619605</v>
+        <v>-0.726968875794979</v>
       </c>
       <c r="Q160" t="n">
-        <v>1.08694264528675</v>
+        <v>1.11159020119216</v>
       </c>
       <c r="R160" t="n">
-        <v>-0.250135832438398</v>
+        <v>-0.256208657788521</v>
       </c>
       <c r="S160" t="n">
         <v>0.132104872302236</v>
@@ -28870,13 +28870,13 @@
         <v>0.0135508798549395</v>
       </c>
       <c r="P161" t="n">
-        <v>0.796581996474214</v>
+        <v>0.805460471139472</v>
       </c>
       <c r="Q161" t="n">
-        <v>-1.57440715261827</v>
+        <v>-1.6101084736404</v>
       </c>
       <c r="R161" t="n">
-        <v>-0.0577208343722595</v>
+        <v>-0.0597159923772142</v>
       </c>
       <c r="S161" t="n">
         <v>-1.30225145066205</v>
@@ -29046,13 +29046,13 @@
         <v>0.126293204565613</v>
       </c>
       <c r="P162" t="n">
-        <v>-0.163864132330293</v>
+        <v>-0.160886367735723</v>
       </c>
       <c r="Q162" t="n">
-        <v>-0.70651782205771</v>
+        <v>-0.722538849103472</v>
       </c>
       <c r="R162" t="n">
-        <v>0.267552138549071</v>
+        <v>0.272450180103804</v>
       </c>
       <c r="S162" t="n">
         <v>-0.83723182084258</v>
@@ -29222,13 +29222,13 @@
         <v>0.554635945727097</v>
       </c>
       <c r="P163" t="n">
-        <v>0.583215691782818</v>
+        <v>0.590783304063316</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.970691620436618</v>
+        <v>0.992703063345187</v>
       </c>
       <c r="R163" t="n">
-        <v>1.39180548439265</v>
+        <v>1.4205287537213</v>
       </c>
       <c r="S163" t="n">
         <v>0.0600595775414719</v>
@@ -29398,13 +29398,13 @@
         <v>0.402769972205429</v>
       </c>
       <c r="P164" t="n">
-        <v>0.619903038483746</v>
+        <v>0.627696047472766</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.883725204899876</v>
+        <v>0.903764593810813</v>
       </c>
       <c r="R164" t="n">
-        <v>0.0018361888386882</v>
+        <v>0.00110316596438066</v>
       </c>
       <c r="S164" t="n">
         <v>-1.13196257213661</v>
@@ -29574,13 +29574,13 @@
         <v>1.03440194210403</v>
       </c>
       <c r="P165" t="n">
-        <v>0.126120285652777</v>
+        <v>0.130879632705976</v>
       </c>
       <c r="Q165" t="n">
-        <v>1.48272857721928</v>
+        <v>1.51635099111391</v>
       </c>
       <c r="R165" t="n">
-        <v>1.13983346311557</v>
+        <v>1.16321692996839</v>
       </c>
       <c r="S165" t="n">
         <v>2.14937312560361</v>
@@ -29750,13 +29750,13 @@
         <v>-0.56079681206736</v>
       </c>
       <c r="P166" t="n">
-        <v>0.6060028130353</v>
+        <v>0.61371042296046</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.0602064945111259</v>
+        <v>0.0615717394444866</v>
       </c>
       <c r="R166" t="n">
-        <v>-1.97454071986922</v>
+        <v>-2.01715721161747</v>
       </c>
       <c r="S166" t="n">
         <v>-0.673492514568118</v>
@@ -29926,13 +29926,13 @@
         <v>-0.0624959921503804</v>
       </c>
       <c r="P167" t="n">
-        <v>0.318705683697462</v>
+        <v>0.324648221107338</v>
       </c>
       <c r="Q167" t="n">
-        <v>-0.320493426562984</v>
+        <v>-0.327760948619257</v>
       </c>
       <c r="R167" t="n">
-        <v>-0.0353640441207653</v>
+        <v>-0.0368854160151386</v>
       </c>
       <c r="S167" t="n">
         <v>-0.542501069548548</v>
@@ -30102,13 +30102,13 @@
         <v>0.852824121762078</v>
       </c>
       <c r="P168" t="n">
-        <v>0.137684284548116</v>
+        <v>0.14251467754829</v>
       </c>
       <c r="Q168" t="n">
-        <v>-0.984277904333226</v>
+        <v>-1.00659743037142</v>
       </c>
       <c r="R168" t="n">
-        <v>-0.531428234373183</v>
+        <v>-0.543462221032669</v>
       </c>
       <c r="S168" t="n">
         <v>1.02939627068629</v>
@@ -30278,13 +30278,13 @@
         <v>-2.08043677385266</v>
       </c>
       <c r="P169" t="n">
-        <v>-0.0130598765069946</v>
+        <v>-0.00915561310697129</v>
       </c>
       <c r="Q169" t="n">
-        <v>-1.21323030441975</v>
+        <v>-1.24074156445172</v>
       </c>
       <c r="R169" t="n">
-        <v>-1.97454071986922</v>
+        <v>-2.01715721161747</v>
       </c>
       <c r="S169" t="n">
         <v>0.400637334592353</v>
@@ -30454,13 +30454,13 @@
         <v>0.720818921412681</v>
       </c>
       <c r="P170" t="n">
-        <v>0.0119001629172489</v>
+        <v>0.015957773758194</v>
       </c>
       <c r="Q170" t="n">
-        <v>-1.12537647647957</v>
+        <v>-1.15089555951393</v>
       </c>
       <c r="R170" t="n">
-        <v>-1.97454071986922</v>
+        <v>-2.01715721161747</v>
       </c>
       <c r="S170" t="n">
         <v>2.26726542612122</v>
@@ -30630,13 +30630,13 @@
         <v>0.785184421197898</v>
       </c>
       <c r="P171" t="n">
-        <v>0.0321673781274179</v>
+        <v>0.0363495050211731</v>
       </c>
       <c r="Q171" t="n">
-        <v>1.36647755236914</v>
+        <v>1.39746385326693</v>
       </c>
       <c r="R171" t="n">
-        <v>1.0280495118581</v>
+        <v>1.04906404815802</v>
       </c>
       <c r="S171" t="n">
         <v>0.931152686921611</v>
@@ -30806,13 +30806,13 @@
         <v>0.805362446122666</v>
       </c>
       <c r="P172" t="n">
-        <v>-0.0093598042826433</v>
+        <v>-0.00543280868267485</v>
       </c>
       <c r="Q172" t="n">
-        <v>0.0557694324939453</v>
+        <v>0.0570340624274267</v>
       </c>
       <c r="R172" t="n">
-        <v>-0.32893435545596</v>
+        <v>-0.336677082671247</v>
       </c>
       <c r="S172" t="n">
         <v>1.13418942670194</v>
@@ -30982,13 +30982,13 @@
         <v>-2.74123963566024</v>
       </c>
       <c r="P173" t="n">
-        <v>-1.22481214031877</v>
+        <v>-1.22835254098871</v>
       </c>
       <c r="Q173" t="n">
-        <v>-0.544121352228894</v>
+        <v>-0.556459870279078</v>
       </c>
       <c r="R173" t="n">
-        <v>-1.26352148892006</v>
+        <v>-1.29107002895474</v>
       </c>
       <c r="S173" t="n">
         <v>-0.195373740246688</v>
@@ -31158,13 +31158,13 @@
         <v>0.729311506787186</v>
       </c>
       <c r="P174" t="n">
-        <v>0.937619664152377</v>
+        <v>0.947364634460707</v>
       </c>
       <c r="Q174" t="n">
-        <v>0.901473452968599</v>
+        <v>0.921915301879052</v>
       </c>
       <c r="R174" t="n">
-        <v>1.11417813004008</v>
+        <v>1.13701790791355</v>
       </c>
       <c r="S174" t="n">
         <v>0.217249311564956</v>
@@ -31334,13 +31334,13 @@
         <v>-2.6503958165321</v>
       </c>
       <c r="P175" t="n">
-        <v>-0.880534645666542</v>
+        <v>-0.881959902531042</v>
       </c>
       <c r="Q175" t="n">
-        <v>-0.189156390854433</v>
+        <v>-0.193445708914283</v>
       </c>
       <c r="R175" t="n">
-        <v>-0.407732878473522</v>
+        <v>-0.417145507553972</v>
       </c>
       <c r="S175" t="n">
         <v>-0.352563474270172</v>
@@ -31510,13 +31510,13 @@
         <v>0.526823542091628</v>
       </c>
       <c r="P176" t="n">
-        <v>0.890089455774362</v>
+        <v>0.89954241389083</v>
       </c>
       <c r="Q176" t="n">
-        <v>-1.91783575274806</v>
+        <v>-1.96132467476084</v>
       </c>
       <c r="R176" t="n">
-        <v>0.427897970270853</v>
+        <v>0.436194067946559</v>
       </c>
       <c r="S176" t="n">
         <v>-1.014070271619</v>
@@ -31686,13 +31686,13 @@
         <v>0.745300181646945</v>
       </c>
       <c r="P177" t="n">
-        <v>0.0897914704501892</v>
+        <v>0.094327623511249</v>
       </c>
       <c r="Q177" t="n">
-        <v>-0.245063372270911</v>
+        <v>-0.250620439329238</v>
       </c>
       <c r="R177" t="n">
-        <v>-0.0540557867900473</v>
+        <v>-0.0559732749408083</v>
       </c>
       <c r="S177" t="n">
         <v>1.04904498743922</v>
@@ -31862,13 +31862,13 @@
         <v>-2.42554567061574</v>
       </c>
       <c r="P178" t="n">
-        <v>0.267045572719245</v>
+        <v>0.27267072498074</v>
       </c>
       <c r="Q178" t="n">
-        <v>-1.25405127497782</v>
+        <v>-1.28248819300867</v>
       </c>
       <c r="R178" t="n">
-        <v>0.172260901411554</v>
+        <v>0.175139526757252</v>
       </c>
       <c r="S178" t="n">
         <v>-0.909277115603344</v>
@@ -32038,13 +32038,13 @@
         <v>-0.614143914448586</v>
       </c>
       <c r="P179" t="n">
-        <v>0.640745737490967</v>
+        <v>0.648666798142901</v>
       </c>
       <c r="Q179" t="n">
-        <v>-0.00546202334314964</v>
+        <v>-0.00558588040800091</v>
       </c>
       <c r="R179" t="n">
-        <v>-1.02346087228517</v>
+        <v>-1.04592203687015</v>
       </c>
       <c r="S179" t="n">
         <v>-1.19090872239542</v>
@@ -32214,13 +32214,13 @@
         <v>0.635274833483287</v>
       </c>
       <c r="P180" t="n">
-        <v>0.880193511094314</v>
+        <v>0.889585671318343</v>
       </c>
       <c r="Q180" t="n">
-        <v>-0.518386392529246</v>
+        <v>-0.530141343580131</v>
       </c>
       <c r="R180" t="n">
-        <v>1.0747788685313</v>
+        <v>1.09678369547219</v>
       </c>
       <c r="S180" t="n">
         <v>0.276195461823763</v>
@@ -32390,13 +32390,13 @@
         <v>0.0263100945674971</v>
       </c>
       <c r="P181" t="n">
-        <v>0.488441489092225</v>
+        <v>0.495426835407475</v>
       </c>
       <c r="Q181" t="n">
-        <v>-0.848503806607495</v>
+        <v>-0.86774451364939</v>
       </c>
       <c r="R181" t="n">
-        <v>0.234566710309161</v>
+        <v>0.238765723176151</v>
       </c>
       <c r="S181" t="n">
         <v>-0.83723182084258</v>
@@ -32566,13 +32566,13 @@
         <v>0.378768656930069</v>
       </c>
       <c r="P182" t="n">
-        <v>0.793042856001958</v>
+        <v>0.801899587186557</v>
       </c>
       <c r="Q182" t="n">
-        <v>-1.91783575274806</v>
+        <v>-1.96132467476084</v>
       </c>
       <c r="R182" t="n">
-        <v>-0.63313330477957</v>
+        <v>-0.647322629892931</v>
       </c>
       <c r="S182" t="n">
         <v>-1.44634204018358</v>
@@ -32742,13 +32742,13 @@
         <v>-0.93741531558154</v>
       </c>
       <c r="P183" t="n">
-        <v>0.145527161074315</v>
+        <v>0.150405738495367</v>
       </c>
       <c r="Q183" t="n">
-        <v>0.342403638803823</v>
+        <v>0.350167997729499</v>
       </c>
       <c r="R183" t="n">
-        <v>0.906186679749541</v>
+        <v>0.924618693397521</v>
       </c>
       <c r="S183" t="n">
         <v>-0.830682248591602</v>
@@ -32918,13 +32918,13 @@
         <v>-0.920129162400676</v>
       </c>
       <c r="P184" t="n">
-        <v>-0.312135240891169</v>
+        <v>-0.310068412159879</v>
       </c>
       <c r="Q184" t="n">
-        <v>-0.915947149268642</v>
+        <v>-0.936717204308702</v>
       </c>
       <c r="R184" t="n">
-        <v>0.389414970657625</v>
+        <v>0.396895534864298</v>
       </c>
       <c r="S184" t="n">
         <v>-1.11231385538368</v>
@@ -33094,13 +33094,13 @@
         <v>0.509106251913782</v>
       </c>
       <c r="P185" t="n">
-        <v>0.870717211236187</v>
+        <v>0.88005115174718</v>
       </c>
       <c r="Q185" t="n">
-        <v>1.35849084073822</v>
+        <v>1.38929603463623</v>
       </c>
       <c r="R185" t="n">
-        <v>1.12792205847338</v>
+        <v>1.15105309830007</v>
       </c>
       <c r="S185" t="n">
         <v>1.17348686020781</v>
@@ -33270,13 +33270,13 @@
         <v>0.471259744773091</v>
       </c>
       <c r="P186" t="n">
-        <v>-2.62837739766886</v>
+        <v>-2.64054090733006</v>
       </c>
       <c r="Q186" t="n">
-        <v>-0.219328412571262</v>
+        <v>-0.22430191263029</v>
       </c>
       <c r="R186" t="n">
-        <v>-0.502107853715485</v>
+        <v>-0.513520481541422</v>
       </c>
       <c r="S186" t="n">
         <v>-0.10367972873299</v>
@@ -33446,13 +33446,13 @@
         <v>0.256882974019259</v>
       </c>
       <c r="P187" t="n">
-        <v>0.790693048710278</v>
+        <v>0.799535343341764</v>
       </c>
       <c r="Q187" t="n">
-        <v>-0.186494153644125</v>
+        <v>-0.190723102704046</v>
       </c>
       <c r="R187" t="n">
-        <v>1.11509439193564</v>
+        <v>1.13795358727265</v>
       </c>
       <c r="S187" t="n">
         <v>-0.326365185266258</v>
@@ -33622,13 +33622,13 @@
         <v>0.481175895703667</v>
       </c>
       <c r="P188" t="n">
-        <v>0.79108145783348</v>
+        <v>0.799926138741048</v>
       </c>
       <c r="Q188" t="n">
-        <v>-0.674570975534009</v>
+        <v>-0.689867574580641</v>
       </c>
       <c r="R188" t="n">
-        <v>1.17648393893769</v>
+        <v>1.20064410433245</v>
       </c>
       <c r="S188" t="n">
         <v>-1.12541299988563</v>
@@ -33798,13 +33798,13 @@
         <v>0.728331280218577</v>
       </c>
       <c r="P189" t="n">
-        <v>-0.309148157441927</v>
+        <v>-0.30706297691259</v>
       </c>
       <c r="Q189" t="n">
-        <v>-0.520161217336118</v>
+        <v>-0.531956414386954</v>
       </c>
       <c r="R189" t="n">
-        <v>-1.13524482354264</v>
+        <v>-1.16007491868053</v>
       </c>
       <c r="S189" t="n">
         <v>1.40272188899206</v>
@@ -33974,13 +33974,13 @@
         <v>-0.25660525671592</v>
       </c>
       <c r="P190" t="n">
-        <v>0.27393949513762</v>
+        <v>0.279607001713658</v>
       </c>
       <c r="Q190" t="n">
-        <v>-1.91783575274806</v>
+        <v>-1.96132467476084</v>
       </c>
       <c r="R190" t="n">
-        <v>-0.773321374799186</v>
+        <v>-0.790481571835455</v>
       </c>
       <c r="S190" t="n">
         <v>-0.83723182084258</v>
@@ -34150,13 +34150,13 @@
         <v>-0.0376568068620193</v>
       </c>
       <c r="P191" t="n">
-        <v>0.560688302155553</v>
+        <v>0.568117512509225</v>
       </c>
       <c r="Q191" t="n">
-        <v>-0.695868873216477</v>
+        <v>-0.711648424262529</v>
       </c>
       <c r="R191" t="n">
-        <v>-1.21129456087354</v>
+        <v>-1.23773630548595</v>
       </c>
       <c r="S191" t="n">
         <v>-0.647294225564204</v>
@@ -34326,13 +34326,13 @@
         <v>0.205776970556305</v>
       </c>
       <c r="P192" t="n">
-        <v>0.314164284718482</v>
+        <v>0.320078921054173</v>
       </c>
       <c r="Q192" t="n">
-        <v>-0.0693557163905523</v>
+        <v>-0.0709284294536638</v>
       </c>
       <c r="R192" t="n">
-        <v>0.0897973308117804</v>
+        <v>0.0909283844381209</v>
       </c>
       <c r="S192" t="n">
         <v>0.191051022561042</v>
@@ -34502,13 +34502,13 @@
         <v>-1.06823692285432</v>
       </c>
       <c r="P193" t="n">
-        <v>-0.354954630576499</v>
+        <v>-0.35315087209596</v>
       </c>
       <c r="Q193" t="n">
-        <v>0.73730215833291</v>
+        <v>0.754021252247834</v>
       </c>
       <c r="R193" t="n">
-        <v>-0.356422212322552</v>
+        <v>-0.36474746344429</v>
       </c>
       <c r="S193" t="n">
         <v>0.125555300051257</v>
@@ -34678,13 +34678,13 @@
         <v>0.127818453375689</v>
       </c>
       <c r="P194" t="n">
-        <v>0.796177969501652</v>
+        <v>0.805053961939168</v>
       </c>
       <c r="Q194" t="n">
-        <v>-1.91162386592401</v>
+        <v>-1.95497192693695</v>
       </c>
       <c r="R194" t="n">
-        <v>0.82738815673198</v>
+        <v>0.844150268514796</v>
       </c>
       <c r="S194" t="n">
         <v>-1.29570187841107</v>
@@ -34854,13 +34854,13 @@
         <v>0.196942729448344</v>
       </c>
       <c r="P195" t="n">
-        <v>0.115191865322679</v>
+        <v>0.119884071244309</v>
       </c>
       <c r="Q195" t="n">
-        <v>-0.737577256177975</v>
+        <v>-0.754302588222892</v>
       </c>
       <c r="R195" t="n">
-        <v>0.411405256150898</v>
+        <v>0.419351839482733</v>
       </c>
       <c r="S195" t="n">
         <v>-0.62109593656029</v>
@@ -35030,13 +35030,13 @@
         <v>0.65175158796227</v>
       </c>
       <c r="P196" t="n">
-        <v>0.608196441833386</v>
+        <v>0.615917528795051</v>
       </c>
       <c r="Q196" t="n">
-        <v>1.25200135232588</v>
+        <v>1.28039178622679</v>
       </c>
       <c r="R196" t="n">
-        <v>1.15815870102663</v>
+        <v>1.18193051715042</v>
       </c>
       <c r="S196" t="n">
         <v>0.171402305808106</v>
@@ -35206,13 +35206,13 @@
         <v>0.523386648106256</v>
       </c>
       <c r="P197" t="n">
-        <v>0.693776144991251</v>
+        <v>0.702023009506832</v>
       </c>
       <c r="Q197" t="n">
-        <v>0.74883851957758</v>
+        <v>0.76581921249219</v>
       </c>
       <c r="R197" t="n">
-        <v>0.484706207795142</v>
+        <v>0.49420618821085</v>
       </c>
       <c r="S197" t="n">
         <v>-1.03371898837193</v>
@@ -35382,13 +35382,13 @@
         <v>0.991979688533111</v>
       </c>
       <c r="P198" t="n">
-        <v>0.424798752952141</v>
+        <v>0.43139309625035</v>
       </c>
       <c r="Q198" t="n">
-        <v>1.34606706709011</v>
+        <v>1.37659053898846</v>
       </c>
       <c r="R198" t="n">
-        <v>1.27452396176186</v>
+        <v>1.30076179575631</v>
       </c>
       <c r="S198" t="n">
         <v>2.86327650096026</v>
@@ -35558,13 +35558,13 @@
         <v>-2.00103435446517</v>
       </c>
       <c r="P199" t="n">
-        <v>0.646768116011388</v>
+        <v>0.65472617645802</v>
       </c>
       <c r="Q199" t="n">
-        <v>-0.179394854416635</v>
+        <v>-0.183462819476751</v>
       </c>
       <c r="R199" t="n">
-        <v>-1.97454071986922</v>
+        <v>-2.01715721161747</v>
       </c>
       <c r="S199" t="n">
         <v>-0.948574549109214</v>
@@ -35732,13 +35732,13 @@
         <v>1.97544228013687</v>
       </c>
       <c r="P200" t="n">
-        <v>1.92354779252317</v>
+        <v>1.14245010770843</v>
       </c>
       <c r="Q200" t="n">
-        <v>2.59807612914943</v>
+        <v>1.66881693888712</v>
       </c>
       <c r="R200" t="n">
-        <v>2.50594640955528</v>
+        <v>1.72556022478837</v>
       </c>
       <c r="S200" t="n">
         <v>4.60546271972054</v>
@@ -35906,13 +35906,13 @@
         <v>-4.53979112403857</v>
       </c>
       <c r="P201" t="n">
-        <v>-5.42548307093489</v>
+        <v>-5.45483120878088</v>
       </c>
       <c r="Q201" t="n">
-        <v>-2.88409802090094</v>
+        <v>-1.96132467476084</v>
       </c>
       <c r="R201" t="n">
-        <v>-2.94116347984781</v>
+        <v>-2.01715721161747</v>
       </c>
       <c r="S201" t="n">
         <v>-1.94410953125794</v>

--- a/03_ips_clean/00_ips_wide_norm_complete.xlsx
+++ b/03_ips_clean/00_ips_wide_norm_complete.xlsx
@@ -950,7 +950,7 @@
         <v>0.422256551002962</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0669019166655314</v>
+        <v>0.200620946175815</v>
       </c>
       <c r="Q2" t="n">
         <v>0.126006753086738</v>
@@ -1126,7 +1126,7 @@
         <v>0.980729453309989</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0641516598826344</v>
+        <v>-0.763590472660142</v>
       </c>
       <c r="Q3" t="n">
         <v>-1.68906405373724</v>
@@ -1302,7 +1302,7 @@
         <v>0.0836960557978047</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.284379763535628</v>
+        <v>0.356555615824884</v>
       </c>
       <c r="Q4" t="n">
         <v>-0.690775109984053</v>
@@ -1478,7 +1478,7 @@
         <v>0.101108296213635</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.849719282090128</v>
+        <v>-0.128087492063716</v>
       </c>
       <c r="Q5" t="n">
         <v>-0.327760948619257</v>
@@ -1654,7 +1654,7 @@
         <v>0.820924051315604</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.246945731857553</v>
+        <v>0.0196352334440707</v>
       </c>
       <c r="Q6" t="n">
         <v>1.57806339854592</v>
@@ -1830,7 +1830,7 @@
         <v>0.693876926431495</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.524384161812572</v>
+        <v>0.469723587614577</v>
       </c>
       <c r="Q7" t="n">
         <v>-0.146253867936859</v>
@@ -2006,7 +2006,7 @@
         <v>-0.161169421836911</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.76004334588915</v>
+        <v>-0.698679206329893</v>
       </c>
       <c r="Q8" t="n">
         <v>0.126006753086738</v>
@@ -2182,7 +2182,7 @@
         <v>0.705127161654617</v>
       </c>
       <c r="P9" t="n">
-        <v>1.01630688681041</v>
+        <v>0.922164802185115</v>
       </c>
       <c r="Q9" t="n">
         <v>1.21504923718112</v>
@@ -2358,7 +2358,7 @@
         <v>-0.61382666269609</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.95613928486334</v>
+        <v>-2.31338732399776</v>
       </c>
       <c r="Q10" t="n">
         <v>0.76128153547513</v>
@@ -2534,7 +2534,7 @@
         <v>0.633241168403185</v>
       </c>
       <c r="P11" t="n">
-        <v>0.67722253224459</v>
+        <v>0.711929805264758</v>
       </c>
       <c r="Q11" t="n">
         <v>1.21504923718112</v>
@@ -2710,7 +2710,7 @@
         <v>0.666121465418268</v>
       </c>
       <c r="P12" t="n">
-        <v>0.111064871223932</v>
+        <v>-1.50644847582266</v>
       </c>
       <c r="Q12" t="n">
         <v>0.579774454792732</v>
@@ -2886,7 +2886,7 @@
         <v>0.452912018420414</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0534044447979595</v>
+        <v>0.493621267756062</v>
       </c>
       <c r="Q13" t="n">
         <v>-1.96132467476084</v>
@@ -3062,7 +3062,7 @@
         <v>-1.63843593801321</v>
       </c>
       <c r="P14" t="n">
-        <v>0.872917769292771</v>
+        <v>1.27901529618971</v>
       </c>
       <c r="Q14" t="n">
         <v>-0.418514488960456</v>
@@ -3238,7 +3238,7 @@
         <v>0.791309820419164</v>
       </c>
       <c r="P15" t="n">
-        <v>0.711364522608943</v>
+        <v>0.680327660676115</v>
       </c>
       <c r="Q15" t="n">
         <v>0.852035075816329</v>
@@ -3414,7 +3414,7 @@
         <v>0.489924722878264</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.670002247844483</v>
+        <v>0.0851462485037387</v>
       </c>
       <c r="Q16" t="n">
         <v>-0.146253867936859</v>
@@ -3590,7 +3590,7 @@
         <v>0.452448342782151</v>
       </c>
       <c r="P17" t="n">
-        <v>0.896175561220078</v>
+        <v>1.46973539214511</v>
       </c>
       <c r="Q17" t="n">
         <v>-0.690775109984053</v>
@@ -3766,7 +3766,7 @@
         <v>0.352806888517492</v>
       </c>
       <c r="P18" t="n">
-        <v>0.458907620232268</v>
+        <v>-0.772540569083787</v>
       </c>
       <c r="Q18" t="n">
         <v>0.579774454792732</v>
@@ -3942,7 +3942,7 @@
         <v>0.13003108098284</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.432411967650354</v>
+        <v>0.00985471570276818</v>
       </c>
       <c r="Q19" t="n">
         <v>-1.96132467476084</v>
@@ -4118,7 +4118,7 @@
         <v>0.628230217645815</v>
       </c>
       <c r="P20" t="n">
-        <v>0.509522456526923</v>
+        <v>-0.353408476254855</v>
       </c>
       <c r="Q20" t="n">
         <v>1.48730985820472</v>
@@ -4294,7 +4294,7 @@
         <v>0.748570315095748</v>
       </c>
       <c r="P21" t="n">
-        <v>-4.53178806847232</v>
+        <v>-0.0598084059451884</v>
       </c>
       <c r="Q21" t="n">
         <v>0.579774454792732</v>
@@ -4470,7 +4470,7 @@
         <v>0.300484753336637</v>
       </c>
       <c r="P22" t="n">
-        <v>0.86061454630273</v>
+        <v>0.892546441855321</v>
       </c>
       <c r="Q22" t="n">
         <v>0.216760293427937</v>
@@ -4646,7 +4646,7 @@
         <v>0.708474574376465</v>
       </c>
       <c r="P23" t="n">
-        <v>0.587018140697139</v>
+        <v>0.612878995875246</v>
       </c>
       <c r="Q23" t="n">
         <v>-0.146253867936859</v>
@@ -4822,7 +4822,7 @@
         <v>0.843013721415667</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.861893720232677</v>
+        <v>-0.610193201481694</v>
       </c>
       <c r="Q24" t="n">
         <v>0.398267374110335</v>
@@ -4998,7 +4998,7 @@
         <v>0.73139397982921</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.46893664849548</v>
+        <v>-1.53703566102305</v>
       </c>
       <c r="Q25" t="n">
         <v>-1.23529635203125</v>
@@ -5174,7 +5174,7 @@
         <v>0.725911218773256</v>
       </c>
       <c r="P26" t="n">
-        <v>0.515280198183329</v>
+        <v>0.0578807485739753</v>
       </c>
       <c r="Q26" t="n">
         <v>0.942788616157528</v>
@@ -5350,7 +5350,7 @@
         <v>-0.362693429284501</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.020399520945631</v>
+        <v>-2.62936263536654</v>
       </c>
       <c r="Q27" t="n">
         <v>0.0352532127455389</v>
@@ -5526,7 +5526,7 @@
         <v>0.293342521575321</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.273819064436975</v>
+        <v>-1.45200974499843</v>
       </c>
       <c r="Q28" t="n">
         <v>0.852035075816329</v>
@@ -5702,7 +5702,7 @@
         <v>0.494545209940255</v>
       </c>
       <c r="P29" t="n">
-        <v>0.720067918747888</v>
+        <v>0.114257129139408</v>
       </c>
       <c r="Q29" t="n">
         <v>-1.87057113441964</v>
@@ -5878,7 +5878,7 @@
         <v>0.324408789338953</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.263665557747366</v>
+        <v>-0.51372592508045</v>
       </c>
       <c r="Q30" t="n">
         <v>0.126006753086738</v>
@@ -6054,7 +6054,7 @@
         <v>0.866929622757662</v>
       </c>
       <c r="P31" t="n">
-        <v>0.429540234147452</v>
+        <v>-1.65338691453043</v>
       </c>
       <c r="Q31" t="n">
         <v>1.03354215649873</v>
@@ -6230,7 +6230,7 @@
         <v>0.621661479437087</v>
       </c>
       <c r="P32" t="n">
-        <v>0.800855985836197</v>
+        <v>0.510137425073922</v>
       </c>
       <c r="Q32" t="n">
         <v>1.30580277752232</v>
@@ -6406,7 +6406,7 @@
         <v>1.0073419945482</v>
       </c>
       <c r="P33" t="n">
-        <v>0.320212488362844</v>
+        <v>0.711929805264758</v>
       </c>
       <c r="Q33" t="n">
         <v>0.942788616157528</v>
@@ -6582,7 +6582,7 @@
         <v>0.262386071726014</v>
       </c>
       <c r="P34" t="n">
-        <v>0.569804013283931</v>
+        <v>-0.573793067057695</v>
       </c>
       <c r="Q34" t="n">
         <v>0.216760293427937</v>
@@ -6758,7 +6758,7 @@
         <v>0.304161619801461</v>
       </c>
       <c r="P35" t="n">
-        <v>0.140169905152587</v>
+        <v>0.228947540011474</v>
       </c>
       <c r="Q35" t="n">
         <v>0.126006753086738</v>
@@ -6932,7 +6932,7 @@
         <v>0.980111219125638</v>
       </c>
       <c r="P36" t="n">
-        <v>0.148377291746287</v>
+        <v>-0.652267881576354</v>
       </c>
       <c r="Q36" t="n">
         <v>-1.68906405373724</v>
@@ -7106,7 +7106,7 @@
         <v>-0.25860231582458</v>
       </c>
       <c r="P37" t="n">
-        <v>0.0323199398726138</v>
+        <v>0.917136139761521</v>
       </c>
       <c r="Q37" t="n">
         <v>-0.690775109984053</v>
@@ -7280,7 +7280,7 @@
         <v>-0.195318725861978</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.46685559467342</v>
+        <v>-0.773417124919092</v>
       </c>
       <c r="Q38" t="n">
         <v>-0.327760948619257</v>
@@ -7454,7 +7454,7 @@
         <v>0.712920166241567</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.13915725536418</v>
+        <v>-0.543021343786711</v>
       </c>
       <c r="Q39" t="n">
         <v>1.57806339854592</v>
@@ -7628,7 +7628,7 @@
         <v>0.774654103413132</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.578446469409299</v>
+        <v>0.684387498229109</v>
       </c>
       <c r="Q40" t="n">
         <v>-0.146253867936859</v>
@@ -7802,7 +7802,7 @@
         <v>-2.27560761159001</v>
       </c>
       <c r="P41" t="n">
-        <v>-1.83435869337463</v>
+        <v>-0.341828712325294</v>
       </c>
       <c r="Q41" t="n">
         <v>0.126006753086738</v>
@@ -7976,7 +7976,7 @@
         <v>0.701918038158217</v>
       </c>
       <c r="P42" t="n">
-        <v>0.988682366221351</v>
+        <v>1.0719174464694</v>
       </c>
       <c r="Q42" t="n">
         <v>1.21504923718112</v>
@@ -8150,7 +8150,7 @@
         <v>-0.874595401257201</v>
       </c>
       <c r="P43" t="n">
-        <v>-1.82165271883236</v>
+        <v>-1.8850283276393</v>
       </c>
       <c r="Q43" t="n">
         <v>0.76128153547513</v>
@@ -8324,7 +8324,7 @@
         <v>0.543589077011985</v>
       </c>
       <c r="P44" t="n">
-        <v>0.710482841729965</v>
+        <v>0.60946504156932</v>
       </c>
       <c r="Q44" t="n">
         <v>1.21504923718112</v>
@@ -8498,7 +8498,7 @@
         <v>0.635124342267359</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0618813572395922</v>
+        <v>-1.26498041045484</v>
       </c>
       <c r="Q45" t="n">
         <v>0.579774454792732</v>
@@ -8672,7 +8672,7 @@
         <v>0.282649510584146</v>
       </c>
       <c r="P46" t="n">
-        <v>-0.00798595974407987</v>
+        <v>0.299717890082975</v>
       </c>
       <c r="Q46" t="n">
         <v>-1.96132467476084</v>
@@ -8846,7 +8846,7 @@
         <v>-1.81477096977866</v>
       </c>
       <c r="P47" t="n">
-        <v>0.800590217636334</v>
+        <v>0.986660857856534</v>
       </c>
       <c r="Q47" t="n">
         <v>-0.418514488960456</v>
@@ -9020,7 +9020,7 @@
         <v>0.81505489389443</v>
       </c>
       <c r="P48" t="n">
-        <v>0.776755455928092</v>
+        <v>1.24381465922455</v>
       </c>
       <c r="Q48" t="n">
         <v>0.852035075816329</v>
@@ -9194,7 +9194,7 @@
         <v>0.461807269480779</v>
       </c>
       <c r="P49" t="n">
-        <v>-0.160326819777657</v>
+        <v>0.00671756850272768</v>
       </c>
       <c r="Q49" t="n">
         <v>-0.146253867936859</v>
@@ -9368,7 +9368,7 @@
         <v>0.442324758013405</v>
       </c>
       <c r="P50" t="n">
-        <v>0.869552283039498</v>
+        <v>1.42862953692105</v>
       </c>
       <c r="Q50" t="n">
         <v>-0.690775109984053</v>
@@ -9542,7 +9542,7 @@
         <v>-0.121622770689255</v>
       </c>
       <c r="P51" t="n">
-        <v>0.220996231930336</v>
+        <v>-1.0859323474643</v>
       </c>
       <c r="Q51" t="n">
         <v>0.579774454792732</v>
@@ -9718,7 +9718,7 @@
         <v>-0.253074814136863</v>
       </c>
       <c r="P52" t="n">
-        <v>-0.557954989670279</v>
+        <v>0.125560085963083</v>
       </c>
       <c r="Q52" t="n">
         <v>-1.96132467476084</v>
@@ -9894,7 +9894,7 @@
         <v>0.619212946680644</v>
       </c>
       <c r="P53" t="n">
-        <v>0.55324781588735</v>
+        <v>-0.320560699689726</v>
       </c>
       <c r="Q53" t="n">
         <v>1.48730985820472</v>
@@ -10070,7 +10070,7 @@
         <v>0.636458426559906</v>
       </c>
       <c r="P54" t="n">
-        <v>-3.75693917375107</v>
+        <v>-0.404479387290807</v>
       </c>
       <c r="Q54" t="n">
         <v>0.579774454792732</v>
@@ -10246,7 +10246,7 @@
         <v>0.318055619628716</v>
       </c>
       <c r="P55" t="n">
-        <v>0.782230690770505</v>
+        <v>0.955197116820835</v>
       </c>
       <c r="Q55" t="n">
         <v>0.216760293427937</v>
@@ -10422,7 +10422,7 @@
         <v>0.647070090947876</v>
       </c>
       <c r="P56" t="n">
-        <v>0.696196946976425</v>
+        <v>0.821729957266173</v>
       </c>
       <c r="Q56" t="n">
         <v>-0.146253867936859</v>
@@ -10598,7 +10598,7 @@
         <v>0.854536467759523</v>
       </c>
       <c r="P57" t="n">
-        <v>-1.25231711235756</v>
+        <v>-0.714042000706562</v>
       </c>
       <c r="Q57" t="n">
         <v>0.398267374110335</v>
@@ -10774,7 +10774,7 @@
         <v>0.616536643435231</v>
       </c>
       <c r="P58" t="n">
-        <v>-0.290397124513237</v>
+        <v>-0.893274601767695</v>
       </c>
       <c r="Q58" t="n">
         <v>-1.23529635203125</v>
@@ -10950,7 +10950,7 @@
         <v>0.632671742180757</v>
       </c>
       <c r="P59" t="n">
-        <v>0.609924763332083</v>
+        <v>-0.226723090794399</v>
       </c>
       <c r="Q59" t="n">
         <v>0.942788616157528</v>
@@ -11126,7 +11126,7 @@
         <v>-0.619813772691909</v>
       </c>
       <c r="P60" t="n">
-        <v>0.167056218698069</v>
+        <v>-2.12741908336007</v>
       </c>
       <c r="Q60" t="n">
         <v>0.0352532127455389</v>
@@ -11302,7 +11302,7 @@
         <v>0.310998801800763</v>
       </c>
       <c r="P61" t="n">
-        <v>-0.393951756444788</v>
+        <v>-1.91584618542793</v>
       </c>
       <c r="Q61" t="n">
         <v>0.852035075816329</v>
@@ -11478,7 +11478,7 @@
         <v>0.404783300634729</v>
       </c>
       <c r="P62" t="n">
-        <v>0.776153549028146</v>
+        <v>0.54773705695676</v>
       </c>
       <c r="Q62" t="n">
         <v>-1.87057113441964</v>
@@ -11654,7 +11654,7 @@
         <v>0.187551264108434</v>
       </c>
       <c r="P63" t="n">
-        <v>-0.238261123958958</v>
+        <v>-0.545420338704389</v>
       </c>
       <c r="Q63" t="n">
         <v>0.126006753086738</v>
@@ -11830,7 +11830,7 @@
         <v>0.821094879182332</v>
       </c>
       <c r="P64" t="n">
-        <v>0.481807752384182</v>
+        <v>-0.901947891085454</v>
       </c>
       <c r="Q64" t="n">
         <v>1.03354215649873</v>
@@ -12006,7 +12006,7 @@
         <v>0.485800450095818</v>
       </c>
       <c r="P65" t="n">
-        <v>0.88716882040057</v>
+        <v>0.781915868536248</v>
       </c>
       <c r="Q65" t="n">
         <v>1.30580277752232</v>
@@ -12182,7 +12182,7 @@
         <v>0.997413641627143</v>
       </c>
       <c r="P66" t="n">
-        <v>0.237529541834127</v>
+        <v>0.681896234276136</v>
       </c>
       <c r="Q66" t="n">
         <v>0.942788616157528</v>
@@ -12358,7 +12358,7 @@
         <v>-0.351105605658082</v>
       </c>
       <c r="P67" t="n">
-        <v>0.668291627595223</v>
+        <v>-1.35148263104419</v>
       </c>
       <c r="Q67" t="n">
         <v>0.216760293427937</v>
@@ -12534,7 +12534,7 @@
         <v>0.0662838153819746</v>
       </c>
       <c r="P68" t="n">
-        <v>0.129578803265003</v>
+        <v>0.306361260624237</v>
       </c>
       <c r="Q68" t="n">
         <v>0.398267374110335</v>
@@ -12708,7 +12708,7 @@
         <v>0.869821494501567</v>
       </c>
       <c r="P69" t="n">
-        <v>0.155464216006376</v>
+        <v>-0.41564394056154</v>
       </c>
       <c r="Q69" t="n">
         <v>-0.622709954728153</v>
@@ -12882,7 +12882,7 @@
         <v>-1.42945244705181</v>
       </c>
       <c r="P70" t="n">
-        <v>-0.734322593068041</v>
+        <v>0.971113525409275</v>
       </c>
       <c r="Q70" t="n">
         <v>-0.435757661625284</v>
@@ -13056,7 +13056,7 @@
         <v>-2.93154187919583</v>
       </c>
       <c r="P71" t="n">
-        <v>-0.31224545680991</v>
+        <v>-0.654943683599918</v>
       </c>
       <c r="Q71" t="n">
         <v>-1.07103244401368</v>
@@ -13230,7 +13230,7 @@
         <v>0.784366887835697</v>
       </c>
       <c r="P72" t="n">
-        <v>0.00887016628936483</v>
+        <v>0.225764258293786</v>
       </c>
       <c r="Q72" t="n">
         <v>1.55265240725038</v>
@@ -13404,7 +13404,7 @@
         <v>0.755924048025396</v>
       </c>
       <c r="P73" t="n">
-        <v>-0.533903309187084</v>
+        <v>0.296165532224105</v>
       </c>
       <c r="Q73" t="n">
         <v>0.213130151814289</v>
@@ -13578,7 +13578,7 @@
         <v>-3.59875078600573</v>
       </c>
       <c r="P74" t="n">
-        <v>-1.28386325111426</v>
+        <v>0.00261159643208667</v>
       </c>
       <c r="Q74" t="n">
         <v>0.237633607706412</v>
@@ -13752,7 +13752,7 @@
         <v>0.679458241013575</v>
       </c>
       <c r="P75" t="n">
-        <v>0.944694996309131</v>
+        <v>1.08215930938718</v>
       </c>
       <c r="Q75" t="n">
         <v>1.32213841478374</v>
@@ -13926,7 +13926,7 @@
         <v>-1.36012073714098</v>
       </c>
       <c r="P76" t="n">
-        <v>-1.5085176570251</v>
+        <v>-1.62076981055354</v>
       </c>
       <c r="Q76" t="n">
         <v>0.915562554055168</v>
@@ -14100,7 +14100,7 @@
         <v>0.524850886963929</v>
       </c>
       <c r="P77" t="n">
-        <v>0.677330479225511</v>
+        <v>0.746530693500498</v>
       </c>
       <c r="Q77" t="n">
         <v>-0.911306213013166</v>
@@ -14274,7 +14274,7 @@
         <v>0.671071406223236</v>
       </c>
       <c r="P78" t="n">
-        <v>0.074545656048726</v>
+        <v>-1.08399469772309</v>
       </c>
       <c r="Q78" t="n">
         <v>0.297530944331604</v>
@@ -14448,7 +14448,7 @@
         <v>-0.415845299818037</v>
       </c>
       <c r="P79" t="n">
-        <v>-0.00349181265231594</v>
+        <v>0.48167242768532</v>
       </c>
       <c r="Q79" t="n">
         <v>-0.56190508269955</v>
@@ -14622,7 +14622,7 @@
         <v>-1.84942462274359</v>
       </c>
       <c r="P80" t="n">
-        <v>0.747372356042255</v>
+        <v>1.13055441839957</v>
       </c>
       <c r="Q80" t="n">
         <v>0.302976156752076</v>
@@ -14796,7 +14796,7 @@
         <v>0.689150688785339</v>
       </c>
       <c r="P81" t="n">
-        <v>0.765385837681271</v>
+        <v>1.2035853598358</v>
       </c>
       <c r="Q81" t="n">
         <v>0.668712924327107</v>
@@ -14970,7 +14970,7 @@
         <v>0.326568541654021</v>
       </c>
       <c r="P82" t="n">
-        <v>0.116903914720399</v>
+        <v>-0.0584705049334065</v>
       </c>
       <c r="Q82" t="n">
         <v>0.473592812593529</v>
@@ -15144,7 +15144,7 @@
         <v>0.376145228976738</v>
       </c>
       <c r="P83" t="n">
-        <v>0.866327537786666</v>
+        <v>1.5663410720993</v>
       </c>
       <c r="Q83" t="n">
         <v>0.343815249905615</v>
@@ -15318,7 +15318,7 @@
         <v>-0.373764701980574</v>
       </c>
       <c r="P84" t="n">
-        <v>0.109645846670939</v>
+        <v>-0.116138651992973</v>
       </c>
       <c r="Q84" t="n">
         <v>0.781247314350194</v>
@@ -15494,7 +15494,7 @@
         <v>-0.226690043387625</v>
       </c>
       <c r="P85" t="n">
-        <v>-0.450423058058779</v>
+        <v>0.284355095706306</v>
       </c>
       <c r="Q85" t="n">
         <v>-1.26706009115067</v>
@@ -15670,7 +15670,7 @@
         <v>-0.44453217943795</v>
       </c>
       <c r="P86" t="n">
-        <v>0.693056578002985</v>
+        <v>-0.326235245360387</v>
       </c>
       <c r="Q86" t="n">
         <v>1.66881693888712</v>
@@ -15846,7 +15846,7 @@
         <v>0.61572317740319</v>
       </c>
       <c r="P87" t="n">
-        <v>-3.79040888671526</v>
+        <v>-0.1834489132409</v>
       </c>
       <c r="Q87" t="n">
         <v>0.462702387752586</v>
@@ -16022,7 +16022,7 @@
         <v>0.10140521131533</v>
       </c>
       <c r="P88" t="n">
-        <v>0.767067897599167</v>
+        <v>1.09609193371677</v>
       </c>
       <c r="Q88" t="n">
         <v>0.837514509361737</v>
@@ -16198,7 +16198,7 @@
         <v>0.431326697260216</v>
       </c>
       <c r="P89" t="n">
-        <v>0.678785030632985</v>
+        <v>0.34935863107185</v>
       </c>
       <c r="Q89" t="n">
         <v>0.600647769071208</v>
@@ -16374,7 +16374,7 @@
         <v>0.706928988915587</v>
       </c>
       <c r="P90" t="n">
-        <v>-1.07400407207263</v>
+        <v>-0.879895591649876</v>
       </c>
       <c r="Q90" t="n">
         <v>-0.433035055415047</v>
@@ -16550,7 +16550,7 @@
         <v>-0.0346266458926679</v>
       </c>
       <c r="P91" t="n">
-        <v>-0.0678972173640047</v>
+        <v>-1.66058389928347</v>
       </c>
       <c r="Q91" t="n">
         <v>0.818456265890085</v>
@@ -16726,7 +16726,7 @@
         <v>0.382648889902903</v>
       </c>
       <c r="P92" t="n">
-        <v>0.596968392786596</v>
+        <v>-0.178281847264363</v>
       </c>
       <c r="Q92" t="n">
         <v>0.485390772837886</v>
@@ -16902,7 +16902,7 @@
         <v>-1.04937264557129</v>
       </c>
       <c r="P93" t="n">
-        <v>0.196037250240412</v>
+        <v>-2.39209281110466</v>
       </c>
       <c r="Q93" t="n">
         <v>1.0008708819759</v>
@@ -17078,7 +17078,7 @@
         <v>0.0731087953907957</v>
       </c>
       <c r="P94" t="n">
-        <v>-0.694512019787852</v>
+        <v>-1.72747894987256</v>
       </c>
       <c r="Q94" t="n">
         <v>0.634226578997451</v>
@@ -17254,7 +17254,7 @@
         <v>0.3821892815948</v>
       </c>
       <c r="P95" t="n">
-        <v>0.810588977546332</v>
+        <v>0.840045360772292</v>
       </c>
       <c r="Q95" t="n">
         <v>-1.47216309232178</v>
@@ -17430,7 +17430,7 @@
         <v>-0.257707503189335</v>
       </c>
       <c r="P96" t="n">
-        <v>-0.251409476160386</v>
+        <v>-0.680409937341422</v>
       </c>
       <c r="Q96" t="n">
         <v>0.487205843644709</v>
@@ -17606,7 +17606,7 @@
         <v>0.733228345731462</v>
       </c>
       <c r="P97" t="n">
-        <v>0.271871712359302</v>
+        <v>-2.4277547932463</v>
       </c>
       <c r="Q97" t="n">
         <v>1.09616209933415</v>
@@ -17782,7 +17782,7 @@
         <v>0.219426930573947</v>
       </c>
       <c r="P98" t="n">
-        <v>0.790690522993638</v>
+        <v>0.981493791879997</v>
       </c>
       <c r="Q98" t="n">
         <v>1.33756651664174</v>
@@ -17958,7 +17958,7 @@
         <v>1.02123599437545</v>
       </c>
       <c r="P99" t="n">
-        <v>0.157517258270096</v>
+        <v>0.863712368325538</v>
       </c>
       <c r="Q99" t="n">
         <v>1.29037467566432</v>
@@ -18134,7 +18134,7 @@
         <v>-0.65123796550964</v>
       </c>
       <c r="P100" t="n">
-        <v>0.621802688881469</v>
+        <v>-0.619004894352396</v>
       </c>
       <c r="Q100" t="n">
         <v>0.481760631224238</v>
@@ -18310,7 +18310,7 @@
         <v>-0.0723999410904753</v>
       </c>
       <c r="P101" t="n">
-        <v>0.146808302874861</v>
+        <v>0.354479562530739</v>
       </c>
       <c r="Q101" t="n">
         <v>-0.0555003275956601</v>
@@ -18486,7 +18486,7 @@
         <v>0.879208892511316</v>
       </c>
       <c r="P102" t="n">
-        <v>0.219052161460647</v>
+        <v>-0.715379901718344</v>
       </c>
       <c r="Q102" t="n">
         <v>-1.4131732911</v>
@@ -18662,7 +18662,7 @@
         <v>-2.2454483584521</v>
       </c>
       <c r="P103" t="n">
-        <v>-0.438853259651136</v>
+        <v>0.944401639691284</v>
       </c>
       <c r="Q103" t="n">
         <v>-1.65276263760076</v>
@@ -18838,7 +18838,7 @@
         <v>0.0634814249015946</v>
       </c>
       <c r="P104" t="n">
-        <v>-0.230975727559897</v>
+        <v>0.175293095987253</v>
       </c>
       <c r="Q104" t="n">
         <v>-1.27976558679843</v>
@@ -19014,7 +19014,7 @@
         <v>0.785981617909298</v>
       </c>
       <c r="P105" t="n">
-        <v>-0.0593041594365709</v>
+        <v>0.585844168533721</v>
       </c>
       <c r="Q105" t="n">
         <v>1.56263529668792</v>
@@ -19190,7 +19190,7 @@
         <v>0.801291048632303</v>
       </c>
       <c r="P106" t="n">
-        <v>-0.302598207796646</v>
+        <v>0.345852407730628</v>
       </c>
       <c r="Q106" t="n">
         <v>0.541657967849429</v>
@@ -19366,7 +19366,7 @@
         <v>-2.87784905375098</v>
       </c>
       <c r="P107" t="n">
-        <v>-1.07296217874412</v>
+        <v>0.395585417754798</v>
       </c>
       <c r="Q107" t="n">
         <v>-0.278754036835009</v>
@@ -19542,7 +19542,7 @@
         <v>0.634217327641634</v>
       </c>
       <c r="P108" t="n">
-        <v>0.93947186549178</v>
+        <v>1.0837278829872</v>
       </c>
       <c r="Q108" t="n">
         <v>1.24409037009031</v>
@@ -19718,7 +19718,7 @@
         <v>-2.1309204758011</v>
       </c>
       <c r="P109" t="n">
-        <v>-1.23431285403653</v>
+        <v>-1.61080475474165</v>
       </c>
       <c r="Q109" t="n">
         <v>0.267582276019008</v>
@@ -19894,7 +19894,7 @@
         <v>0.457316936983914</v>
       </c>
       <c r="P110" t="n">
-        <v>0.702059902778792</v>
+        <v>0.592625942627926</v>
       </c>
       <c r="Q110" t="n">
         <v>-1.96132467476084</v>
@@ -20070,7 +20070,7 @@
         <v>0.723926361655077</v>
       </c>
       <c r="P111" t="n">
-        <v>-0.00096838117110132</v>
+        <v>-0.882156183014611</v>
       </c>
       <c r="Q111" t="n">
         <v>-0.0573153984024842</v>
@@ -20246,7 +20246,7 @@
         <v>-1.22029812822368</v>
       </c>
       <c r="P112" t="n">
-        <v>0.065234545735545</v>
+        <v>0.312635555024318</v>
       </c>
       <c r="Q112" t="n">
         <v>-0.987539186899773</v>
@@ -20422,7 +20422,7 @@
         <v>-1.53420653532784</v>
       </c>
       <c r="P113" t="n">
-        <v>0.685626682955412</v>
+        <v>1.01872434762165</v>
       </c>
       <c r="Q113" t="n">
         <v>0.176828735677809</v>
@@ -20598,7 +20598,7 @@
         <v>0.659373764682491</v>
       </c>
       <c r="P114" t="n">
-        <v>0.782968897814082</v>
+        <v>1.17950314162373</v>
       </c>
       <c r="Q114" t="n">
         <v>0.00530454443294297</v>
@@ -20774,7 +20774,7 @@
         <v>-0.327303589560573</v>
       </c>
       <c r="P115" t="n">
-        <v>0.103124277643205</v>
+        <v>-0.234935034935681</v>
       </c>
       <c r="Q115" t="n">
         <v>-0.0337194779137723</v>
@@ -20950,7 +20950,7 @@
         <v>0.362239027159003</v>
       </c>
       <c r="P116" t="n">
-        <v>0.860861867866613</v>
+        <v>1.59794321668794</v>
       </c>
       <c r="Q116" t="n">
         <v>-1.77981759407844</v>
@@ -21126,7 +21126,7 @@
         <v>-0.656684120594152</v>
       </c>
       <c r="P117" t="n">
-        <v>0.0633137043630163</v>
+        <v>0.0722747180800433</v>
       </c>
       <c r="Q117" t="n">
         <v>0.537120290832369</v>
@@ -21302,7 +21302,7 @@
         <v>-0.555110684503396</v>
       </c>
       <c r="P118" t="n">
-        <v>-0.438761368075606</v>
+        <v>0.162329296528263</v>
       </c>
       <c r="Q118" t="n">
         <v>-1.27795051599161</v>
@@ -21478,7 +21478,7 @@
         <v>-0.171191323351652</v>
       </c>
       <c r="P119" t="n">
-        <v>0.729752402637483</v>
+        <v>0.183274367540297</v>
       </c>
       <c r="Q119" t="n">
         <v>1.66881693888712</v>
@@ -21654,7 +21654,7 @@
         <v>0.484364682549266</v>
       </c>
       <c r="P120" t="n">
-        <v>-3.92151391108758</v>
+        <v>-0.206285499476488</v>
       </c>
       <c r="Q120" t="n">
         <v>0.255784315774652</v>
@@ -21830,7 +21830,7 @@
         <v>-0.00167720426486132</v>
       </c>
       <c r="P121" t="n">
-        <v>0.816437585965159</v>
+        <v>1.32510367931972</v>
       </c>
       <c r="Q121" t="n">
         <v>0.685048561588523</v>
@@ -22006,7 +22006,7 @@
         <v>0.334048361818635</v>
       </c>
       <c r="P122" t="n">
-        <v>0.742942772176422</v>
+        <v>0.263594562764862</v>
       </c>
       <c r="Q122" t="n">
         <v>0.41460301137175</v>
@@ -22182,7 +22182,7 @@
         <v>0.694385342701521</v>
       </c>
       <c r="P123" t="n">
-        <v>-1.21760840034337</v>
+        <v>-1.33404378337338</v>
       </c>
       <c r="Q123" t="n">
         <v>-1.53206042894697</v>
@@ -22358,7 +22358,7 @@
         <v>-0.960952955218636</v>
       </c>
       <c r="P124" t="n">
-        <v>0.0928686312469648</v>
+        <v>-0.204347849735287</v>
       </c>
       <c r="Q124" t="n">
         <v>-0.126288089061795</v>
@@ -22534,7 +22534,7 @@
         <v>0.307614783107474</v>
       </c>
       <c r="P125" t="n">
-        <v>0.532433178414306</v>
+        <v>-0.114800750981191</v>
       </c>
       <c r="Q125" t="n">
         <v>-0.360432223142089</v>
@@ -22710,7 +22710,7 @@
         <v>-0.472295775111498</v>
       </c>
       <c r="P126" t="n">
-        <v>0.227209332211956</v>
+        <v>-2.40058156235183</v>
       </c>
       <c r="Q126" t="n">
         <v>0.778524708139958</v>
@@ -22886,7 +22886,7 @@
         <v>-0.150797729928393</v>
       </c>
       <c r="P127" t="n">
-        <v>-0.672303294880826</v>
+        <v>-1.46801842262216</v>
       </c>
       <c r="Q127" t="n">
         <v>0.861110429850449</v>
@@ -23062,7 +23062,7 @@
         <v>0.198293083061531</v>
       </c>
       <c r="P128" t="n">
-        <v>0.849986892747557</v>
+        <v>0.97867958630349</v>
       </c>
       <c r="Q128" t="n">
         <v>-1.75168399657267</v>
@@ -23238,7 +23238,7 @@
         <v>-0.509686741274246</v>
       </c>
       <c r="P129" t="n">
-        <v>-0.0643250604668799</v>
+        <v>-0.016995573568166</v>
       </c>
       <c r="Q129" t="n">
         <v>0.163215704626629</v>
@@ -23414,7 +23414,7 @@
         <v>0.659503919247617</v>
       </c>
       <c r="P130" t="n">
-        <v>0.281299992971395</v>
+        <v>-1.00759593649858</v>
       </c>
       <c r="Q130" t="n">
         <v>0.899226916793752</v>
@@ -23590,7 +23590,7 @@
         <v>0.387074145117204</v>
       </c>
       <c r="P131" t="n">
-        <v>0.640300565517149</v>
+        <v>0.964700827456251</v>
       </c>
       <c r="Q131" t="n">
         <v>1.13609365708428</v>
@@ -23766,7 +23766,7 @@
         <v>1.00948547754263</v>
       </c>
       <c r="P132" t="n">
-        <v>0.176066717165647</v>
+        <v>0.957503842703217</v>
       </c>
       <c r="Q132" t="n">
         <v>1.37023779116457</v>
@@ -23942,7 +23942,7 @@
         <v>-0.796156939117681</v>
       </c>
       <c r="P133" t="n">
-        <v>0.630788591834407</v>
+        <v>-0.600966297952163</v>
       </c>
       <c r="Q133" t="n">
         <v>0.45997978154235</v>
@@ -24118,7 +24118,7 @@
         <v>-0.0598725641970494</v>
       </c>
       <c r="P134" t="n">
-        <v>0.163913116889668</v>
+        <v>0.399414582719554</v>
       </c>
       <c r="Q134" t="n">
         <v>-0.237007408278058</v>
@@ -24294,7 +24294,7 @@
         <v>0.773328153780905</v>
       </c>
       <c r="P135" t="n">
-        <v>0.233546093275518</v>
+        <v>-1.00741139842799</v>
       </c>
       <c r="Q135" t="n">
         <v>-1.0347310278772</v>
@@ -24470,7 +24470,7 @@
         <v>-2.09041800206579</v>
       </c>
       <c r="P136" t="n">
-        <v>-0.0723558376012882</v>
+        <v>1.00852861922152</v>
       </c>
       <c r="Q136" t="n">
         <v>-1.25798473711655</v>
@@ -24646,7 +24646,7 @@
         <v>0.581431516822516</v>
       </c>
       <c r="P137" t="n">
-        <v>-0.251934863681451</v>
+        <v>-0.318346242842638</v>
       </c>
       <c r="Q137" t="n">
         <v>-1.25344706009949</v>
@@ -24822,7 +24822,7 @@
         <v>0.775093375070434</v>
       </c>
       <c r="P138" t="n">
-        <v>-0.100320596142871</v>
+        <v>0.136493966645577</v>
       </c>
       <c r="Q138" t="n">
         <v>1.63160798734723</v>
@@ -24998,7 +24998,7 @@
         <v>0.726236605186072</v>
       </c>
       <c r="P139" t="n">
-        <v>-0.30200176656662</v>
+        <v>0.52471593265058</v>
       </c>
       <c r="Q139" t="n">
         <v>0.0543114562171906</v>
@@ -25174,7 +25174,7 @@
         <v>-3.24998535942862</v>
       </c>
       <c r="P140" t="n">
-        <v>-1.19667010208839</v>
+        <v>0.894760898702409</v>
       </c>
       <c r="Q140" t="n">
         <v>-0.521973524949423</v>
@@ -25350,7 +25350,7 @@
         <v>0.67235668255386</v>
       </c>
       <c r="P141" t="n">
-        <v>0.925360872175683</v>
+        <v>1.17498195889426</v>
       </c>
       <c r="Q141" t="n">
         <v>0.908302270827872</v>
@@ -25526,7 +25526,7 @@
         <v>-2.05333208566506</v>
       </c>
       <c r="P142" t="n">
-        <v>-1.41314684098572</v>
+        <v>-1.49191610276365</v>
       </c>
       <c r="Q142" t="n">
         <v>-0.00921602202164887</v>
@@ -25702,7 +25702,7 @@
         <v>0.532233091204698</v>
       </c>
       <c r="P143" t="n">
-        <v>0.738745479282191</v>
+        <v>0.606650835992813</v>
       </c>
       <c r="Q143" t="n">
         <v>-1.96132467476084</v>
@@ -25878,7 +25878,7 @@
         <v>0.734021475112701</v>
       </c>
       <c r="P144" t="n">
-        <v>0.0490298592356968</v>
+        <v>-1.05806709880511</v>
       </c>
       <c r="Q144" t="n">
         <v>-0.200705992141578</v>
@@ -26054,7 +26054,7 @@
         <v>-1.52961451957697</v>
       </c>
       <c r="P145" t="n">
-        <v>0.0427812320995958</v>
+        <v>0.295704187047629</v>
       </c>
       <c r="Q145" t="n">
         <v>-1.11550167878086</v>
@@ -26230,7 +26230,7 @@
         <v>-1.04388581718518</v>
       </c>
       <c r="P146" t="n">
-        <v>0.619259102742424</v>
+        <v>1.07214811905764</v>
       </c>
       <c r="Q146" t="n">
         <v>-0.170757323828983</v>
@@ -26406,7 +26406,7 @@
         <v>0.479536761649105</v>
       </c>
       <c r="P147" t="n">
-        <v>0.817834747838473</v>
+        <v>1.4128976664032</v>
       </c>
       <c r="Q147" t="n">
         <v>-0.26060332876677</v>
@@ -26582,7 +26582,7 @@
         <v>-0.115359082242542</v>
       </c>
       <c r="P148" t="n">
-        <v>0.319560024016138</v>
+        <v>0.117994025068868</v>
       </c>
       <c r="Q148" t="n">
         <v>-0.136270978499327</v>
@@ -26758,7 +26758,7 @@
         <v>0.353534940616168</v>
       </c>
       <c r="P149" t="n">
-        <v>0.803927009122527</v>
+        <v>1.39342889995589</v>
       </c>
       <c r="Q149" t="n">
         <v>-1.87238620522646</v>
@@ -26934,7 +26934,7 @@
         <v>-0.971536148295485</v>
       </c>
       <c r="P150" t="n">
-        <v>0.133885409557635</v>
+        <v>-0.310549509360185</v>
       </c>
       <c r="Q150" t="n">
         <v>0.40552765733763</v>
@@ -27110,7 +27110,7 @@
         <v>-1.0114651284782</v>
       </c>
       <c r="P151" t="n">
-        <v>-0.55090461707778</v>
+        <v>-0.185524966535044</v>
       </c>
       <c r="Q151" t="n">
         <v>-1.6028481904131</v>
@@ -27286,7 +27286,7 @@
         <v>0.420340838497507</v>
       </c>
       <c r="P152" t="n">
-        <v>0.773866166166604</v>
+        <v>1.00433037811559</v>
       </c>
       <c r="Q152" t="n">
         <v>1.66881693888712</v>
@@ -27462,7 +27462,7 @@
         <v>0.392626050785882</v>
       </c>
       <c r="P153" t="n">
-        <v>-3.60703941854554</v>
+        <v>0.0295541547383162</v>
       </c>
       <c r="Q153" t="n">
         <v>-0.42486723678434</v>
@@ -27638,7 +27638,7 @@
         <v>-0.0307545475801543</v>
       </c>
       <c r="P154" t="n">
-        <v>0.733676412035711</v>
+        <v>1.05876910893982</v>
       </c>
       <c r="Q154" t="n">
         <v>-0.0319044071069485</v>
@@ -27814,7 +27814,7 @@
         <v>0.326137404657039</v>
       </c>
       <c r="P155" t="n">
-        <v>0.747769983528939</v>
+        <v>0.510552635732751</v>
       </c>
       <c r="Q155" t="n">
         <v>-0.237007408278058</v>
@@ -27990,7 +27990,7 @@
         <v>0.711260695536204</v>
       </c>
       <c r="P156" t="n">
-        <v>-0.90219176294886</v>
+        <v>-1.40130791010365</v>
       </c>
       <c r="Q156" t="n">
         <v>-0.129918230675443</v>
@@ -28166,7 +28166,7 @@
         <v>-0.692720665813553</v>
       </c>
       <c r="P157" t="n">
-        <v>-0.161881119661172</v>
+        <v>-0.926030109297529</v>
       </c>
       <c r="Q157" t="n">
         <v>-1.0574194129625</v>
@@ -28342,7 +28342,7 @@
         <v>0.372134841438778</v>
       </c>
       <c r="P158" t="n">
-        <v>0.475795857076493</v>
+        <v>0.385020613213486</v>
       </c>
       <c r="Q158" t="n">
         <v>-0.152606615760743</v>
@@ -28518,7 +28518,7 @@
         <v>-0.35366395632885</v>
       </c>
       <c r="P159" t="n">
-        <v>0.134006337504616</v>
+        <v>-1.74690158180223</v>
       </c>
       <c r="Q159" t="n">
         <v>0.106040974211674</v>
@@ -28694,7 +28694,7 @@
         <v>-0.734919216225661</v>
       </c>
       <c r="P160" t="n">
-        <v>-0.726968875794979</v>
+        <v>-0.957632253886172</v>
       </c>
       <c r="Q160" t="n">
         <v>1.11159020119216</v>
@@ -28870,7 +28870,7 @@
         <v>0.0135508798549395</v>
       </c>
       <c r="P161" t="n">
-        <v>0.805460471139472</v>
+        <v>1.33156251179039</v>
       </c>
       <c r="Q161" t="n">
         <v>-1.6101084736404</v>
@@ -29046,7 +29046,7 @@
         <v>0.126293204565613</v>
       </c>
       <c r="P162" t="n">
-        <v>-0.160886367735723</v>
+        <v>-0.346303760537116</v>
       </c>
       <c r="Q162" t="n">
         <v>-0.722538849103472</v>
@@ -29222,7 +29222,7 @@
         <v>0.554635945727097</v>
       </c>
       <c r="P163" t="n">
-        <v>0.590783304063316</v>
+        <v>0.0733358119859393</v>
       </c>
       <c r="Q163" t="n">
         <v>0.992703063345187</v>
@@ -29398,7 +29398,7 @@
         <v>0.402769972205429</v>
       </c>
       <c r="P164" t="n">
-        <v>0.627696047472766</v>
+        <v>1.13263047169371</v>
       </c>
       <c r="Q164" t="n">
         <v>0.903764593810813</v>
@@ -29574,7 +29574,7 @@
         <v>1.03440194210403</v>
       </c>
       <c r="P165" t="n">
-        <v>0.130879632705976</v>
+        <v>0.739195305194521</v>
       </c>
       <c r="Q165" t="n">
         <v>1.51635099111391</v>
@@ -29750,7 +29750,7 @@
         <v>-0.56079681206736</v>
       </c>
       <c r="P166" t="n">
-        <v>0.61371042296046</v>
+        <v>-1.36449256502083</v>
       </c>
       <c r="Q166" t="n">
         <v>0.0615717394444866</v>
@@ -29926,7 +29926,7 @@
         <v>-0.0624959921503804</v>
       </c>
       <c r="P167" t="n">
-        <v>0.324648221107338</v>
+        <v>0.475859478461715</v>
       </c>
       <c r="Q167" t="n">
         <v>-0.327760948619257</v>
@@ -30102,7 +30102,7 @@
         <v>0.852824121762078</v>
       </c>
       <c r="P168" t="n">
-        <v>0.14251467754829</v>
+        <v>-0.502422968256775</v>
       </c>
       <c r="Q168" t="n">
         <v>-1.00659743037142</v>
@@ -30278,7 +30278,7 @@
         <v>-2.08043677385266</v>
       </c>
       <c r="P169" t="n">
-        <v>-0.00915561310697129</v>
+        <v>0.592118462933802</v>
       </c>
       <c r="Q169" t="n">
         <v>-1.24074156445172</v>
@@ -30454,7 +30454,7 @@
         <v>0.720818921412681</v>
       </c>
       <c r="P170" t="n">
-        <v>0.015957773758194</v>
+        <v>-0.0606849617804938</v>
       </c>
       <c r="Q170" t="n">
         <v>-1.15089555951393</v>
@@ -30630,7 +30630,7 @@
         <v>0.785184421197898</v>
       </c>
       <c r="P171" t="n">
-        <v>0.0363495050211731</v>
+        <v>0.289337623612253</v>
       </c>
       <c r="Q171" t="n">
         <v>1.39746385326693</v>
@@ -30806,7 +30806,7 @@
         <v>0.805362446122666</v>
       </c>
       <c r="P172" t="n">
-        <v>-0.00543280868267485</v>
+        <v>0.674883787593692</v>
       </c>
       <c r="Q172" t="n">
         <v>0.0570340624274267</v>
@@ -30982,7 +30982,7 @@
         <v>-2.74123963566024</v>
       </c>
       <c r="P173" t="n">
-        <v>-1.22835254098871</v>
+        <v>0.0273858324088764</v>
       </c>
       <c r="Q173" t="n">
         <v>-0.556459870279078</v>
@@ -31158,7 +31158,7 @@
         <v>0.729311506787186</v>
       </c>
       <c r="P174" t="n">
-        <v>0.947364634460707</v>
+        <v>1.25613257543648</v>
       </c>
       <c r="Q174" t="n">
         <v>0.921915301879052</v>
@@ -31334,7 +31334,7 @@
         <v>-2.6503958165321</v>
       </c>
       <c r="P175" t="n">
-        <v>-0.881959902531042</v>
+        <v>-1.51212302149332</v>
       </c>
       <c r="Q175" t="n">
         <v>-0.193445708914283</v>
@@ -31510,7 +31510,7 @@
         <v>0.526823542091628</v>
       </c>
       <c r="P176" t="n">
-        <v>0.89954241389083</v>
+        <v>1.01918569279813</v>
       </c>
       <c r="Q176" t="n">
         <v>-1.96132467476084</v>
@@ -31686,7 +31686,7 @@
         <v>0.745300181646945</v>
       </c>
       <c r="P177" t="n">
-        <v>0.094327623511249</v>
+        <v>-0.358944618372573</v>
       </c>
       <c r="Q177" t="n">
         <v>-0.250620439329238</v>
@@ -31862,7 +31862,7 @@
         <v>-2.42554567061574</v>
       </c>
       <c r="P178" t="n">
-        <v>0.27267072498074</v>
+        <v>0.511106249944523</v>
       </c>
       <c r="Q178" t="n">
         <v>-1.28248819300867</v>
@@ -32038,7 +32038,7 @@
         <v>-0.614143914448586</v>
       </c>
       <c r="P179" t="n">
-        <v>0.648666798142901</v>
+        <v>1.19624997152982</v>
       </c>
       <c r="Q179" t="n">
         <v>-0.00558588040800091</v>
@@ -32214,7 +32214,7 @@
         <v>0.635274833483287</v>
       </c>
       <c r="P180" t="n">
-        <v>0.889585671318343</v>
+        <v>1.37133046600267</v>
       </c>
       <c r="Q180" t="n">
         <v>-0.530141343580131</v>
@@ -32390,7 +32390,7 @@
         <v>0.0263100945674971</v>
       </c>
       <c r="P181" t="n">
-        <v>0.495426835407475</v>
+        <v>0.51470474232104</v>
       </c>
       <c r="Q181" t="n">
         <v>-0.86774451364939</v>
@@ -32566,7 +32566,7 @@
         <v>0.378768656930069</v>
       </c>
       <c r="P182" t="n">
-        <v>0.801899587186557</v>
+        <v>1.07343988555177</v>
       </c>
       <c r="Q182" t="n">
         <v>-1.96132467476084</v>
@@ -32742,7 +32742,7 @@
         <v>-0.93741531558154</v>
       </c>
       <c r="P183" t="n">
-        <v>0.150405738495367</v>
+        <v>-0.29020418707757</v>
       </c>
       <c r="Q183" t="n">
         <v>0.350167997729499</v>
@@ -32918,7 +32918,7 @@
         <v>-0.920129162400676</v>
       </c>
       <c r="P184" t="n">
-        <v>-0.310068412159879</v>
+        <v>-0.0947322358044622</v>
       </c>
       <c r="Q184" t="n">
         <v>-0.936717204308702</v>
@@ -33094,7 +33094,7 @@
         <v>0.509106251913782</v>
       </c>
       <c r="P185" t="n">
-        <v>0.88005115174718</v>
+        <v>0.946293154914837</v>
       </c>
       <c r="Q185" t="n">
         <v>1.38929603463623</v>
@@ -33270,7 +33270,7 @@
         <v>0.471259744773091</v>
       </c>
       <c r="P186" t="n">
-        <v>-2.64054090733006</v>
+        <v>0.111442923562901</v>
       </c>
       <c r="Q186" t="n">
         <v>-0.22430191263029</v>
@@ -33446,7 +33446,7 @@
         <v>0.256882974019259</v>
       </c>
       <c r="P187" t="n">
-        <v>0.799535343341764</v>
+        <v>1.17226002235304</v>
       </c>
       <c r="Q187" t="n">
         <v>-0.190723102704046</v>
@@ -33622,7 +33622,7 @@
         <v>0.481175895703667</v>
       </c>
       <c r="P188" t="n">
-        <v>0.799926138741048</v>
+        <v>0.420036712108055</v>
       </c>
       <c r="Q188" t="n">
         <v>-0.689867574580641</v>
@@ -33798,7 +33798,7 @@
         <v>0.728331280218577</v>
       </c>
       <c r="P189" t="n">
-        <v>-0.30706297691259</v>
+        <v>-1.13285115191196</v>
       </c>
       <c r="Q189" t="n">
         <v>-0.531956414386954</v>
@@ -33974,7 +33974,7 @@
         <v>-0.25660525671592</v>
       </c>
       <c r="P190" t="n">
-        <v>0.279607001713658</v>
+        <v>0.0668308449976201</v>
       </c>
       <c r="Q190" t="n">
         <v>-1.96132467476084</v>
@@ -34150,7 +34150,7 @@
         <v>-0.0376568068620193</v>
       </c>
       <c r="P191" t="n">
-        <v>0.568117512509225</v>
+        <v>0.520840633168178</v>
       </c>
       <c r="Q191" t="n">
         <v>-0.711648424262529</v>
@@ -34326,7 +34326,7 @@
         <v>0.205776970556305</v>
       </c>
       <c r="P192" t="n">
-        <v>0.320078921054173</v>
+        <v>-2.03408895415887</v>
       </c>
       <c r="Q192" t="n">
         <v>-0.0709284294536638</v>
@@ -34502,7 +34502,7 @@
         <v>-1.06823692285432</v>
       </c>
       <c r="P193" t="n">
-        <v>-0.35315087209596</v>
+        <v>-1.08943857080552</v>
       </c>
       <c r="Q193" t="n">
         <v>0.754021252247834</v>
@@ -34678,7 +34678,7 @@
         <v>0.127818453375689</v>
       </c>
       <c r="P194" t="n">
-        <v>0.805053961939168</v>
+        <v>1.44246989221535</v>
       </c>
       <c r="Q194" t="n">
         <v>-1.95497192693695</v>
@@ -34854,7 +34854,7 @@
         <v>0.196942729448344</v>
       </c>
       <c r="P195" t="n">
-        <v>0.119884071244309</v>
+        <v>-0.178835461476134</v>
       </c>
       <c r="Q195" t="n">
         <v>-0.754302588222892</v>
@@ -35030,7 +35030,7 @@
         <v>0.65175158796227</v>
       </c>
       <c r="P196" t="n">
-        <v>0.615917528795051</v>
+        <v>-0.227599646629704</v>
       </c>
       <c r="Q196" t="n">
         <v>1.28039178622679</v>
@@ -35206,7 +35206,7 @@
         <v>0.523386648106256</v>
       </c>
       <c r="P197" t="n">
-        <v>0.702023009506832</v>
+        <v>1.23265010595382</v>
       </c>
       <c r="Q197" t="n">
         <v>0.76581921249219</v>
@@ -35382,7 +35382,7 @@
         <v>0.991979688533111</v>
       </c>
       <c r="P198" t="n">
-        <v>0.43139309625035</v>
+        <v>1.35283052442596</v>
       </c>
       <c r="Q198" t="n">
         <v>1.37659053898846</v>
@@ -35558,7 +35558,7 @@
         <v>-2.00103435446517</v>
       </c>
       <c r="P199" t="n">
-        <v>0.65472617645802</v>
+        <v>-0.686961038847389</v>
       </c>
       <c r="Q199" t="n">
         <v>-0.183462819476751</v>
@@ -35732,7 +35732,7 @@
         <v>1.97544228013687</v>
       </c>
       <c r="P200" t="n">
-        <v>1.14245010770843</v>
+        <v>1.73048768588965</v>
       </c>
       <c r="Q200" t="n">
         <v>1.66881693888712</v>
@@ -35906,7 +35906,7 @@
         <v>-4.53979112403857</v>
       </c>
       <c r="P201" t="n">
-        <v>-5.45483120878088</v>
+        <v>-3.59337379374248</v>
       </c>
       <c r="Q201" t="n">
         <v>-1.96132467476084</v>

--- a/03_ips_clean/00_ips_wide_norm_complete.xlsx
+++ b/03_ips_clean/00_ips_wide_norm_complete.xlsx
@@ -965,7 +965,7 @@
         <v>0.0285928109754451</v>
       </c>
       <c r="U2" t="n">
-        <v>0.520297329912556</v>
+        <v>0.520297246815478</v>
       </c>
       <c r="V2" t="n">
         <v>0.461921744942827</v>
@@ -974,7 +974,7 @@
         <v>0.760678157590897</v>
       </c>
       <c r="X2" t="n">
-        <v>0.223403697982879</v>
+        <v>0.221893126787334</v>
       </c>
       <c r="Y2" t="n">
         <v>-0.336983556247336</v>
@@ -989,7 +989,7 @@
         <v>-0.0852642916652622</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.125775442497594</v>
+        <v>-0.125775442497589</v>
       </c>
       <c r="AD2" t="n">
         <v>0.314555972420166</v>
@@ -1013,7 +1013,7 @@
         <v>-0.35985229868665</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.667364663018636</v>
+        <v>-0.667364807724604</v>
       </c>
       <c r="AL2" t="n">
         <v>-0.945936305147778</v>
@@ -1141,7 +1141,7 @@
         <v>-0.202109917371018</v>
       </c>
       <c r="U3" t="n">
-        <v>0.891209290253302</v>
+        <v>0.891209239411523</v>
       </c>
       <c r="V3" t="n">
         <v>0.522122792261575</v>
@@ -1150,7 +1150,7 @@
         <v>0.913573349657144</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0738808314074243</v>
+        <v>0.0744558332409326</v>
       </c>
       <c r="Y3" t="n">
         <v>0.063378127180623</v>
@@ -1165,7 +1165,7 @@
         <v>0.512233065666071</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.23616762731934</v>
+        <v>1.23616762731935</v>
       </c>
       <c r="AD3" t="n">
         <v>-1.26326089656856</v>
@@ -1189,7 +1189,7 @@
         <v>2.19056594645038</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.321912289142594</v>
+        <v>-0.321912450761544</v>
       </c>
       <c r="AL3" t="n">
         <v>-0.0676201173728933</v>
@@ -1317,7 +1317,7 @@
         <v>-1.21788572693601</v>
       </c>
       <c r="U4" t="n">
-        <v>0.973348963131529</v>
+        <v>0.973348919432793</v>
       </c>
       <c r="V4" t="n">
         <v>0.185175154061414</v>
@@ -1326,7 +1326,7 @@
         <v>1.56602965150328</v>
       </c>
       <c r="X4" t="n">
-        <v>0.714592403269755</v>
+        <v>0.715487544312243</v>
       </c>
       <c r="Y4" t="n">
         <v>1.20153921822827</v>
@@ -1365,7 +1365,7 @@
         <v>0.37913814690076</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.217344861903011</v>
+        <v>0.217344673882606</v>
       </c>
       <c r="AL4" t="n">
         <v>-0.880122083143376</v>
@@ -1493,7 +1493,7 @@
         <v>-0.435254805862293</v>
       </c>
       <c r="U5" t="n">
-        <v>0.904043614140526</v>
+        <v>0.904043564414847</v>
       </c>
       <c r="V5" t="n">
         <v>-0.199398641639271</v>
@@ -1502,7 +1502,7 @@
         <v>0.254649400092463</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.326043166634082</v>
+        <v>-0.329394144733993</v>
       </c>
       <c r="Y5" t="n">
         <v>1.56310923992158</v>
@@ -1541,7 +1541,7 @@
         <v>-0.422936848919721</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.206887634341914</v>
+        <v>-0.206887801592349</v>
       </c>
       <c r="AL5" t="n">
         <v>-1.35701768964802</v>
@@ -1669,7 +1669,7 @@
         <v>0.121069275125615</v>
       </c>
       <c r="U6" t="n">
-        <v>0.370135740432046</v>
+        <v>0.370135644276594</v>
       </c>
       <c r="V6" t="n">
         <v>-0.119592647989746</v>
@@ -1678,7 +1678,7 @@
         <v>-0.193429233847867</v>
       </c>
       <c r="X6" t="n">
-        <v>0.23397861139263</v>
+        <v>0.23471376100876</v>
       </c>
       <c r="Y6" t="n">
         <v>-0.0927002895850427</v>
@@ -1714,10 +1714,10 @@
         <v>-0.820122507233464</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.963661565203192</v>
+        <v>-0.963661565203191</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.319148835705731</v>
+        <v>0.319148642701111</v>
       </c>
       <c r="AL6" t="n">
         <v>0.136712974473477</v>
@@ -1845,7 +1845,7 @@
         <v>0.0582243540658169</v>
       </c>
       <c r="U7" t="n">
-        <v>0.970782098354085</v>
+        <v>0.970782054432128</v>
       </c>
       <c r="V7" t="n">
         <v>-0.0755310261857293</v>
@@ -1854,7 +1854,7 @@
         <v>0.723165800823375</v>
       </c>
       <c r="X7" t="n">
-        <v>1.05779641120441</v>
+        <v>1.05523435118004</v>
       </c>
       <c r="Y7" t="n">
         <v>0.0207499274722249</v>
@@ -1869,7 +1869,7 @@
         <v>0.163343621180101</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.963779013355958</v>
+        <v>0.963779013355959</v>
       </c>
       <c r="AD7" t="n">
         <v>0.0247905605771488</v>
@@ -1893,7 +1893,7 @@
         <v>0.847766234346434</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.897437623212121</v>
+        <v>-0.897437756653961</v>
       </c>
       <c r="AL7" t="n">
         <v>-0.11986659366457</v>
@@ -2021,7 +2021,7 @@
         <v>-0.784646517246564</v>
       </c>
       <c r="U8" t="n">
-        <v>0.725646512108125</v>
+        <v>0.725646446868652</v>
       </c>
       <c r="V8" t="n">
         <v>-0.156129138878921</v>
@@ -2030,7 +2030,7 @@
         <v>-1.15633262618385</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.0951896023799948</v>
+        <v>-0.0922124116376081</v>
       </c>
       <c r="Y8" t="n">
         <v>0.429353062843807</v>
@@ -2045,7 +2045,7 @@
         <v>-0.139113217015685</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.23616762731934</v>
+        <v>1.23616762731935</v>
       </c>
       <c r="AD8" t="n">
         <v>-0.544996287225893</v>
@@ -2069,7 +2069,7 @@
         <v>0.991959492022026</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.057892569795232</v>
+        <v>0.0578923895814413</v>
       </c>
       <c r="AL8" t="n">
         <v>-0.929740252673948</v>
@@ -2197,7 +2197,7 @@
         <v>2.53799376510674</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.680995385931521</v>
+        <v>-0.68099557349559</v>
       </c>
       <c r="V9" t="n">
         <v>3.23612066562814</v>
@@ -2206,7 +2206,7 @@
         <v>1.30603021321805</v>
       </c>
       <c r="X9" t="n">
-        <v>-3.67668845791773</v>
+        <v>-3.67557967652623</v>
       </c>
       <c r="Y9" t="n">
         <v>-2.09542047655193</v>
@@ -2221,7 +2221,7 @@
         <v>0.389863801172147</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.98585588911316</v>
+        <v>-2.98585588911317</v>
       </c>
       <c r="AD9" t="n">
         <v>0.0557119679155153</v>
@@ -2245,7 +2245,7 @@
         <v>-1.45031380985831</v>
       </c>
       <c r="AK9" t="n">
-        <v>-1.76906837068856</v>
+        <v>-1.76906846145629</v>
       </c>
       <c r="AL9" t="n">
         <v>-1.42807076634516</v>
@@ -2373,7 +2373,7 @@
         <v>-0.843258360722024</v>
       </c>
       <c r="U10" t="n">
-        <v>0.88992585786458</v>
+        <v>0.889925806911191</v>
       </c>
       <c r="V10" t="n">
         <v>0.553015434964616</v>
@@ -2382,7 +2382,7 @@
         <v>0.0331971422097143</v>
       </c>
       <c r="X10" t="n">
-        <v>0.46579353141124</v>
+        <v>0.465485176994432</v>
       </c>
       <c r="Y10" t="n">
         <v>0.248384513915071</v>
@@ -2421,7 +2421,7 @@
         <v>0.0727274743401263</v>
       </c>
       <c r="AK10" t="n">
-        <v>-1.34996805293479</v>
+        <v>-1.34996816422122</v>
       </c>
       <c r="AL10" t="n">
         <v>-0.516279185025138</v>
@@ -2549,7 +2549,7 @@
         <v>-1.08959091399528</v>
       </c>
       <c r="U11" t="n">
-        <v>1.03367028540148</v>
+        <v>1.03367024694841</v>
       </c>
       <c r="V11" t="n">
         <v>-1.66224448553265</v>
@@ -2558,7 +2558,7 @@
         <v>0.18117692200987</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.585288771133745</v>
+        <v>-0.585806829162517</v>
       </c>
       <c r="Y11" t="n">
         <v>0.638041782749587</v>
@@ -2573,7 +2573,7 @@
         <v>-1.0253633447141</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.50855624128274</v>
+        <v>1.50855624128272</v>
       </c>
       <c r="AD11" t="n">
         <v>0.794407494432202</v>
@@ -2597,7 +2597,7 @@
         <v>-0.630214656828385</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.195432588299057</v>
+        <v>0.195432401351453</v>
       </c>
       <c r="AL11" t="n">
         <v>-1.56716679814481</v>
@@ -2725,7 +2725,7 @@
         <v>0.153794221066081</v>
       </c>
       <c r="U12" t="n">
-        <v>0.819337076484852</v>
+        <v>0.819337019392912</v>
       </c>
       <c r="V12" t="n">
         <v>0.863823144723743</v>
@@ -2734,7 +2734,7 @@
         <v>1.03801089176182</v>
       </c>
       <c r="X12" t="n">
-        <v>0.596858367307856</v>
+        <v>0.600101836319407</v>
       </c>
       <c r="Y12" t="n">
         <v>-0.603125616426769</v>
@@ -2749,7 +2749,7 @@
         <v>0.663945157746153</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.827584706374267</v>
+        <v>0.827584706374253</v>
       </c>
       <c r="AD12" t="n">
         <v>-0.163370328550473</v>
@@ -2773,7 +2773,7 @@
         <v>0.73962129108974</v>
       </c>
       <c r="AK12" t="n">
-        <v>-1.40466004722421</v>
+        <v>-1.40466015583298</v>
       </c>
       <c r="AL12" t="n">
         <v>-0.820772075064932</v>
@@ -2901,7 +2901,7 @@
         <v>0.276227849659264</v>
       </c>
       <c r="U13" t="n">
-        <v>0.408638712093716</v>
+        <v>0.408638619286565</v>
       </c>
       <c r="V13" t="n">
         <v>0.933628635446961</v>
@@ -2910,7 +2910,7 @@
         <v>1.89510356742251</v>
       </c>
       <c r="X13" t="n">
-        <v>0.878599696697353</v>
+        <v>0.87574547208007</v>
       </c>
       <c r="Y13" t="n">
         <v>-0.958632960828223</v>
@@ -2925,7 +2925,7 @@
         <v>0.101917152442044</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.691390399392571</v>
+        <v>0.691390399392567</v>
       </c>
       <c r="AD13" t="n">
         <v>-0.692373922456152</v>
@@ -2949,7 +2949,7 @@
         <v>-0.0985020191496391</v>
       </c>
       <c r="AK13" t="n">
-        <v>-1.04701579310765</v>
+        <v>-1.0470159192263</v>
       </c>
       <c r="AL13" t="n">
         <v>-0.966429994352603</v>
@@ -3077,7 +3077,7 @@
         <v>2.28970748371764</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.523133202118677</v>
+        <v>-0.523133375954712</v>
       </c>
       <c r="V14" t="n">
         <v>2.2649827180915</v>
@@ -3086,7 +3086,7 @@
         <v>2.03868534677406</v>
       </c>
       <c r="X14" t="n">
-        <v>0.757148418445966</v>
+        <v>0.760359764087234</v>
       </c>
       <c r="Y14" t="n">
         <v>-2.26734237420922</v>
@@ -3125,7 +3125,7 @@
         <v>-1.08081858706461</v>
       </c>
       <c r="AK14" t="n">
-        <v>-1.3211143305421</v>
+        <v>-1.32111444324118</v>
       </c>
       <c r="AL14" t="n">
         <v>-1.60233815990404</v>
@@ -3253,7 +3253,7 @@
         <v>0.295439509465109</v>
       </c>
       <c r="U15" t="n">
-        <v>0.171203720180089</v>
+        <v>0.171203606725082</v>
       </c>
       <c r="V15" t="n">
         <v>0.935410903295215</v>
@@ -3262,7 +3262,7 @@
         <v>1.37122410222091</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.0383414315045433</v>
+        <v>-0.0409298747519032</v>
       </c>
       <c r="Y15" t="n">
         <v>-0.883690217507543</v>
@@ -3277,7 +3277,7 @@
         <v>0.53190243360844</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.806746977406063</v>
+        <v>-0.806746977406059</v>
       </c>
       <c r="AD15" t="n">
         <v>0.809416360510037</v>
@@ -3301,7 +3301,7 @@
         <v>0.847766234346434</v>
       </c>
       <c r="AK15" t="n">
-        <v>-2.02249629060563</v>
+        <v>-2.0224963689658</v>
       </c>
       <c r="AL15" t="n">
         <v>-0.936852663875449</v>
@@ -3429,7 +3429,7 @@
         <v>0.0585499754184583</v>
       </c>
       <c r="U16" t="n">
-        <v>0.771850078102128</v>
+        <v>0.771850016880616</v>
       </c>
       <c r="V16" t="n">
         <v>0.466971503846209</v>
@@ -3438,7 +3438,7 @@
         <v>0.835961577034684</v>
       </c>
       <c r="X16" t="n">
-        <v>1.33024463487019</v>
+        <v>1.3308779869407</v>
       </c>
       <c r="Y16" t="n">
         <v>0.237656416988458</v>
@@ -3453,7 +3453,7 @@
         <v>0.531741209281044</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.691390399392571</v>
+        <v>0.691390399392567</v>
       </c>
       <c r="AD16" t="n">
         <v>-0.205292998982541</v>
@@ -3477,7 +3477,7 @@
         <v>-0.17961072659216</v>
       </c>
       <c r="AK16" t="n">
-        <v>-0.00848281700400878</v>
+        <v>-0.00848299396813152</v>
       </c>
       <c r="AL16" t="n">
         <v>-1.51873847018852</v>
@@ -3605,7 +3605,7 @@
         <v>-0.692495674449035</v>
       </c>
       <c r="U17" t="n">
-        <v>0.794951861099129</v>
+        <v>0.794951801886598</v>
       </c>
       <c r="V17" t="n">
         <v>0.46558529551979</v>
@@ -3614,7 +3614,7 @@
         <v>0.367186470395029</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.101085917735735</v>
+        <v>-0.0986227287483212</v>
       </c>
       <c r="Y17" t="n">
         <v>-0.16934816089406</v>
@@ -3653,7 +3653,7 @@
         <v>-1.65759161776698</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0.70557219459682</v>
+        <v>-0.705572337432189</v>
       </c>
       <c r="AL17" t="n">
         <v>-1.10207193382093</v>
@@ -3781,7 +3781,7 @@
         <v>0.653460186694378</v>
       </c>
       <c r="U18" t="n">
-        <v>0.162219693459034</v>
+        <v>0.162219579222756</v>
       </c>
       <c r="V18" t="n">
         <v>0.81490979377726</v>
@@ -3790,7 +3790,7 @@
         <v>-0.307518539602883</v>
       </c>
       <c r="X18" t="n">
-        <v>1.29787899079792</v>
+        <v>1.29882640138713</v>
       </c>
       <c r="Y18" t="n">
         <v>-1.62096861379746</v>
@@ -3829,7 +3829,7 @@
         <v>-0.170598647987435</v>
       </c>
       <c r="AK18" t="n">
-        <v>-0.443831091547756</v>
+        <v>-0.44383124719769</v>
       </c>
       <c r="AL18" t="n">
         <v>-1.20281777338676</v>
@@ -3957,7 +3957,7 @@
         <v>-0.6262317291865</v>
       </c>
       <c r="U19" t="n">
-        <v>0.587035814126117</v>
+        <v>0.587035736832759</v>
       </c>
       <c r="V19" t="n">
         <v>-0.223657287351595</v>
@@ -3966,7 +3966,7 @@
         <v>0.692121091774393</v>
       </c>
       <c r="X19" t="n">
-        <v>0.9478814021273</v>
+        <v>0.946258960297914</v>
       </c>
       <c r="Y19" t="n">
         <v>-0.877686746048609</v>
@@ -3981,7 +3981,7 @@
         <v>0.336820997458707</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.963779013355958</v>
+        <v>0.963779013355959</v>
       </c>
       <c r="AD19" t="n">
         <v>1.49935271738643</v>
@@ -4005,7 +4005,7 @@
         <v>-0.90057701497012</v>
       </c>
       <c r="AK19" t="n">
-        <v>-0.209607452436307</v>
+        <v>-0.209607619553581</v>
       </c>
       <c r="AL19" t="n">
         <v>-0.99275745903731</v>
@@ -4133,7 +4133,7 @@
         <v>0.0311977817965771</v>
       </c>
       <c r="U20" t="n">
-        <v>0.576768355016337</v>
+        <v>0.576768276830101</v>
       </c>
       <c r="V20" t="n">
         <v>0.0652681338262109</v>
@@ -4142,7 +4142,7 @@
         <v>0.431862947580412</v>
       </c>
       <c r="X20" t="n">
-        <v>0.676394534226046</v>
+        <v>0.677025641647964</v>
       </c>
       <c r="Y20" t="n">
         <v>-0.0522508645284071</v>
@@ -4157,7 +4157,7 @@
         <v>-0.459304731225082</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.146613171465798</v>
+        <v>0.146613171465783</v>
       </c>
       <c r="AD20" t="n">
         <v>-0.0700560433806878</v>
@@ -4181,7 +4181,7 @@
         <v>0.793693762718087</v>
       </c>
       <c r="AK20" t="n">
-        <v>-0.963056191063357</v>
+        <v>-0.963056321292582</v>
       </c>
       <c r="AL20" t="n">
         <v>-0.94019132381523</v>
@@ -4309,7 +4309,7 @@
         <v>-0.125263278147638</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01441879957064</v>
+        <v>1.01441875944343</v>
       </c>
       <c r="V21" t="n">
         <v>-0.633182832927813</v>
@@ -4318,7 +4318,7 @@
         <v>0.655384852733096</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.324056364720735</v>
+        <v>-0.32298382762328</v>
       </c>
       <c r="Y21" t="n">
         <v>0.305648395523352</v>
@@ -4333,7 +4333,7 @@
         <v>0.599455426787563</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.91713916222781</v>
+        <v>1.91713916222782</v>
       </c>
       <c r="AD21" t="n">
         <v>0.48523271127387</v>
@@ -4357,7 +4357,7 @@
         <v>0.0547033171306777</v>
       </c>
       <c r="AK21" t="n">
-        <v>-0.312830461766535</v>
+        <v>-0.312830623830121</v>
       </c>
       <c r="AL21" t="n">
         <v>0.504933424055311</v>
@@ -4485,7 +4485,7 @@
         <v>1.56096689650609</v>
       </c>
       <c r="U22" t="n">
-        <v>-0.484630230457008</v>
+        <v>-0.484630400944742</v>
       </c>
       <c r="V22" t="n">
         <v>1.86684388376801</v>
@@ -4494,7 +4494,7 @@
         <v>1.11665748801924</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.594645967241767</v>
+        <v>-0.59221714627323</v>
       </c>
       <c r="Y22" t="n">
         <v>-2.00684855049115</v>
@@ -4533,7 +4533,7 @@
         <v>-0.729347521480354</v>
       </c>
       <c r="AK22" t="n">
-        <v>-1.29645858825163</v>
+        <v>-1.29645870215783</v>
       </c>
       <c r="AL22" t="n">
         <v>-0.421509191574924</v>
@@ -4661,7 +4661,7 @@
         <v>1.07741918783354</v>
       </c>
       <c r="U23" t="n">
-        <v>0.155802531515423</v>
+        <v>0.155802416721094</v>
       </c>
       <c r="V23" t="n">
         <v>1.6246534861666</v>
@@ -4670,7 +4670,7 @@
         <v>1.51713423475113</v>
       </c>
       <c r="X23" t="n">
-        <v>0.88308602359846</v>
+        <v>0.882155789190783</v>
       </c>
       <c r="Y23" t="n">
         <v>-1.77968761071173</v>
@@ -4685,7 +4685,7 @@
         <v>-0.967161362523975</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.261969749479285</v>
+        <v>-0.261969749479295</v>
       </c>
       <c r="AD23" t="n">
         <v>0.716652138494937</v>
@@ -4709,7 +4709,7 @@
         <v>-0.17961072659216</v>
       </c>
       <c r="AK23" t="n">
-        <v>-1.01680216166777</v>
+        <v>-1.01680228926565</v>
       </c>
       <c r="AL23" t="n">
         <v>-1.45382994848693</v>
@@ -4837,7 +4837,7 @@
         <v>0.275088174925019</v>
       </c>
       <c r="U24" t="n">
-        <v>0.640939974452452</v>
+        <v>0.640939901846718</v>
       </c>
       <c r="V24" t="n">
         <v>0.646287452356493</v>
@@ -4846,7 +4846,7 @@
         <v>1.30809986048798</v>
       </c>
       <c r="X24" t="n">
-        <v>0.810215256647628</v>
+        <v>0.811642300972939</v>
       </c>
       <c r="Y24" t="n">
         <v>0.148859508762546</v>
@@ -4861,7 +4861,7 @@
         <v>0.44274538055819</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.555196092410876</v>
+        <v>0.555196092410881</v>
       </c>
       <c r="AD24" t="n">
         <v>0.306540766451898</v>
@@ -4885,7 +4885,7 @@
         <v>1.14516482830234</v>
       </c>
       <c r="AK24" t="n">
-        <v>-0.0658236776114413</v>
+        <v>-0.0658238517682161</v>
       </c>
       <c r="AL24" t="n">
         <v>-0.86799280261747</v>
@@ -5013,7 +5013,7 @@
         <v>-0.6890766502463</v>
       </c>
       <c r="U25" t="n">
-        <v>0.726929944496847</v>
+        <v>0.726929879368984</v>
       </c>
       <c r="V25" t="n">
         <v>0.0057601906706722</v>
@@ -5022,7 +5022,7 @@
         <v>-0.012335097728797</v>
       </c>
       <c r="X25" t="n">
-        <v>0.543214715647481</v>
+        <v>0.542408982322989</v>
       </c>
       <c r="Y25" t="n">
         <v>0.829998934269821</v>
@@ -5037,7 +5037,7 @@
         <v>-2.31177225301057</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.827584706374267</v>
+        <v>0.827584706374253</v>
       </c>
       <c r="AD25" t="n">
         <v>-1.21241934498553</v>
@@ -5058,10 +5058,10 @@
         <v>0.149667622480928</v>
       </c>
       <c r="AJ25" t="n">
-        <v>-0.711323364270906</v>
+        <v>-0.711323364270905</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.807817370195634</v>
+        <v>0.807817153266322</v>
       </c>
       <c r="AL25" t="n">
         <v>-0.891132557412865</v>
@@ -5189,7 +5189,7 @@
         <v>1.02645944614515</v>
       </c>
       <c r="U26" t="n">
-        <v>0.417622738814772</v>
+        <v>0.417622646788891</v>
       </c>
       <c r="V26" t="n">
         <v>0.827583698475945</v>
@@ -5198,7 +5198,7 @@
         <v>2.3628438504272</v>
       </c>
       <c r="X26" t="n">
-        <v>1.43144335168229</v>
+        <v>1.43344306071211</v>
       </c>
       <c r="Y26" t="n">
         <v>-1.21820317355261</v>
@@ -5237,7 +5237,7 @@
         <v>0.216920732015718</v>
       </c>
       <c r="AK26" t="n">
-        <v>-0.3324959291186</v>
+        <v>-0.332496090219385</v>
       </c>
       <c r="AL26" t="n">
         <v>-0.754664832374326</v>
@@ -5365,7 +5365,7 @@
         <v>-0.490610435811339</v>
       </c>
       <c r="U27" t="n">
-        <v>0.689710405223901</v>
+        <v>0.689710336859346</v>
       </c>
       <c r="V27" t="n">
         <v>-0.19306168928993</v>
@@ -5374,7 +5374,7 @@
         <v>0.00473949224814556</v>
       </c>
       <c r="X27" t="n">
-        <v>0.461371294894435</v>
+        <v>0.459074859883719</v>
       </c>
       <c r="Y27" t="n">
         <v>1.1822617990268</v>
@@ -5389,7 +5389,7 @@
         <v>0.273298612464496</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.691390399392571</v>
+        <v>0.691390399392567</v>
       </c>
       <c r="AD27" t="n">
         <v>0.544835983106528</v>
@@ -5413,7 +5413,7 @@
         <v>0.937887020393679</v>
       </c>
       <c r="AK27" t="n">
-        <v>-1.25805002664039</v>
+        <v>-1.25805014242703</v>
       </c>
       <c r="AL27" t="n">
         <v>-0.430646109335653</v>
@@ -5541,7 +5541,7 @@
         <v>-0.933292664727383</v>
       </c>
       <c r="U28" t="n">
-        <v>0.945113450579639</v>
+        <v>0.945113404425482</v>
       </c>
       <c r="V28" t="n">
         <v>-0.180783844113078</v>
@@ -5550,7 +5550,7 @@
         <v>1.49876611523049</v>
       </c>
       <c r="X28" t="n">
-        <v>0.278072795792078</v>
+        <v>0.279585980783752</v>
       </c>
       <c r="Y28" t="n">
         <v>1.41820888441279</v>
@@ -5565,7 +5565,7 @@
         <v>0.642663546529818</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.419001785429185</v>
+        <v>0.419001785429175</v>
       </c>
       <c r="AD28" t="n">
         <v>-0.99651955677165</v>
@@ -5589,7 +5589,7 @@
         <v>-0.134550333568537</v>
       </c>
       <c r="AK28" t="n">
-        <v>-0.639728946120395</v>
+        <v>-0.639729092179378</v>
       </c>
       <c r="AL28" t="n">
         <v>-0.0989733307967388</v>
@@ -5717,7 +5717,7 @@
         <v>1.90107839934007</v>
       </c>
       <c r="U29" t="n">
-        <v>0.535698518577224</v>
+        <v>0.535698436819466</v>
       </c>
       <c r="V29" t="n">
         <v>0.785799418922471</v>
@@ -5726,7 +5726,7 @@
         <v>1.03697606812685</v>
       </c>
       <c r="X29" t="n">
-        <v>-0.723788091609337</v>
+        <v>-0.726833805598205</v>
       </c>
       <c r="Y29" t="n">
         <v>-0.332649689276981</v>
@@ -5741,7 +5741,7 @@
         <v>0.555118736753533</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.261969749479285</v>
+        <v>-0.261969749479295</v>
       </c>
       <c r="AD29" t="n">
         <v>-0.358053395083646</v>
@@ -5765,7 +5765,7 @@
         <v>-2.04511099777013</v>
       </c>
       <c r="AK29" t="n">
-        <v>-0.998307398625896</v>
+        <v>-0.998307527129261</v>
       </c>
       <c r="AL29" t="n">
         <v>-1.13840649891025</v>
@@ -5893,7 +5893,7 @@
         <v>-0.700147776236109</v>
       </c>
       <c r="U30" t="n">
-        <v>0.838588562315688</v>
+        <v>0.838588506897898</v>
       </c>
       <c r="V30" t="n">
         <v>-0.21365678442529</v>
@@ -5902,7 +5902,7 @@
         <v>-0.291220067352165</v>
       </c>
       <c r="X30" t="n">
-        <v>1.15079155882592</v>
+        <v>1.15138910784073</v>
       </c>
       <c r="Y30" t="n">
         <v>0.169309203455992</v>
@@ -5917,7 +5917,7 @@
         <v>0.1085273498653</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.09997332033765</v>
+        <v>1.09997332033764</v>
       </c>
       <c r="AD30" t="n">
         <v>0.719677485845704</v>
@@ -5941,7 +5941,7 @@
         <v>0.307041518062964</v>
       </c>
       <c r="AK30" t="n">
-        <v>-0.838665901781116</v>
+        <v>-0.838666038100358</v>
       </c>
       <c r="AL30" t="n">
         <v>-1.09232233644359</v>
@@ -6069,7 +6069,7 @@
         <v>0.0495953882208185</v>
       </c>
       <c r="U31" t="n">
-        <v>0.716662485387068</v>
+        <v>0.716662419366326</v>
       </c>
       <c r="V31" t="n">
         <v>0.671734276634317</v>
@@ -6078,7 +6078,7 @@
         <v>1.22712491105188</v>
       </c>
       <c r="X31" t="n">
-        <v>-0.302265634058217</v>
+        <v>-0.30375287629114</v>
       </c>
       <c r="Y31" t="n">
         <v>-1.16479951225126</v>
@@ -6117,7 +6117,7 @@
         <v>0.316053596667688</v>
       </c>
       <c r="AK31" t="n">
-        <v>-0.709699222922659</v>
+        <v>-0.709699365555972</v>
       </c>
       <c r="AL31" t="n">
         <v>-0.302205375216161</v>
@@ -6245,7 +6245,7 @@
         <v>-1.06598336592877</v>
       </c>
       <c r="U32" t="n">
-        <v>0.012058103978524</v>
+        <v>0.0120579766838724</v>
       </c>
       <c r="V32" t="n">
         <v>-0.136326162787227</v>
@@ -6254,7 +6254,7 @@
         <v>0.11701785664197</v>
       </c>
       <c r="X32" t="n">
-        <v>0.0388874815787924</v>
+        <v>0.035993930576654</v>
       </c>
       <c r="Y32" t="n">
         <v>-0.033577344822811</v>
@@ -6269,7 +6269,7 @@
         <v>-1.02584701769629</v>
       </c>
       <c r="AC32" t="n">
-        <v>-1.21532989835114</v>
+        <v>-1.21532989835116</v>
       </c>
       <c r="AD32" t="n">
         <v>1.19343902293087</v>
@@ -6293,7 +6293,7 @@
         <v>-0.3418281414772</v>
       </c>
       <c r="AK32" t="n">
-        <v>-1.08496316817246</v>
+        <v>-1.08496329243325</v>
       </c>
       <c r="AL32" t="n">
         <v>-1.12379098225897</v>
@@ -6421,7 +6421,7 @@
         <v>-0.0274140616788831</v>
       </c>
       <c r="U33" t="n">
-        <v>0.268744581722985</v>
+        <v>0.26874447675034</v>
       </c>
       <c r="V33" t="n">
         <v>-0.379407694312764</v>
@@ -6430,7 +6430,7 @@
         <v>0.264738930533382</v>
       </c>
       <c r="X33" t="n">
-        <v>-0.0731425101802706</v>
+        <v>-0.0729814603054687</v>
       </c>
       <c r="Y33" t="n">
         <v>0.128457178735444</v>
@@ -6445,7 +6445,7 @@
         <v>0.224286416935968</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.6777709686944</v>
+        <v>0.67777096869439</v>
       </c>
       <c r="AD33" t="n">
         <v>-1.11187565835417</v>
@@ -6469,7 +6469,7 @@
         <v>0.874802470160608</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.968440366613608</v>
+        <v>0.968440141820365</v>
       </c>
       <c r="AL33" t="n">
         <v>-0.214272531110711</v>
@@ -6597,7 +6597,7 @@
         <v>1.27002421792095</v>
       </c>
       <c r="U34" t="n">
-        <v>0.660191460283287</v>
+        <v>0.660191389351703</v>
       </c>
       <c r="V34" t="n">
         <v>0.925113355727534</v>
@@ -6606,7 +6606,7 @@
         <v>1.70624825404119</v>
       </c>
       <c r="X34" t="n">
-        <v>0.523282606129707</v>
+        <v>0.52317803099085</v>
       </c>
       <c r="Y34" t="n">
         <v>-1.52060288581735</v>
@@ -6645,7 +6645,7 @@
         <v>-0.0264053903118427</v>
       </c>
       <c r="AK34" t="n">
-        <v>-1.5299490590072</v>
+        <v>-1.52994916148196</v>
       </c>
       <c r="AL34" t="n">
         <v>-0.285707422641393</v>
@@ -6773,7 +6773,7 @@
         <v>-0.0327868139974674</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.219357590031995</v>
+        <v>-0.219357737451051</v>
       </c>
       <c r="V35" t="n">
         <v>0.250227930522626</v>
@@ -6782,7 +6782,7 @@
         <v>0.619942143235506</v>
       </c>
       <c r="X35" t="n">
-        <v>0.0449119777031355</v>
+        <v>0.0424042476873671</v>
       </c>
       <c r="Y35" t="n">
         <v>-0.0806459820008349</v>
@@ -6797,7 +6797,7 @@
         <v>-0.0852642916652622</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.22111145738478</v>
+        <v>-0.221111457384785</v>
       </c>
       <c r="AD35" t="n">
         <v>0.355339226317529</v>
@@ -6821,7 +6821,7 @@
         <v>-0.35985229868665</v>
       </c>
       <c r="AK35" t="n">
-        <v>0.124930173173977</v>
+        <v>0.124929989678095</v>
       </c>
       <c r="AL35" t="n">
         <v>-0.928177475680859</v>
@@ -6947,7 +6947,7 @@
         <v>-0.279119367270721</v>
       </c>
       <c r="U36" t="n">
-        <v>-0.0750484522440596</v>
+        <v>-0.0750485871136835</v>
       </c>
       <c r="V36" t="n">
         <v>0.279932394660166</v>
@@ -6956,7 +6956,7 @@
         <v>0.550350253784033</v>
       </c>
       <c r="X36" t="n">
-        <v>-0.077821108234282</v>
+        <v>-0.0793917774161818</v>
       </c>
       <c r="Y36" t="n">
         <v>0.71079391025192</v>
@@ -6971,7 +6971,7 @@
         <v>0.512233065666071</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.786726414279757</v>
+        <v>0.786726414279743</v>
       </c>
       <c r="AD36" t="n">
         <v>-1.22884265917541</v>
@@ -6995,7 +6995,7 @@
         <v>2.19056594645038</v>
       </c>
       <c r="AK36" t="n">
-        <v>0.223151082269736</v>
+        <v>0.223150893965064</v>
       </c>
       <c r="AL36" t="n">
         <v>-0.445172831839593</v>
@@ -7121,7 +7121,7 @@
         <v>-1.31882834625485</v>
       </c>
       <c r="U37" t="n">
-        <v>0.275598110678761</v>
+        <v>0.275598006302115</v>
       </c>
       <c r="V37" t="n">
         <v>-0.0357270442414253</v>
@@ -7130,7 +7130,7 @@
         <v>1.1624484338665</v>
       </c>
       <c r="X37" t="n">
-        <v>0.721450074390018</v>
+        <v>0.721897861422956</v>
       </c>
       <c r="Y37" t="n">
         <v>1.45308112000757</v>
@@ -7145,7 +7145,7 @@
         <v>0.322310807993024</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.841204137072434</v>
+        <v>0.841204137072429</v>
       </c>
       <c r="AD37" t="n">
         <v>0.432269487522766</v>
@@ -7169,7 +7169,7 @@
         <v>0.37913814690076</v>
       </c>
       <c r="AK37" t="n">
-        <v>0.447879008642936</v>
+        <v>0.447878809335824</v>
       </c>
       <c r="AL37" t="n">
         <v>-0.72264566284547</v>
@@ -7295,7 +7295,7 @@
         <v>-0.566805832329437</v>
       </c>
       <c r="U38" t="n">
-        <v>0.00820780681235694</v>
+        <v>0.00820767918287526</v>
       </c>
       <c r="V38" t="n">
         <v>-0.382477155606976</v>
@@ -7304,7 +7304,7 @@
         <v>-0.0216485104434911</v>
       </c>
       <c r="X38" t="n">
-        <v>-1.47826009560687</v>
+        <v>-1.47684090755164</v>
       </c>
       <c r="Y38" t="n">
         <v>1.23156841668952</v>
@@ -7319,7 +7319,7 @@
         <v>-0.589412763434037</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.6777709686944</v>
+        <v>0.67777096869439</v>
       </c>
       <c r="AD38" t="n">
         <v>-0.537256112834968</v>
@@ -7343,7 +7343,7 @@
         <v>-0.422936848919721</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.677431655809668</v>
+        <v>0.677431445263902</v>
       </c>
       <c r="AL38" t="n">
         <v>-0.587163552842345</v>
@@ -7469,7 +7469,7 @@
         <v>-0.0238322267998276</v>
       </c>
       <c r="U39" t="n">
-        <v>-0.441147541127096</v>
+        <v>-0.441147707833483</v>
       </c>
       <c r="V39" t="n">
         <v>-0.398616581121705</v>
@@ -7478,7 +7478,7 @@
         <v>-0.33908066046935</v>
       </c>
       <c r="X39" t="n">
-        <v>-0.425319171917142</v>
+        <v>-0.425548901394689</v>
       </c>
       <c r="Y39" t="n">
         <v>-0.36967701719036</v>
@@ -7493,7 +7493,7 @@
         <v>-1.17997747468732</v>
       </c>
       <c r="AC39" t="n">
-        <v>-0.86122470019874</v>
+        <v>-0.861224700198745</v>
       </c>
       <c r="AD39" t="n">
         <v>-1.26715062887669</v>
@@ -7514,10 +7514,10 @@
         <v>-0.782693106165783</v>
       </c>
       <c r="AJ39" t="n">
-        <v>-0.963661565203192</v>
+        <v>-0.963661565203191</v>
       </c>
       <c r="AK39" t="n">
-        <v>0.83974566956459</v>
+        <v>0.839745451072103</v>
       </c>
       <c r="AL39" t="n">
         <v>0.0695313226001231</v>
@@ -7643,7 +7643,7 @@
         <v>0.039338315612613</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0667194894142068</v>
+        <v>0.0667193668730267</v>
       </c>
       <c r="V40" t="n">
         <v>-0.256827272305181</v>
@@ -7652,7 +7652,7 @@
         <v>0.820697928418932</v>
       </c>
       <c r="X40" t="n">
-        <v>-0.000143562460835556</v>
+        <v>-0.00246797208762457</v>
       </c>
       <c r="Y40" t="n">
         <v>0.471318157223407</v>
@@ -7691,7 +7691,7 @@
         <v>0.847766234346434</v>
       </c>
       <c r="AK40" t="n">
-        <v>-0.204309719800273</v>
+        <v>-0.204309887176919</v>
       </c>
       <c r="AL40" t="n">
         <v>-0.196726807597396</v>
@@ -7817,7 +7817,7 @@
         <v>-0.876634549367772</v>
       </c>
       <c r="U41" t="n">
-        <v>-0.117940762675158</v>
+        <v>-0.11794090127479</v>
       </c>
       <c r="V41" t="n">
         <v>-0.634271996612855</v>
@@ -7826,7 +7826,7 @@
         <v>-0.655736692768983</v>
       </c>
       <c r="X41" t="n">
-        <v>1.06048820734508</v>
+        <v>1.06164466829075</v>
       </c>
       <c r="Y41" t="n">
         <v>0.360769025979628</v>
@@ -7865,7 +7865,7 @@
         <v>0.991959492022026</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.555631106365132</v>
+        <v>0.555630901782591</v>
       </c>
       <c r="AL41" t="n">
         <v>-0.956316340971192</v>
@@ -7991,7 +7991,7 @@
         <v>2.39325507385762</v>
       </c>
       <c r="U42" t="n">
-        <v>-1.40634003474182</v>
+        <v>-1.40634028538341</v>
       </c>
       <c r="V42" t="n">
         <v>3.08918258302778</v>
@@ -8000,7 +8000,7 @@
         <v>1.18314490656582</v>
       </c>
       <c r="X42" t="n">
-        <v>-3.42071146301745</v>
+        <v>-3.41916699209771</v>
       </c>
       <c r="Y42" t="n">
         <v>-1.92393670205831</v>
@@ -8039,7 +8039,7 @@
         <v>-1.45031380985831</v>
       </c>
       <c r="AK42" t="n">
-        <v>-1.29509867920444</v>
+        <v>-1.29509879317722</v>
       </c>
       <c r="AL42" t="n">
         <v>-1.48302546413055</v>
@@ -8165,7 +8165,7 @@
         <v>-0.922547160090216</v>
       </c>
       <c r="U43" t="n">
-        <v>0.030873222797192</v>
+        <v>0.0308730971387444</v>
       </c>
       <c r="V43" t="n">
         <v>0.410334992223966</v>
@@ -8174,7 +8174,7 @@
         <v>-0.259657946485699</v>
       </c>
       <c r="X43" t="n">
-        <v>0.819508362371348</v>
+        <v>0.818052618083652</v>
       </c>
       <c r="Y43" t="n">
         <v>0.628024155818114</v>
@@ -8189,7 +8189,7 @@
         <v>0.665234952365324</v>
       </c>
       <c r="AC43" t="n">
-        <v>0.0648965872767783</v>
+        <v>0.0648965872767832</v>
       </c>
       <c r="AD43" t="n">
         <v>-2.32071802122524</v>
@@ -8213,7 +8213,7 @@
         <v>0.0727274743401263</v>
       </c>
       <c r="AK43" t="n">
-        <v>-0.420452481232042</v>
+        <v>-0.420452638026569</v>
       </c>
       <c r="AL43" t="n">
         <v>-0.381889243034227</v>
@@ -8339,7 +8339,7 @@
         <v>-1.03667744419104</v>
       </c>
       <c r="U44" t="n">
-        <v>0.484900264631596</v>
+        <v>0.484900178456312</v>
       </c>
       <c r="V44" t="n">
         <v>-1.62897548569861</v>
@@ -8348,7 +8348,7 @@
         <v>-0.00845450909767393</v>
       </c>
       <c r="X44" t="n">
-        <v>-0.639637417021437</v>
+        <v>-0.637089366048222</v>
       </c>
       <c r="Y44" t="n">
         <v>0.663429243909255</v>
@@ -8363,7 +8363,7 @@
         <v>-1.0253633447141</v>
       </c>
       <c r="AC44" t="n">
-        <v>1.74008656315161</v>
+        <v>1.7400865631516</v>
       </c>
       <c r="AD44" t="n">
         <v>0.758849840504347</v>
@@ -8387,7 +8387,7 @@
         <v>-0.630214656828385</v>
       </c>
       <c r="AK44" t="n">
-        <v>0.757760891962749</v>
+        <v>0.757760677484148</v>
       </c>
       <c r="AL44" t="n">
         <v>-1.31038300346789</v>
@@ -8513,7 +8513,7 @@
         <v>0.138978449520895</v>
       </c>
       <c r="U45" t="n">
-        <v>-0.0343764798454493</v>
+        <v>-0.0343766111781516</v>
       </c>
       <c r="V45" t="n">
         <v>0.683418032528417</v>
@@ -8522,7 +8522,7 @@
         <v>0.942548411436194</v>
       </c>
       <c r="X45" t="n">
-        <v>0.8637307275394</v>
+        <v>0.862924837858644</v>
       </c>
       <c r="Y45" t="n">
         <v>0.425990171533477</v>
@@ -8537,7 +8537,7 @@
         <v>0.663945157746153</v>
       </c>
       <c r="AC45" t="n">
-        <v>-0.343686333668304</v>
+        <v>-0.343686333668314</v>
       </c>
       <c r="AD45" t="n">
         <v>-0.0908012823573809</v>
@@ -8561,7 +8561,7 @@
         <v>0.73962129108974</v>
       </c>
       <c r="AK45" t="n">
-        <v>-0.130176938783982</v>
+        <v>-0.13017710979009</v>
       </c>
       <c r="AL45" t="n">
         <v>-0.639205802595152</v>
@@ -8687,7 +8687,7 @@
         <v>0.228687132173614</v>
       </c>
       <c r="U46" t="n">
-        <v>-0.462208666626029</v>
+        <v>-0.462208835163936</v>
       </c>
       <c r="V46" t="n">
         <v>0.61410761620749</v>
@@ -8696,7 +8696,7 @@
         <v>1.88087474244173</v>
       </c>
       <c r="X46" t="n">
-        <v>0.672997743858066</v>
+        <v>0.670615324537251</v>
       </c>
       <c r="Y46" t="n">
         <v>-1.13480583728976</v>
@@ -8735,7 +8735,7 @@
         <v>-0.0985020191496391</v>
       </c>
       <c r="AK46" t="n">
-        <v>-0.300130093795328</v>
+        <v>-0.300130256480711</v>
       </c>
       <c r="AL46" t="n">
         <v>-1.03870843028296</v>
@@ -8861,7 +8861,7 @@
         <v>2.29670834279943</v>
       </c>
       <c r="U47" t="n">
-        <v>-1.26992400614453</v>
+        <v>-1.26992424492309</v>
       </c>
       <c r="V47" t="n">
         <v>1.93407498759931</v>
@@ -8870,7 +8870,7 @@
         <v>2.03170028723804</v>
       </c>
       <c r="X47" t="n">
-        <v>0.267241520845121</v>
+        <v>0.266765346562326</v>
       </c>
       <c r="Y47" t="n">
         <v>-1.85203713855015</v>
@@ -8885,7 +8885,7 @@
         <v>-3.48290576721856</v>
       </c>
       <c r="AC47" t="n">
-        <v>-2.91775873562231</v>
+        <v>-2.91775873562233</v>
       </c>
       <c r="AD47" t="n">
         <v>1.48831216406739</v>
@@ -8909,7 +8909,7 @@
         <v>-1.08081858706461</v>
       </c>
       <c r="AK47" t="n">
-        <v>-0.421043746035171</v>
+        <v>-0.421043902800749</v>
       </c>
       <c r="AL47" t="n">
         <v>-1.4191380751233</v>
@@ -9035,7 +9035,7 @@
         <v>0.192868783383054</v>
       </c>
       <c r="U48" t="n">
-        <v>-0.522260468094346</v>
+        <v>-0.522260641854486</v>
       </c>
       <c r="V48" t="n">
         <v>0.739757499509284</v>
@@ -9044,7 +9044,7 @@
         <v>1.38829869219785</v>
       </c>
       <c r="X48" t="n">
-        <v>0.286724997672784</v>
+        <v>0.285996297894465</v>
       </c>
       <c r="Y48" t="n">
         <v>0.0674751708192632</v>
@@ -9059,7 +9059,7 @@
         <v>0.53190243360844</v>
       </c>
       <c r="AC48" t="n">
-        <v>-0.384544625762809</v>
+        <v>-0.384544625762824</v>
       </c>
       <c r="AD48" t="n">
         <v>0.884067788645865</v>
@@ -9083,7 +9083,7 @@
         <v>0.847766234346434</v>
       </c>
       <c r="AK48" t="n">
-        <v>-0.641928451188034</v>
+        <v>-0.641928597139333</v>
       </c>
       <c r="AL48" t="n">
         <v>-0.863473180518139</v>
@@ -9209,7 +9209,7 @@
         <v>0.0168704422803536</v>
       </c>
       <c r="U49" t="n">
-        <v>-0.0647296558387326</v>
+        <v>-0.0647297898110113</v>
       </c>
       <c r="V49" t="n">
         <v>0.227850567539012</v>
@@ -9218,7 +9218,7 @@
         <v>0.39409188490415</v>
       </c>
       <c r="X49" t="n">
-        <v>0.714976945575564</v>
+        <v>0.715487544312243</v>
       </c>
       <c r="Y49" t="n">
         <v>0.884030177400215</v>
@@ -9233,7 +9233,7 @@
         <v>0.531741209281044</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.187471463560303</v>
+        <v>0.187471463560293</v>
       </c>
       <c r="AD49" t="n">
         <v>-0.516825195660952</v>
@@ -9257,7 +9257,7 @@
         <v>-0.17961072659216</v>
       </c>
       <c r="AK49" t="n">
-        <v>-0.0794700692676545</v>
+        <v>-0.0794702427563173</v>
       </c>
       <c r="AL49" t="n">
         <v>-1.26102233696459</v>
@@ -9383,7 +9383,7 @@
         <v>-0.798159803381184</v>
       </c>
       <c r="U50" t="n">
-        <v>0.171113879912879</v>
+        <v>0.171113766450059</v>
       </c>
       <c r="V50" t="n">
         <v>0.261911686416724</v>
@@ -9392,7 +9392,7 @@
         <v>0.263445400989675</v>
       </c>
       <c r="X50" t="n">
-        <v>-0.0922414447021248</v>
+        <v>-0.0922124116376081</v>
       </c>
       <c r="Y50" t="n">
         <v>0.102004012583066</v>
@@ -9407,7 +9407,7 @@
         <v>0.538835079686489</v>
       </c>
       <c r="AC50" t="n">
-        <v>0.160232602163964</v>
+        <v>0.16023260216396</v>
       </c>
       <c r="AD50" t="n">
         <v>1.02924517125738</v>
@@ -9431,7 +9431,7 @@
         <v>-1.65759161776698</v>
       </c>
       <c r="AK50" t="n">
-        <v>0.605782186966518</v>
+        <v>0.605781979928634</v>
       </c>
       <c r="AL50" t="n">
         <v>-1.280796793576</v>
@@ -9557,7 +9557,7 @@
         <v>0.675439627997676</v>
       </c>
       <c r="U51" t="n">
-        <v>-0.717329356856248</v>
+        <v>-0.717316713254995</v>
       </c>
       <c r="V51" t="n">
         <v>0.638366261919814</v>
@@ -9566,7 +9566,7 @@
         <v>-0.548115034732506</v>
       </c>
       <c r="X51" t="n">
-        <v>1.29871216579384</v>
+        <v>1.29882640138713</v>
       </c>
       <c r="Y51" t="n">
         <v>-0.139780767929651</v>
@@ -9605,7 +9605,7 @@
         <v>-0.170598647987435</v>
       </c>
       <c r="AK51" t="n">
-        <v>-0.137674176487655</v>
+        <v>-0.137674347126706</v>
       </c>
       <c r="AL51" t="n">
         <v>-1.19254429054015</v>
@@ -9733,7 +9733,7 @@
         <v>-0.699333722854505</v>
       </c>
       <c r="U52" t="n">
-        <v>-0.166878039657139</v>
+        <v>-0.166878182512462</v>
       </c>
       <c r="V52" t="n">
         <v>-0.481690065826359</v>
@@ -9742,7 +9742,7 @@
         <v>0.375465059474759</v>
       </c>
       <c r="X52" t="n">
-        <v>0.694019389908966</v>
+        <v>0.696256592980103</v>
       </c>
       <c r="Y52" t="n">
         <v>0.145200588287576</v>
@@ -9757,7 +9757,7 @@
         <v>0.336820997458707</v>
       </c>
       <c r="AC52" t="n">
-        <v>-0.153014303893932</v>
+        <v>-0.153014303893942</v>
       </c>
       <c r="AD52" t="n">
         <v>0.646126184019246</v>
@@ -9781,7 +9781,7 @@
         <v>-0.90057701497012</v>
       </c>
       <c r="AK52" t="n">
-        <v>0.84979717121778</v>
+        <v>0.849796952233182</v>
       </c>
       <c r="AL52" t="n">
         <v>-0.95007411241357</v>
@@ -9909,7 +9909,7 @@
         <v>-0.120867389886978</v>
       </c>
       <c r="U53" t="n">
-        <v>-0.249774937644713</v>
+        <v>-0.249775087708928</v>
       </c>
       <c r="V53" t="n">
         <v>-0.0744418625006852</v>
@@ -9918,7 +9918,7 @@
         <v>0.113137268010847</v>
       </c>
       <c r="X53" t="n">
-        <v>0.750611199247211</v>
+        <v>0.747539129865808</v>
       </c>
       <c r="Y53" t="n">
         <v>0.720420778686066</v>
@@ -9957,7 +9957,7 @@
         <v>0.793693762718087</v>
       </c>
       <c r="AK53" t="n">
-        <v>-0.00947614187326519</v>
+        <v>-0.00947631878875685</v>
       </c>
       <c r="AL53" t="n">
         <v>-0.941212456509577</v>
@@ -10085,7 +10085,7 @@
         <v>-0.210901693892338</v>
       </c>
       <c r="U54" t="n">
-        <v>0.145381060518996</v>
+        <v>0.145380944818396</v>
       </c>
       <c r="V54" t="n">
         <v>-0.750317436510179</v>
@@ -10094,7 +10094,7 @@
         <v>0.33510693771108</v>
       </c>
       <c r="X54" t="n">
-        <v>-0.735388451167913</v>
+        <v>-0.733244122708918</v>
       </c>
       <c r="Y54" t="n">
         <v>0.522448314540313</v>
@@ -10109,7 +10109,7 @@
         <v>0.599455426787563</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.786726414279757</v>
+        <v>0.786726414279743</v>
       </c>
       <c r="AD54" t="n">
         <v>0.227803154881266</v>
@@ -10133,7 +10133,7 @@
         <v>0.0547033171306777</v>
       </c>
       <c r="AK54" t="n">
-        <v>0.646662235454844</v>
+        <v>0.646662026415516</v>
       </c>
       <c r="AL54" t="n">
         <v>0.393159351390523</v>
@@ -10261,7 +10261,7 @@
         <v>1.69626256852861</v>
       </c>
       <c r="U55" t="n">
-        <v>-1.08004018423306</v>
+        <v>-1.08004040649892</v>
       </c>
       <c r="V55" t="n">
         <v>1.74703587841326</v>
@@ -10270,7 +10270,7 @@
         <v>1.0920804266888</v>
       </c>
       <c r="X55" t="n">
-        <v>-0.818641860375592</v>
+        <v>-0.816578245148189</v>
       </c>
       <c r="Y55" t="n">
         <v>-2.55578135106946</v>
@@ -10285,7 +10285,7 @@
         <v>-1.4919465481995</v>
       </c>
       <c r="AC55" t="n">
-        <v>-1.70562940348524</v>
+        <v>-1.70562940348525</v>
       </c>
       <c r="AD55" t="n">
         <v>1.2879320148607</v>
@@ -10309,7 +10309,7 @@
         <v>-0.729347521480354</v>
       </c>
       <c r="AK55" t="n">
-        <v>-0.0548616281614332</v>
+        <v>-0.0548618028548989</v>
       </c>
       <c r="AL55" t="n">
         <v>-0.709921461532423</v>
@@ -10437,7 +10437,7 @@
         <v>1.0912580953208</v>
       </c>
       <c r="U56" t="n">
-        <v>-0.390631642306987</v>
+        <v>-0.390631804620402</v>
       </c>
       <c r="V56" t="n">
         <v>1.19067126511714</v>
@@ -10446,7 +10446,7 @@
         <v>1.97995910548973</v>
       </c>
       <c r="X56" t="n">
-        <v>0.95038092711506</v>
+        <v>0.952669277408628</v>
       </c>
       <c r="Y56" t="n">
         <v>-1.04695622239071</v>
@@ -10461,7 +10461,7 @@
         <v>-0.967161362523975</v>
       </c>
       <c r="AC56" t="n">
-        <v>-0.752269254613382</v>
+        <v>-0.752269254613392</v>
       </c>
       <c r="AD56" t="n">
         <v>0.995612738370926</v>
@@ -10485,7 +10485,7 @@
         <v>-0.17961072659216</v>
       </c>
       <c r="AK56" t="n">
-        <v>0.0263663304924037</v>
+        <v>0.0263661518221027</v>
       </c>
       <c r="AL56" t="n">
         <v>-1.16889840910495</v>
@@ -10613,7 +10613,7 @@
         <v>0.267110451785304</v>
       </c>
       <c r="U57" t="n">
-        <v>-0.0217988424359708</v>
+        <v>-0.0217989726748946</v>
       </c>
       <c r="V57" t="n">
         <v>0.448257691439559</v>
@@ -10622,7 +10622,7 @@
         <v>1.1805578474784</v>
       </c>
       <c r="X57" t="n">
-        <v>1.02389259790891</v>
+        <v>1.02318276562647</v>
       </c>
       <c r="Y57" t="n">
         <v>0.253369645047637</v>
@@ -10637,7 +10637,7 @@
         <v>0.44274538055819</v>
       </c>
       <c r="AC57" t="n">
-        <v>0.405382354731013</v>
+        <v>0.405382354731018</v>
       </c>
       <c r="AD57" t="n">
         <v>0.498866419464992</v>
@@ -10661,7 +10661,7 @@
         <v>1.14516482830234</v>
       </c>
       <c r="AK57" t="n">
-        <v>0.46015366595589</v>
+        <v>0.460153466047823</v>
       </c>
       <c r="AL57" t="n">
         <v>-1.25694668560193</v>
@@ -10789,7 +10789,7 @@
         <v>-0.796206075265335</v>
       </c>
       <c r="U58" t="n">
-        <v>-0.074162883895841</v>
+        <v>-0.0741630186884542</v>
       </c>
       <c r="V58" t="n">
         <v>-0.05741130306183</v>
@@ -10798,7 +10798,7 @@
         <v>0.297077169126074</v>
       </c>
       <c r="X58" t="n">
-        <v>0.0513851065175893</v>
+        <v>0.0488145647980802</v>
       </c>
       <c r="Y58" t="n">
         <v>0.997740900122368</v>
@@ -10813,7 +10813,7 @@
         <v>-2.31177225301057</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.187471463560303</v>
+        <v>0.187471463560293</v>
       </c>
       <c r="AD58" t="n">
         <v>-0.743490505616527</v>
@@ -10834,10 +10834,10 @@
         <v>0.18761160400052</v>
       </c>
       <c r="AJ58" t="n">
-        <v>-0.711323364270906</v>
+        <v>-0.711323364270905</v>
       </c>
       <c r="AK58" t="n">
-        <v>1.21519881955139</v>
+        <v>1.21519858267711</v>
       </c>
       <c r="AL58" t="n">
         <v>-1.03560063512625</v>
@@ -10965,7 +10965,7 @@
         <v>0.856159478713678</v>
       </c>
       <c r="U59" t="n">
-        <v>-0.340346761316847</v>
+        <v>-0.340346919257381</v>
       </c>
       <c r="V59" t="n">
         <v>0.413503468398637</v>
@@ -10974,7 +10974,7 @@
         <v>2.30049572642049</v>
       </c>
       <c r="X59" t="n">
-        <v>1.05991139388636</v>
+        <v>1.06164466829075</v>
       </c>
       <c r="Y59" t="n">
         <v>-0.660780256532376</v>
@@ -10989,7 +10989,7 @@
         <v>0.637504368053131</v>
       </c>
       <c r="AC59" t="n">
-        <v>-0.684172101122539</v>
+        <v>-0.684172101122549</v>
       </c>
       <c r="AD59" t="n">
         <v>-0.13366691819748</v>
@@ -11013,7 +11013,7 @@
         <v>0.216920732015718</v>
       </c>
       <c r="AK59" t="n">
-        <v>0.316641872940464</v>
+        <v>0.316641680058582</v>
       </c>
       <c r="AL59" t="n">
         <v>-0.930113188092753</v>
@@ -11141,7 +11141,7 @@
         <v>-0.629325132036594</v>
       </c>
       <c r="U60" t="n">
-        <v>-0.00887467828153679</v>
+        <v>-0.00887480739654801</v>
       </c>
       <c r="V60" t="n">
         <v>-0.451886586808361</v>
@@ -11150,7 +11150,7 @@
         <v>-0.1618671129814</v>
       </c>
       <c r="X60" t="n">
-        <v>0.172836384768977</v>
+        <v>0.170610589901629</v>
       </c>
       <c r="Y60" t="n">
         <v>1.34606065640632</v>
@@ -11165,7 +11165,7 @@
         <v>0.273298612464496</v>
       </c>
       <c r="AC60" t="n">
-        <v>-0.343686333668304</v>
+        <v>-0.343686333668314</v>
       </c>
       <c r="AD60" t="n">
         <v>0.268900730581307</v>
@@ -11189,7 +11189,7 @@
         <v>0.937887020393679</v>
       </c>
       <c r="AK60" t="n">
-        <v>-0.294323873428603</v>
+        <v>-0.294324036398253</v>
       </c>
       <c r="AL60" t="n">
         <v>-0.761750605331627</v>
@@ -11317,7 +11317,7 @@
         <v>-1.07151892892368</v>
       </c>
       <c r="U61" t="n">
-        <v>0.0560798349116995</v>
+        <v>0.0560797114452716</v>
       </c>
       <c r="V61" t="n">
         <v>-0.419211676257066</v>
@@ -11326,7 +11326,7 @@
         <v>1.02636912586845</v>
       </c>
       <c r="X61" t="n">
-        <v>0.371772937640905</v>
+        <v>0.369330420333735</v>
       </c>
       <c r="Y61" t="n">
         <v>1.54975240401295</v>
@@ -11341,7 +11341,7 @@
         <v>0.642663546529818</v>
       </c>
       <c r="AC61" t="n">
-        <v>0.0376577258804401</v>
+        <v>0.0376577258804304</v>
       </c>
       <c r="AD61" t="n">
         <v>-0.535763084272251</v>
@@ -11365,7 +11365,7 @@
         <v>-0.134550333568537</v>
       </c>
       <c r="AK61" t="n">
-        <v>0.124244306002348</v>
+        <v>0.124244122540046</v>
       </c>
       <c r="AL61" t="n">
         <v>-0.24765913050852</v>
@@ -11493,7 +11493,7 @@
         <v>1.72898751446907</v>
       </c>
       <c r="U62" t="n">
-        <v>-0.252752500786549</v>
+        <v>-0.252752651109699</v>
       </c>
       <c r="V62" t="n">
         <v>0.695299818183432</v>
@@ -11502,7 +11502,7 @@
         <v>0.582947198285466</v>
       </c>
       <c r="X62" t="n">
-        <v>-1.53164738573004</v>
+        <v>-1.53453376154806</v>
       </c>
       <c r="Y62" t="n">
         <v>-0.16705097457644</v>
@@ -11517,7 +11517,7 @@
         <v>0.555118736753533</v>
       </c>
       <c r="AC62" t="n">
-        <v>-0.439022348555486</v>
+        <v>-0.439022348555491</v>
       </c>
       <c r="AD62" t="n">
         <v>-0.0833754297691329</v>
@@ -11541,7 +11541,7 @@
         <v>-2.04511099777013</v>
       </c>
       <c r="AK62" t="n">
-        <v>-0.417023145373895</v>
+        <v>-0.417023302336319</v>
       </c>
       <c r="AL62" t="n">
         <v>-0.8325728172457</v>
@@ -11669,7 +11669,7 @@
         <v>-0.855469161446078</v>
       </c>
       <c r="U63" t="n">
-        <v>0.0805677248885205</v>
+        <v>0.0805676035516125</v>
       </c>
       <c r="V63" t="n">
         <v>-0.343762337347714</v>
@@ -11678,7 +11678,7 @@
         <v>-0.555876211994753</v>
       </c>
       <c r="X63" t="n">
-        <v>0.877381979395624</v>
+        <v>0.87574547208007</v>
       </c>
       <c r="Y63" t="n">
         <v>0.70333397530295</v>
@@ -11693,7 +11693,7 @@
         <v>0.1085273498653</v>
       </c>
       <c r="AC63" t="n">
-        <v>-0.18025316529027</v>
+        <v>-0.180253165290275</v>
       </c>
       <c r="AD63" t="n">
         <v>0.623691465353163</v>
@@ -11717,7 +11717,7 @@
         <v>0.307041518062964</v>
       </c>
       <c r="AK63" t="n">
-        <v>-0.805342217476776</v>
+        <v>-0.805342355427511</v>
       </c>
       <c r="AL63" t="n">
         <v>-0.850953205743961</v>
@@ -11845,7 +11845,7 @@
         <v>-0.0826068809516081</v>
       </c>
       <c r="U64" t="n">
-        <v>-0.0219400199987295</v>
+        <v>-0.0219401502499313</v>
       </c>
       <c r="V64" t="n">
         <v>0.439643396839673</v>
@@ -11854,7 +11854,7 @@
         <v>1.42839810805279</v>
       </c>
       <c r="X64" t="n">
-        <v>-0.728338508894745</v>
+        <v>-0.726833805598205</v>
       </c>
       <c r="Y64" t="n">
         <v>-0.564251066526025</v>
@@ -11869,7 +11869,7 @@
         <v>0.754392005415575</v>
       </c>
       <c r="AC64" t="n">
-        <v>-0.139394873195761</v>
+        <v>-0.139394873195765</v>
       </c>
       <c r="AD64" t="n">
         <v>0.840494928749742</v>
@@ -11893,7 +11893,7 @@
         <v>0.316053596667688</v>
       </c>
       <c r="AK64" t="n">
-        <v>0.12884434617069</v>
+        <v>0.128844162483175</v>
       </c>
       <c r="AL64" t="n">
         <v>-0.290209285911258</v>
@@ -12021,7 +12021,7 @@
         <v>-1.1314332578097</v>
       </c>
       <c r="U65" t="n">
-        <v>-0.730304858306231</v>
+        <v>-0.730305050158358</v>
       </c>
       <c r="V65" t="n">
         <v>-0.511592559724816</v>
@@ -12030,7 +12030,7 @@
         <v>-0.0645936912945863</v>
       </c>
       <c r="X65" t="n">
-        <v>-0.546962721321434</v>
+        <v>-0.547344926498238</v>
       </c>
       <c r="Y65" t="n">
         <v>-1.15472267948685</v>
@@ -12045,7 +12045,7 @@
         <v>-1.02584701769629</v>
       </c>
       <c r="AC65" t="n">
-        <v>-1.1472327448603</v>
+        <v>-1.14723274486029</v>
       </c>
       <c r="AD65" t="n">
         <v>1.41692182463434</v>
@@ -12069,7 +12069,7 @@
         <v>-0.3418281414772</v>
       </c>
       <c r="AK65" t="n">
-        <v>0.148379735266066</v>
+        <v>0.148379550622119</v>
       </c>
       <c r="AL65" t="n">
         <v>-1.30025159125701</v>
@@ -12197,7 +12197,7 @@
         <v>-0.131775705200467</v>
       </c>
       <c r="U66" t="n">
-        <v>-0.326074993154255</v>
+        <v>-0.326075149853685</v>
       </c>
       <c r="V66" t="n">
         <v>-0.666253803000941</v>
@@ -12206,7 +12206,7 @@
         <v>0.14418197705983</v>
       </c>
       <c r="X66" t="n">
-        <v>-0.129157506059802</v>
+        <v>-0.130674314301887</v>
       </c>
       <c r="Y66" t="n">
         <v>0.301634240050812</v>
@@ -12221,7 +12221,7 @@
         <v>0.224286416935968</v>
       </c>
       <c r="AC66" t="n">
-        <v>-0.970180145784093</v>
+        <v>-0.970180145784098</v>
       </c>
       <c r="AD66" t="n">
         <v>-1.68747745950674</v>
@@ -12245,7 +12245,7 @@
         <v>0.874802470160608</v>
       </c>
       <c r="AK66" t="n">
-        <v>1.3106526093685</v>
+        <v>1.31065236782091</v>
       </c>
       <c r="AL66" t="n">
         <v>0.121555813523462</v>
@@ -12373,7 +12373,7 @@
         <v>1.21727355879304</v>
       </c>
       <c r="U67" t="n">
-        <v>-0.158715409664866</v>
+        <v>-0.158715551810348</v>
       </c>
       <c r="V67" t="n">
         <v>0.801542784915367</v>
@@ -12382,7 +12382,7 @@
         <v>1.45478611074442</v>
       </c>
       <c r="X67" t="n">
-        <v>0.962942642438158</v>
+        <v>0.965489911630054</v>
       </c>
       <c r="Y67" t="n">
         <v>-0.961178811644141</v>
@@ -12397,7 +12397,7 @@
         <v>-0.0509235099298134</v>
       </c>
       <c r="AC67" t="n">
-        <v>-0.479880640649995</v>
+        <v>-0.47988064065</v>
       </c>
       <c r="AD67" t="n">
         <v>0.547822040231961</v>
@@ -12421,7 +12421,7 @@
         <v>-0.0264053903118427</v>
       </c>
       <c r="AK67" t="n">
-        <v>-0.15545942176577</v>
+        <v>-0.155459591534075</v>
       </c>
       <c r="AL67" t="n">
         <v>0.0643102267368484</v>
@@ -12549,7 +12549,7 @@
         <v>0.0565962473026099</v>
       </c>
       <c r="U68" t="n">
-        <v>-0.219357590031995</v>
+        <v>-0.219357737451051</v>
       </c>
       <c r="V68" t="n">
         <v>0.0374449524173815</v>
@@ -12558,7 +12558,7 @@
         <v>0.206530101066538</v>
       </c>
       <c r="X68" t="n">
-        <v>-0.0158457066147086</v>
+        <v>-0.0152886063090509</v>
       </c>
       <c r="Y68" t="n">
         <v>-0.24445668054694</v>
@@ -12573,7 +12573,7 @@
         <v>-0.0852642916652622</v>
       </c>
       <c r="AC68" t="n">
-        <v>-0.153014303893932</v>
+        <v>-0.153014303893942</v>
       </c>
       <c r="AD68" t="n">
         <v>0.317306288193591</v>
@@ -12597,7 +12597,7 @@
         <v>-0.35985229868665</v>
       </c>
       <c r="AK68" t="n">
-        <v>0.302309614112622</v>
+        <v>0.302309421932431</v>
       </c>
       <c r="AL68" t="n">
         <v>-0.386533176939826</v>
@@ -12723,7 +12723,7 @@
         <v>-0.107354103752358</v>
       </c>
       <c r="U69" t="n">
-        <v>-0.0750484522440596</v>
+        <v>-0.0750485871136835</v>
       </c>
       <c r="V69" t="n">
         <v>0.0927942705936637</v>
@@ -12732,7 +12732,7 @@
         <v>0.214032572420043</v>
       </c>
       <c r="X69" t="n">
-        <v>0.102272871652999</v>
+        <v>0.100097101683785</v>
       </c>
       <c r="Y69" t="n">
         <v>0.0117269585339473</v>
@@ -12747,7 +12747,7 @@
         <v>0.512233065666071</v>
       </c>
       <c r="AC69" t="n">
-        <v>0.827584706374267</v>
+        <v>0.827584706374253</v>
       </c>
       <c r="AD69" t="n">
         <v>-1.60331779683993</v>
@@ -12771,7 +12771,7 @@
         <v>1.46959965807242</v>
       </c>
       <c r="AK69" t="n">
-        <v>0.4751599666593</v>
+        <v>0.475159766016541</v>
       </c>
       <c r="AL69" t="n">
         <v>-0.408873784409211</v>
@@ -12897,7 +12897,7 @@
         <v>-1.13648038877564</v>
       </c>
       <c r="U70" t="n">
-        <v>0.275598110678761</v>
+        <v>0.275598006302115</v>
       </c>
       <c r="V70" t="n">
         <v>-0.144148338343447</v>
@@ -12906,7 +12906,7 @@
         <v>-0.0118176859113129</v>
       </c>
       <c r="X70" t="n">
-        <v>-0.0402641430335891</v>
+        <v>-0.0409298747519032</v>
       </c>
       <c r="Y70" t="n">
         <v>1.38512466497244</v>
@@ -12921,7 +12921,7 @@
         <v>0.322310807993024</v>
       </c>
       <c r="AC70" t="n">
-        <v>0.89568185986511</v>
+        <v>0.895681859865116</v>
       </c>
       <c r="AD70" t="n">
         <v>0.511400001346744</v>
@@ -12945,7 +12945,7 @@
         <v>-0.0173933117071187</v>
       </c>
       <c r="AK70" t="n">
-        <v>0.775427884280238</v>
+        <v>0.77542766893668</v>
       </c>
       <c r="AL70" t="n">
         <v>-0.492038382802793</v>
@@ -13071,7 +13071,7 @@
         <v>-0.312169934563827</v>
       </c>
       <c r="U71" t="n">
-        <v>0.00820780681235694</v>
+        <v>0.00820767918287526</v>
       </c>
       <c r="V71" t="n">
         <v>-0.522187151933872</v>
@@ -13080,7 +13080,7 @@
         <v>-0.587438332861219</v>
       </c>
       <c r="X71" t="n">
-        <v>-1.681490704227</v>
+        <v>-1.68197105509446</v>
       </c>
       <c r="Y71" t="n">
         <v>1.27547546238917</v>
@@ -13095,7 +13095,7 @@
         <v>-0.589412763434037</v>
       </c>
       <c r="AC71" t="n">
-        <v>0.732248691487081</v>
+        <v>0.732248691487077</v>
       </c>
       <c r="AD71" t="n">
         <v>-0.0533969878387978</v>
@@ -13119,7 +13119,7 @@
         <v>0.433210618529106</v>
       </c>
       <c r="AK71" t="n">
-        <v>0.560361224790162</v>
+        <v>0.56036101997604</v>
       </c>
       <c r="AL71" t="n">
         <v>-0.259894964011227</v>
@@ -13245,7 +13245,7 @@
         <v>0.0849253049824154</v>
       </c>
       <c r="U72" t="n">
-        <v>-0.441147541127096</v>
+        <v>-0.441147707833483</v>
       </c>
       <c r="V72" t="n">
         <v>-0.696453341540773</v>
@@ -13254,7 +13254,7 @@
         <v>-0.720671875863107</v>
       </c>
       <c r="X72" t="n">
-        <v>0.246027603641316</v>
+        <v>0.247534395230186</v>
       </c>
       <c r="Y72" t="n">
         <v>-0.248683977018023</v>
@@ -13269,7 +13269,7 @@
         <v>-1.17997747468732</v>
       </c>
       <c r="AC72" t="n">
-        <v>-0.793127546707892</v>
+        <v>-0.793127546707902</v>
       </c>
       <c r="AD72" t="n">
         <v>-0.664163540665876</v>
@@ -13293,7 +13293,7 @@
         <v>0.207908653410994</v>
       </c>
       <c r="AK72" t="n">
-        <v>0.844499438581746</v>
+        <v>0.844499219856519</v>
       </c>
       <c r="AL72" t="n">
         <v>0.28863976056297</v>
@@ -13419,7 +13419,7 @@
         <v>0.100717940585525</v>
       </c>
       <c r="U73" t="n">
-        <v>0.0667194894142068</v>
+        <v>0.0667193668730267</v>
       </c>
       <c r="V73" t="n">
         <v>-0.49198761339404</v>
@@ -13428,7 +13428,7 @@
         <v>0.337435290889753</v>
       </c>
       <c r="X73" t="n">
-        <v>-0.261888691948257</v>
+        <v>-0.258880656516149</v>
       </c>
       <c r="Y73" t="n">
         <v>-0.0214519902390902</v>
@@ -13443,7 +13443,7 @@
         <v>0.163343621180101</v>
       </c>
       <c r="AC73" t="n">
-        <v>0.500718369618199</v>
+        <v>0.500718369618194</v>
       </c>
       <c r="AD73" t="n">
         <v>-0.162702394719784</v>
@@ -13467,7 +13467,7 @@
         <v>1.20824937853541</v>
       </c>
       <c r="AK73" t="n">
-        <v>0.217013753613259</v>
+        <v>0.217013565609063</v>
       </c>
       <c r="AL73" t="n">
         <v>0.0479099477241481</v>
@@ -13593,7 +13593,7 @@
         <v>-1.00427811960322</v>
       </c>
       <c r="U74" t="n">
-        <v>-0.117940762675158</v>
+        <v>-0.11794090127479</v>
       </c>
       <c r="V74" t="n">
         <v>-0.947060003981152</v>
@@ -13602,7 +13602,7 @@
         <v>-0.756890703086922</v>
       </c>
       <c r="X74" t="n">
-        <v>-0.246506999715892</v>
+        <v>-0.246060022294722</v>
       </c>
       <c r="Y74" t="n">
         <v>0.387672156462261</v>
@@ -13617,7 +13617,7 @@
         <v>-0.139113217015685</v>
       </c>
       <c r="AC74" t="n">
-        <v>0.228329755654812</v>
+        <v>0.228329755654803</v>
       </c>
       <c r="AD74" t="n">
         <v>-0.0226720316271041</v>
@@ -13641,7 +13641,7 @@
         <v>1.21726145714014</v>
       </c>
       <c r="AK74" t="n">
-        <v>0.689304253056494</v>
+        <v>0.689304041929459</v>
       </c>
       <c r="AL74" t="n">
         <v>-1.01251415681926</v>
@@ -13767,7 +13767,7 @@
         <v>2.49566298926335</v>
       </c>
       <c r="U75" t="n">
-        <v>-1.40634003474182</v>
+        <v>-1.40634028538341</v>
       </c>
       <c r="V75" t="n">
         <v>2.84204144140345</v>
@@ -13776,7 +13776,7 @@
         <v>0.907623113756086</v>
       </c>
       <c r="X75" t="n">
-        <v>-3.2464497081016</v>
+        <v>-3.24608843010845</v>
       </c>
       <c r="Y75" t="n">
         <v>-2.50460382908621</v>
@@ -13791,7 +13791,7 @@
         <v>0.389863801172147</v>
       </c>
       <c r="AC75" t="n">
-        <v>-1.46047965091819</v>
+        <v>-1.4604796509182</v>
       </c>
       <c r="AD75" t="n">
         <v>0.516154118612236</v>
@@ -13815,7 +13815,7 @@
         <v>-1.25204808055438</v>
       </c>
       <c r="AK75" t="n">
-        <v>-1.25582687098062</v>
+        <v>-1.25582698687611</v>
       </c>
       <c r="AL75" t="n">
         <v>0.970374585553794</v>
@@ -13941,7 +13941,7 @@
         <v>-0.918151271829556</v>
       </c>
       <c r="U76" t="n">
-        <v>0.030873222797192</v>
+        <v>0.0308730971387444</v>
       </c>
       <c r="V76" t="n">
         <v>0.223493912798839</v>
@@ -13950,7 +13950,7 @@
         <v>-0.592612451036049</v>
       </c>
       <c r="X76" t="n">
-        <v>1.10092923983934</v>
+        <v>1.10010657095503</v>
       </c>
       <c r="Y76" t="n">
         <v>0.708342788768687</v>
@@ -13965,7 +13965,7 @@
         <v>0.665234952365324</v>
       </c>
       <c r="AC76" t="n">
-        <v>0.119374310069455</v>
+        <v>0.11937431006945</v>
       </c>
       <c r="AD76" t="n">
         <v>-1.91818966267178</v>
@@ -13989,7 +13989,7 @@
         <v>-0.116526176359088</v>
       </c>
       <c r="AK76" t="n">
-        <v>-0.381582733074354</v>
+        <v>-0.381582891771902</v>
       </c>
       <c r="AL76" t="n">
         <v>0.344633349872166</v>
@@ -14115,7 +14115,7 @@
         <v>-1.00069628472416</v>
       </c>
       <c r="U77" t="n">
-        <v>0.484900264631596</v>
+        <v>0.484900178456312</v>
       </c>
       <c r="V77" t="n">
         <v>-1.86938361545177</v>
@@ -14124,7 +14124,7 @@
         <v>-0.459378908034161</v>
       </c>
       <c r="X77" t="n">
-        <v>-0.476271027436853</v>
+        <v>-0.476831438280394</v>
       </c>
       <c r="Y77" t="n">
         <v>0.900442034287948</v>
@@ -14163,7 +14163,7 @@
         <v>-1.36920510241579</v>
       </c>
       <c r="AK77" t="n">
-        <v>0.73826097875556</v>
+        <v>0.738260765231656</v>
       </c>
       <c r="AL77" t="n">
         <v>-1.47434139652122</v>
@@ -14289,7 +14289,7 @@
         <v>0.186844788359187</v>
       </c>
       <c r="U78" t="n">
-        <v>-0.0343764798454493</v>
+        <v>-0.0343766111781516</v>
       </c>
       <c r="V78" t="n">
         <v>0.578363244361985</v>
@@ -14298,7 +14298,7 @@
         <v>0.883563464243125</v>
       </c>
       <c r="X78" t="n">
-        <v>0.90705582732723</v>
+        <v>0.907797057633636</v>
       </c>
       <c r="Y78" t="n">
         <v>-0.419504646182843</v>
@@ -14313,7 +14313,7 @@
         <v>0.663945157746153</v>
       </c>
       <c r="AC78" t="n">
-        <v>-0.289208610875623</v>
+        <v>-0.289208610875628</v>
       </c>
       <c r="AD78" t="n">
         <v>-0.282812613567798</v>
@@ -14337,7 +14337,7 @@
         <v>0.613452190623597</v>
       </c>
       <c r="AK78" t="n">
-        <v>-0.0422558625587268</v>
+        <v>-0.0422560378693574</v>
       </c>
       <c r="AL78" t="n">
         <v>-0.225211970062333</v>
@@ -14463,7 +14463,7 @@
         <v>0.514419869116481</v>
       </c>
       <c r="U79" t="n">
-        <v>-0.462208666626029</v>
+        <v>-0.462208835163936</v>
       </c>
       <c r="V79" t="n">
         <v>0.394987685752905</v>
@@ -14472,7 +14472,7 @@
         <v>1.49178105569446</v>
       </c>
       <c r="X79" t="n">
-        <v>0.644605703612491</v>
+        <v>0.644974056094399</v>
       </c>
       <c r="Y79" t="n">
         <v>-0.551119212782521</v>
@@ -14487,7 +14487,7 @@
         <v>0.101917152442044</v>
       </c>
       <c r="AC79" t="n">
-        <v>-0.153014303893932</v>
+        <v>-0.153014303893942</v>
       </c>
       <c r="AD79" t="n">
         <v>-0.808751569897375</v>
@@ -14508,10 +14508,10 @@
         <v>0.745391506636568</v>
       </c>
       <c r="AJ79" t="n">
-        <v>-0.711323364270906</v>
+        <v>-0.711323364270905</v>
       </c>
       <c r="AK79" t="n">
-        <v>0.295841177166393</v>
+        <v>0.29584098530289</v>
       </c>
       <c r="AL79" t="n">
         <v>0.253947887199344</v>
@@ -14637,7 +14637,7 @@
         <v>2.36101855994612</v>
       </c>
       <c r="U80" t="n">
-        <v>-1.26992400614453</v>
+        <v>-1.26992424492309</v>
       </c>
       <c r="V80" t="n">
         <v>1.5288070818828</v>
@@ -14646,7 +14646,7 @@
         <v>1.54352223744277</v>
       </c>
       <c r="X80" t="n">
-        <v>0.31389932061663</v>
+        <v>0.311637566337317</v>
       </c>
       <c r="Y80" t="n">
         <v>-1.98498975697401</v>
@@ -14685,7 +14685,7 @@
         <v>-0.783419993108702</v>
       </c>
       <c r="AK80" t="n">
-        <v>-0.28687393690918</v>
+        <v>-0.286874100243571</v>
       </c>
       <c r="AL80" t="n">
         <v>-1.27545138590646</v>
@@ -14811,7 +14811,7 @@
         <v>0.206219258841353</v>
       </c>
       <c r="U81" t="n">
-        <v>-0.522260468094346</v>
+        <v>-0.522260641854486</v>
       </c>
       <c r="V81" t="n">
         <v>0.542321827875102</v>
@@ -14820,7 +14820,7 @@
         <v>1.2889556232411</v>
       </c>
       <c r="X81" t="n">
-        <v>-0.24810925932343</v>
+        <v>-0.246060022294722</v>
       </c>
       <c r="Y81" t="n">
         <v>-0.823110809255274</v>
@@ -14859,7 +14859,7 @@
         <v>0.478271011552729</v>
       </c>
       <c r="AK81" t="n">
-        <v>-0.0438995787114249</v>
+        <v>-0.04389975394158</v>
       </c>
       <c r="AL81" t="n">
         <v>0.0544984734563755</v>
@@ -14985,7 +14985,7 @@
         <v>0.0241969227147857</v>
       </c>
       <c r="U82" t="n">
-        <v>-0.0647296558387326</v>
+        <v>-0.0647297898110113</v>
       </c>
       <c r="V82" t="n">
         <v>0.0766548450789343</v>
@@ -14994,7 +14994,7 @@
         <v>-0.0798573399103355</v>
       </c>
       <c r="X82" t="n">
-        <v>0.597114728845062</v>
+        <v>0.600101836319407</v>
       </c>
       <c r="Y82" t="n">
         <v>0.60745604945881</v>
@@ -15009,7 +15009,7 @@
         <v>0.531741209281044</v>
       </c>
       <c r="AC82" t="n">
-        <v>0.241949186352984</v>
+        <v>0.241949186352979</v>
       </c>
       <c r="AD82" t="n">
         <v>-0.777594421207</v>
@@ -15033,7 +15033,7 @@
         <v>-0.17961072659216</v>
       </c>
       <c r="AK82" t="n">
-        <v>0.0858830455753502</v>
+        <v>0.0858828639911754</v>
       </c>
       <c r="AL82" t="n">
         <v>-1.0341000140363</v>
@@ -15159,7 +15159,7 @@
         <v>-0.705357717878372</v>
       </c>
       <c r="U83" t="n">
-        <v>0.171113879912879</v>
+        <v>0.171113766450059</v>
       </c>
       <c r="V83" t="n">
         <v>0.0108099495740528</v>
@@ -15168,7 +15168,7 @@
         <v>0.070968204885977</v>
       </c>
       <c r="X83" t="n">
-        <v>0.208086096134814</v>
+        <v>0.209072492565908</v>
       </c>
       <c r="Y83" t="n">
         <v>-0.140408349758692</v>
@@ -15183,7 +15183,7 @@
         <v>0.538835079686489</v>
       </c>
       <c r="AC83" t="n">
-        <v>0.214710324956641</v>
+        <v>0.214710324956646</v>
       </c>
       <c r="AD83" t="n">
         <v>1.06661017555063</v>
@@ -15207,7 +15207,7 @@
         <v>-0.855516621946497</v>
       </c>
       <c r="AK83" t="n">
-        <v>0.7521202257409</v>
+        <v>0.752120011538461</v>
       </c>
       <c r="AL83" t="n">
         <v>-0.27728085805934</v>
@@ -15333,7 +15333,7 @@
         <v>0.775893815287562</v>
       </c>
       <c r="U84" t="n">
-        <v>-0.717329356856248</v>
+        <v>-0.717316713254995</v>
       </c>
       <c r="V84" t="n">
         <v>0.476872991892056</v>
@@ -15342,7 +15342,7 @@
         <v>-0.6720351650197</v>
       </c>
       <c r="X84" t="n">
-        <v>1.34979220208215</v>
+        <v>1.35010893827284</v>
       </c>
       <c r="Y84" t="n">
         <v>-0.880362849696969</v>
@@ -15381,7 +15381,7 @@
         <v>0.478271011552729</v>
       </c>
       <c r="AK84" t="n">
-        <v>0.200198182612275</v>
+        <v>0.200197995431353</v>
       </c>
       <c r="AL84" t="n">
         <v>-0.226286379245082</v>
@@ -15509,7 +15509,7 @@
         <v>-0.680936116430264</v>
       </c>
       <c r="U85" t="n">
-        <v>-0.166878039657139</v>
+        <v>-0.166878182512462</v>
       </c>
       <c r="V85" t="n">
         <v>-0.695958267138481</v>
@@ -15518,7 +15518,7 @@
         <v>-0.458602790307936</v>
       </c>
       <c r="X85" t="n">
-        <v>0.00133051637809946</v>
+        <v>0.0039423450230885</v>
       </c>
       <c r="Y85" t="n">
         <v>-0.227346194830653</v>
@@ -15533,7 +15533,7 @@
         <v>0.336820997458707</v>
       </c>
       <c r="AC85" t="n">
-        <v>-0.0849171504030842</v>
+        <v>-0.0849171504030794</v>
       </c>
       <c r="AD85" t="n">
         <v>0.984493604601221</v>
@@ -15557,7 +15557,7 @@
         <v>-0.747371678689803</v>
       </c>
       <c r="AK85" t="n">
-        <v>0.904075280145005</v>
+        <v>0.904075058503009</v>
       </c>
       <c r="AL85" t="n">
         <v>-0.878665859127088</v>
@@ -15685,7 +15685,7 @@
         <v>0.0775988245479826</v>
       </c>
       <c r="U86" t="n">
-        <v>-0.249774937644713</v>
+        <v>-0.249775087708928</v>
       </c>
       <c r="V86" t="n">
         <v>-0.270788370449826</v>
@@ -15694,7 +15694,7 @@
         <v>-0.80733835529152</v>
       </c>
       <c r="X86" t="n">
-        <v>0.771568754913809</v>
+        <v>0.773180398308661</v>
       </c>
       <c r="Y86" t="n">
         <v>-0.405318928613215</v>
@@ -15709,7 +15709,7 @@
         <v>-0.459304731225082</v>
       </c>
       <c r="AC86" t="n">
-        <v>0.0104188644841019</v>
+        <v>0.0104188644840971</v>
       </c>
       <c r="AD86" t="n">
         <v>0.101877982683725</v>
@@ -15733,7 +15733,7 @@
         <v>0.496295168762178</v>
       </c>
       <c r="AK86" t="n">
-        <v>0.14701982621887</v>
+        <v>0.147019641641503</v>
       </c>
       <c r="AL86" t="n">
         <v>-0.347508149186272</v>
@@ -15861,7 +15861,7 @@
         <v>-0.206342994955357</v>
       </c>
       <c r="U87" t="n">
-        <v>0.145381060518996</v>
+        <v>0.145380944818396</v>
       </c>
       <c r="V87" t="n">
         <v>-0.825073671256321</v>
@@ -15870,7 +15870,7 @@
         <v>-0.285528537359853</v>
       </c>
       <c r="X87" t="n">
-        <v>-0.547283173242942</v>
+        <v>-0.547344926498238</v>
       </c>
       <c r="Y87" t="n">
         <v>0.594004484217495</v>
@@ -15885,7 +15885,7 @@
         <v>0.599455426787563</v>
       </c>
       <c r="AC87" t="n">
-        <v>0.841204137072434</v>
+        <v>0.841204137072429</v>
       </c>
       <c r="AD87" t="n">
         <v>0.4213075146544</v>
@@ -15909,7 +15909,7 @@
         <v>0.802705841322811</v>
       </c>
       <c r="AK87" t="n">
-        <v>0.615313375592954</v>
+        <v>0.615313168088433</v>
       </c>
       <c r="AL87" t="n">
         <v>0.298664619797047</v>
@@ -16037,7 +16037,7 @@
         <v>1.70114688881823</v>
       </c>
       <c r="U88" t="n">
-        <v>-1.08004018423306</v>
+        <v>-1.08004040649892</v>
       </c>
       <c r="V88" t="n">
         <v>1.61693032549084</v>
@@ -16046,7 +16046,7 @@
         <v>0.921851938736872</v>
       </c>
       <c r="X88" t="n">
-        <v>-0.400772554729659</v>
+        <v>-0.399907632951837</v>
       </c>
       <c r="Y88" t="n">
         <v>-2.24654928568479</v>
@@ -16061,7 +16061,7 @@
         <v>-1.4919465481995</v>
       </c>
       <c r="AC88" t="n">
-        <v>-1.6375322499944</v>
+        <v>-1.63753224999439</v>
       </c>
       <c r="AD88" t="n">
         <v>1.15025906528809</v>
@@ -16085,7 +16085,7 @@
         <v>-0.90057701497012</v>
       </c>
       <c r="AK88" t="n">
-        <v>0.319077883929355</v>
+        <v>0.319077690928208</v>
       </c>
       <c r="AL88" t="n">
         <v>-0.572619071508938</v>
@@ -16213,7 +16213,7 @@
         <v>1.34491712902849</v>
       </c>
       <c r="U89" t="n">
-        <v>-0.390631642306987</v>
+        <v>-0.390631804620402</v>
       </c>
       <c r="V89" t="n">
         <v>0.897389189199163</v>
@@ -16222,7 +16222,7 @@
         <v>1.88889462561271</v>
       </c>
       <c r="X89" t="n">
-        <v>1.03004527480185</v>
+        <v>1.02959308273718</v>
       </c>
       <c r="Y89" t="n">
         <v>-1.26090242026052</v>
@@ -16261,7 +16261,7 @@
         <v>-1.10785482287878</v>
       </c>
       <c r="AK89" t="n">
-        <v>0.147622916318061</v>
+        <v>0.147622731711167</v>
       </c>
       <c r="AL89" t="n">
         <v>-0.995669907069885</v>
@@ -16389,7 +16389,7 @@
         <v>0.295439509465109</v>
       </c>
       <c r="U90" t="n">
-        <v>-0.0217988424359708</v>
+        <v>-0.0217989726748946</v>
       </c>
       <c r="V90" t="n">
         <v>0.314983662342464</v>
@@ -16398,7 +16398,7 @@
         <v>0.324499995452677</v>
       </c>
       <c r="X90" t="n">
-        <v>1.24103081992247</v>
+        <v>1.24113354739072</v>
       </c>
       <c r="Y90" t="n">
         <v>0.420211682239672</v>
@@ -16413,7 +16413,7 @@
         <v>0.44274538055819</v>
       </c>
       <c r="AC90" t="n">
-        <v>0.459860077523689</v>
+        <v>0.459860077523685</v>
       </c>
       <c r="AD90" t="n">
         <v>-0.101606094324409</v>
@@ -16437,7 +16437,7 @@
         <v>1.14516482830234</v>
       </c>
       <c r="AK90" t="n">
-        <v>0.790197679062395</v>
+        <v>0.790197462995726</v>
       </c>
       <c r="AL90" t="n">
         <v>-0.905765832893607</v>
@@ -16565,7 +16565,7 @@
         <v>-0.6710046651747</v>
       </c>
       <c r="U91" t="n">
-        <v>-0.074162883895841</v>
+        <v>-0.0741630186884542</v>
       </c>
       <c r="V91" t="n">
         <v>0.00873063708442631</v>
@@ -16574,7 +16574,7 @@
         <v>-0.134444286654798</v>
       </c>
       <c r="X91" t="n">
-        <v>-0.111276288839677</v>
+        <v>-0.111443362969747</v>
       </c>
       <c r="Y91" t="n">
         <v>0.527729474837521</v>
@@ -16589,7 +16589,7 @@
         <v>-2.31177225301057</v>
       </c>
       <c r="AC91" t="n">
-        <v>0.241949186352984</v>
+        <v>0.241949186352979</v>
       </c>
       <c r="AD91" t="n">
         <v>-0.909177385852731</v>
@@ -16610,10 +16610,10 @@
         <v>0.0748172560906792</v>
       </c>
       <c r="AJ91" t="n">
-        <v>-0.909589093574844</v>
+        <v>-0.909589093574845</v>
       </c>
       <c r="AK91" t="n">
-        <v>1.30658470752298</v>
+        <v>1.30658446617455</v>
       </c>
       <c r="AL91" t="n">
         <v>-1.18160485158853</v>
@@ -16741,7 +16741,7 @@
         <v>1.03557684401911</v>
       </c>
       <c r="U92" t="n">
-        <v>-0.340346761316847</v>
+        <v>-0.340346919257381</v>
       </c>
       <c r="V92" t="n">
         <v>0.100616446149882</v>
@@ -16750,7 +16750,7 @@
         <v>1.99030734183939</v>
       </c>
       <c r="X92" t="n">
-        <v>0.996654184580759</v>
+        <v>0.997541497183619</v>
       </c>
       <c r="Y92" t="n">
         <v>-0.837367573824415</v>
@@ -16765,7 +16765,7 @@
         <v>0.637504368053131</v>
       </c>
       <c r="AC92" t="n">
-        <v>-0.616074947631691</v>
+        <v>-0.616074947631687</v>
       </c>
       <c r="AD92" t="n">
         <v>-0.393886080588843</v>
@@ -16789,7 +16789,7 @@
         <v>0.144824103177923</v>
       </c>
       <c r="AK92" t="n">
-        <v>0.310551845468238</v>
+        <v>0.310551652884518</v>
       </c>
       <c r="AL92" t="n">
         <v>-0.751654710779683</v>
@@ -16917,7 +16917,7 @@
         <v>-0.669702179764134</v>
       </c>
       <c r="U93" t="n">
-        <v>-0.00887467828153679</v>
+        <v>-0.00887480739654801</v>
       </c>
       <c r="V93" t="n">
         <v>-0.673679919035325</v>
@@ -16926,7 +16926,7 @@
         <v>-0.0671807503820001</v>
       </c>
       <c r="X93" t="n">
-        <v>0.374721095318775</v>
+        <v>0.375740737444448</v>
       </c>
       <c r="Y93" t="n">
         <v>0.75035524781463</v>
@@ -16941,7 +16941,7 @@
         <v>0.273298612464496</v>
       </c>
       <c r="AC93" t="n">
-        <v>-0.289208610875623</v>
+        <v>-0.289208610875628</v>
       </c>
       <c r="AD93" t="n">
         <v>0.249962841970007</v>
@@ -16965,7 +16965,7 @@
         <v>0.865790391555883</v>
       </c>
       <c r="AK93" t="n">
-        <v>0.016054672325837</v>
+        <v>0.0160544941603845</v>
       </c>
       <c r="AL93" t="n">
         <v>0.927069679898711</v>
@@ -17093,7 +17093,7 @@
         <v>-0.988485484000108</v>
       </c>
       <c r="U94" t="n">
-        <v>0.0560798349116995</v>
+        <v>0.0560797114452716</v>
       </c>
       <c r="V94" t="n">
         <v>-0.627340954980763</v>
@@ -17102,7 +17102,7 @@
         <v>-0.523020561584579</v>
       </c>
       <c r="X94" t="n">
-        <v>0.0353625104422085</v>
+        <v>0.035993930576654</v>
       </c>
       <c r="Y94" t="n">
         <v>1.93788216235792</v>
@@ -17141,7 +17141,7 @@
         <v>-0.756383757294528</v>
       </c>
       <c r="AK94" t="n">
-        <v>0.310185261290298</v>
+        <v>0.310185068724525</v>
       </c>
       <c r="AL94" t="n">
         <v>0.227895684371373</v>
@@ -17269,7 +17269,7 @@
         <v>1.8297673231116</v>
       </c>
       <c r="U95" t="n">
-        <v>-0.252752500786549</v>
+        <v>-0.252752651109699</v>
       </c>
       <c r="V95" t="n">
         <v>0.504498143539968</v>
@@ -17278,7 +17278,7 @@
         <v>0.310788582289376</v>
       </c>
       <c r="X95" t="n">
-        <v>-0.847290262158373</v>
+        <v>-0.848629830701754</v>
       </c>
       <c r="Y95" t="n">
         <v>-0.279861768638082</v>
@@ -17317,7 +17317,7 @@
         <v>-1.93696605451344</v>
       </c>
       <c r="AK95" t="n">
-        <v>-0.17919279096336</v>
+        <v>-0.179192959569705</v>
       </c>
       <c r="AL95" t="n">
         <v>0.310367688415746</v>
@@ -17445,7 +17445,7 @@
         <v>-0.896334641202579</v>
       </c>
       <c r="U96" t="n">
-        <v>0.0805677248885205</v>
+        <v>0.0805676035516125</v>
       </c>
       <c r="V96" t="n">
         <v>-0.476838336683895</v>
@@ -17454,7 +17454,7 @@
         <v>-1.14779533119537</v>
       </c>
       <c r="X96" t="n">
-        <v>0.574554913570926</v>
+        <v>0.574460567876554</v>
       </c>
       <c r="Y96" t="n">
         <v>0.389093096452541</v>
@@ -17469,7 +17469,7 @@
         <v>0.1085273498653</v>
       </c>
       <c r="AC96" t="n">
-        <v>-0.125775442497594</v>
+        <v>-0.125775442497589</v>
       </c>
       <c r="AD96" t="n">
         <v>0.6507231403834</v>
@@ -17493,7 +17493,7 @@
         <v>0.0276670813165038</v>
       </c>
       <c r="AK96" t="n">
-        <v>-0.495424858268776</v>
+        <v>-0.495425011392735</v>
       </c>
       <c r="AL96" t="n">
         <v>-0.860365385361428</v>
@@ -17621,7 +17621,7 @@
         <v>0.0621318102975138</v>
       </c>
       <c r="U97" t="n">
-        <v>-0.0219400199987295</v>
+        <v>-0.0219401502499313</v>
       </c>
       <c r="V97" t="n">
         <v>0.19576974627047</v>
@@ -17630,7 +17630,7 @@
         <v>1.0080010063478</v>
       </c>
       <c r="X97" t="n">
-        <v>-1.53991504530494</v>
+        <v>-1.54094407865877</v>
       </c>
       <c r="Y97" t="n">
         <v>-1.07224895421769</v>
@@ -17669,7 +17669,7 @@
         <v>0.189884496201545</v>
       </c>
       <c r="AK97" t="n">
-        <v>0.568579805553653</v>
+        <v>0.568579600337157</v>
       </c>
       <c r="AL97" t="n">
         <v>0.628561515389269</v>
@@ -17797,7 +17797,7 @@
         <v>-0.956574591441246</v>
       </c>
       <c r="U98" t="n">
-        <v>-0.730304858306231</v>
+        <v>-0.730305050158358</v>
       </c>
       <c r="V98" t="n">
         <v>-0.854382075872027</v>
@@ -17806,7 +17806,7 @@
         <v>-0.616672100549013</v>
       </c>
       <c r="X98" t="n">
-        <v>-1.21254136229276</v>
+        <v>-1.2140179060124</v>
       </c>
       <c r="Y98" t="n">
         <v>-1.19967174784604</v>
@@ -17842,10 +17842,10 @@
         <v>-0.915311455091862</v>
       </c>
       <c r="AJ98" t="n">
-        <v>-0.684287128456731</v>
+        <v>-0.684287128456732</v>
       </c>
       <c r="AK98" t="n">
-        <v>0.24276924843755</v>
+        <v>0.242769059172394</v>
       </c>
       <c r="AL98" t="n">
         <v>-0.678461695131776</v>
@@ -17973,7 +17973,7 @@
         <v>-0.058673711532462</v>
       </c>
       <c r="U99" t="n">
-        <v>-0.326074993154255</v>
+        <v>-0.326075149853685</v>
       </c>
       <c r="V99" t="n">
         <v>-0.913493959505731</v>
@@ -17982,7 +17982,7 @@
         <v>-0.170404407969872</v>
       </c>
       <c r="X99" t="n">
-        <v>-0.693986062909129</v>
+        <v>-0.69478222004464</v>
       </c>
       <c r="Y99" t="n">
         <v>0.195892622440813</v>
@@ -17997,7 +17997,7 @@
         <v>0.224286416935968</v>
       </c>
       <c r="AC99" t="n">
-        <v>-0.90208299229325</v>
+        <v>-0.902082992293255</v>
       </c>
       <c r="AD99" t="n">
         <v>-1.0439821489759</v>
@@ -18021,7 +18021,7 @@
         <v>1.55070836551495</v>
       </c>
       <c r="AK99" t="n">
-        <v>1.32669953612542</v>
+        <v>1.32669929379219</v>
       </c>
       <c r="AL99" t="n">
         <v>0.641925034563125</v>
@@ -18149,7 +18149,7 @@
         <v>1.17950148188663</v>
       </c>
       <c r="U100" t="n">
-        <v>-0.158715409664866</v>
+        <v>-0.158715551810348</v>
       </c>
       <c r="V100" t="n">
         <v>0.775798915996166</v>
@@ -18158,7 +18158,7 @@
         <v>0.432639065306638</v>
       </c>
       <c r="X100" t="n">
-        <v>-0.369496447190515</v>
+        <v>-0.367856047398271</v>
       </c>
       <c r="Y100" t="n">
         <v>-1.15404773299147</v>
@@ -18173,7 +18173,7 @@
         <v>-0.0509235099298134</v>
       </c>
       <c r="AC100" t="n">
-        <v>-0.411783487159147</v>
+        <v>-0.411783487159157</v>
       </c>
       <c r="AD100" t="n">
         <v>-0.232874737167462</v>
@@ -18197,7 +18197,7 @@
         <v>-0.495033477757517</v>
       </c>
       <c r="AK100" t="n">
-        <v>-0.158403920485351</v>
+        <v>-0.158404090109497</v>
       </c>
       <c r="AL100" t="n">
         <v>-0.886151205747395</v>
@@ -18325,7 +18325,7 @@
         <v>-0.0630695997931214</v>
       </c>
       <c r="U101" t="n">
-        <v>-0.166544347236071</v>
+        <v>-0.166544490062376</v>
       </c>
       <c r="V101" t="n">
         <v>-0.171377430469525</v>
@@ -18334,7 +18334,7 @@
         <v>-0.297687715070705</v>
       </c>
       <c r="X101" t="n">
-        <v>-0.100316833124117</v>
+        <v>-0.0986227287483212</v>
       </c>
       <c r="Y101" t="n">
         <v>0.0225853082930035</v>
@@ -18349,7 +18349,7 @@
         <v>0.0570967894258243</v>
       </c>
       <c r="AC101" t="n">
-        <v>0.0104188644841019</v>
+        <v>0.0104188644840971</v>
       </c>
       <c r="AD101" t="n">
         <v>0.260531912585027</v>
@@ -18373,7 +18373,7 @@
         <v>-0.35985229868665</v>
       </c>
       <c r="AK101" t="n">
-        <v>0.000480757411423968</v>
+        <v>0.00048058000845437</v>
       </c>
       <c r="AL101" t="n">
         <v>0.51724917229062</v>
@@ -18501,7 +18501,7 @@
         <v>-0.0827696916279292</v>
       </c>
       <c r="U102" t="n">
-        <v>0.0544242071302475</v>
+        <v>0.0544240835198428</v>
       </c>
       <c r="V102" t="n">
         <v>-0.0735507285765593</v>
@@ -18510,7 +18510,7 @@
         <v>-0.214643118364674</v>
       </c>
       <c r="X102" t="n">
-        <v>0.325756041712412</v>
+        <v>0.324458200558744</v>
       </c>
       <c r="Y102" t="n">
         <v>0.652511688317272</v>
@@ -18525,7 +18525,7 @@
         <v>0.638955386999699</v>
       </c>
       <c r="AC102" t="n">
-        <v>0.963779013355958</v>
+        <v>0.963779013355959</v>
       </c>
       <c r="AD102" t="n">
         <v>-1.54599335807668</v>
@@ -18549,7 +18549,7 @@
         <v>1.46959965807242</v>
       </c>
       <c r="AK102" t="n">
-        <v>0.280290912844105</v>
+        <v>0.280290721741927</v>
       </c>
       <c r="AL102" t="n">
         <v>1.52111140498189</v>
@@ -18677,7 +18677,7 @@
         <v>-1.17506651906366</v>
       </c>
       <c r="U103" t="n">
-        <v>0.144020622186951</v>
+        <v>0.144020506368043</v>
       </c>
       <c r="V103" t="n">
         <v>-0.302869191718368</v>
@@ -18686,7 +18686,7 @@
         <v>-0.449030671684501</v>
       </c>
       <c r="X103" t="n">
-        <v>-0.345398462693143</v>
+        <v>-0.348625096066132</v>
       </c>
       <c r="Y103" t="n">
         <v>1.2783410247029</v>
@@ -18725,7 +18725,7 @@
         <v>-0.0173933117071187</v>
       </c>
       <c r="AK103" t="n">
-        <v>0.241846875344669</v>
+        <v>0.241858511420155</v>
       </c>
       <c r="AL103" t="n">
         <v>0.59212039732315</v>
@@ -18853,7 +18853,7 @@
         <v>-0.404972020066639</v>
       </c>
       <c r="U104" t="n">
-        <v>0.224299318101532</v>
+        <v>0.224299209263831</v>
       </c>
       <c r="V104" t="n">
         <v>-0.632390713884145</v>
@@ -18862,7 +18862,7 @@
         <v>-0.95428331145671</v>
       </c>
       <c r="X104" t="n">
-        <v>-1.61246536033426</v>
+        <v>-1.61145756687661</v>
       </c>
       <c r="Y104" t="n">
         <v>1.01880633547827</v>
@@ -18877,7 +18877,7 @@
         <v>-1.75393608021877</v>
       </c>
       <c r="AC104" t="n">
-        <v>0.882062429166944</v>
+        <v>0.882062429166939</v>
       </c>
       <c r="AD104" t="n">
         <v>-0.508770699467349</v>
@@ -18901,7 +18901,7 @@
         <v>0.433210618529106</v>
       </c>
       <c r="AK104" t="n">
-        <v>0.742908320108153</v>
+        <v>0.74290810635672</v>
       </c>
       <c r="AL104" t="n">
         <v>0.489421086515957</v>
@@ -19029,7 +19029,7 @@
         <v>0.107067556962034</v>
       </c>
       <c r="U105" t="n">
-        <v>-0.314716616514061</v>
+        <v>-0.314703937900741</v>
       </c>
       <c r="V105" t="n">
         <v>-0.973397962183104</v>
@@ -19038,7 +19038,7 @@
         <v>-1.51386419206464</v>
       </c>
       <c r="X105" t="n">
-        <v>-0.958487078921516</v>
+        <v>-0.957605221583877</v>
       </c>
       <c r="Y105" t="n">
         <v>-0.179223693826505</v>
@@ -19053,7 +19053,7 @@
         <v>-2.91233287256243</v>
       </c>
       <c r="AC105" t="n">
-        <v>-0.643313809028029</v>
+        <v>-0.643313809028039</v>
       </c>
       <c r="AD105" t="n">
         <v>-0.407755530131973</v>
@@ -19077,7 +19077,7 @@
         <v>0.207908653410994</v>
       </c>
       <c r="AK105" t="n">
-        <v>0.490095315586334</v>
+        <v>0.490095114212356</v>
       </c>
       <c r="AL105" t="n">
         <v>0.458272099630982</v>
@@ -19205,7 +19205,7 @@
         <v>0.258807107292947</v>
       </c>
       <c r="U106" t="n">
-        <v>0.134702903044828</v>
+        <v>0.13470278641563</v>
       </c>
       <c r="V106" t="n">
         <v>-0.589814315287004</v>
@@ -19214,7 +19214,7 @@
         <v>-0.960750959175249</v>
       </c>
       <c r="X106" t="n">
-        <v>-1.13819651650299</v>
+        <v>-1.13709410068384</v>
       </c>
       <c r="Y106" t="n">
         <v>0.378376840692514</v>
@@ -19253,7 +19253,7 @@
         <v>1.20824937853541</v>
       </c>
       <c r="AK106" t="n">
-        <v>0.0896671403153746</v>
+        <v>0.0896669585459342</v>
       </c>
       <c r="AL106" t="n">
         <v>0.486606312045451</v>
@@ -19381,7 +19381,7 @@
         <v>-1.09300993819801</v>
       </c>
       <c r="U107" t="n">
-        <v>-0.0590440503566919</v>
+        <v>-0.0590441838345391</v>
       </c>
       <c r="V107" t="n">
         <v>-1.2523228804346</v>
@@ -19390,7 +19390,7 @@
         <v>-1.05621343950087</v>
       </c>
       <c r="X107" t="n">
-        <v>0.117782744653968</v>
+        <v>0.119328053015924</v>
       </c>
       <c r="Y107" t="n">
         <v>0.589350905749328</v>
@@ -19405,7 +19405,7 @@
         <v>-0.517829162070002</v>
       </c>
       <c r="AC107" t="n">
-        <v>0.419001785429185</v>
+        <v>0.419001785429175</v>
       </c>
       <c r="AD107" t="n">
         <v>-0.240575621333053</v>
@@ -19429,7 +19429,7 @@
         <v>1.21726145714014</v>
       </c>
       <c r="AK107" t="n">
-        <v>0.634541306990703</v>
+        <v>0.634541098544803</v>
       </c>
       <c r="AL107" t="n">
         <v>1.17595967487758</v>
@@ -19557,7 +19557,7 @@
         <v>2.32324648303971</v>
       </c>
       <c r="U108" t="n">
-        <v>-1.53309181745203</v>
+        <v>-1.53309207911624</v>
       </c>
       <c r="V108" t="n">
         <v>2.70322257900068</v>
@@ -19566,7 +19566,7 @@
         <v>0.662887324086599</v>
       </c>
       <c r="X108" t="n">
-        <v>-2.83313081974108</v>
+        <v>-2.83582813502281</v>
       </c>
       <c r="Y108" t="n">
         <v>-1.75673942986871</v>
@@ -19581,7 +19581,7 @@
         <v>0.40663113122138</v>
       </c>
       <c r="AC108" t="n">
-        <v>-1.28342705184199</v>
+        <v>-1.283427051842</v>
       </c>
       <c r="AD108" t="n">
         <v>1.35680777987233</v>
@@ -19605,7 +19605,7 @@
         <v>-1.25204808055438</v>
       </c>
       <c r="AK108" t="n">
-        <v>-1.53919644052814</v>
+        <v>-1.53919654255015</v>
       </c>
       <c r="AL108" t="n">
         <v>-0.650491538721379</v>
@@ -19733,7 +19733,7 @@
         <v>-0.989625158734354</v>
       </c>
       <c r="U109" t="n">
-        <v>0.196076639873527</v>
+        <v>0.196076528581523</v>
       </c>
       <c r="V109" t="n">
         <v>0.0243749881968627</v>
@@ -19742,7 +19742,7 @@
         <v>-0.790522471223321</v>
       </c>
       <c r="X109" t="n">
-        <v>1.35267626937572</v>
+        <v>1.35010893827284</v>
       </c>
       <c r="Y109" t="n">
         <v>0.475379677362291</v>
@@ -19781,7 +19781,7 @@
         <v>-0.116526176359088</v>
       </c>
       <c r="AK109" t="n">
-        <v>-0.949717257104771</v>
+        <v>-0.949717387987057</v>
       </c>
       <c r="AL109" t="n">
         <v>0.525684616287406</v>
@@ -19909,7 +19909,7 @@
         <v>-1.19411536819318</v>
       </c>
       <c r="U110" t="n">
-        <v>0.529602214730793</v>
+        <v>0.529602132442887</v>
       </c>
       <c r="V110" t="n">
         <v>-2.05770991808377</v>
@@ -19918,7 +19918,7 @@
         <v>-0.80578611983907</v>
       </c>
       <c r="X110" t="n">
-        <v>-0.484795048548956</v>
+        <v>-0.483241755391107</v>
       </c>
       <c r="Y110" t="n">
         <v>0.894497768661945</v>
@@ -19933,7 +19933,7 @@
         <v>0.0411355810135734</v>
       </c>
       <c r="AC110" t="n">
-        <v>1.93075859292599</v>
+        <v>1.93075859292598</v>
       </c>
       <c r="AD110" t="n">
         <v>1.40839584573672</v>
@@ -19957,7 +19957,7 @@
         <v>-1.36920510241579</v>
       </c>
       <c r="AK110" t="n">
-        <v>0.612085069767871</v>
+        <v>0.612084862421404</v>
       </c>
       <c r="AL110" t="n">
         <v>1.36957531314067</v>
@@ -20085,7 +20085,7 @@
         <v>-0.0150404502785081</v>
       </c>
       <c r="U111" t="n">
-        <v>0.014714809023178</v>
+        <v>0.0147146819595603</v>
       </c>
       <c r="V111" t="n">
         <v>0.488655762666614</v>
@@ -20094,7 +20094,7 @@
         <v>-0.178424291140859</v>
       </c>
       <c r="X111" t="n">
-        <v>0.56885086936809</v>
+        <v>0.568050250765841</v>
       </c>
       <c r="Y111" t="n">
         <v>0.158924500360363</v>
@@ -20109,7 +20109,7 @@
         <v>0.754392005415575</v>
       </c>
       <c r="AC111" t="n">
-        <v>-0.0985365811012509</v>
+        <v>-0.0985365811012558</v>
       </c>
       <c r="AD111" t="n">
         <v>-0.215272716217541</v>
@@ -20133,7 +20133,7 @@
         <v>0.613452190623597</v>
       </c>
       <c r="AK111" t="n">
-        <v>-0.808381318564859</v>
+        <v>-0.808381456366802</v>
       </c>
       <c r="AL111" t="n">
         <v>1.14235109011144</v>
@@ -20261,7 +20261,7 @@
         <v>0.354376974293211</v>
       </c>
       <c r="U112" t="n">
-        <v>-0.347110450005413</v>
+        <v>-0.347110608534132</v>
       </c>
       <c r="V112" t="n">
         <v>0.24804960315254</v>
@@ -20270,7 +20270,7 @@
         <v>0.239903163294196</v>
       </c>
       <c r="X112" t="n">
-        <v>0.423173425850727</v>
+        <v>0.42061295721944</v>
       </c>
       <c r="Y112" t="n">
         <v>-0.481931276422474</v>
@@ -20306,10 +20306,10 @@
         <v>0.745391506636568</v>
       </c>
       <c r="AJ112" t="n">
-        <v>-0.711323364270906</v>
+        <v>-0.711323364270905</v>
       </c>
       <c r="AK112" t="n">
-        <v>0.0329057192150083</v>
+        <v>0.0329055402245462</v>
       </c>
       <c r="AL112" t="n">
         <v>0.878002034081614</v>
@@ -20437,7 +20437,7 @@
         <v>2.0049516108327</v>
       </c>
       <c r="U113" t="n">
-        <v>-1.15952315206663</v>
+        <v>-1.1595233812445</v>
       </c>
       <c r="V113" t="n">
         <v>1.19661215794465</v>
@@ -20446,7 +20446,7 @@
         <v>1.02533430223348</v>
       </c>
       <c r="X113" t="n">
-        <v>0.135856233026997</v>
+        <v>0.138559004348064</v>
       </c>
       <c r="Y113" t="n">
         <v>-1.63690682402177</v>
@@ -20485,7 +20485,7 @@
         <v>-0.783419993108702</v>
       </c>
       <c r="AK113" t="n">
-        <v>-0.432135873741868</v>
+        <v>-0.432136029964387</v>
       </c>
       <c r="AL113" t="n">
         <v>-0.969404598288312</v>
@@ -20613,7 +20613,7 @@
         <v>0.107393178314675</v>
       </c>
       <c r="U114" t="n">
-        <v>-0.371084967026745</v>
+        <v>-0.37108512764034</v>
       </c>
       <c r="V114" t="n">
         <v>0.354193555004015</v>
@@ -20622,7 +20622,7 @@
         <v>1.108896310757</v>
       </c>
       <c r="X114" t="n">
-        <v>-0.0105902951019837</v>
+        <v>-0.00887828919833763</v>
       </c>
       <c r="Y114" t="n">
         <v>-0.738126756669947</v>
@@ -20637,7 +20637,7 @@
         <v>0.380029117200962</v>
       </c>
       <c r="AC114" t="n">
-        <v>-0.153014303893932</v>
+        <v>-0.153014303893942</v>
       </c>
       <c r="AD114" t="n">
         <v>0.97408169488754</v>
@@ -20661,7 +20661,7 @@
         <v>0.478271011552729</v>
       </c>
       <c r="AK114" t="n">
-        <v>-0.510655839597374</v>
+        <v>-0.51065599197564</v>
       </c>
       <c r="AL114" t="n">
         <v>0.239687547137408</v>
@@ -20789,7 +20789,7 @@
         <v>-0.0020155961728503</v>
       </c>
       <c r="U115" t="n">
-        <v>-0.125872374837463</v>
+        <v>-0.125872514126844</v>
       </c>
       <c r="V115" t="n">
         <v>-0.0445393686022294</v>
@@ -20798,7 +20798,7 @@
         <v>-0.666343635027386</v>
       </c>
       <c r="X115" t="n">
-        <v>0.308515728335302</v>
+        <v>0.311637566337317</v>
       </c>
       <c r="Y115" t="n">
         <v>0.930897514746283</v>
@@ -20813,7 +20813,7 @@
         <v>0.363100562824332</v>
       </c>
       <c r="AC115" t="n">
-        <v>0.405382354731013</v>
+        <v>0.405382354731018</v>
       </c>
       <c r="AD115" t="n">
         <v>-0.609510837225383</v>
@@ -20837,7 +20837,7 @@
         <v>-0.17961072659216</v>
       </c>
       <c r="AK115" t="n">
-        <v>-0.147571949292031</v>
+        <v>-0.147572119446499</v>
       </c>
       <c r="AL115" t="n">
         <v>1.36676053867016</v>
@@ -20965,7 +20965,7 @@
         <v>-0.855143540093436</v>
       </c>
       <c r="U116" t="n">
-        <v>0.190160016561518</v>
+        <v>0.190159904754991</v>
       </c>
       <c r="V116" t="n">
         <v>-0.247420858661628</v>
@@ -20974,7 +20974,7 @@
         <v>-0.152812406175447</v>
       </c>
       <c r="X116" t="n">
-        <v>0.202766594237788</v>
+        <v>0.202662175455195</v>
       </c>
       <c r="Y116" t="n">
         <v>0.0951124536302084</v>
@@ -20989,7 +20989,7 @@
         <v>0.574788104695902</v>
       </c>
       <c r="AC116" t="n">
-        <v>0.378143493334675</v>
+        <v>0.378143493334665</v>
       </c>
       <c r="AD116" t="n">
         <v>1.04959750798073</v>
@@ -21013,7 +21013,7 @@
         <v>-0.855516621946497</v>
       </c>
       <c r="AK116" t="n">
-        <v>0.0796038133661221</v>
+        <v>0.0796036320893719</v>
       </c>
       <c r="AL116" t="n">
         <v>-0.166252656232162</v>
@@ -21141,7 +21141,7 @@
         <v>0.855019803979433</v>
       </c>
       <c r="U117" t="n">
-        <v>-0.507526664271814</v>
+        <v>-0.507526836750671</v>
       </c>
       <c r="V117" t="n">
         <v>0.281912692269336</v>
@@ -21150,7 +21150,7 @@
         <v>-0.88339789246153</v>
       </c>
       <c r="X117" t="n">
-        <v>1.26974331208955</v>
+        <v>1.26677481583357</v>
       </c>
       <c r="Y117" t="n">
         <v>-0.191514824742427</v>
@@ -21165,7 +21165,7 @@
         <v>0.279908809887751</v>
       </c>
       <c r="AC117" t="n">
-        <v>-0.479880640649995</v>
+        <v>-0.47988064065</v>
       </c>
       <c r="AD117" t="n">
         <v>0.371487508930068</v>
@@ -21189,7 +21189,7 @@
         <v>0.478271011552729</v>
       </c>
       <c r="AK117" t="n">
-        <v>0.0204300318689903</v>
+        <v>0.0204298534893255</v>
       </c>
       <c r="AL117" t="n">
         <v>0.862249952344457</v>
@@ -21317,7 +21317,7 @@
         <v>-0.781064682367508</v>
       </c>
       <c r="U118" t="n">
-        <v>-0.0556942918221268</v>
+        <v>-0.0556944250086718</v>
       </c>
       <c r="V118" t="n">
         <v>-0.917454554724071</v>
@@ -21326,7 +21326,7 @@
         <v>-0.816393062097474</v>
       </c>
       <c r="X118" t="n">
-        <v>0.32485877633219</v>
+        <v>0.324458200558744</v>
       </c>
       <c r="Y118" t="n">
         <v>0.409696726311601</v>
@@ -21341,7 +21341,7 @@
         <v>0.109655920157075</v>
       </c>
       <c r="AC118" t="n">
-        <v>0.0648965872767783</v>
+        <v>0.0648965872767832</v>
       </c>
       <c r="AD118" t="n">
         <v>0.666557101193263</v>
@@ -21365,7 +21365,7 @@
         <v>-0.747371678689803</v>
       </c>
       <c r="AK118" t="n">
-        <v>0.679820365614308</v>
+        <v>0.679820154951594</v>
       </c>
       <c r="AL118" t="n">
         <v>-0.383372105294715</v>
@@ -21493,7 +21493,7 @@
         <v>-0.0270884403262417</v>
       </c>
       <c r="U119" t="n">
-        <v>-0.290870442731601</v>
+        <v>-0.290870596369569</v>
       </c>
       <c r="V119" t="n">
         <v>-0.314156888090633</v>
@@ -21502,7 +21502,7 @@
         <v>-1.11985509305129</v>
       </c>
       <c r="X119" t="n">
-        <v>0.264934267010266</v>
+        <v>0.266765346562326</v>
       </c>
       <c r="Y119" t="n">
         <v>-0.155351901989802</v>
@@ -21517,7 +21517,7 @@
         <v>0.368259741301019</v>
       </c>
       <c r="AC119" t="n">
-        <v>0.187471463560303</v>
+        <v>0.187471463560293</v>
       </c>
       <c r="AD119" t="n">
         <v>0.324260658077823</v>
@@ -21541,7 +21541,7 @@
         <v>0.496295168762178</v>
       </c>
       <c r="AK119" t="n">
-        <v>-0.0844012177257487</v>
+        <v>-0.0844013909729868</v>
       </c>
       <c r="AL119" t="n">
         <v>0.770658789368821</v>
@@ -21669,7 +21669,7 @@
         <v>-0.339033696156746</v>
       </c>
       <c r="U120" t="n">
-        <v>0.458795249844984</v>
+        <v>0.458795161399552</v>
       </c>
       <c r="V120" t="n">
         <v>-0.880125944791228</v>
@@ -21678,7 +21678,7 @@
         <v>-1.11752673987262</v>
       </c>
       <c r="X120" t="n">
-        <v>-1.3448239154911</v>
+        <v>-1.34222424822666</v>
       </c>
       <c r="Y120" t="n">
         <v>1.04177819865446</v>
@@ -21693,7 +21693,7 @@
         <v>0.665718625347514</v>
       </c>
       <c r="AC120" t="n">
-        <v>0.991017874752296</v>
+        <v>0.991017874752292</v>
       </c>
       <c r="AD120" t="n">
         <v>0.111582668341382</v>
@@ -21717,7 +21717,7 @@
         <v>0.802705841322811</v>
       </c>
       <c r="AK120" t="n">
-        <v>0.527747058249577</v>
+        <v>0.527746855032209</v>
       </c>
       <c r="AL120" t="n">
         <v>1.43177561334855</v>
@@ -21845,7 +21845,7 @@
         <v>1.38187515255329</v>
       </c>
       <c r="U121" t="n">
-        <v>-1.11593778814562</v>
+        <v>-1.11593801353322</v>
       </c>
       <c r="V121" t="n">
         <v>0.788769865336225</v>
@@ -21854,7 +21854,7 @@
         <v>0.42461918213565</v>
       </c>
       <c r="X121" t="n">
-        <v>-0.510815744575375</v>
+        <v>-0.50888302383396</v>
       </c>
       <c r="Y121" t="n">
         <v>-1.48318479940665</v>
@@ -21869,7 +21869,7 @@
         <v>-0.780302367071462</v>
       </c>
       <c r="AC121" t="n">
-        <v>-1.46047965091819</v>
+        <v>-1.4604796509182</v>
       </c>
       <c r="AD121" t="n">
         <v>1.05226924330349</v>
@@ -21893,7 +21893,7 @@
         <v>-0.90057701497012</v>
       </c>
       <c r="AK121" t="n">
-        <v>0.275868252116701</v>
+        <v>0.275868061231053</v>
       </c>
       <c r="AL121" t="n">
         <v>0.339287942202624</v>
@@ -22021,7 +22021,7 @@
         <v>1.21059832106389</v>
       </c>
       <c r="U122" t="n">
-        <v>-0.277753763718859</v>
+        <v>-0.277753916216173</v>
       </c>
       <c r="V122" t="n">
         <v>0.701537755652317</v>
@@ -22030,7 +22030,7 @@
         <v>1.22169208696831</v>
       </c>
       <c r="X122" t="n">
-        <v>0.896224552380272</v>
+        <v>0.89497642341221</v>
       </c>
       <c r="Y122" t="n">
         <v>-0.787149186334605</v>
@@ -22045,7 +22045,7 @@
         <v>-0.365472172680334</v>
       </c>
       <c r="AC122" t="n">
-        <v>-0.520738932744505</v>
+        <v>-0.52073893274451</v>
       </c>
       <c r="AD122" t="n">
         <v>0.460322708411704</v>
@@ -22069,7 +22069,7 @@
         <v>-1.10785482287878</v>
       </c>
       <c r="AK122" t="n">
-        <v>0.126018100411734</v>
+        <v>0.12601791686259</v>
       </c>
       <c r="AL122" t="n">
         <v>-0.0770589352345612</v>
@@ -22197,7 +22197,7 @@
         <v>0.274436932219736</v>
       </c>
       <c r="U123" t="n">
-        <v>-0.0542568475467575</v>
+        <v>-0.0542569806082995</v>
       </c>
       <c r="V123" t="n">
         <v>0.219137258058668</v>
@@ -22206,7 +22206,7 @@
         <v>-0.0493300426788347</v>
       </c>
       <c r="X123" t="n">
-        <v>1.42426522864052</v>
+        <v>1.4270327436014</v>
       </c>
       <c r="Y123" t="n">
         <v>0.16234659750362</v>
@@ -22221,7 +22221,7 @@
         <v>0.534320798519388</v>
       </c>
       <c r="AC123" t="n">
-        <v>0.636912676599895</v>
+        <v>0.636912676599881</v>
       </c>
       <c r="AD123" t="n">
         <v>-0.0720205546474201</v>
@@ -22245,7 +22245,7 @@
         <v>1.14516482830234</v>
       </c>
       <c r="AK123" t="n">
-        <v>0.396379844290417</v>
+        <v>0.396379647504648</v>
       </c>
       <c r="AL123" t="n">
         <v>0.313777383673394</v>
@@ -22373,7 +22373,7 @@
         <v>-0.674912121406396</v>
       </c>
       <c r="U124" t="n">
-        <v>-0.0503295444372682</v>
+        <v>-0.0503296771572826</v>
       </c>
       <c r="V124" t="n">
         <v>0.0100178305303851</v>
@@ -22382,7 +22382,7 @@
         <v>-0.610721864647958</v>
       </c>
       <c r="X124" t="n">
-        <v>-0.0831406101313083</v>
+        <v>-0.085802094526895</v>
       </c>
       <c r="Y124" t="n">
         <v>0.90828088656766</v>
@@ -22397,7 +22397,7 @@
         <v>-1.7934360404309</v>
       </c>
       <c r="AC124" t="n">
-        <v>0.391762924032846</v>
+        <v>0.391762924032842</v>
       </c>
       <c r="AD124" t="n">
         <v>-0.59029791703674</v>
@@ -22418,10 +22418,10 @@
         <v>0.0748172560906792</v>
       </c>
       <c r="AJ124" t="n">
-        <v>-0.909589093574844</v>
+        <v>-0.909589093574845</v>
       </c>
       <c r="AK124" t="n">
-        <v>1.10781330600713</v>
+        <v>1.10781307439034</v>
       </c>
       <c r="AL124" t="n">
         <v>0.909950168292602</v>
@@ -22549,7 +22549,7 @@
         <v>0.885302589775087</v>
       </c>
       <c r="U125" t="n">
-        <v>-0.20778102988572</v>
+        <v>-0.207781176298054</v>
       </c>
       <c r="V125" t="n">
         <v>-0.161772987065053</v>
@@ -22558,7 +22558,7 @@
         <v>0.780857218472738</v>
       </c>
       <c r="X125" t="n">
-        <v>0.338702299341319</v>
+        <v>0.33727883478017</v>
       </c>
       <c r="Y125" t="n">
         <v>-0.792110635133999</v>
@@ -22573,7 +22573,7 @@
         <v>0.0695110626353529</v>
       </c>
       <c r="AC125" t="n">
-        <v>-0.439022348555486</v>
+        <v>-0.439022348555491</v>
       </c>
       <c r="AD125" t="n">
         <v>-0.442213057750458</v>
@@ -22597,7 +22597,7 @@
         <v>0.144824103177923</v>
       </c>
       <c r="AK125" t="n">
-        <v>-0.0523191895079791</v>
+        <v>-0.0523193643259197</v>
       </c>
       <c r="AL125" t="n">
         <v>1.29829137166045</v>
@@ -22725,7 +22725,7 @@
         <v>-0.68484357266196</v>
       </c>
       <c r="U126" t="n">
-        <v>0.0567343854299477</v>
+        <v>0.0567342620204409</v>
       </c>
       <c r="V126" t="n">
         <v>-0.821212090918441</v>
@@ -22734,7 +22734,7 @@
         <v>-0.870721302933195</v>
       </c>
       <c r="X126" t="n">
-        <v>0.0692663237377146</v>
+        <v>0.0680455161302196</v>
       </c>
       <c r="Y126" t="n">
         <v>0.901294598282117</v>
@@ -22749,7 +22749,7 @@
         <v>-0.024643944564188</v>
       </c>
       <c r="AC126" t="n">
-        <v>-0.112156011799422</v>
+        <v>-0.112156011799432</v>
       </c>
       <c r="AD126" t="n">
         <v>0.686359374761924</v>
@@ -22773,7 +22773,7 @@
         <v>0.865790391555883</v>
       </c>
       <c r="AK126" t="n">
-        <v>-0.282108342595962</v>
+        <v>-0.282108506163671</v>
       </c>
       <c r="AL126" t="n">
         <v>-0.169742266222412</v>
@@ -22901,7 +22901,7 @@
         <v>-1.05002791964934</v>
       </c>
       <c r="U127" t="n">
-        <v>0.151785388138722</v>
+        <v>0.151785272995054</v>
       </c>
       <c r="V127" t="n">
         <v>-0.867749084733921</v>
@@ -22910,7 +22910,7 @@
         <v>-1.03603437861903</v>
       </c>
       <c r="X127" t="n">
-        <v>0.172323661694564</v>
+        <v>0.170610589901629</v>
       </c>
       <c r="Y127" t="n">
         <v>1.83692437604853</v>
@@ -22925,7 +22925,7 @@
         <v>0.163182396852704</v>
       </c>
       <c r="AC127" t="n">
-        <v>0.255568617051151</v>
+        <v>0.255568617051155</v>
       </c>
       <c r="AD127" t="n">
         <v>-1.1018173606685</v>
@@ -22949,7 +22949,7 @@
         <v>-0.756383757294528</v>
       </c>
       <c r="AK127" t="n">
-        <v>0.199275809519394</v>
+        <v>0.199275622383631</v>
       </c>
       <c r="AL127" t="n">
         <v>1.21081137770641</v>
@@ -23077,7 +23077,7 @@
         <v>1.54273210075816</v>
       </c>
       <c r="U128" t="n">
-        <v>-0.357839944775132</v>
+        <v>-0.357852938561914</v>
       </c>
       <c r="V128" t="n">
         <v>0.214582573557577</v>
@@ -23086,7 +23086,7 @@
         <v>0.0924407953115246</v>
       </c>
       <c r="X128" t="n">
-        <v>-1.68924564072749</v>
+        <v>-1.68838137220517</v>
       </c>
       <c r="Y128" t="n">
         <v>-0.302395508650604</v>
@@ -23101,7 +23101,7 @@
         <v>0.305865926598584</v>
       </c>
       <c r="AC128" t="n">
-        <v>-0.22111145738478</v>
+        <v>-0.221111457384785</v>
       </c>
       <c r="AD128" t="n">
         <v>0.177315215326246</v>
@@ -23125,7 +23125,7 @@
         <v>-1.93696605451344</v>
       </c>
       <c r="AK128" t="n">
-        <v>-0.523403508752832</v>
+        <v>-0.523403660506985</v>
       </c>
       <c r="AL128" t="n">
         <v>0.23047959405881</v>
@@ -23253,7 +23253,7 @@
         <v>-0.966506042696811</v>
       </c>
       <c r="U129" t="n">
-        <v>0.146844173442141</v>
+        <v>0.146844057868775</v>
       </c>
       <c r="V129" t="n">
         <v>-0.656154285194177</v>
@@ -23262,7 +23262,7 @@
         <v>-1.34053123320782</v>
       </c>
       <c r="X129" t="n">
-        <v>0.860590298708625</v>
+        <v>0.862924837858644</v>
       </c>
       <c r="Y129" t="n">
         <v>0.72145096017902</v>
@@ -23277,7 +23277,7 @@
         <v>0.484986154336066</v>
       </c>
       <c r="AC129" t="n">
-        <v>0.0512771565786116</v>
+        <v>0.0512771565786068</v>
       </c>
       <c r="AD129" t="n">
         <v>0.60023520082838</v>
@@ -23301,7 +23301,7 @@
         <v>0.0276670813165038</v>
       </c>
       <c r="AK129" t="n">
-        <v>-0.866999311147049</v>
+        <v>-0.866999446079118</v>
       </c>
       <c r="AL129" t="n">
         <v>1.52605723898843</v>
@@ -23429,7 +23429,7 @@
         <v>0.0116605006380903</v>
       </c>
       <c r="U130" t="n">
-        <v>0.0384198052428798</v>
+        <v>0.0384196802406985</v>
       </c>
       <c r="V130" t="n">
         <v>-0.0180033806393607</v>
@@ -23438,7 +23438,7 @@
         <v>0.765334863948245</v>
       </c>
       <c r="X130" t="n">
-        <v>-1.16972898557934</v>
+        <v>-1.16914568623741</v>
       </c>
       <c r="Y130" t="n">
         <v>-0.295586837863847</v>
@@ -23453,7 +23453,7 @@
         <v>0.515135103559207</v>
       </c>
       <c r="AC130" t="n">
-        <v>0.0785160179749498</v>
+        <v>0.0785160179749402</v>
       </c>
       <c r="AD130" t="n">
         <v>0.791696468884111</v>
@@ -23477,7 +23477,7 @@
         <v>0.189884496201545</v>
       </c>
       <c r="AK130" t="n">
-        <v>0.57357008049206</v>
+        <v>0.573569875031247</v>
       </c>
       <c r="AL130" t="n">
         <v>0.0396964890956991</v>
@@ -23605,7 +23605,7 @@
         <v>-1.19883687780648</v>
       </c>
       <c r="U131" t="n">
-        <v>-0.705380601317244</v>
+        <v>-0.705380791001904</v>
       </c>
       <c r="V131" t="n">
         <v>-1.15865480352089</v>
@@ -23614,7 +23614,7 @@
         <v>-1.09243226672469</v>
       </c>
       <c r="X131" t="n">
-        <v>-1.029371043959</v>
+        <v>-1.02811870980172</v>
       </c>
       <c r="Y131" t="n">
         <v>-0.993221008424954</v>
@@ -23629,7 +23629,7 @@
         <v>-0.335161999129797</v>
       </c>
       <c r="AC131" t="n">
-        <v>-0.90208299229325</v>
+        <v>-0.902082992293255</v>
       </c>
       <c r="AD131" t="n">
         <v>1.2162666438503</v>
@@ -23650,10 +23650,10 @@
         <v>-0.915311455091862</v>
       </c>
       <c r="AJ131" t="n">
-        <v>-0.684287128456731</v>
+        <v>-0.684287128456732</v>
       </c>
       <c r="AK131" t="n">
-        <v>0.0950358247277844</v>
+        <v>0.0950356426954988</v>
       </c>
       <c r="AL131" t="n">
         <v>0.246098484574966</v>
@@ -23781,7 +23781,7 @@
         <v>0.000752185324602038</v>
       </c>
       <c r="U132" t="n">
-        <v>-0.319927352012275</v>
+        <v>-0.319927508177093</v>
       </c>
       <c r="V132" t="n">
         <v>-1.08667098542759</v>
@@ -23790,7 +23790,7 @@
         <v>-0.885467539731462</v>
       </c>
       <c r="X132" t="n">
-        <v>-0.382699066356629</v>
+        <v>-0.380676681619698</v>
       </c>
       <c r="Y132" t="n">
         <v>0.59073632223985</v>
@@ -23805,7 +23805,7 @@
         <v>-0.121700989656865</v>
       </c>
       <c r="AC132" t="n">
-        <v>-0.725030393217044</v>
+        <v>-0.725030393217059</v>
       </c>
       <c r="AD132" t="n">
         <v>-1.78641024689938</v>
@@ -23829,7 +23829,7 @@
         <v>1.55070836551495</v>
       </c>
       <c r="AK132" t="n">
-        <v>1.24910194336279</v>
+        <v>1.24910170482866</v>
       </c>
       <c r="AL132" t="n">
         <v>1.59506805029687</v>
@@ -23957,7 +23957,7 @@
         <v>1.11356315797674</v>
       </c>
       <c r="U133" t="n">
-        <v>-0.179635357601039</v>
+        <v>-0.179635501565766</v>
       </c>
       <c r="V133" t="n">
         <v>0.726885565049683</v>
@@ -23966,7 +23966,7 @@
         <v>0.0888189125891424</v>
       </c>
       <c r="X133" t="n">
-        <v>0.239939017132672</v>
+        <v>0.241124078119473</v>
       </c>
       <c r="Y133" t="n">
         <v>-0.818469071953692</v>
@@ -24005,7 +24005,7 @@
         <v>-0.495033477757517</v>
       </c>
       <c r="AK133" t="n">
-        <v>-1.02697191628158</v>
+        <v>-1.02697204338156</v>
       </c>
       <c r="AL133" t="n">
         <v>1.01414122077502</v>
@@ -24133,7 +24133,7 @@
         <v>-0.267559809251949</v>
       </c>
       <c r="U134" t="n">
-        <v>-0.166544347236071</v>
+        <v>-0.166544490062376</v>
       </c>
       <c r="V134" t="n">
         <v>-0.31821649818943</v>
@@ -24142,7 +24142,7 @@
         <v>-0.558980682899651</v>
       </c>
       <c r="X134" t="n">
-        <v>0.00491957789898495</v>
+        <v>0.0039423450230885</v>
       </c>
       <c r="Y134" t="n">
         <v>0.0225853082930035</v>
@@ -24157,7 +24157,7 @@
         <v>-0.0186786444505185</v>
       </c>
       <c r="AC134" t="n">
-        <v>0.146613171465798</v>
+        <v>0.146613171465783</v>
       </c>
       <c r="AD134" t="n">
         <v>0.152798114717426</v>
@@ -24181,7 +24181,7 @@
         <v>-0.206646962406333</v>
       </c>
       <c r="AK134" t="n">
-        <v>0.000480757411423968</v>
+        <v>0.00048058000845437</v>
       </c>
       <c r="AL134" t="n">
         <v>0.51724917229062</v>
@@ -24309,7 +24309,7 @@
         <v>-0.229136489640258</v>
       </c>
       <c r="U135" t="n">
-        <v>0.0544242071302475</v>
+        <v>0.0544240835198428</v>
       </c>
       <c r="V135" t="n">
         <v>-0.137019266950436</v>
@@ -24318,7 +24318,7 @@
         <v>-0.426005845806503</v>
       </c>
       <c r="X135" t="n">
-        <v>0.4093939932259</v>
+        <v>0.407792322998014</v>
       </c>
       <c r="Y135" t="n">
         <v>0.652511688317272</v>
@@ -24333,7 +24333,7 @@
         <v>0.41259643133505</v>
       </c>
       <c r="AC135" t="n">
-        <v>1.08635388963948</v>
+        <v>1.08635388963949</v>
       </c>
       <c r="AD135" t="n">
         <v>-1.96325555113062</v>
@@ -24357,7 +24357,7 @@
         <v>1.47861173667715</v>
       </c>
       <c r="AK135" t="n">
-        <v>0.280290912844105</v>
+        <v>0.280290721741927</v>
       </c>
       <c r="AL135" t="n">
         <v>1.52111140498189</v>
@@ -24485,7 +24485,7 @@
         <v>-1.3474830252873</v>
       </c>
       <c r="U136" t="n">
-        <v>0.144020622186951</v>
+        <v>0.144020506368043</v>
       </c>
       <c r="V136" t="n">
         <v>-0.472085622421887</v>
@@ -24494,7 +24494,7 @@
         <v>-0.614085041461597</v>
       </c>
       <c r="X136" t="n">
-        <v>-0.0487240737613901</v>
+        <v>-0.0473401918626162</v>
       </c>
       <c r="Y136" t="n">
         <v>1.2783410247029</v>
@@ -24509,7 +24509,7 @@
         <v>-0.687275930163696</v>
       </c>
       <c r="AC136" t="n">
-        <v>1.1680704738285</v>
+        <v>1.16807047382849</v>
       </c>
       <c r="AD136" t="n">
         <v>0.539335351559678</v>
@@ -24533,7 +24533,7 @@
         <v>0.108775788759025</v>
       </c>
       <c r="AK136" t="n">
-        <v>0.241846875344669</v>
+        <v>0.241858511420155</v>
       </c>
       <c r="AL136" t="n">
         <v>0.59212039732315</v>
@@ -24661,7 +24661,7 @@
         <v>-0.498588158951054</v>
       </c>
       <c r="U137" t="n">
-        <v>0.224299318101532</v>
+        <v>0.224299209263831</v>
       </c>
       <c r="V137" t="n">
         <v>-0.690908508235098</v>
@@ -24670,7 +24670,7 @@
         <v>-1.14676050756041</v>
       </c>
       <c r="X137" t="n">
-        <v>-1.13358200883328</v>
+        <v>-1.13709410068384</v>
       </c>
       <c r="Y137" t="n">
         <v>1.01880633547827</v>
@@ -24685,7 +24685,7 @@
         <v>-1.29122226059089</v>
       </c>
       <c r="AC137" t="n">
-        <v>1.03187616684681</v>
+        <v>1.0318761668468</v>
       </c>
       <c r="AD137" t="n">
         <v>-0.54648931578861</v>
@@ -24709,7 +24709,7 @@
         <v>1.02800780644092</v>
       </c>
       <c r="AK137" t="n">
-        <v>0.742908320108153</v>
+        <v>0.74290810635672</v>
       </c>
       <c r="AL137" t="n">
         <v>0.489421086515957</v>
@@ -24837,7 +24837,7 @@
         <v>0.0497581988971395</v>
       </c>
       <c r="U138" t="n">
-        <v>-0.314716616514061</v>
+        <v>-0.314703937900741</v>
       </c>
       <c r="V138" t="n">
         <v>-1.19657750273649</v>
@@ -24846,7 +24846,7 @@
         <v>-1.88252011202132</v>
       </c>
       <c r="X138" t="n">
-        <v>-2.86306102920989</v>
+        <v>-2.86146940346567</v>
       </c>
       <c r="Y138" t="n">
         <v>-0.179223693826505</v>
@@ -24861,7 +24861,7 @@
         <v>-1.04777352622221</v>
       </c>
       <c r="AC138" t="n">
-        <v>-0.452641779253657</v>
+        <v>-0.452641779253667</v>
       </c>
       <c r="AD138" t="n">
         <v>-1.39822282059307</v>
@@ -24885,7 +24885,7 @@
         <v>0.388150225505484</v>
       </c>
       <c r="AK138" t="n">
-        <v>0.490095315586334</v>
+        <v>0.490095114212356</v>
       </c>
       <c r="AL138" t="n">
         <v>0.458272099630982</v>
@@ -25013,7 +25013,7 @@
         <v>-0.079187856748873</v>
       </c>
       <c r="U139" t="n">
-        <v>0.134702903044828</v>
+        <v>0.13470278641563</v>
       </c>
       <c r="V139" t="n">
         <v>-0.736950427648285</v>
@@ -25022,7 +25022,7 @@
         <v>-1.2295463983577</v>
       </c>
       <c r="X139" t="n">
-        <v>0.127780844605005</v>
+        <v>0.125738370126637</v>
       </c>
       <c r="Y139" t="n">
         <v>0.378376840692514</v>
@@ -25061,7 +25061,7 @@
         <v>1.19022522132597</v>
       </c>
       <c r="AK139" t="n">
-        <v>0.0896671403153746</v>
+        <v>0.0896669585459342</v>
       </c>
       <c r="AL139" t="n">
         <v>0.486606312045451</v>
@@ -25189,7 +25189,7 @@
         <v>-1.2665661191559</v>
       </c>
       <c r="U140" t="n">
-        <v>-0.0590440503566919</v>
+        <v>-0.0590441838345391</v>
       </c>
       <c r="V140" t="n">
         <v>-1.50372166191865</v>
@@ -25198,7 +25198,7 @@
         <v>-1.97824129825569</v>
       </c>
       <c r="X140" t="n">
-        <v>0.140663011849612</v>
+        <v>0.138559004348064</v>
       </c>
       <c r="Y140" t="n">
         <v>0.589350905749328</v>
@@ -25213,7 +25213,7 @@
         <v>0.754392005415575</v>
       </c>
       <c r="AC140" t="n">
-        <v>0.541576661712709</v>
+        <v>0.541576661712704</v>
       </c>
       <c r="AD140" t="n">
         <v>0.412152892151427</v>
@@ -25237,7 +25237,7 @@
         <v>0.694560898066118</v>
       </c>
       <c r="AK140" t="n">
-        <v>0.634541306990703</v>
+        <v>0.634541098544803</v>
       </c>
       <c r="AL140" t="n">
         <v>1.17595967487758</v>
@@ -25365,7 +25365,7 @@
         <v>2.09319499739853</v>
       </c>
       <c r="U141" t="n">
-        <v>-1.53309181745203</v>
+        <v>-1.53309207911624</v>
       </c>
       <c r="V141" t="n">
         <v>2.58371161828731</v>
@@ -25374,7 +25374,7 @@
         <v>0.325017407270161</v>
       </c>
       <c r="X141" t="n">
-        <v>-2.51767794820898</v>
+        <v>-2.51531227948716</v>
       </c>
       <c r="Y141" t="n">
         <v>-1.75673942986871</v>
@@ -25389,7 +25389,7 @@
         <v>0.154959956155484</v>
       </c>
       <c r="AC141" t="n">
-        <v>-1.13361331416213</v>
+        <v>-1.13361331416214</v>
       </c>
       <c r="AD141" t="n">
         <v>1.00343149321252</v>
@@ -25413,7 +25413,7 @@
         <v>-1.2250118447402</v>
       </c>
       <c r="AK141" t="n">
-        <v>-1.53919644052814</v>
+        <v>-1.53919654255015</v>
       </c>
       <c r="AL141" t="n">
         <v>-0.650491538721379</v>
@@ -25541,7 +25541,7 @@
         <v>-1.01209303206661</v>
       </c>
       <c r="U142" t="n">
-        <v>0.196076639873527</v>
+        <v>0.196076528581523</v>
       </c>
       <c r="V142" t="n">
         <v>-0.151970513899665</v>
@@ -25550,7 +25550,7 @@
         <v>-0.820273650728597</v>
       </c>
       <c r="X142" t="n">
-        <v>1.26967922170525</v>
+        <v>1.26677481583357</v>
       </c>
       <c r="Y142" t="n">
         <v>0.475379677362291</v>
@@ -25565,7 +25565,7 @@
         <v>0.583171769720519</v>
       </c>
       <c r="AC142" t="n">
-        <v>0.405382354731013</v>
+        <v>0.405382354731018</v>
       </c>
       <c r="AD142" t="n">
         <v>-1.7790629747618</v>
@@ -25589,7 +25589,7 @@
         <v>0.0186550027117798</v>
       </c>
       <c r="AK142" t="n">
-        <v>-0.949717257104771</v>
+        <v>-0.949717387987057</v>
       </c>
       <c r="AL142" t="n">
         <v>0.525684616287406</v>
@@ -25717,7 +25717,7 @@
         <v>-1.37141619470645</v>
       </c>
       <c r="U143" t="n">
-        <v>0.529602214730793</v>
+        <v>0.529602132442887</v>
       </c>
       <c r="V143" t="n">
         <v>-2.25950224445813</v>
@@ -25726,7 +25726,7 @@
         <v>-1.05259155677849</v>
       </c>
       <c r="X143" t="n">
-        <v>-0.687641114863278</v>
+        <v>-0.688371902933926</v>
       </c>
       <c r="Y143" t="n">
         <v>0.894497768661945</v>
@@ -25741,7 +25741,7 @@
         <v>-0.745155463699031</v>
       </c>
       <c r="AC143" t="n">
-        <v>2.03971403851134</v>
+        <v>2.03971403851133</v>
       </c>
       <c r="AD143" t="n">
         <v>1.376845794793</v>
@@ -25765,7 +25765,7 @@
         <v>-0.819468307527599</v>
       </c>
       <c r="AK143" t="n">
-        <v>0.612085069767871</v>
+        <v>0.612084862421404</v>
       </c>
       <c r="AL143" t="n">
         <v>1.36957531314067</v>
@@ -25893,7 +25893,7 @@
         <v>-0.15522044259065</v>
       </c>
       <c r="U144" t="n">
-        <v>0.014714809023178</v>
+        <v>0.0147146819595603</v>
       </c>
       <c r="V144" t="n">
         <v>0.49528975965733</v>
@@ -25902,7 +25902,7 @@
         <v>-0.429886434437627</v>
       </c>
       <c r="X144" t="n">
-        <v>0.388949160633714</v>
+        <v>0.388561371665874</v>
       </c>
       <c r="Y144" t="n">
         <v>0.158924500360363</v>
@@ -25917,7 +25917,7 @@
         <v>0.406308682566587</v>
       </c>
       <c r="AC144" t="n">
-        <v>0.0104188644841019</v>
+        <v>0.0104188644840971</v>
       </c>
       <c r="AD144" t="n">
         <v>-0.298057220997641</v>
@@ -25941,7 +25941,7 @@
         <v>1.36145471481573</v>
       </c>
       <c r="AK144" t="n">
-        <v>-0.808381318564859</v>
+        <v>-0.808381456366802</v>
       </c>
       <c r="AL144" t="n">
         <v>1.14235109011144</v>
@@ -26069,7 +26069,7 @@
         <v>0.198078725025317</v>
       </c>
       <c r="U145" t="n">
-        <v>-0.347110450005413</v>
+        <v>-0.347110608534132</v>
       </c>
       <c r="V145" t="n">
         <v>0.164283014284677</v>
@@ -26078,7 +26078,7 @@
         <v>-0.25137935740597</v>
       </c>
       <c r="X145" t="n">
-        <v>-0.0387900641946541</v>
+        <v>-0.0409298747519032</v>
       </c>
       <c r="Y145" t="n">
         <v>-0.481931276422474</v>
@@ -26093,7 +26093,7 @@
         <v>0.284261866727456</v>
       </c>
       <c r="AC145" t="n">
-        <v>0.146613171465798</v>
+        <v>0.146613171465783</v>
       </c>
       <c r="AD145" t="n">
         <v>-0.742665410884499</v>
@@ -26117,7 +26117,7 @@
         <v>0.307041518062964</v>
       </c>
       <c r="AK145" t="n">
-        <v>0.0329057192150083</v>
+        <v>0.0329055402245462</v>
       </c>
       <c r="AL145" t="n">
         <v>0.878002034081614</v>
@@ -26245,7 +26245,7 @@
         <v>1.71107834007379</v>
       </c>
       <c r="U146" t="n">
-        <v>-1.15952315206663</v>
+        <v>-1.1595233812445</v>
       </c>
       <c r="V146" t="n">
         <v>0.923133058118364</v>
@@ -26254,7 +26254,7 @@
         <v>0.509992132020354</v>
       </c>
       <c r="X146" t="n">
-        <v>0.3673507011241</v>
+        <v>0.369330420333735</v>
       </c>
       <c r="Y146" t="n">
         <v>-1.63690682402177</v>
@@ -26269,7 +26269,7 @@
         <v>-1.50210368082548</v>
       </c>
       <c r="AC146" t="n">
-        <v>-2.49555638397907</v>
+        <v>-2.49555638397908</v>
       </c>
       <c r="AD146" t="n">
         <v>1.56461378166727</v>
@@ -26290,10 +26290,10 @@
         <v>-1.62674845496654</v>
       </c>
       <c r="AJ146" t="n">
-        <v>-0.801444150318151</v>
+        <v>-0.80144415031815</v>
       </c>
       <c r="AK146" t="n">
-        <v>-0.432135873741868</v>
+        <v>-0.432136029964387</v>
       </c>
       <c r="AL146" t="n">
         <v>-0.969404598288312</v>
@@ -26421,7 +26421,7 @@
         <v>-0.104586322254906</v>
       </c>
       <c r="U147" t="n">
-        <v>-0.371084967026745</v>
+        <v>-0.37108512764034</v>
       </c>
       <c r="V147" t="n">
         <v>0.20854266584961</v>
@@ -26430,7 +26430,7 @@
         <v>0.856916755642747</v>
       </c>
       <c r="X147" t="n">
-        <v>0.327294210935648</v>
+        <v>0.324458200558744</v>
       </c>
       <c r="Y147" t="n">
         <v>-0.738126756669947</v>
@@ -26469,7 +26469,7 @@
         <v>0.189884496201545</v>
       </c>
       <c r="AK147" t="n">
-        <v>-0.510655839597374</v>
+        <v>-0.51065599197564</v>
       </c>
       <c r="AL147" t="n">
         <v>0.239687547137408</v>
@@ -26597,7 +26597,7 @@
         <v>-0.174594913072817</v>
       </c>
       <c r="U148" t="n">
-        <v>-0.125872374837463</v>
+        <v>-0.125872514126844</v>
       </c>
       <c r="V148" t="n">
         <v>-0.123454228327626</v>
@@ -26606,7 +26606,7 @@
         <v>-0.853388007047514</v>
       </c>
       <c r="X148" t="n">
-        <v>0.511169523496719</v>
+        <v>0.510357396769423</v>
       </c>
       <c r="Y148" t="n">
         <v>0.930897514746283</v>
@@ -26621,7 +26621,7 @@
         <v>0.541414668924832</v>
       </c>
       <c r="AC148" t="n">
-        <v>0.527957231014537</v>
+        <v>0.527957231014528</v>
       </c>
       <c r="AD148" t="n">
         <v>-0.460207980953727</v>
@@ -26645,7 +26645,7 @@
         <v>-0.413924770314997</v>
       </c>
       <c r="AK148" t="n">
-        <v>-0.147571949292031</v>
+        <v>-0.147572119446499</v>
       </c>
       <c r="AL148" t="n">
         <v>1.36676053867016</v>
@@ -26773,7 +26773,7 @@
         <v>-1.06077342428651</v>
       </c>
       <c r="U149" t="n">
-        <v>0.190160016561518</v>
+        <v>0.190159904754991</v>
       </c>
       <c r="V149" t="n">
         <v>-0.477531440847104</v>
@@ -26782,7 +26782,7 @@
         <v>-0.325110541397307</v>
       </c>
       <c r="X149" t="n">
-        <v>0.598140174993886</v>
+        <v>0.600101836319407</v>
       </c>
       <c r="Y149" t="n">
         <v>0.0951124536302084</v>
@@ -26797,7 +26797,7 @@
         <v>0.567371785635665</v>
       </c>
       <c r="AC149" t="n">
-        <v>0.500718369618199</v>
+        <v>0.500718369618194</v>
       </c>
       <c r="AD149" t="n">
         <v>0.765882790839249</v>
@@ -26821,7 +26821,7 @@
         <v>-1.11686690148351</v>
       </c>
       <c r="AK149" t="n">
-        <v>0.0796038133661221</v>
+        <v>0.0796036320893719</v>
       </c>
       <c r="AL149" t="n">
         <v>-0.166252656232162</v>
@@ -26949,7 +26949,7 @@
         <v>0.761240854418697</v>
       </c>
       <c r="U150" t="n">
-        <v>-0.507526664271814</v>
+        <v>-0.507526836750671</v>
       </c>
       <c r="V150" t="n">
         <v>0.260525478090306</v>
@@ -26958,7 +26958,7 @@
         <v>-1.05828308677081</v>
       </c>
       <c r="X150" t="n">
-        <v>0.978196153901921</v>
+        <v>0.97831054585148</v>
       </c>
       <c r="Y150" t="n">
         <v>-0.191514824742427</v>
@@ -26973,7 +26973,7 @@
         <v>0.485308602990859</v>
       </c>
       <c r="AC150" t="n">
-        <v>-0.343686333668304</v>
+        <v>-0.343686333668314</v>
       </c>
       <c r="AD150" t="n">
         <v>-0.343673172611165</v>
@@ -26997,7 +26997,7 @@
         <v>-0.233683198220507</v>
       </c>
       <c r="AK150" t="n">
-        <v>0.0204300318689903</v>
+        <v>0.0204298534893255</v>
       </c>
       <c r="AL150" t="n">
         <v>0.862249952344457</v>
@@ -27125,7 +27125,7 @@
         <v>-0.967482906754735</v>
       </c>
       <c r="U151" t="n">
-        <v>-0.0556942918221268</v>
+        <v>-0.0556944250086718</v>
       </c>
       <c r="V151" t="n">
         <v>-1.13023753282931</v>
@@ -27134,7 +27134,7 @@
         <v>-1.03034284862672</v>
       </c>
       <c r="X151" t="n">
-        <v>0.611983698003015</v>
+        <v>0.612922470540833</v>
       </c>
       <c r="Y151" t="n">
         <v>0.409696726311601</v>
@@ -27149,7 +27149,7 @@
         <v>-0.919600185942015</v>
       </c>
       <c r="AC151" t="n">
-        <v>0.201090894258474</v>
+        <v>0.201090894258469</v>
       </c>
       <c r="AD151" t="n">
         <v>0.646519086272593</v>
@@ -27173,7 +27173,7 @@
         <v>-0.35985229868665</v>
       </c>
       <c r="AK151" t="n">
-        <v>0.679820365614308</v>
+        <v>0.679820154951594</v>
       </c>
       <c r="AL151" t="n">
         <v>-0.383372105294715</v>
@@ -27301,7 +27301,7 @@
         <v>-0.390156248521453</v>
       </c>
       <c r="U152" t="n">
-        <v>-0.290870442731601</v>
+        <v>-0.290870596369569</v>
       </c>
       <c r="V152" t="n">
         <v>-0.483571348555071</v>
@@ -27310,7 +27310,7 @@
         <v>-1.220232985643</v>
       </c>
       <c r="X152" t="n">
-        <v>0.099068352437923</v>
+        <v>0.100097101683785</v>
       </c>
       <c r="Y152" t="n">
         <v>-0.155351901989802</v>
@@ -27325,7 +27325,7 @@
         <v>0.754392005415575</v>
       </c>
       <c r="AC152" t="n">
-        <v>0.29642690914566</v>
+        <v>0.296426909145646</v>
       </c>
       <c r="AD152" t="n">
         <v>0.0139071681594516</v>
@@ -27349,7 +27349,7 @@
         <v>0.334077753877137</v>
       </c>
       <c r="AK152" t="n">
-        <v>-0.0844012177257487</v>
+        <v>-0.0844013909729868</v>
       </c>
       <c r="AL152" t="n">
         <v>0.770658789368821</v>
@@ -27477,7 +27477,7 @@
         <v>-0.374363612918343</v>
       </c>
       <c r="U153" t="n">
-        <v>0.458795249844984</v>
+        <v>0.458795161399552</v>
       </c>
       <c r="V153" t="n">
         <v>-0.916068346397652</v>
@@ -27486,7 +27486,7 @@
         <v>-1.24972545923954</v>
       </c>
       <c r="X153" t="n">
-        <v>-0.7264157973657</v>
+        <v>-0.726833805598205</v>
       </c>
       <c r="Y153" t="n">
         <v>1.04177819865446</v>
@@ -27525,7 +27525,7 @@
         <v>1.4245392650488</v>
       </c>
       <c r="AK153" t="n">
-        <v>0.527747058249577</v>
+        <v>0.527746855032209</v>
       </c>
       <c r="AL153" t="n">
         <v>1.43177561334855</v>
@@ -27653,7 +27653,7 @@
         <v>-0.136822836166409</v>
       </c>
       <c r="U154" t="n">
-        <v>-1.11593778814562</v>
+        <v>-1.11593801353322</v>
       </c>
       <c r="V154" t="n">
         <v>0.727776698973811</v>
@@ -27662,7 +27662,7 @@
         <v>0.605972024163464</v>
       </c>
       <c r="X154" t="n">
-        <v>-0.43025413150836</v>
+        <v>-0.431959218505402</v>
       </c>
       <c r="Y154" t="n">
         <v>-1.48318479940665</v>
@@ -27701,7 +27701,7 @@
         <v>-0.413924770314997</v>
       </c>
       <c r="AK154" t="n">
-        <v>0.275868252116701</v>
+        <v>0.275868061231053</v>
       </c>
       <c r="AL154" t="n">
         <v>0.339287942202624</v>
@@ -27829,7 +27829,7 @@
         <v>1.00513124754714</v>
       </c>
       <c r="U155" t="n">
-        <v>-0.277753763718859</v>
+        <v>-0.277753916216173</v>
       </c>
       <c r="V155" t="n">
         <v>0.59856227997551</v>
@@ -27838,7 +27838,7 @@
         <v>0.468340480712968</v>
       </c>
       <c r="X155" t="n">
-        <v>0.593717938477081</v>
+        <v>0.593691519208694</v>
       </c>
       <c r="Y155" t="n">
         <v>-0.787149186334605</v>
@@ -27853,7 +27853,7 @@
         <v>-0.083490824063901</v>
       </c>
       <c r="AC155" t="n">
-        <v>-0.384544625762809</v>
+        <v>-0.384544625762824</v>
       </c>
       <c r="AD155" t="n">
         <v>0.323003370867115</v>
@@ -27877,7 +27877,7 @@
         <v>-1.17093937311185</v>
       </c>
       <c r="AK155" t="n">
-        <v>0.126018100411734</v>
+        <v>0.12601791686259</v>
       </c>
       <c r="AL155" t="n">
         <v>-0.0770589352345612</v>
@@ -28005,7 +28005,7 @@
         <v>0.0522003590419498</v>
       </c>
       <c r="U156" t="n">
-        <v>-0.0542568475467575</v>
+        <v>-0.0542569806082995</v>
       </c>
       <c r="V156" t="n">
         <v>0.178739186831613</v>
@@ -28014,7 +28014,7 @@
         <v>-0.295618067800773</v>
       </c>
       <c r="X156" t="n">
-        <v>1.05555324775386</v>
+        <v>1.05523435118004</v>
       </c>
       <c r="Y156" t="n">
         <v>0.16234659750362</v>
@@ -28029,7 +28029,7 @@
         <v>0.682324731069351</v>
       </c>
       <c r="AC156" t="n">
-        <v>0.745868122185248</v>
+        <v>0.745868122185253</v>
       </c>
       <c r="AD156" t="n">
         <v>-0.675911318040935</v>
@@ -28053,7 +28053,7 @@
         <v>1.16318898551179</v>
       </c>
       <c r="AK156" t="n">
-        <v>0.396379844290417</v>
+        <v>0.396379647504648</v>
       </c>
       <c r="AL156" t="n">
         <v>0.313777383673394</v>
@@ -28181,7 +28181,7 @@
         <v>-0.670679043822058</v>
       </c>
       <c r="U157" t="n">
-        <v>-0.0503295444372682</v>
+        <v>-0.0503296771572826</v>
       </c>
       <c r="V157" t="n">
         <v>-0.00552750570159306</v>
@@ -28190,7 +28190,7 @@
         <v>-0.695836108623921</v>
       </c>
       <c r="X157" t="n">
-        <v>-0.110827656149567</v>
+        <v>-0.111443362969747</v>
       </c>
       <c r="Y157" t="n">
         <v>0.90828088656766</v>
@@ -28229,7 +28229,7 @@
         <v>-0.54009387078114</v>
       </c>
       <c r="AK157" t="n">
-        <v>1.10781330600713</v>
+        <v>1.10781307439034</v>
       </c>
       <c r="AL157" t="n">
         <v>0.909950168292602</v>
@@ -28357,7 +28357,7 @@
         <v>0.76189209712398</v>
       </c>
       <c r="U158" t="n">
-        <v>-0.20778102988572</v>
+        <v>-0.207781176298054</v>
       </c>
       <c r="V158" t="n">
         <v>-0.34277218854313</v>
@@ -28366,7 +28366,7 @@
         <v>0.232400691940693</v>
       </c>
       <c r="X158" t="n">
-        <v>0.513156325410066</v>
+        <v>0.510357396769423</v>
       </c>
       <c r="Y158" t="n">
         <v>-0.792110635133999</v>
@@ -28381,7 +28381,7 @@
         <v>-0.0386704610476813</v>
       </c>
       <c r="AC158" t="n">
-        <v>-0.302828041573795</v>
+        <v>-0.302828041573804</v>
       </c>
       <c r="AD158" t="n">
         <v>-0.904698300164581</v>
@@ -28405,7 +28405,7 @@
         <v>-0.296767748453578</v>
       </c>
       <c r="AK158" t="n">
-        <v>-0.0523191895079791</v>
+        <v>-0.0523193643259197</v>
       </c>
       <c r="AL158" t="n">
         <v>1.29829137166045</v>
@@ -28533,7 +28533,7 @@
         <v>-0.786437434686092</v>
       </c>
       <c r="U159" t="n">
-        <v>0.0567343854299477</v>
+        <v>0.0567342620204409</v>
       </c>
       <c r="V159" t="n">
         <v>-1.06221430995435</v>
@@ -28542,7 +28542,7 @@
         <v>-1.01766625909838</v>
       </c>
       <c r="X159" t="n">
-        <v>-0.169918990475571</v>
+        <v>-0.169136216966165</v>
       </c>
       <c r="Y159" t="n">
         <v>0.901294598282117</v>
@@ -28581,7 +28581,7 @@
         <v>0.577403876204699</v>
       </c>
       <c r="AK159" t="n">
-        <v>-0.282108342595962</v>
+        <v>-0.282108506163671</v>
       </c>
       <c r="AL159" t="n">
         <v>-0.169742266222412</v>
@@ -28709,7 +28709,7 @@
         <v>-1.20730303297516</v>
       </c>
       <c r="U160" t="n">
-        <v>0.151785388138722</v>
+        <v>0.151785272995054</v>
       </c>
       <c r="V160" t="n">
         <v>-1.11736559836971</v>
@@ -28718,7 +28718,7 @@
         <v>-1.23161604562763</v>
       </c>
       <c r="X160" t="n">
-        <v>-0.714302714732712</v>
+        <v>-0.714013171376779</v>
       </c>
       <c r="Y160" t="n">
         <v>1.83692437604853</v>
@@ -28757,7 +28757,7 @@
         <v>-0.458985163338619</v>
       </c>
       <c r="AK160" t="n">
-        <v>0.199275809519394</v>
+        <v>0.199275622383631</v>
       </c>
       <c r="AL160" t="n">
         <v>1.21081137770641</v>
@@ -28885,7 +28885,7 @@
         <v>1.45888460245299</v>
       </c>
       <c r="U161" t="n">
-        <v>-0.357839944775132</v>
+        <v>-0.357852938561914</v>
       </c>
       <c r="V161" t="n">
         <v>-0.00226001464646424</v>
@@ -28894,7 +28894,7 @@
         <v>-0.00664356773648284</v>
       </c>
       <c r="X161" t="n">
-        <v>-1.98944500079582</v>
+        <v>-1.98966627640869</v>
       </c>
       <c r="Y161" t="n">
         <v>-0.302395508650604</v>
@@ -28909,7 +28909,7 @@
         <v>0.437586202081503</v>
       </c>
       <c r="AC161" t="n">
-        <v>-0.0849171504030842</v>
+        <v>-0.0849171504030794</v>
       </c>
       <c r="AD161" t="n">
         <v>0.449164284416664</v>
@@ -28933,7 +28933,7 @@
         <v>-1.84684526846619</v>
       </c>
       <c r="AK161" t="n">
-        <v>-0.523403508752832</v>
+        <v>-0.523403660506985</v>
       </c>
       <c r="AL161" t="n">
         <v>0.23047959405881</v>
@@ -29061,7 +29061,7 @@
         <v>-1.0850322150583</v>
       </c>
       <c r="U162" t="n">
-        <v>0.146844173442141</v>
+        <v>0.146844057868775</v>
       </c>
       <c r="V162" t="n">
         <v>-0.837054471791795</v>
@@ -29070,7 +29070,7 @@
         <v>-1.46419265758627</v>
       </c>
       <c r="X162" t="n">
-        <v>0.78842452598511</v>
+        <v>0.786001032530087</v>
       </c>
       <c r="Y162" t="n">
         <v>0.72145096017902</v>
@@ -29085,7 +29085,7 @@
         <v>0.0864396170119826</v>
       </c>
       <c r="AC162" t="n">
-        <v>0.160232602163964</v>
+        <v>0.16023260216396</v>
       </c>
       <c r="AD162" t="n">
         <v>0.506803044982591</v>
@@ -29109,7 +29109,7 @@
         <v>-0.0534416261260166</v>
       </c>
       <c r="AK162" t="n">
-        <v>-0.866999311147049</v>
+        <v>-0.866999446079118</v>
       </c>
       <c r="AL162" t="n">
         <v>1.52605723898843</v>
@@ -29237,7 +29237,7 @@
         <v>0.206056448165033</v>
       </c>
       <c r="U163" t="n">
-        <v>0.0384198052428798</v>
+        <v>0.0384196802406985</v>
       </c>
       <c r="V163" t="n">
         <v>-0.105928594486478</v>
@@ -29246,7 +29246,7 @@
         <v>0.448937537557353</v>
       </c>
       <c r="X163" t="n">
-        <v>-0.693473339834717</v>
+        <v>-0.69478222004464</v>
       </c>
       <c r="Y163" t="n">
         <v>-0.295586837863847</v>
@@ -29261,7 +29261,7 @@
         <v>0.0453274135258818</v>
       </c>
       <c r="AC163" t="n">
-        <v>0.201090894258474</v>
+        <v>0.201090894258469</v>
       </c>
       <c r="AD163" t="n">
         <v>0.522715586243122</v>
@@ -29285,7 +29285,7 @@
         <v>0.144824103177923</v>
       </c>
       <c r="AK163" t="n">
-        <v>0.57357008049206</v>
+        <v>0.573569875031247</v>
       </c>
       <c r="AL163" t="n">
         <v>0.0396964890956991</v>
@@ -29413,7 +29413,7 @@
         <v>-1.36506657832994</v>
       </c>
       <c r="U164" t="n">
-        <v>-0.705380601317244</v>
+        <v>-0.705380791001904</v>
       </c>
       <c r="V164" t="n">
         <v>-1.35351608826316</v>
@@ -29422,7 +29422,7 @@
         <v>-1.52705819341046</v>
       </c>
       <c r="X164" t="n">
-        <v>-0.863825581308166</v>
+        <v>-0.86145046492318</v>
       </c>
       <c r="Y164" t="n">
         <v>-0.993221008424954</v>
@@ -29437,7 +29437,7 @@
         <v>0.127551820498083</v>
       </c>
       <c r="AC164" t="n">
-        <v>-0.765888685311554</v>
+        <v>-0.765888685311549</v>
       </c>
       <c r="AD164" t="n">
         <v>1.16825398849136</v>
@@ -29461,7 +29461,7 @@
         <v>0.370126068296035</v>
       </c>
       <c r="AK164" t="n">
-        <v>0.0950358247277844</v>
+        <v>0.0950356426954988</v>
       </c>
       <c r="AL164" t="n">
         <v>0.246098484574966</v>
@@ -29589,7 +29589,7 @@
         <v>-0.0857002838017019</v>
       </c>
       <c r="U165" t="n">
-        <v>-0.319927352012275</v>
+        <v>-0.319927508177093</v>
       </c>
       <c r="V165" t="n">
         <v>-1.21697456811093</v>
@@ -29598,7 +29598,7 @@
         <v>-1.16745698025973</v>
       </c>
       <c r="X165" t="n">
-        <v>-0.312776457083667</v>
+        <v>-0.310163193401854</v>
       </c>
       <c r="Y165" t="n">
         <v>0.59073632223985</v>
@@ -29613,7 +29613,7 @@
         <v>-1.12209794115199</v>
       </c>
       <c r="AC165" t="n">
-        <v>-0.575216655537181</v>
+        <v>-0.575216655537196</v>
       </c>
       <c r="AD165" t="n">
         <v>-1.91429993036365</v>
@@ -29637,7 +29637,7 @@
         <v>2.38883167575432</v>
       </c>
       <c r="AK165" t="n">
-        <v>1.24910194336279</v>
+        <v>1.24910170482866</v>
       </c>
       <c r="AL165" t="n">
         <v>1.59506805029687</v>
@@ -29765,7 +29765,7 @@
         <v>1.00789902904459</v>
       </c>
       <c r="U166" t="n">
-        <v>-0.179635357601039</v>
+        <v>-0.179635501565766</v>
       </c>
       <c r="V166" t="n">
         <v>0.632722413733683</v>
@@ -29774,7 +29774,7 @@
         <v>0.0181921995027037</v>
       </c>
       <c r="X166" t="n">
-        <v>0.335818232047751</v>
+        <v>0.33727883478017</v>
       </c>
       <c r="Y166" t="n">
         <v>-0.818469071953692</v>
@@ -29789,7 +29789,7 @@
         <v>0.462092299845767</v>
       </c>
       <c r="AC166" t="n">
-        <v>-0.112156011799422</v>
+        <v>-0.112156011799432</v>
       </c>
       <c r="AD166" t="n">
         <v>-0.383434880649827</v>
@@ -29810,10 +29810,10 @@
         <v>-0.5015128500495</v>
       </c>
       <c r="AJ166" t="n">
-        <v>-0.711323364270906</v>
+        <v>-0.711323364270905</v>
       </c>
       <c r="AK166" t="n">
-        <v>-1.02697191628158</v>
+        <v>-1.02697204338156</v>
       </c>
       <c r="AL166" t="n">
         <v>1.01414122077502</v>
@@ -29941,7 +29941,7 @@
         <v>-0.299796323163452</v>
       </c>
       <c r="U167" t="n">
-        <v>0.620405056232896</v>
+        <v>0.6204049818414</v>
       </c>
       <c r="V167" t="n">
         <v>-0.355743137883189</v>
@@ -29950,7 +29950,7 @@
         <v>-0.63633374961337</v>
       </c>
       <c r="X167" t="n">
-        <v>0.22051963068931</v>
+        <v>0.221893126787334</v>
       </c>
       <c r="Y167" t="n">
         <v>0.311734755148384</v>
@@ -29965,7 +29965,7 @@
         <v>0.724243056192434</v>
       </c>
       <c r="AC167" t="n">
-        <v>0.323665770541998</v>
+        <v>0.323665770541999</v>
       </c>
       <c r="AD167" t="n">
         <v>-0.0670699862552547</v>
@@ -29989,7 +29989,7 @@
         <v>-0.206646962406333</v>
       </c>
       <c r="AK167" t="n">
-        <v>0.407223640779799</v>
+        <v>0.40722344346313</v>
       </c>
       <c r="AL167" t="n">
         <v>0.664141330226242</v>
@@ -30117,7 +30117,7 @@
         <v>-0.0715357549617988</v>
       </c>
       <c r="U168" t="n">
-        <v>0.954097477300696</v>
+        <v>0.954097431927808</v>
       </c>
       <c r="V168" t="n">
         <v>-0.127018764024132</v>
@@ -30126,7 +30126,7 @@
         <v>-0.443856553509669</v>
       </c>
       <c r="X168" t="n">
-        <v>0.487968804379567</v>
+        <v>0.491126445437284</v>
       </c>
       <c r="Y168" t="n">
         <v>0.662114874418246</v>
@@ -30141,7 +30141,7 @@
         <v>0.730853253615689</v>
       </c>
       <c r="AC168" t="n">
-        <v>1.24978705801752</v>
+        <v>1.24978705801751</v>
       </c>
       <c r="AD168" t="n">
         <v>-2.59354934594902</v>
@@ -30165,7 +30165,7 @@
         <v>1.47861173667715</v>
       </c>
       <c r="AK168" t="n">
-        <v>0.699485832966373</v>
+        <v>0.699485621340857</v>
       </c>
       <c r="AL168" t="n">
         <v>1.90371650643193</v>
@@ -30293,7 +30293,7 @@
         <v>-1.76786019154741</v>
       </c>
       <c r="U169" t="n">
-        <v>0.992600448962364</v>
+        <v>0.992600406937778</v>
       </c>
       <c r="V169" t="n">
         <v>-0.996567444210384</v>
@@ -30302,7 +30302,7 @@
         <v>-1.12528791713486</v>
       </c>
       <c r="X169" t="n">
-        <v>0.375618360698997</v>
+        <v>0.375740737444448</v>
       </c>
       <c r="Y169" t="n">
         <v>1.36758789725906</v>
@@ -30317,7 +30317,7 @@
         <v>0.728112440049949</v>
       </c>
       <c r="AC169" t="n">
-        <v>1.31788421150836</v>
+        <v>1.31788421150835</v>
       </c>
       <c r="AD169" t="n">
         <v>1.38368229400123</v>
@@ -30341,7 +30341,7 @@
         <v>0.108775788759025</v>
       </c>
       <c r="AK169" t="n">
-        <v>0.680577184562313</v>
+        <v>0.680576973862545</v>
       </c>
       <c r="AL169" t="n">
         <v>0.802615802994543</v>
@@ -30469,7 +30469,7 @@
         <v>-0.431998592335878</v>
       </c>
       <c r="U170" t="n">
-        <v>0.928428829526249</v>
+        <v>0.928428781921161</v>
       </c>
       <c r="V170" t="n">
         <v>-0.623875434164718</v>
@@ -30478,7 +30478,7 @@
         <v>-1.08777556036734</v>
       </c>
       <c r="X170" t="n">
-        <v>-0.799286564316532</v>
+        <v>-0.797347293816049</v>
       </c>
       <c r="Y170" t="n">
         <v>1.51550775024721</v>
@@ -30493,7 +30493,7 @@
         <v>0.699898182755566</v>
       </c>
       <c r="AC170" t="n">
-        <v>1.1680704738285</v>
+        <v>1.16807047382849</v>
       </c>
       <c r="AD170" t="n">
         <v>-0.902105145292494</v>
@@ -30517,7 +30517,7 @@
         <v>1.02800780644092</v>
       </c>
       <c r="AK170" t="n">
-        <v>1.00254452045808</v>
+        <v>1.00254429399513</v>
       </c>
       <c r="AL170" t="n">
         <v>0.699667868574813</v>
@@ -30645,7 +30645,7 @@
         <v>0.276227849659264</v>
       </c>
       <c r="U171" t="n">
-        <v>0.466393169586219</v>
+        <v>0.46639308180152</v>
       </c>
       <c r="V171" t="n">
         <v>-0.530999476294674</v>
@@ -30654,7 +30654,7 @@
         <v>-1.37364558952673</v>
       </c>
       <c r="X171" t="n">
-        <v>-1.46710836873841</v>
+        <v>-1.47043059044092</v>
       </c>
       <c r="Y171" t="n">
         <v>-0.236084975770874</v>
@@ -30669,7 +30669,7 @@
         <v>0.684420647325505</v>
       </c>
       <c r="AC171" t="n">
-        <v>-0.289208610875623</v>
+        <v>-0.289208610875628</v>
       </c>
       <c r="AD171" t="n">
         <v>-0.567706037469319</v>
@@ -30693,7 +30693,7 @@
         <v>0.388150225505484</v>
       </c>
       <c r="AK171" t="n">
-        <v>0.937233410304469</v>
+        <v>0.937233187039086</v>
       </c>
       <c r="AL171" t="n">
         <v>1.04223568899168</v>
@@ -30821,7 +30821,7 @@
         <v>0.236176423284367</v>
       </c>
       <c r="U172" t="n">
-        <v>1.00543477284959</v>
+        <v>1.0054347319411</v>
       </c>
       <c r="V172" t="n">
         <v>-0.594567029549011</v>
@@ -30830,7 +30830,7 @@
         <v>-1.10096956171316</v>
       </c>
       <c r="X172" t="n">
-        <v>0.478227065965736</v>
+        <v>0.478305811215858</v>
       </c>
       <c r="Y172" t="n">
         <v>0.659959782099656</v>
@@ -30845,7 +30845,7 @@
         <v>0.730530804960896</v>
       </c>
       <c r="AC172" t="n">
-        <v>0.950159582657792</v>
+        <v>0.950159582657782</v>
       </c>
       <c r="AD172" t="n">
         <v>-1.01380725591889</v>
@@ -30869,7 +30869,7 @@
         <v>1.19022522132597</v>
       </c>
       <c r="AK172" t="n">
-        <v>0.133491687523282</v>
+        <v>0.133491503608238</v>
       </c>
       <c r="AL172" t="n">
         <v>1.07571108253682</v>
@@ -30997,7 +30997,7 @@
         <v>-0.791484565652034</v>
       </c>
       <c r="U173" t="n">
-        <v>0.787251266766795</v>
+        <v>0.787251206884604</v>
       </c>
       <c r="V173" t="n">
         <v>-0.987161030566831</v>
@@ -31006,7 +31006,7 @@
         <v>-1.4755757175709</v>
       </c>
       <c r="X173" t="n">
-        <v>-0.534336915614034</v>
+        <v>-0.534524292276812</v>
       </c>
       <c r="Y173" t="n">
         <v>1.20980435250506</v>
@@ -31021,7 +31021,7 @@
         <v>0.706185931524029</v>
       </c>
       <c r="AC173" t="n">
-        <v>0.71862926078891</v>
+        <v>0.7186292607889</v>
       </c>
       <c r="AD173" t="n">
         <v>-0.291142141338743</v>
@@ -31045,7 +31045,7 @@
         <v>0.694560898066118</v>
       </c>
       <c r="AK173" t="n">
-        <v>0.879466839038784</v>
+        <v>0.87946661860159</v>
       </c>
       <c r="AL173" t="n">
         <v>1.44760760981831</v>
@@ -31173,7 +31173,7 @@
         <v>2.29296369724405</v>
       </c>
       <c r="U174" t="n">
-        <v>-0.534684093617178</v>
+        <v>-0.534684268457703</v>
       </c>
       <c r="V174" t="n">
         <v>2.97967212524071</v>
@@ -31182,7 +31182,7 @@
         <v>0.380639177649589</v>
       </c>
       <c r="X174" t="n">
-        <v>-2.57907653636984</v>
+        <v>-2.57941545059429</v>
       </c>
       <c r="Y174" t="n">
         <v>-1.8560394528561</v>
@@ -31197,7 +31197,7 @@
         <v>0.659269652251655</v>
       </c>
       <c r="AC174" t="n">
-        <v>-0.942941284387754</v>
+        <v>-0.942941284387764</v>
       </c>
       <c r="AD174" t="n">
         <v>0.977421364040985</v>
@@ -31221,7 +31221,7 @@
         <v>-1.2250118447402</v>
       </c>
       <c r="AK174" t="n">
-        <v>-0.782164637194127</v>
+        <v>-0.782164776279611</v>
       </c>
       <c r="AL174" t="n">
         <v>-0.137474473081019</v>
@@ -31349,7 +31349,7 @@
         <v>-0.932152989993139</v>
       </c>
       <c r="U175" t="n">
-        <v>0.88992585786458</v>
+        <v>0.889925806911191</v>
       </c>
       <c r="V175" t="n">
         <v>-0.180387784591245</v>
@@ -31358,7 +31358,7 @@
         <v>-0.647199397780514</v>
       </c>
       <c r="X175" t="n">
-        <v>1.43759602857524</v>
+        <v>1.43985337782282</v>
       </c>
       <c r="Y175" t="n">
         <v>0.998439528950922</v>
@@ -31373,7 +31373,7 @@
         <v>0.754392005415575</v>
       </c>
       <c r="AC175" t="n">
-        <v>0.582434953807219</v>
+        <v>0.582434953807214</v>
       </c>
       <c r="AD175" t="n">
         <v>-3.28572524566949</v>
@@ -31397,7 +31397,7 @@
         <v>0.0186550027117798</v>
       </c>
       <c r="AK175" t="n">
-        <v>-0.65219280817035</v>
+        <v>-0.652192953619117</v>
       </c>
       <c r="AL175" t="n">
         <v>0.633090016903334</v>
@@ -31525,7 +31525,7 @@
         <v>-1.51420115783972</v>
       </c>
       <c r="U176" t="n">
-        <v>1.04393774451126</v>
+        <v>1.04393770695107</v>
       </c>
       <c r="V176" t="n">
         <v>-2.58595430532969</v>
@@ -31534,7 +31534,7 @@
         <v>-1.51955572205695</v>
       </c>
       <c r="X176" t="n">
-        <v>-0.270989526519074</v>
+        <v>-0.271701290737575</v>
       </c>
       <c r="Y176" t="n">
         <v>1.30112342921372</v>
@@ -31549,7 +31549,7 @@
         <v>0.712473680292491</v>
       </c>
       <c r="AC176" t="n">
-        <v>2.18952777619121</v>
+        <v>2.18952777619119</v>
       </c>
       <c r="AD176" t="n">
         <v>0.475135123362865</v>
@@ -31573,7 +31573,7 @@
         <v>-0.819468307527599</v>
       </c>
       <c r="AK176" t="n">
-        <v>1.06706333577549</v>
+        <v>1.06706310615378</v>
       </c>
       <c r="AL176" t="n">
         <v>1.48530072536185</v>
@@ -31701,7 +31701,7 @@
         <v>-0.0274140616788831</v>
       </c>
       <c r="U177" t="n">
-        <v>0.877091533977356</v>
+        <v>0.877091481907868</v>
       </c>
       <c r="V177" t="n">
         <v>0.668763830220563</v>
@@ -31710,7 +31710,7 @@
         <v>-0.377110429054356</v>
       </c>
       <c r="X177" t="n">
-        <v>0.670113676564497</v>
+        <v>0.670615324537251</v>
       </c>
       <c r="Y177" t="n">
         <v>0.411768930464093</v>
@@ -31725,7 +31725,7 @@
         <v>0.735206310455394</v>
       </c>
       <c r="AC177" t="n">
-        <v>0.187471463560303</v>
+        <v>0.187471463560293</v>
       </c>
       <c r="AD177" t="n">
         <v>-0.0706453967607075</v>
@@ -31749,7 +31749,7 @@
         <v>1.36145471481573</v>
       </c>
       <c r="AK177" t="n">
-        <v>-0.297008215634808</v>
+        <v>-0.297008378473035</v>
       </c>
       <c r="AL177" t="n">
         <v>1.24696835450106</v>
@@ -31877,7 +31877,7 @@
         <v>0.143374337781554</v>
       </c>
       <c r="U178" t="n">
-        <v>0.543399112909558</v>
+        <v>0.54339903182146</v>
       </c>
       <c r="V178" t="n">
         <v>0.1201223776002</v>
@@ -31886,7 +31886,7 @@
         <v>-0.514224560687367</v>
       </c>
       <c r="X178" t="n">
-        <v>0.645759330529918</v>
+        <v>0.644974056094399</v>
       </c>
       <c r="Y178" t="n">
         <v>-0.169987583889685</v>
@@ -31901,7 +31901,7 @@
         <v>0.734722637473205</v>
       </c>
       <c r="AC178" t="n">
-        <v>0.323665770541998</v>
+        <v>0.323665770541999</v>
       </c>
       <c r="AD178" t="n">
         <v>-0.797082372972985</v>
@@ -31925,7 +31925,7 @@
         <v>0.307041518062964</v>
       </c>
       <c r="AK178" t="n">
-        <v>0.520332597618341</v>
+        <v>0.520332394763979</v>
       </c>
       <c r="AL178" t="n">
         <v>0.45880486451499</v>
@@ -32053,7 +32053,7 @@
         <v>1.70358904896304</v>
       </c>
       <c r="U179" t="n">
-        <v>-0.380672206970501</v>
+        <v>-0.380672368417823</v>
       </c>
       <c r="V179" t="n">
         <v>1.13700519990865</v>
@@ -32062,7 +32062,7 @@
         <v>0.388917766729317</v>
       </c>
       <c r="X179" t="n">
-        <v>0.605959201878672</v>
+        <v>0.60651215343012</v>
       </c>
       <c r="Y179" t="n">
         <v>-0.930036543523839</v>
@@ -32077,7 +32077,7 @@
         <v>0.733755291508826</v>
       </c>
       <c r="AC179" t="n">
-        <v>-2.27764549280836</v>
+        <v>-2.27764549280837</v>
       </c>
       <c r="AD179" t="n">
         <v>1.83999897103781</v>
@@ -32098,10 +32098,10 @@
         <v>-1.6795224763953</v>
       </c>
       <c r="AJ179" t="n">
-        <v>-0.801444150318151</v>
+        <v>-0.80144415031815</v>
       </c>
       <c r="AK179" t="n">
-        <v>-0.0117702493094049</v>
+        <v>-0.0117704261125785</v>
       </c>
       <c r="AL179" t="n">
         <v>-0.113828591645818</v>
@@ -32229,7 +32229,7 @@
         <v>-0.453652412286535</v>
       </c>
       <c r="U180" t="n">
-        <v>0.376552902375659</v>
+        <v>0.376552806778256</v>
       </c>
       <c r="V180" t="n">
         <v>-0.0242413181082436</v>
@@ -32238,7 +32238,7 @@
         <v>0.635205791851255</v>
       </c>
       <c r="X180" t="n">
-        <v>0.394717295220851</v>
+        <v>0.394971688776588</v>
       </c>
       <c r="Y180" t="n">
         <v>0.0471675701248464</v>
@@ -32253,7 +32253,7 @@
         <v>0.728596113032139</v>
       </c>
       <c r="AC180" t="n">
-        <v>0.160232602163964</v>
+        <v>0.16023260216396</v>
       </c>
       <c r="AD180" t="n">
         <v>0.712526664834799</v>
@@ -32277,7 +32277,7 @@
         <v>0.189884496201545</v>
       </c>
       <c r="AK180" t="n">
-        <v>0.131457736600519</v>
+        <v>0.131457552785055</v>
       </c>
       <c r="AL180" t="n">
         <v>0.604631492682595</v>
@@ -32405,7 +32405,7 @@
         <v>-0.246557232006576</v>
       </c>
       <c r="U181" t="n">
-        <v>0.85142288620291</v>
+        <v>0.851422831901221</v>
       </c>
       <c r="V181" t="n">
         <v>-0.159891704336343</v>
@@ -32414,7 +32414,7 @@
         <v>-0.969805665981202</v>
       </c>
       <c r="X181" t="n">
-        <v>0.294864476479077</v>
+        <v>0.292406615005178</v>
       </c>
       <c r="Y181" t="n">
         <v>0.674121817336111</v>
@@ -32429,7 +32429,7 @@
         <v>0.726177748121192</v>
       </c>
       <c r="AC181" t="n">
-        <v>0.691390399392571</v>
+        <v>0.691390399392567</v>
       </c>
       <c r="AD181" t="n">
         <v>-0.687855546542667</v>
@@ -32453,7 +32453,7 @@
         <v>-0.413924770314997</v>
       </c>
       <c r="AK181" t="n">
-        <v>0.319929305245861</v>
+        <v>0.319929112203029</v>
       </c>
       <c r="AL181" t="n">
         <v>1.44719027732584</v>
@@ -32581,7 +32581,7 @@
         <v>-1.07965946273971</v>
       </c>
       <c r="U182" t="n">
-        <v>0.85142288620291</v>
+        <v>0.851422831901221</v>
       </c>
       <c r="V182" t="n">
         <v>-0.5125827085294</v>
@@ -32590,7 +32590,7 @@
         <v>-0.211279941551032</v>
       </c>
       <c r="X182" t="n">
-        <v>1.0361338613105</v>
+        <v>1.0360033998479</v>
       </c>
       <c r="Y182" t="n">
         <v>0.840703348863263</v>
@@ -32629,7 +32629,7 @@
         <v>-1.11686690148351</v>
       </c>
       <c r="AK182" t="n">
-        <v>0.787075800901875</v>
+        <v>0.787075584988048</v>
       </c>
       <c r="AL182" t="n">
         <v>0.119859845309372</v>
@@ -32757,7 +32757,7 @@
         <v>0.503999985831954</v>
       </c>
       <c r="U183" t="n">
-        <v>0.325215606826766</v>
+        <v>0.325215506764963</v>
       </c>
       <c r="V183" t="n">
         <v>0.24349491865145</v>
@@ -32766,7 +32766,7 @@
         <v>-1.41840171173902</v>
       </c>
       <c r="X183" t="n">
-        <v>0.673766828469684</v>
+        <v>0.677025641647964</v>
       </c>
       <c r="Y183" t="n">
         <v>-0.289772825070284</v>
@@ -32805,7 +32805,7 @@
         <v>-0.233683198220507</v>
       </c>
       <c r="AK183" t="n">
-        <v>0.319408992219107</v>
+        <v>0.319408799201751</v>
       </c>
       <c r="AL183" t="n">
         <v>0.507321986618612</v>
@@ -32933,7 +32933,7 @@
         <v>-0.794415157825807</v>
       </c>
       <c r="U184" t="n">
-        <v>0.658908027894564</v>
+        <v>0.65890795685137</v>
       </c>
       <c r="V184" t="n">
         <v>-0.958644744994792</v>
@@ -32942,7 +32942,7 @@
         <v>-0.946263428285723</v>
       </c>
       <c r="X184" t="n">
-        <v>0.167324611719045</v>
+        <v>0.164200272790916</v>
       </c>
       <c r="Y184" t="n">
         <v>0.328418958867588</v>
@@ -32957,7 +32957,7 @@
         <v>0.722953261573262</v>
       </c>
       <c r="AC184" t="n">
-        <v>0.378143493334675</v>
+        <v>0.378143493334665</v>
       </c>
       <c r="AD184" t="n">
         <v>0.28237727787109</v>
@@ -32981,7 +32981,7 @@
         <v>-0.35985229868665</v>
       </c>
       <c r="AK184" t="n">
-        <v>1.01371942523721</v>
+        <v>1.01371919822716</v>
       </c>
       <c r="AL184" t="n">
         <v>-0.583336525092224</v>
@@ -33109,7 +33109,7 @@
         <v>-0.222461251911109</v>
       </c>
       <c r="U185" t="n">
-        <v>0.646073704007342</v>
+        <v>0.646073631848047</v>
       </c>
       <c r="V185" t="n">
         <v>-0.0846403951879081</v>
@@ -33118,7 +33118,7 @@
         <v>-0.659358575491365</v>
       </c>
       <c r="X185" t="n">
-        <v>-0.517481144542733</v>
+        <v>-0.515293340944673</v>
       </c>
       <c r="Y185" t="n">
         <v>0.175158739749312</v>
@@ -33133,7 +33133,7 @@
         <v>0.706669604506218</v>
       </c>
       <c r="AC185" t="n">
-        <v>0.459860077523689</v>
+        <v>0.459860077523685</v>
       </c>
       <c r="AD185" t="n">
         <v>-0.499144594260361</v>
@@ -33157,7 +33157,7 @@
         <v>0.334077753877137</v>
       </c>
       <c r="AK185" t="n">
-        <v>0.403072961861835</v>
+        <v>0.403072764748379</v>
       </c>
       <c r="AL185" t="n">
         <v>0.820321355973061</v>
@@ -33285,7 +33285,7 @@
         <v>-0.526591595278218</v>
       </c>
       <c r="U186" t="n">
-        <v>1.03110342062403</v>
+        <v>1.03110338194775</v>
       </c>
       <c r="V186" t="n">
         <v>-1.30331554387071</v>
@@ -33294,7 +33294,7 @@
         <v>-1.63830173416932</v>
       </c>
       <c r="X186" t="n">
-        <v>-0.834792637219576</v>
+        <v>-0.835809196480328</v>
       </c>
       <c r="Y186" t="n">
         <v>1.3051020611865</v>
@@ -33309,7 +33309,7 @@
         <v>0.699092061118584</v>
       </c>
       <c r="AC186" t="n">
-        <v>1.26340648871569</v>
+        <v>1.26340648871568</v>
       </c>
       <c r="AD186" t="n">
         <v>0.0107246599073453</v>
@@ -33333,7 +33333,7 @@
         <v>1.4245392650488</v>
       </c>
       <c r="AK186" t="n">
-        <v>0.648826264634296</v>
+        <v>0.648826055489019</v>
       </c>
       <c r="AL186" t="n">
         <v>1.28300101948944</v>
@@ -33461,7 +33461,7 @@
         <v>-0.0990507592600011</v>
       </c>
       <c r="U187" t="n">
-        <v>-0.29083193975994</v>
+        <v>-0.290832093394559</v>
       </c>
       <c r="V187" t="n">
         <v>-0.0767192047512299</v>
@@ -33470,7 +33470,7 @@
         <v>0.183505275188543</v>
       </c>
       <c r="X187" t="n">
-        <v>-0.494088154272677</v>
+        <v>-0.496062389612533</v>
       </c>
       <c r="Y187" t="n">
         <v>-1.33680429807464</v>
@@ -33509,7 +33509,7 @@
         <v>-0.413924770314997</v>
       </c>
       <c r="AK187" t="n">
-        <v>0.34581487832684</v>
+        <v>0.345814684016679</v>
       </c>
       <c r="AL187" t="n">
         <v>0.656185374625062</v>
@@ -33637,7 +33637,7 @@
         <v>0.731446500652004</v>
       </c>
       <c r="U188" t="n">
-        <v>0.325215606826766</v>
+        <v>0.325215506764963</v>
       </c>
       <c r="V188" t="n">
         <v>0.460931596138243</v>
@@ -33646,7 +33646,7 @@
         <v>0.0207792585901199</v>
       </c>
       <c r="X188" t="n">
-        <v>0.882124667833937</v>
+        <v>0.882155789190783</v>
       </c>
       <c r="Y188" t="n">
         <v>-0.426348840469358</v>
@@ -33661,7 +33661,7 @@
         <v>0.740526713259478</v>
       </c>
       <c r="AC188" t="n">
-        <v>-0.193872595988437</v>
+        <v>-0.193872595988452</v>
       </c>
       <c r="AD188" t="n">
         <v>0.389561012584006</v>
@@ -33685,7 +33685,7 @@
         <v>-1.17093937311185</v>
       </c>
       <c r="AK188" t="n">
-        <v>0.532559953747045</v>
+        <v>0.532559750294044</v>
       </c>
       <c r="AL188" t="n">
         <v>0.296373730795814</v>
@@ -33813,7 +33813,7 @@
         <v>-0.23613734872205</v>
       </c>
       <c r="U189" t="n">
-        <v>0.774416942879572</v>
+        <v>0.774416881881281</v>
       </c>
       <c r="V189" t="n">
         <v>-0.4067358013193</v>
@@ -33822,7 +33822,7 @@
         <v>-0.773965293063863</v>
       </c>
       <c r="X189" t="n">
-        <v>1.12310451280767</v>
+        <v>1.12574783939788</v>
       </c>
       <c r="Y189" t="n">
         <v>0.803356309452072</v>
@@ -33837,7 +33837,7 @@
         <v>0.746330789045751</v>
       </c>
       <c r="AC189" t="n">
-        <v>0.909301290563282</v>
+        <v>0.909301290563272</v>
       </c>
       <c r="AD189" t="n">
         <v>-0.922928964719857</v>
@@ -33861,7 +33861,7 @@
         <v>1.16318898551179</v>
       </c>
       <c r="AK189" t="n">
-        <v>0.845149829865188</v>
+        <v>0.845149611108118</v>
       </c>
       <c r="AL189" t="n">
         <v>0.544997343332681</v>
@@ -33989,7 +33989,7 @@
         <v>-1.1542267524946</v>
       </c>
       <c r="U190" t="n">
-        <v>0.825754238428465</v>
+        <v>0.825754181894574</v>
       </c>
       <c r="V190" t="n">
         <v>-0.870620516267215</v>
@@ -33998,7 +33998,7 @@
         <v>-1.66650067822214</v>
       </c>
       <c r="X190" t="n">
-        <v>0.123422698472502</v>
+        <v>0.125738370126637</v>
       </c>
       <c r="Y190" t="n">
         <v>0.498209446539456</v>
@@ -34037,7 +34037,7 @@
         <v>-0.54009387078114</v>
       </c>
       <c r="AK190" t="n">
-        <v>1.33924617524781</v>
+        <v>1.33924593230031</v>
       </c>
       <c r="AL190" t="n">
         <v>0.140424569832064</v>
@@ -34165,7 +34165,7 @@
         <v>0.734377092825778</v>
       </c>
       <c r="U191" t="n">
-        <v>0.581902084571227</v>
+        <v>0.58190200683143</v>
       </c>
       <c r="V191" t="n">
         <v>-0.396339238871161</v>
@@ -34174,7 +34174,7 @@
         <v>-0.0384643945116905</v>
       </c>
       <c r="X191" t="n">
-        <v>0.667742332345341</v>
+        <v>0.670615324537251</v>
       </c>
       <c r="Y191" t="n">
         <v>-0.511948633717138</v>
@@ -34189,7 +34189,7 @@
         <v>0.735206310455394</v>
       </c>
       <c r="AC191" t="n">
-        <v>-0.112156011799422</v>
+        <v>-0.112156011799432</v>
       </c>
       <c r="AD191" t="n">
         <v>-1.19689970597835</v>
@@ -34213,7 +34213,7 @@
         <v>-0.296767748453578</v>
       </c>
       <c r="AK191" t="n">
-        <v>0.340186037401054</v>
+        <v>0.340197668661958</v>
       </c>
       <c r="AL191" t="n">
         <v>1.17999092916657</v>
@@ -34341,7 +34341,7 @@
         <v>-0.458211111223515</v>
       </c>
       <c r="U192" t="n">
-        <v>0.76158261899235</v>
+        <v>0.761582556877957</v>
       </c>
       <c r="V192" t="n">
         <v>-0.761011043599693</v>
@@ -34350,7 +34350,7 @@
         <v>-0.584592567865062</v>
       </c>
       <c r="X192" t="n">
-        <v>-0.17408486545517</v>
+        <v>-0.175546534076878</v>
       </c>
       <c r="Y192" t="n">
         <v>1.09963413859203</v>
@@ -34365,7 +34365,7 @@
         <v>0.714730820876042</v>
       </c>
       <c r="AC192" t="n">
-        <v>0.187471463560303</v>
+        <v>0.187471463560293</v>
       </c>
       <c r="AD192" t="n">
         <v>0.941077905606437</v>
@@ -34389,7 +34389,7 @@
         <v>0.577403876204699</v>
       </c>
       <c r="AK192" t="n">
-        <v>0.0897380920917501</v>
+        <v>0.0897379103188366</v>
       </c>
       <c r="AL192" t="n">
         <v>0.0265371964607118</v>
@@ -34517,7 +34517,7 @@
         <v>-0.979042464773507</v>
       </c>
       <c r="U193" t="n">
-        <v>0.966931801187918</v>
+        <v>0.966931756931131</v>
       </c>
       <c r="V193" t="n">
         <v>-0.907949126200058</v>
@@ -34526,7 +34526,7 @@
         <v>-0.658065045947658</v>
       </c>
       <c r="X193" t="n">
-        <v>-0.206194147990234</v>
+        <v>-0.207598119630444</v>
       </c>
       <c r="Y193" t="n">
         <v>1.75531505594012</v>
@@ -34541,7 +34541,7 @@
         <v>0.714085923566456</v>
       </c>
       <c r="AC193" t="n">
-        <v>0.527957231014537</v>
+        <v>0.527957231014528</v>
       </c>
       <c r="AD193" t="n">
         <v>-1.66111371830719</v>
@@ -34565,7 +34565,7 @@
         <v>-0.458985163338619</v>
       </c>
       <c r="AK193" t="n">
-        <v>0.221128956643036</v>
+        <v>0.221128768437364</v>
       </c>
       <c r="AL193" t="n">
         <v>0.948184928134879</v>
@@ -34693,7 +34693,7 @@
         <v>1.74982728103812</v>
       </c>
       <c r="U194" t="n">
-        <v>0.569067760684004</v>
+        <v>0.569067681828107</v>
       </c>
       <c r="V194" t="n">
         <v>0.655891895760963</v>
@@ -34702,7 +34702,7 @@
         <v>0.74593192079263</v>
       </c>
       <c r="X194" t="n">
-        <v>-2.1735766748941</v>
+        <v>-2.17556547261937</v>
       </c>
       <c r="Y194" t="n">
         <v>0.0901391636642284</v>
@@ -34741,7 +34741,7 @@
         <v>-1.84684526846619</v>
       </c>
       <c r="AK194" t="n">
-        <v>-0.321805861478031</v>
+        <v>-0.321806023102191</v>
       </c>
       <c r="AL194" t="n">
         <v>0.415881773693446</v>
@@ -34869,7 +34869,7 @@
         <v>-1.06809990472094</v>
       </c>
       <c r="U195" t="n">
-        <v>0.697410999556235</v>
+        <v>0.697410931861341</v>
       </c>
       <c r="V195" t="n">
         <v>-0.672392725589366</v>
@@ -34878,7 +34878,7 @@
         <v>-0.98455190277947</v>
       </c>
       <c r="X195" t="n">
-        <v>0.486366544772029</v>
+        <v>0.484716128326571</v>
       </c>
       <c r="Y195" t="n">
         <v>0.857434917248809</v>
@@ -34893,7 +34893,7 @@
         <v>0.730692029288293</v>
       </c>
       <c r="AC195" t="n">
-        <v>0.350904631938337</v>
+        <v>0.350904631938332</v>
       </c>
       <c r="AD195" t="n">
         <v>0.568292247631312</v>
@@ -34917,7 +34917,7 @@
         <v>-0.0534416261260166</v>
       </c>
       <c r="AK195" t="n">
-        <v>-0.348495554691266</v>
+        <v>-0.348495715008726</v>
       </c>
       <c r="AL195" t="n">
         <v>1.67640348925536</v>
@@ -35045,7 +35045,7 @@
         <v>-0.114680584186791</v>
       </c>
       <c r="U196" t="n">
-        <v>0.800085590654019</v>
+        <v>0.800085531887928</v>
       </c>
       <c r="V196" t="n">
         <v>0.0235828691531951</v>
@@ -35054,7 +35054,7 @@
         <v>0.54129554697808</v>
       </c>
       <c r="X196" t="n">
-        <v>-0.430830944967073</v>
+        <v>-0.431959218505402</v>
       </c>
       <c r="Y196" t="n">
         <v>0.207414077528665</v>
@@ -35069,7 +35069,7 @@
         <v>0.708604296434976</v>
       </c>
       <c r="AC196" t="n">
-        <v>0.378143493334675</v>
+        <v>0.378143493334665</v>
       </c>
       <c r="AD196" t="n">
         <v>0.87353800825618</v>
@@ -35093,7 +35093,7 @@
         <v>0.144824103177923</v>
       </c>
       <c r="AK196" t="n">
-        <v>0.638644684724417</v>
+        <v>0.63864447607762</v>
       </c>
       <c r="AL196" t="n">
         <v>0.594340251006516</v>
@@ -35221,7 +35221,7 @@
         <v>-1.22830561022053</v>
       </c>
       <c r="U197" t="n">
-        <v>0.13270074851842</v>
+        <v>0.132700631715112</v>
       </c>
       <c r="V197" t="n">
         <v>-1.00240932215743</v>
@@ -35230,7 +35230,7 @@
         <v>-1.3304417027669</v>
       </c>
       <c r="X197" t="n">
-        <v>-0.300855645603584</v>
+        <v>-0.30375287629114</v>
       </c>
       <c r="Y197" t="n">
         <v>-0.737226828009437</v>
@@ -35245,7 +35245,7 @@
         <v>0.711828782982905</v>
       </c>
       <c r="AC197" t="n">
-        <v>-0.575216655537181</v>
+        <v>-0.575216655537196</v>
       </c>
       <c r="AD197" t="n">
         <v>0.986497406093288</v>
@@ -35269,7 +35269,7 @@
         <v>0.370126068296035</v>
       </c>
       <c r="AK197" t="n">
-        <v>0.300275663189859</v>
+        <v>0.30027547110925</v>
       </c>
       <c r="AL197" t="n">
         <v>0.346364835745191</v>
@@ -35397,7 +35397,7 @@
         <v>-0.246720042682896</v>
       </c>
       <c r="U198" t="n">
-        <v>0.453558845698996</v>
+        <v>0.453558756798196</v>
       </c>
       <c r="V198" t="n">
         <v>-1.46837334959498</v>
@@ -35406,7 +35406,7 @@
         <v>-1.77360492444114</v>
       </c>
       <c r="X198" t="n">
-        <v>0.221288715300928</v>
+        <v>0.221893126787334</v>
       </c>
       <c r="Y198" t="n">
         <v>0.352432844703318</v>
@@ -35421,7 +35421,7 @@
         <v>0.724243056192434</v>
       </c>
       <c r="AC198" t="n">
-        <v>-0.384544625762809</v>
+        <v>-0.384544625762824</v>
       </c>
       <c r="AD198" t="n">
         <v>-1.71887034954912</v>
@@ -35445,7 +35445,7 @@
         <v>2.38883167575432</v>
       </c>
       <c r="AK198" t="n">
-        <v>1.31202434371176</v>
+        <v>1.31202410209701</v>
       </c>
       <c r="AL198" t="n">
         <v>1.12516942260219</v>
@@ -35573,7 +35573,7 @@
         <v>1.08230350812316</v>
       </c>
       <c r="U199" t="n">
-        <v>0.735913971217904</v>
+        <v>0.735913906871311</v>
       </c>
       <c r="V199" t="n">
         <v>0.854119686438813</v>
@@ -35582,7 +35582,7 @@
         <v>0.26758469552954</v>
       </c>
       <c r="X199" t="n">
-        <v>0.474061190986137</v>
+        <v>0.471895494105145</v>
       </c>
       <c r="Y199" t="n">
         <v>-0.357942421103964</v>
@@ -35597,7 +35597,7 @@
         <v>0.730530804960896</v>
       </c>
       <c r="AC199" t="n">
-        <v>0.0785160179749498</v>
+        <v>0.0785160179749402</v>
       </c>
       <c r="AD199" t="n">
         <v>-0.65701271965497</v>
@@ -35618,10 +35618,10 @@
         <v>-0.19241871335333</v>
       </c>
       <c r="AJ199" t="n">
-        <v>-0.711323364270906</v>
+        <v>-0.711323364270905</v>
       </c>
       <c r="AK199" t="n">
-        <v>-0.656686420674129</v>
+        <v>-0.656686565902893</v>
       </c>
       <c r="AL199" t="n">
         <v>1.19949012392125</v>
@@ -35747,7 +35747,7 @@
         <v>3.49225540447314</v>
       </c>
       <c r="U200" t="n">
-        <v>1.22361827893238</v>
+        <v>-11.6107067463258</v>
       </c>
       <c r="V200" t="n">
         <v>4.16321953444035</v>
@@ -35756,7 +35756,7 @@
         <v>3.31711908422905</v>
       </c>
       <c r="X200" t="n">
-        <v>2.37221796283641</v>
+        <v>2.37447422831194</v>
       </c>
       <c r="Y200" t="n">
         <v>2.88936701258061</v>
@@ -35771,7 +35771,7 @@
         <v>1.66849092849565</v>
       </c>
       <c r="AC200" t="n">
-        <v>3.12880263413202</v>
+        <v>3.128802634132</v>
       </c>
       <c r="AD200" t="n">
         <v>2.77826757067127</v>
@@ -35792,10 +35792,10 @@
         <v>1.00107050527537</v>
       </c>
       <c r="AJ200" t="n">
-        <v>5.22763643624254</v>
+        <v>-3.78444216848196</v>
       </c>
       <c r="AK200" t="n">
-        <v>1.59126688493344</v>
+        <v>-10.2340288539751</v>
       </c>
       <c r="AL200" t="n">
         <v>2.92548851864058</v>
@@ -35921,7 +35921,7 @@
         <v>-2.7221218309138</v>
       </c>
       <c r="U201" t="n">
-        <v>-11.6107056082907</v>
+        <v>1.2236182569976</v>
       </c>
       <c r="V201" t="n">
         <v>-3.5130531741419</v>
@@ -35930,7 +35930,7 @@
         <v>-2.93251653205755</v>
       </c>
       <c r="X201" t="n">
-        <v>-4.6113103921789</v>
+        <v>-4.61020052701534</v>
       </c>
       <c r="Y201" t="n">
         <v>-3.50726620129215</v>
@@ -35966,10 +35966,10 @@
         <v>-7.43467460801765</v>
       </c>
       <c r="AJ201" t="n">
-        <v>-3.78444216848196</v>
+        <v>5.22763643624254</v>
       </c>
       <c r="AK201" t="n">
-        <v>-10.2340291776429</v>
+        <v>1.59126662964727</v>
       </c>
       <c r="AL201" t="n">
         <v>-5.95392621481896</v>

--- a/03_ips_clean/00_ips_wide_norm_complete.xlsx
+++ b/03_ips_clean/00_ips_wide_norm_complete.xlsx
@@ -935,7 +935,7 @@
         <v>0.0365594507242336</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0479279401222841</v>
+        <v>0.0479279684745034</v>
       </c>
       <c r="L2" t="n">
         <v>0.018076671118175</v>
@@ -1049,7 +1049,7 @@
         <v>-0.270190139978319</v>
       </c>
       <c r="AW2" t="n">
-        <v>-1.51469859140015</v>
+        <v>-0.948792684631332</v>
       </c>
       <c r="AX2" t="n">
         <v>-0.425251636335087</v>
@@ -1111,7 +1111,7 @@
         <v>0.579876869343988</v>
       </c>
       <c r="K3" t="n">
-        <v>0.266066919542678</v>
+        <v>0.266065549855144</v>
       </c>
       <c r="L3" t="n">
         <v>0.33778320269277</v>
@@ -1225,7 +1225,7 @@
         <v>0.933520905271153</v>
       </c>
       <c r="AW3" t="n">
-        <v>-1.06620646622441</v>
+        <v>-0.605791969216551</v>
       </c>
       <c r="AX3" t="n">
         <v>-1.49054162116902</v>
@@ -1287,7 +1287,7 @@
         <v>0.401766972857412</v>
       </c>
       <c r="K4" t="n">
-        <v>0.114776304941777</v>
+        <v>0.114776333794393</v>
       </c>
       <c r="L4" t="n">
         <v>0.18002094199604</v>
@@ -1401,7 +1401,7 @@
         <v>-0.112561312624221</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.74317843022921</v>
+        <v>-0.358744493406424</v>
       </c>
       <c r="AX4" t="n">
         <v>-0.301936262368131</v>
@@ -1463,7 +1463,7 @@
         <v>0.0473660098972648</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0893519514500753</v>
+        <v>-0.0893519241254701</v>
       </c>
       <c r="L5" t="n">
         <v>0.0394619504535181</v>
@@ -1577,7 +1577,7 @@
         <v>0.159706661896492</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0.581664412231608</v>
+        <v>-0.23522075550136</v>
       </c>
       <c r="AX5" t="n">
         <v>0.0695075088370415</v>
@@ -1639,7 +1639,7 @@
         <v>-0.0582228771344851</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0389217465831084</v>
+        <v>-0.0389217188810059</v>
       </c>
       <c r="L6" t="n">
         <v>0.146157521892963</v>
@@ -1753,7 +1753,7 @@
         <v>-0.857715769207228</v>
       </c>
       <c r="AW6" t="n">
-        <v>-1.73022289701615</v>
+        <v>-1.11362276049185</v>
       </c>
       <c r="AX6" t="n">
         <v>-2.60486624885014</v>
@@ -1815,7 +1815,7 @@
         <v>-2.4917400375173</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.430508158340847</v>
+        <v>-0.43050813356998</v>
       </c>
       <c r="L7" t="n">
         <v>0.339181732071526</v>
@@ -1929,7 +1929,7 @@
         <v>0.517953996792168</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.602814790155604</v>
+        <v>0.670652928799216</v>
       </c>
       <c r="AX7" t="n">
         <v>-0.031797769104149</v>
@@ -1991,7 +1991,7 @@
         <v>-7.0672681501875</v>
       </c>
       <c r="K8" t="n">
-        <v>0.234154383573573</v>
+        <v>0.234154413319798</v>
       </c>
       <c r="L8" t="n">
         <v>0.348292539966139</v>
@@ -2075,7 +2075,7 @@
         <v>-0.929740252673948</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.424580335738454</v>
+        <v>0.424580335738455</v>
       </c>
       <c r="AN8" t="n">
         <v>-0.189720050017767</v>
@@ -2105,7 +2105,7 @@
         <v>0.546613783583823</v>
       </c>
       <c r="AW8" t="n">
-        <v>-1.31997729130225</v>
+        <v>-0.799872466212987</v>
       </c>
       <c r="AX8" t="n">
         <v>1.74099110739153</v>
@@ -2167,7 +2167,7 @@
         <v>-0.368720379461492</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.430508158340847</v>
+        <v>-0.43050813356998</v>
       </c>
       <c r="L9" t="n">
         <v>-1.59088385629737</v>
@@ -2281,7 +2281,7 @@
         <v>-0.671427155061477</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0.016365349240002</v>
+        <v>0.197112327166363</v>
       </c>
       <c r="AX9" t="n">
         <v>-1.29806694182827</v>
@@ -2343,7 +2343,7 @@
         <v>0.530023512657659</v>
       </c>
       <c r="K10" t="n">
-        <v>0.251832248893301</v>
+        <v>0.251832278771854</v>
       </c>
       <c r="L10" t="n">
         <v>-0.0131254697787256</v>
@@ -2457,7 +2457,7 @@
         <v>0.962180692062807</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.0146453422155376</v>
+        <v>0.220828884844135</v>
       </c>
       <c r="AX10" t="n">
         <v>-0.953848295476354</v>
@@ -2519,7 +2519,7 @@
         <v>0.0678858953099762</v>
       </c>
       <c r="K11" t="n">
-        <v>0.223530868310174</v>
+        <v>0.223530897976876</v>
       </c>
       <c r="L11" t="n">
         <v>0.364681131812335</v>
@@ -2633,7 +2633,7 @@
         <v>-0.0409118456450861</v>
       </c>
       <c r="AW11" t="n">
-        <v>-0.581664412231608</v>
+        <v>-0.23522075550136</v>
       </c>
       <c r="AX11" t="n">
         <v>1.10004400668983</v>
@@ -2695,7 +2695,7 @@
         <v>0.121096347818189</v>
       </c>
       <c r="K12" t="n">
-        <v>0.246457505993241</v>
+        <v>0.246457535831561</v>
       </c>
       <c r="L12" t="n">
         <v>0.160604466155061</v>
@@ -2809,7 +2809,7 @@
         <v>0.560943676979649</v>
       </c>
       <c r="AW12" t="n">
-        <v>-4.45800084417405</v>
+        <v>-3.19979046522289</v>
       </c>
       <c r="AX12" t="n">
         <v>0.40380422854794</v>
@@ -2871,7 +2871,7 @@
         <v>-0.0339202122798245</v>
       </c>
       <c r="K13" t="n">
-        <v>0.236995719012927</v>
+        <v>0.236995748780421</v>
       </c>
       <c r="L13" t="n">
         <v>0.203782363479754</v>
@@ -2985,7 +2985,7 @@
         <v>0.102387088313184</v>
       </c>
       <c r="AW13" t="n">
-        <v>-4.02733986658525</v>
+        <v>-2.87042677047283</v>
       </c>
       <c r="AX13" t="n">
         <v>-0.790109762161956</v>
@@ -3047,7 +3047,7 @@
         <v>-1.20278938521384</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.300954459687323</v>
+        <v>-0.300954433946677</v>
       </c>
       <c r="L14" t="n">
         <v>-1.24638397864891</v>
@@ -3161,7 +3161,7 @@
         <v>-1.33060225126952</v>
       </c>
       <c r="AW14" t="n">
-        <v>-3.30944235938951</v>
+        <v>-2.3213884602324</v>
       </c>
       <c r="AX14" t="n">
         <v>-0.947917871668682</v>
@@ -3223,7 +3223,7 @@
         <v>-0.270106899022182</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0793365939445082</v>
+        <v>0.0793366225318383</v>
       </c>
       <c r="L15" t="n">
         <v>-0.0132748272851947</v>
@@ -3337,7 +3337,7 @@
         <v>-0.65709726166565</v>
       </c>
       <c r="AW15" t="n">
-        <v>-1.01232538982041</v>
+        <v>-0.564584450251422</v>
       </c>
       <c r="AX15" t="n">
         <v>-1.5292999828523</v>
@@ -3399,7 +3399,7 @@
         <v>0.481950287473422</v>
       </c>
       <c r="K16" t="n">
-        <v>0.266066919542678</v>
+        <v>0.266065549855144</v>
       </c>
       <c r="L16" t="n">
         <v>0.284109546049843</v>
@@ -3513,7 +3513,7 @@
         <v>0.388984956229725</v>
       </c>
       <c r="AW16" t="n">
-        <v>-2.30443753380123</v>
+        <v>-1.55277435349193</v>
       </c>
       <c r="AX16" t="n">
         <v>-0.418010769386149</v>
@@ -3575,7 +3575,7 @@
         <v>-0.0148321717709698</v>
       </c>
       <c r="K17" t="n">
-        <v>0.244204033058581</v>
+        <v>0.244204062880032</v>
       </c>
       <c r="L17" t="n">
         <v>0.269947738845549</v>
@@ -3689,7 +3689,7 @@
         <v>-0.857715769207228</v>
       </c>
       <c r="AW17" t="n">
-        <v>-5.51520700037915</v>
+        <v>-4.00832744405428</v>
       </c>
       <c r="AX17" t="n">
         <v>-0.0504983276047765</v>
@@ -3751,7 +3751,7 @@
         <v>0.1479724636487</v>
       </c>
       <c r="K18" t="n">
-        <v>0.192906031160875</v>
+        <v>0.192906060598334</v>
       </c>
       <c r="L18" t="n">
         <v>-0.0742534237899729</v>
@@ -3865,7 +3865,7 @@
         <v>0.345995276042244</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.0643916597587989</v>
+        <v>0.258874196118895</v>
       </c>
       <c r="AX18" t="n">
         <v>0.272111378785028</v>
@@ -3927,7 +3927,7 @@
         <v>-0.30595139475726</v>
       </c>
       <c r="K19" t="n">
-        <v>0.00896105409685093</v>
+        <v>0.00896108215738206</v>
       </c>
       <c r="L19" t="n">
         <v>-0.192150808214598</v>
@@ -4041,7 +4041,7 @@
         <v>-0.843385875811401</v>
       </c>
       <c r="AW19" t="n">
-        <v>-3.16588870019324</v>
+        <v>-2.21160056198238</v>
       </c>
       <c r="AX19" t="n">
         <v>-1.74524897785114</v>
@@ -4103,7 +4103,7 @@
         <v>0.165725405530985</v>
       </c>
       <c r="K20" t="n">
-        <v>0.196769127620293</v>
+        <v>0.196769157086669</v>
       </c>
       <c r="L20" t="n">
         <v>0.0116135644746046</v>
@@ -4217,7 +4217,7 @@
         <v>0.159706661896492</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.525804906374348</v>
+        <v>0.611756810566081</v>
       </c>
       <c r="AX20" t="n">
         <v>0.626666479710407</v>
@@ -4279,7 +4279,7 @@
         <v>0.681334690335554</v>
       </c>
       <c r="K21" t="n">
-        <v>0.203417572613856</v>
+        <v>0.20341760213</v>
       </c>
       <c r="L21" t="n">
         <v>0.337145038801493</v>
@@ -4342,7 +4342,7 @@
         <v>-0.0233975024599997</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.811860917151266</v>
+        <v>0.811860917151267</v>
       </c>
       <c r="AG21" t="n">
         <v>1.06779523188794</v>
@@ -4393,7 +4393,7 @@
         <v>0.618263250562958</v>
       </c>
       <c r="AW21" t="n">
-        <v>-0.0648195546392825</v>
+        <v>0.160055205794844</v>
       </c>
       <c r="AX21" t="n">
         <v>-0.175097400975422</v>
@@ -4455,7 +4455,7 @@
         <v>-0.289311035063783</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.358411021158014</v>
+        <v>-0.358410995847461</v>
       </c>
       <c r="L22" t="n">
         <v>-0.409425246261683</v>
@@ -4569,7 +4569,7 @@
         <v>-1.45957129183196</v>
       </c>
       <c r="AW22" t="n">
-        <v>0.351498978151336</v>
+        <v>0.478449992618936</v>
       </c>
       <c r="AX22" t="n">
         <v>-0.657226816076874</v>
@@ -4631,7 +4631,7 @@
         <v>-0.268587982468766</v>
       </c>
       <c r="K23" t="n">
-        <v>0.134581672659445</v>
+        <v>0.134581701660315</v>
       </c>
       <c r="L23" t="n">
         <v>-0.165850309120909</v>
@@ -4745,7 +4745,7 @@
         <v>-1.20163321070708</v>
       </c>
       <c r="AW23" t="n">
-        <v>-0.780391259975857</v>
+        <v>-0.38720436261975</v>
       </c>
       <c r="AX23" t="n">
         <v>-0.579128416418014</v>
@@ -4807,7 +4807,7 @@
         <v>-0.351799455563881</v>
       </c>
       <c r="K24" t="n">
-        <v>0.250418579536775</v>
+        <v>0.250418609404746</v>
       </c>
       <c r="L24" t="n">
         <v>0.192648440270242</v>
@@ -4921,7 +4921,7 @@
         <v>0.618263250562958</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.611084307877081</v>
+        <v>0.676977344179955</v>
       </c>
       <c r="AX24" t="n">
         <v>0.0695075088370415</v>
@@ -4983,7 +4983,7 @@
         <v>0.452181457952009</v>
       </c>
       <c r="K25" t="n">
-        <v>0.221725290617185</v>
+        <v>0.221725320270371</v>
       </c>
       <c r="L25" t="n">
         <v>0.0504193602462938</v>
@@ -5097,7 +5097,7 @@
         <v>-0.972354916373844</v>
       </c>
       <c r="AW25" t="n">
-        <v>-0.294557093839071</v>
+        <v>-0.0156449590013186</v>
       </c>
       <c r="AX25" t="n">
         <v>0.348090337240921</v>
@@ -5159,7 +5159,7 @@
         <v>0.0206446881104136</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.358285050621294</v>
+        <v>-0.358285025309798</v>
       </c>
       <c r="L26" t="n">
         <v>-0.207086558861504</v>
@@ -5273,7 +5273,7 @@
         <v>-0.427818967332417</v>
       </c>
       <c r="AW26" t="n">
-        <v>-0.581664412231608</v>
+        <v>-0.23522075550136</v>
       </c>
       <c r="AX26" t="n">
         <v>0.440951280042214</v>
@@ -5335,7 +5335,7 @@
         <v>0.321390165686825</v>
       </c>
       <c r="K27" t="n">
-        <v>0.143399610229856</v>
+        <v>0.143399639296732</v>
       </c>
       <c r="L27" t="n">
         <v>0.106835763826199</v>
@@ -5449,7 +5449,7 @@
         <v>0.360325169438071</v>
       </c>
       <c r="AW27" t="n">
-        <v>-0.681027836103733</v>
+        <v>-0.311212559060555</v>
       </c>
       <c r="AX27" t="n">
         <v>-2.15913506059081</v>
@@ -5511,7 +5511,7 @@
         <v>0.491005739027546</v>
       </c>
       <c r="K28" t="n">
-        <v>0.163162987768617</v>
+        <v>0.163163016983433</v>
       </c>
       <c r="L28" t="n">
         <v>0.0636850224117733</v>
@@ -5625,7 +5625,7 @@
         <v>0.116716981709011</v>
       </c>
       <c r="AW28" t="n">
-        <v>0.0146453422155376</v>
+        <v>0.220828884844135</v>
       </c>
       <c r="AX28" t="n">
         <v>-0.169273952118058</v>
@@ -5687,7 +5687,7 @@
         <v>-0.0138743836258219</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.563365084401699</v>
+        <v>-0.563365060625338</v>
       </c>
       <c r="L29" t="n">
         <v>-0.0564527246098873</v>
@@ -5801,7 +5801,7 @@
         <v>-1.33060225126952</v>
       </c>
       <c r="AW29" t="n">
-        <v>0.0643916597587989</v>
+        <v>0.258874196118895</v>
       </c>
       <c r="AX29" t="n">
         <v>-1.60197608971745</v>
@@ -5863,7 +5863,7 @@
         <v>0.366086945793723</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0368565296172131</v>
+        <v>0.036856557886557</v>
       </c>
       <c r="L30" t="n">
         <v>0.234753679139384</v>
@@ -5977,7 +5977,7 @@
         <v>-0.270190139978319</v>
       </c>
       <c r="AW30" t="n">
-        <v>-0.366269317830006</v>
+        <v>-0.0704894986311669</v>
       </c>
       <c r="AX30" t="n">
         <v>-2.48687956459538</v>
@@ -6039,7 +6039,7 @@
         <v>-0.20404854089017</v>
       </c>
       <c r="K31" t="n">
-        <v>0.259670415622555</v>
+        <v>0.259670445559781</v>
       </c>
       <c r="L31" t="n">
         <v>0.288590271243915</v>
@@ -6153,7 +6153,7 @@
         <v>-0.485138540915725</v>
       </c>
       <c r="AW31" t="n">
-        <v>-1.31997729130225</v>
+        <v>-0.799872466212987</v>
       </c>
       <c r="AX31" t="n">
         <v>0.373416656726219</v>
@@ -6215,7 +6215,7 @@
         <v>-0.312036735598654</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.516965936709777</v>
+        <v>-0.516965912586093</v>
       </c>
       <c r="L32" t="n">
         <v>-0.584512977708825</v>
@@ -6329,7 +6329,7 @@
         <v>-0.485138540915725</v>
       </c>
       <c r="AW32" t="n">
-        <v>-2.08917165061402</v>
+        <v>-1.38814191561206</v>
       </c>
       <c r="AX32" t="n">
         <v>-1.61789529951008</v>
@@ -6391,7 +6391,7 @@
         <v>-0.448352240296963</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.493087521638157</v>
+        <v>-0.493087497335731</v>
       </c>
       <c r="L33" t="n">
         <v>0.204610618742901</v>
@@ -6505,7 +6505,7 @@
         <v>-0.542458114499033</v>
       </c>
       <c r="AW33" t="n">
-        <v>-0.294557093839071</v>
+        <v>-0.0156449590013186</v>
       </c>
       <c r="AX33" t="n">
         <v>-2.66564807842798</v>
@@ -6567,7 +6567,7 @@
         <v>-0.33816790509405</v>
       </c>
       <c r="K34" t="n">
-        <v>0.252937990271178</v>
+        <v>0.252938020158008</v>
       </c>
       <c r="L34" t="n">
         <v>0.282819640312155</v>
@@ -6681,7 +6681,7 @@
         <v>0.474964316604687</v>
       </c>
       <c r="AW34" t="n">
-        <v>-0.22930543056804</v>
+        <v>0.0342586311123272</v>
       </c>
       <c r="AX34" t="n">
         <v>-1.14611571085088</v>
@@ -6743,7 +6743,7 @@
         <v>0.0221152315251867</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0510912002665901</v>
+        <v>0.0510912286424881</v>
       </c>
       <c r="L35" t="n">
         <v>0.0472964305655771</v>
@@ -6856,7 +6856,9 @@
       <c r="AV35" t="n">
         <v>0.116716981709011</v>
       </c>
-      <c r="AW35"/>
+      <c r="AW35" t="n">
+        <v>-0.948792684631332</v>
+      </c>
       <c r="AX35" t="n">
         <v>-0.425251636335087</v>
       </c>
@@ -6917,7 +6919,7 @@
         <v>0.601625432478254</v>
       </c>
       <c r="K36" t="n">
-        <v>0.246289545277614</v>
+        <v>0.246289575114677</v>
       </c>
       <c r="L36" t="n">
         <v>0.318488928447994</v>
@@ -6980,7 +6982,7 @@
         <v>1.50225413447672</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.906641102081318</v>
+        <v>0.906641102081319</v>
       </c>
       <c r="AG36" t="n">
         <v>-1.28973696994947</v>
@@ -7030,7 +7032,9 @@
       <c r="AV36" t="n">
         <v>0.646923037354612</v>
       </c>
-      <c r="AW36"/>
+      <c r="AW36" t="n">
+        <v>-0.605791969216551</v>
+      </c>
       <c r="AX36" t="n">
         <v>-1.49054162116902</v>
       </c>
@@ -7091,7 +7095,7 @@
         <v>0.381024571006938</v>
       </c>
       <c r="K37" t="n">
-        <v>0.124224095195788</v>
+        <v>0.124224124119126</v>
       </c>
       <c r="L37" t="n">
         <v>0.285263672236195</v>
@@ -7204,7 +7208,9 @@
       <c r="AV37" t="n">
         <v>0.31733548925059</v>
       </c>
-      <c r="AW37"/>
+      <c r="AW37" t="n">
+        <v>-0.358744493406424</v>
+      </c>
       <c r="AX37" t="n">
         <v>-0.301936262368131</v>
       </c>
@@ -7265,7 +7271,7 @@
         <v>0.254209550738277</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0664456090201462</v>
+        <v>0.0664456375109803</v>
       </c>
       <c r="L38" t="n">
         <v>0.121717202652571</v>
@@ -7378,7 +7384,9 @@
       <c r="AV38" t="n">
         <v>0.876201331687845</v>
       </c>
-      <c r="AW38"/>
+      <c r="AW38" t="n">
+        <v>-0.23522075550136</v>
+      </c>
       <c r="AX38" t="n">
         <v>0.0695075088370415</v>
       </c>
@@ -7439,7 +7447,7 @@
         <v>0.0974902561600005</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.082185627583329</v>
+        <v>-0.08218560020508</v>
       </c>
       <c r="L39" t="n">
         <v>0.174195999243746</v>
@@ -7552,7 +7560,9 @@
       <c r="AV39" t="n">
         <v>-0.198540672999184</v>
       </c>
-      <c r="AW39"/>
+      <c r="AW39" t="n">
+        <v>-1.11362276049185</v>
+      </c>
       <c r="AX39" t="n">
         <v>-2.60486624885014</v>
       </c>
@@ -7613,7 +7623,7 @@
         <v>0.510132478047316</v>
       </c>
       <c r="K40" t="n">
-        <v>0.234560288636338</v>
+        <v>0.234560318385601</v>
       </c>
       <c r="L40" t="n">
         <v>0.322317911795656</v>
@@ -7726,7 +7736,9 @@
       <c r="AV40" t="n">
         <v>0.575273570375476</v>
       </c>
-      <c r="AW40"/>
+      <c r="AW40" t="n">
+        <v>0.670652928799216</v>
+      </c>
       <c r="AX40" t="n">
         <v>-0.031797769104149</v>
       </c>
@@ -7787,7 +7799,7 @@
         <v>0.5242864584145</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0643041098959036</v>
+        <v>0.0643041383707074</v>
       </c>
       <c r="L41" t="n">
         <v>0.181215802047792</v>
@@ -7871,7 +7883,7 @@
         <v>-0.956316340971192</v>
       </c>
       <c r="AM41" t="n">
-        <v>0.424580335738454</v>
+        <v>0.424580335738455</v>
       </c>
       <c r="AN41" t="n">
         <v>-0.189720050017767</v>
@@ -7900,7 +7912,9 @@
       <c r="AV41" t="n">
         <v>0.474964316604687</v>
       </c>
-      <c r="AW41"/>
+      <c r="AW41" t="n">
+        <v>-0.799872466212987</v>
+      </c>
       <c r="AX41" t="n">
         <v>1.74099110739153</v>
       </c>
@@ -7961,7 +7975,7 @@
         <v>-0.352360583972149</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.242266186302036</v>
+        <v>-0.242266160122076</v>
       </c>
       <c r="L42" t="n">
         <v>-0.675879037802491</v>
@@ -8074,7 +8088,9 @@
       <c r="AV42" t="n">
         <v>-0.212870566395011</v>
       </c>
-      <c r="AW42"/>
+      <c r="AW42" t="n">
+        <v>0.197112327166363</v>
+      </c>
       <c r="AX42" t="n">
         <v>-1.29806694182827</v>
       </c>
@@ -8135,7 +8151,7 @@
         <v>0.336705101381462</v>
       </c>
       <c r="K43" t="n">
-        <v>0.266066919542678</v>
+        <v>0.266065549855144</v>
       </c>
       <c r="L43" t="n">
         <v>0.27809451192568</v>
@@ -8248,7 +8264,9 @@
       <c r="AV43" t="n">
         <v>1.03383015904194</v>
       </c>
-      <c r="AW43"/>
+      <c r="AW43" t="n">
+        <v>0.220828884844135</v>
+      </c>
       <c r="AX43" t="n">
         <v>-0.953848295476354</v>
       </c>
@@ -8309,7 +8327,7 @@
         <v>0.0758094154198358</v>
       </c>
       <c r="K44" t="n">
-        <v>0.237233663360066</v>
+        <v>0.237233693129341</v>
       </c>
       <c r="L44" t="n">
         <v>0.328210744323617</v>
@@ -8422,7 +8440,9 @@
       <c r="AV44" t="n">
         <v>0.761562184521228</v>
       </c>
-      <c r="AW44"/>
+      <c r="AW44" t="n">
+        <v>-0.23522075550136</v>
+      </c>
       <c r="AX44" t="n">
         <v>1.10004400668983</v>
       </c>
@@ -8483,7 +8503,7 @@
         <v>0.315053284524483</v>
       </c>
       <c r="K45" t="n">
-        <v>0.242594409533823</v>
+        <v>0.242594439343226</v>
       </c>
       <c r="L45" t="n">
         <v>0.273152136257067</v>
@@ -8596,7 +8616,9 @@
       <c r="AV45" t="n">
         <v>0.560943676979649</v>
       </c>
-      <c r="AW45"/>
+      <c r="AW45" t="n">
+        <v>-3.19979046522289</v>
+      </c>
       <c r="AX45" t="n">
         <v>0.40380422854794</v>
       </c>
@@ -8657,7 +8679,7 @@
         <v>-5.97257434804993</v>
       </c>
       <c r="K46" t="n">
-        <v>0.199722436870065</v>
+        <v>0.199722466358548</v>
       </c>
       <c r="L46" t="n">
         <v>0.290165314039407</v>
@@ -8770,7 +8792,9 @@
       <c r="AV46" t="n">
         <v>0.102387088313184</v>
       </c>
-      <c r="AW46"/>
+      <c r="AW46" t="n">
+        <v>-2.87042677047283</v>
+      </c>
       <c r="AX46" t="n">
         <v>-0.790109762161956</v>
       </c>
@@ -8831,7 +8855,7 @@
         <v>-1.11752689104023</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.340789142743495</v>
+        <v>-0.340789117301033</v>
       </c>
       <c r="L47" t="n">
         <v>-0.93782494823896</v>
@@ -8944,7 +8968,9 @@
       <c r="AV47" t="n">
         <v>-1.01534459656133</v>
       </c>
-      <c r="AW47"/>
+      <c r="AW47" t="n">
+        <v>-2.3213884602324</v>
+      </c>
       <c r="AX47" t="n">
         <v>-0.947917871668682</v>
       </c>
@@ -9005,7 +9031,7 @@
         <v>-0.17402817104781</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0653118741896649</v>
+        <v>0.0653119026720123</v>
       </c>
       <c r="L48" t="n">
         <v>0.0462645059754272</v>
@@ -9118,7 +9144,9 @@
       <c r="AV48" t="n">
         <v>-0.599777688082342</v>
       </c>
-      <c r="AW48"/>
+      <c r="AW48" t="n">
+        <v>-0.564584450251422</v>
+      </c>
       <c r="AX48" t="n">
         <v>-1.5292999828523</v>
       </c>
@@ -9179,7 +9207,7 @@
         <v>0.655764649248427</v>
       </c>
       <c r="K49" t="n">
-        <v>0.22669412845448</v>
+        <v>0.22669415814486</v>
       </c>
       <c r="L49" t="n">
         <v>0.254115843159828</v>
@@ -9292,7 +9320,9 @@
       <c r="AV49" t="n">
         <v>0.60393335716713</v>
       </c>
-      <c r="AW49"/>
+      <c r="AW49" t="n">
+        <v>-1.55277435349193</v>
+      </c>
       <c r="AX49" t="n">
         <v>-0.418010769386149</v>
       </c>
@@ -9353,7 +9383,7 @@
         <v>-0.336552242263346</v>
       </c>
       <c r="K50" t="n">
-        <v>0.258886598949629</v>
+        <v>0.258886628880988</v>
       </c>
       <c r="L50" t="n">
         <v>0.251997682158994</v>
@@ -9466,7 +9496,9 @@
       <c r="AV50" t="n">
         <v>-0.399159180540762</v>
       </c>
-      <c r="AW50"/>
+      <c r="AW50" t="n">
+        <v>-4.00832744405428</v>
+      </c>
       <c r="AX50" t="n">
         <v>-0.0504983276047765</v>
       </c>
@@ -9527,7 +9559,7 @@
         <v>0.156795724137334</v>
       </c>
       <c r="K51" t="n">
-        <v>0.143875498924132</v>
+        <v>0.143875527994571</v>
       </c>
       <c r="L51" t="n">
         <v>-0.137227979699383</v>
@@ -9641,7 +9673,7 @@
         <v>0.761562184521228</v>
       </c>
       <c r="AW51" t="n">
-        <v>0.0643916597587989</v>
+        <v>0.258874196118895</v>
       </c>
       <c r="AX51" t="n">
         <v>0.272111378785028</v>
@@ -9703,7 +9735,7 @@
         <v>-0.099523862908585</v>
       </c>
       <c r="K52" t="n">
-        <v>0.032629518273937</v>
+        <v>0.0326295465116393</v>
       </c>
       <c r="L52" t="n">
         <v>-0.0156373914784325</v>
@@ -9742,7 +9774,7 @@
         <v>0.375465059474759</v>
       </c>
       <c r="X52" t="n">
-        <v>0.696256592980103</v>
+        <v>0.696256592980104</v>
       </c>
       <c r="Y52" t="n">
         <v>0.145200588287576</v>
@@ -9817,7 +9849,7 @@
         <v>-0.370499393749109</v>
       </c>
       <c r="AW52" t="n">
-        <v>-3.16588870019324</v>
+        <v>-2.21160056198238</v>
       </c>
       <c r="AX52" t="n">
         <v>-1.74524897785114</v>
@@ -9879,7 +9911,7 @@
         <v>0.128623208191168</v>
       </c>
       <c r="K53" t="n">
-        <v>0.172624774748931</v>
+        <v>0.172624804034573</v>
       </c>
       <c r="L53" t="n">
         <v>0.0216340953631654</v>
@@ -9942,7 +9974,7 @@
         <v>0.441202379850438</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.5195318049108</v>
+        <v>0.519531804910801</v>
       </c>
       <c r="AG53" t="n">
         <v>-0.519930536696439</v>
@@ -9993,7 +10025,7 @@
         <v>1.04816005243777</v>
       </c>
       <c r="AW53" t="n">
-        <v>0.525804906374348</v>
+        <v>0.611756810566081</v>
       </c>
       <c r="AX53" t="n">
         <v>0.626666479710407</v>
@@ -10020,7 +10052,7 @@
         <v>0.537681547205927</v>
       </c>
       <c r="BF53" t="n">
-        <v>-0.706607451008017</v>
+        <v>-0.706607451008016</v>
       </c>
     </row>
     <row r="54">
@@ -10055,7 +10087,7 @@
         <v>0.635215739952529</v>
       </c>
       <c r="K54" t="n">
-        <v>0.249928694116196</v>
+        <v>0.2499287239805</v>
       </c>
       <c r="L54" t="n">
         <v>0.387804389404773</v>
@@ -10169,7 +10201,7 @@
         <v>0.532283890187995</v>
       </c>
       <c r="AW54" t="n">
-        <v>-0.0648195546392825</v>
+        <v>0.160055205794844</v>
       </c>
       <c r="AX54" t="n">
         <v>-0.175097400975422</v>
@@ -10231,7 +10263,7 @@
         <v>-0.191307056171386</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.590910641764505</v>
+        <v>-0.590910618194338</v>
       </c>
       <c r="L55" t="n">
         <v>-0.847151363857105</v>
@@ -10345,7 +10377,7 @@
         <v>-0.685757048457303</v>
       </c>
       <c r="AW55" t="n">
-        <v>0.351498978151336</v>
+        <v>0.478449992618936</v>
       </c>
       <c r="AX55" t="n">
         <v>-0.657226816076874</v>
@@ -10407,7 +10439,7 @@
         <v>-0.0772915683878816</v>
       </c>
       <c r="K56" t="n">
-        <v>0.207210685441763</v>
+        <v>0.2072107149863</v>
       </c>
       <c r="L56" t="n">
         <v>-0.0425081646877303</v>
@@ -10521,7 +10553,7 @@
         <v>-0.585447794686514</v>
       </c>
       <c r="AW56" t="n">
-        <v>-0.780391259975857</v>
+        <v>-0.38720436261975</v>
       </c>
       <c r="AX56" t="n">
         <v>-0.579128416418014</v>
@@ -10548,7 +10580,7 @@
         <v>-0.934229542873338</v>
       </c>
       <c r="BF56" t="n">
-        <v>-0.339222238232026</v>
+        <v>-0.339222238232025</v>
       </c>
     </row>
     <row r="57">
@@ -10583,7 +10615,7 @@
         <v>-0.119927652788553</v>
       </c>
       <c r="K57" t="n">
-        <v>0.228191778168819</v>
+        <v>0.228191807870411</v>
       </c>
       <c r="L57" t="n">
         <v>0.231209832849527</v>
@@ -10697,7 +10729,7 @@
         <v>0.331665382646417</v>
       </c>
       <c r="AW57" t="n">
-        <v>0.611084307877081</v>
+        <v>0.676977344179955</v>
       </c>
       <c r="AX57" t="n">
         <v>0.0695075088370415</v>
@@ -10759,7 +10791,7 @@
         <v>0.349533657749805</v>
       </c>
       <c r="K58" t="n">
-        <v>0.121452743387945</v>
+        <v>0.121452772290537</v>
       </c>
       <c r="L58" t="n">
         <v>0.144365231815334</v>
@@ -10873,7 +10905,7 @@
         <v>-0.943695129582191</v>
       </c>
       <c r="AW58" t="n">
-        <v>0.358088750085638</v>
+        <v>0.483489761125463</v>
       </c>
       <c r="AX58" t="n">
         <v>0.348090337240921</v>
@@ -10900,7 +10932,7 @@
         <v>1.14638780821502</v>
       </c>
       <c r="BF58" t="n">
-        <v>-0.851552758180486</v>
+        <v>-0.851552758180485</v>
       </c>
     </row>
     <row r="59">
@@ -10935,7 +10967,7 @@
         <v>-0.0100432310452313</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.394004696144608</v>
+        <v>-0.394004671100493</v>
       </c>
       <c r="L59" t="n">
         <v>-0.202375008430162</v>
@@ -11049,7 +11081,7 @@
         <v>0.231356128875628</v>
       </c>
       <c r="AW59" t="n">
-        <v>-0.581664412231608</v>
+        <v>-0.23522075550136</v>
       </c>
       <c r="AX59" t="n">
         <v>0.440951280042214</v>
@@ -11111,7 +11143,7 @@
         <v>0.29407869160852</v>
       </c>
       <c r="K60" t="n">
-        <v>0.0909118865964598</v>
+        <v>0.0909119152704372</v>
       </c>
       <c r="L60" t="n">
         <v>0.0616619070968742</v>
@@ -11225,7 +11257,7 @@
         <v>1.13413941281273</v>
       </c>
       <c r="AW60" t="n">
-        <v>0.423340413356669</v>
+        <v>0.533393351239109</v>
       </c>
       <c r="AX60" t="n">
         <v>-2.15913506059081</v>
@@ -11287,7 +11319,7 @@
         <v>0.468667023601826</v>
       </c>
       <c r="K61" t="n">
-        <v>0.143385613503554</v>
+        <v>0.143385642570325</v>
       </c>
       <c r="L61" t="n">
         <v>0.0950500987702765</v>
@@ -11401,7 +11433,7 @@
         <v>0.360325169438071</v>
       </c>
       <c r="AW61" t="n">
-        <v>0.0146453422155376</v>
+        <v>0.220828884844135</v>
       </c>
       <c r="AX61" t="n">
         <v>-0.169273952118058</v>
@@ -11463,7 +11495,7 @@
         <v>0.0610169096225528</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.304019742747514</v>
+        <v>-0.304019717029813</v>
       </c>
       <c r="L62" t="n">
         <v>0.0188777704710545</v>
@@ -11577,7 +11609,7 @@
         <v>-0.485138540915725</v>
       </c>
       <c r="AW62" t="n">
-        <v>-0.184081505528712</v>
+        <v>0.068845277725745</v>
       </c>
       <c r="AX62" t="n">
         <v>-1.60197608971745</v>
@@ -11639,7 +11671,7 @@
         <v>0.282488487589459</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0637302441175118</v>
+        <v>0.06373027258802</v>
       </c>
       <c r="L63" t="n">
         <v>0.20292695230634</v>
@@ -11753,7 +11785,7 @@
         <v>0.589603463771304</v>
       </c>
       <c r="AW63" t="n">
-        <v>0.387419695754002</v>
+        <v>0.505921671929023</v>
       </c>
       <c r="AX63" t="n">
         <v>-2.48687956459538</v>
@@ -11815,7 +11847,7 @@
         <v>-0.337422958758935</v>
       </c>
       <c r="K64" t="n">
-        <v>0.249270847979991</v>
+        <v>0.249270877839371</v>
       </c>
       <c r="L64" t="n">
         <v>0.30887573621344</v>
@@ -11929,7 +11961,7 @@
         <v>-0.0122520588534326</v>
       </c>
       <c r="AW64" t="n">
-        <v>-1.31997729130225</v>
+        <v>-0.799872466212987</v>
       </c>
       <c r="AX64" t="n">
         <v>0.373416656726219</v>
@@ -11991,7 +12023,7 @@
         <v>-0.424397862040539</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.601086261786233</v>
+        <v>-0.601086238292235</v>
       </c>
       <c r="L65" t="n">
         <v>-0.466181098719927</v>
@@ -12105,7 +12137,7 @@
         <v>-0.313179820165801</v>
       </c>
       <c r="AW65" t="n">
-        <v>-0.105650298389076</v>
+        <v>0.128828404852444</v>
       </c>
       <c r="AX65" t="n">
         <v>-1.61789529951008</v>
@@ -12167,7 +12199,7 @@
         <v>-0.278997881904919</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.361364330407787</v>
+        <v>-0.361364305119341</v>
       </c>
       <c r="L66" t="n">
         <v>0.173028295102261</v>
@@ -12281,7 +12313,7 @@
         <v>0.17403655529232</v>
       </c>
       <c r="AW66" t="n">
-        <v>-0.294557093839071</v>
+        <v>-0.0156449590013186</v>
       </c>
       <c r="AX66" t="n">
         <v>-2.66564807842798</v>
@@ -12308,7 +12340,7 @@
         <v>0.603347214931967</v>
       </c>
       <c r="BF66" t="n">
-        <v>0.391862356241191</v>
+        <v>0.39186235624119</v>
       </c>
     </row>
     <row r="67">
@@ -12343,7 +12375,7 @@
         <v>-0.0175700914182107</v>
       </c>
       <c r="K67" t="n">
-        <v>0.266066919542678</v>
+        <v>0.266065549855144</v>
       </c>
       <c r="L67" t="n">
         <v>0.320905804461766</v>
@@ -12457,7 +12489,7 @@
         <v>0.962180692062807</v>
       </c>
       <c r="AW67" t="n">
-        <v>0.548933713751604</v>
+        <v>0.629445409834086</v>
       </c>
       <c r="AX67" t="n">
         <v>-1.14611571085088</v>
@@ -12519,7 +12551,7 @@
         <v>0.0771154901632199</v>
       </c>
       <c r="K68" t="n">
-        <v>0.113558589753482</v>
+        <v>0.113558618596983</v>
       </c>
       <c r="L68" t="n">
         <v>0.118254824093515</v>
@@ -12632,7 +12664,9 @@
       <c r="AV68" t="n">
         <v>-0.270190139978319</v>
       </c>
-      <c r="AW68"/>
+      <c r="AW68" t="n">
+        <v>-0.948792684631332</v>
+      </c>
       <c r="AX68" t="n">
         <v>0.109623115202349</v>
       </c>
@@ -12693,7 +12727,7 @@
         <v>0.635660772828051</v>
       </c>
       <c r="K69" t="n">
-        <v>0.243098291680704</v>
+        <v>0.243098321493879</v>
       </c>
       <c r="L69" t="n">
         <v>0.349147951139553</v>
@@ -12806,7 +12840,9 @@
       <c r="AV69" t="n">
         <v>0.0164077279382219</v>
       </c>
-      <c r="AW69"/>
+      <c r="AW69" t="n">
+        <v>-0.605791969216551</v>
+      </c>
       <c r="AX69" t="n">
         <v>0.981228266570179</v>
       </c>
@@ -12867,7 +12903,7 @@
         <v>0.233679990697835</v>
       </c>
       <c r="K70" t="n">
-        <v>0.258242749539726</v>
+        <v>0.258242779466266</v>
       </c>
       <c r="L70" t="n">
         <v>0.267069212357236</v>
@@ -12980,7 +13016,9 @@
       <c r="AV70" t="n">
         <v>0.331665382646417</v>
       </c>
-      <c r="AW70"/>
+      <c r="AW70" t="n">
+        <v>-0.358744493406424</v>
+      </c>
       <c r="AX70" t="n">
         <v>0.547077116681636</v>
       </c>
@@ -13006,7 +13044,7 @@
         <v>0.243238493848471</v>
       </c>
       <c r="BF70" t="n">
-        <v>0.511744012078052</v>
+        <v>0.511744012078051</v>
       </c>
     </row>
     <row r="71">
@@ -13041,7 +13079,7 @@
         <v>0.229810139606329</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.162120931495415</v>
+        <v>-0.162120904715525</v>
       </c>
       <c r="L71" t="n">
         <v>0.126483064904447</v>
@@ -13154,7 +13192,9 @@
       <c r="AV71" t="n">
         <v>0.70424261093792</v>
       </c>
-      <c r="AW71"/>
+      <c r="AW71" t="n">
+        <v>-0.23522075550136</v>
+      </c>
       <c r="AX71" t="n">
         <v>0.228699606763371</v>
       </c>
@@ -13215,7 +13255,7 @@
         <v>0.112282761957284</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.122972088028053</v>
+        <v>-0.122972060955113</v>
       </c>
       <c r="L72" t="n">
         <v>0.0232906058894586</v>
@@ -13328,7 +13368,9 @@
       <c r="AV72" t="n">
         <v>-0.485138540915725</v>
       </c>
-      <c r="AW72"/>
+      <c r="AW72" t="n">
+        <v>-1.11362276049185</v>
+      </c>
       <c r="AX72" t="n">
         <v>-0.599085930584754</v>
       </c>
@@ -13389,7 +13431,7 @@
         <v>0.48266620992535</v>
       </c>
       <c r="K73" t="n">
-        <v>0.144211420355386</v>
+        <v>0.144211449428339</v>
       </c>
       <c r="L73" t="n">
         <v>0.34401548409907</v>
@@ -13502,7 +13544,9 @@
       <c r="AV73" t="n">
         <v>0.188366448688146</v>
       </c>
-      <c r="AW73"/>
+      <c r="AW73" t="n">
+        <v>0.670652928799216</v>
+      </c>
       <c r="AX73" t="n">
         <v>0.0695075088370415</v>
       </c>
@@ -13563,7 +13607,7 @@
         <v>0.566516208450563</v>
       </c>
       <c r="K74" t="n">
-        <v>0.0647799985901798</v>
+        <v>0.0647800270685459</v>
       </c>
       <c r="L74" t="n">
         <v>0.240578621891678</v>
@@ -13602,7 +13646,7 @@
         <v>-0.756890703086922</v>
       </c>
       <c r="X74" t="n">
-        <v>-0.246060022294722</v>
+        <v>-0.246060022294723</v>
       </c>
       <c r="Y74" t="n">
         <v>0.387672156462261</v>
@@ -13647,7 +13691,7 @@
         <v>-1.01251415681926</v>
       </c>
       <c r="AM74" t="n">
-        <v>0.424580335738454</v>
+        <v>0.424580335738455</v>
       </c>
       <c r="AN74" t="n">
         <v>-0.439473370455629</v>
@@ -13676,7 +13720,9 @@
       <c r="AV74" t="n">
         <v>0.489294210000514</v>
       </c>
-      <c r="AW74"/>
+      <c r="AW74" t="n">
+        <v>-0.799872466212987</v>
+      </c>
       <c r="AX74" t="n">
         <v>1.18383213651817</v>
       </c>
@@ -13737,7 +13783,7 @@
         <v>-0.0928870682866527</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.191262115656677</v>
+        <v>-0.191262089094924</v>
       </c>
       <c r="L75" t="n">
         <v>-0.61183182343753</v>
@@ -13850,7 +13896,9 @@
       <c r="AV75" t="n">
         <v>-0.198540672999184</v>
       </c>
-      <c r="AW75"/>
+      <c r="AW75" t="n">
+        <v>0.197112327166363</v>
+      </c>
       <c r="AX75" t="n">
         <v>-0.712887219908738</v>
       </c>
@@ -13911,7 +13959,7 @@
         <v>0.342326060091875</v>
       </c>
       <c r="K76" t="n">
-        <v>0.257178998340756</v>
+        <v>0.257179028259333</v>
       </c>
       <c r="L76" t="n">
         <v>0.323716441174411</v>
@@ -14024,7 +14072,9 @@
       <c r="AV76" t="n">
         <v>0.790221971312882</v>
       </c>
-      <c r="AW76"/>
+      <c r="AW76" t="n">
+        <v>0.220828884844135</v>
+      </c>
       <c r="AX76" t="n">
         <v>-0.00477990821711425</v>
       </c>
@@ -14085,7 +14135,7 @@
         <v>0.140484301786636</v>
       </c>
       <c r="K77" t="n">
-        <v>0.234154383573573</v>
+        <v>0.234154413319798</v>
       </c>
       <c r="L77" t="n">
         <v>0.375760743201313</v>
@@ -14198,7 +14248,9 @@
       <c r="AV77" t="n">
         <v>0.0450675147298754</v>
       </c>
-      <c r="AW77"/>
+      <c r="AW77" t="n">
+        <v>-0.23522075550136</v>
+      </c>
       <c r="AX77" t="n">
         <v>0.917023238582504</v>
       </c>
@@ -14259,7 +14311,7 @@
         <v>0.233573569792819</v>
       </c>
       <c r="K78" t="n">
-        <v>0.244288013416394</v>
+        <v>0.244288043238475</v>
       </c>
       <c r="L78" t="n">
         <v>0.250857133927776</v>
@@ -14372,7 +14424,9 @@
       <c r="AV78" t="n">
         <v>0.46063442320886</v>
       </c>
-      <c r="AW78"/>
+      <c r="AW78" t="n">
+        <v>-3.19979046522289</v>
+      </c>
       <c r="AX78" t="n">
         <v>-0.487651462036324</v>
       </c>
@@ -14433,7 +14487,7 @@
         <v>-0.101584558614813</v>
       </c>
       <c r="K79" t="n">
-        <v>0.257570906677219</v>
+        <v>0.257570936598729</v>
       </c>
       <c r="L79" t="n">
         <v>0.230028550752909</v>
@@ -14546,7 +14600,9 @@
       <c r="AV79" t="n">
         <v>0.646923037354612</v>
       </c>
-      <c r="AW79"/>
+      <c r="AW79" t="n">
+        <v>-2.87042677047283</v>
+      </c>
       <c r="AX79" t="n">
         <v>-0.12151632274016</v>
       </c>
@@ -14607,7 +14663,7 @@
         <v>-0.706190743896299</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.150419668306744</v>
+        <v>-0.150419641439263</v>
       </c>
       <c r="L80" t="n">
         <v>-0.960296463984987</v>
@@ -14720,7 +14776,9 @@
       <c r="AV80" t="n">
         <v>-0.929365236186363</v>
       </c>
-      <c r="AW80"/>
+      <c r="AW80" t="n">
+        <v>-2.3213884602324</v>
+      </c>
       <c r="AX80" t="n">
         <v>-0.00161746124864916</v>
       </c>
@@ -14781,7 +14839,7 @@
         <v>-0.305438639487635</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0462063427871087</v>
+        <v>0.046206371126441</v>
       </c>
       <c r="L81" t="n">
         <v>-0.0437844924702841</v>
@@ -14820,7 +14878,7 @@
         <v>1.2889556232411</v>
       </c>
       <c r="X81" t="n">
-        <v>-0.246060022294722</v>
+        <v>-0.246060022294723</v>
       </c>
       <c r="Y81" t="n">
         <v>-0.823110809255274</v>
@@ -14894,7 +14952,9 @@
       <c r="AV81" t="n">
         <v>-1.11565385033211</v>
       </c>
-      <c r="AW81"/>
+      <c r="AW81" t="n">
+        <v>-0.564584450251422</v>
+      </c>
       <c r="AX81" t="n">
         <v>-0.657226816076874</v>
       </c>
@@ -14955,7 +15015,7 @@
         <v>0.550049992056203</v>
       </c>
       <c r="K82" t="n">
-        <v>0.248557014938577</v>
+        <v>0.248557044792613</v>
       </c>
       <c r="L82" t="n">
         <v>0.344382088887676</v>
@@ -15068,7 +15128,9 @@
       <c r="AV82" t="n">
         <v>0.675582824146266</v>
       </c>
-      <c r="AW82"/>
+      <c r="AW82" t="n">
+        <v>-1.55277435349193</v>
+      </c>
       <c r="AX82" t="n">
         <v>-0.39778581784364</v>
       </c>
@@ -15129,7 +15191,7 @@
         <v>-0.185676422833244</v>
       </c>
       <c r="K83" t="n">
-        <v>0.251020438767771</v>
+        <v>0.251020468640247</v>
       </c>
       <c r="L83" t="n">
         <v>0.296628420682977</v>
@@ -15242,7 +15304,9 @@
       <c r="AV83" t="n">
         <v>-0.470808647519897</v>
       </c>
-      <c r="AW83"/>
+      <c r="AW83" t="n">
+        <v>-4.00832744405428</v>
+      </c>
       <c r="AX83" t="n">
         <v>0.474715248733015</v>
       </c>
@@ -15303,7 +15367,7 @@
         <v>0.0575533928956551</v>
       </c>
       <c r="K84" t="n">
-        <v>0.155100873418528</v>
+        <v>0.155100902572994</v>
       </c>
       <c r="L84" t="n">
         <v>0.0681793255609788</v>
@@ -15417,7 +15481,7 @@
         <v>1.04816005243777</v>
       </c>
       <c r="AW84" t="n">
-        <v>0.0643916597587989</v>
+        <v>0.258874196118895</v>
       </c>
       <c r="AX84" t="n">
         <v>-0.579128416418014</v>
@@ -15479,7 +15543,7 @@
         <v>0.0623810321323086</v>
       </c>
       <c r="K85" t="n">
-        <v>0.14974012724477</v>
+        <v>0.149740156359109</v>
       </c>
       <c r="L85" t="n">
         <v>0.0593943885895711</v>
@@ -15542,7 +15606,7 @@
         <v>-0.0857491358744569</v>
       </c>
       <c r="AF85" t="n">
-        <v>-0.991294457660341</v>
+        <v>-0.991294457660342</v>
       </c>
       <c r="AG85" t="n">
         <v>-0.904833753322954</v>
@@ -15593,7 +15657,7 @@
         <v>-0.642767368269822</v>
       </c>
       <c r="AW85" t="n">
-        <v>-3.16588870019324</v>
+        <v>-2.21160056198238</v>
       </c>
       <c r="AX85" t="n">
         <v>-0.323785895968436</v>
@@ -15655,7 +15719,7 @@
         <v>0.329323360424414</v>
       </c>
       <c r="K86" t="n">
-        <v>0.231173080871196</v>
+        <v>0.231173110595104</v>
       </c>
       <c r="L86" t="n">
         <v>0.243864487033997</v>
@@ -15769,7 +15833,7 @@
         <v>0.575273570375476</v>
       </c>
       <c r="AW86" t="n">
-        <v>-0.22930543056804</v>
+        <v>0.0342586311123272</v>
       </c>
       <c r="AX86" t="n">
         <v>1.18383213651817</v>
@@ -15831,7 +15895,7 @@
         <v>0.576287582456617</v>
       </c>
       <c r="K87" t="n">
-        <v>0.255009505763909</v>
+        <v>0.255009535666246</v>
       </c>
       <c r="L87" t="n">
         <v>0.354253262269768</v>
@@ -15945,7 +16009,7 @@
         <v>0.560943676979649</v>
       </c>
       <c r="AW87" t="n">
-        <v>-0.0648195546392825</v>
+        <v>0.160055205794844</v>
       </c>
       <c r="AX87" t="n">
         <v>0.348090337240921</v>
@@ -16007,7 +16071,7 @@
         <v>-0.0293150894809331</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.452077113572597</v>
+        <v>-0.452077088963186</v>
       </c>
       <c r="L88" t="n">
         <v>-0.468082012438624</v>
@@ -16121,7 +16185,7 @@
         <v>-0.771736408832266</v>
       </c>
       <c r="AW88" t="n">
-        <v>0.351498978151336</v>
+        <v>0.478449992618936</v>
       </c>
       <c r="AX88" t="n">
         <v>-0.51188128828097</v>
@@ -16183,7 +16247,7 @@
         <v>-0.121001536466446</v>
       </c>
       <c r="K89" t="n">
-        <v>0.143959479281945</v>
+        <v>0.143959508353013</v>
       </c>
       <c r="L89" t="n">
         <v>-0.00416401939058178</v>
@@ -16297,7 +16361,7 @@
         <v>-0.585447794686514</v>
       </c>
       <c r="AW89" t="n">
-        <v>-0.780391259975857</v>
+        <v>-0.38720436261975</v>
       </c>
       <c r="AX89" t="n">
         <v>-0.0717462271096011</v>
@@ -16359,7 +16423,7 @@
         <v>-0.11916335719798</v>
       </c>
       <c r="K90" t="n">
-        <v>0.254757564690469</v>
+        <v>0.25475759459092</v>
       </c>
       <c r="L90" t="n">
         <v>0.319955347602418</v>
@@ -16473,7 +16537,7 @@
         <v>0.116716981709011</v>
       </c>
       <c r="AW90" t="n">
-        <v>0.611084307877081</v>
+        <v>0.676977344179955</v>
       </c>
       <c r="AX90" t="n">
         <v>0.626666479710407</v>
@@ -16535,7 +16599,7 @@
         <v>0.405820641875764</v>
       </c>
       <c r="K91" t="n">
-        <v>0.212725395604845</v>
+        <v>0.212725425190663</v>
       </c>
       <c r="L91" t="n">
         <v>0.186932121159017</v>
@@ -16649,7 +16713,7 @@
         <v>-0.70008694185313</v>
       </c>
       <c r="AW91" t="n">
-        <v>0.358088750085638</v>
+        <v>0.483489761125463</v>
       </c>
       <c r="AX91" t="n">
         <v>0.626666479710407</v>
@@ -16711,7 +16775,7 @@
         <v>0.149249514508897</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.0243791479550822</v>
+        <v>-0.0243791201441205</v>
       </c>
       <c r="L92" t="n">
         <v>0.0336777415666253</v>
@@ -16825,7 +16889,7 @@
         <v>0.489294210000514</v>
       </c>
       <c r="AW92" t="n">
-        <v>-0.581664412231608</v>
+        <v>-0.23522075550136</v>
       </c>
       <c r="AX92" t="n">
         <v>0.0695075088370415</v>
@@ -16887,7 +16951,7 @@
         <v>0.346805412730293</v>
       </c>
       <c r="K93" t="n">
-        <v>0.166074306839483</v>
+        <v>0.166074336076092</v>
       </c>
       <c r="L93" t="n">
         <v>0.143197527673849</v>
@@ -17001,7 +17065,7 @@
         <v>0.517953996792168</v>
       </c>
       <c r="AW93" t="n">
-        <v>0.423340413356669</v>
+        <v>0.533393351239109</v>
       </c>
       <c r="AX93" t="n">
         <v>1.24938103731908</v>
@@ -17028,7 +17092,7 @@
         <v>0.883591299559335</v>
       </c>
       <c r="BF93" t="n">
-        <v>0.0897163535593561</v>
+        <v>0.089716353559356</v>
       </c>
     </row>
     <row r="94">
@@ -17063,7 +17127,7 @@
         <v>0.336453561060514</v>
       </c>
       <c r="K94" t="n">
-        <v>0.139690477759762</v>
+        <v>0.139690506798874</v>
       </c>
       <c r="L94" t="n">
         <v>0.227842499976407</v>
@@ -17177,7 +17241,7 @@
         <v>-0.0409118456450861</v>
       </c>
       <c r="AW94" t="n">
-        <v>0.0146453422155376</v>
+        <v>0.220828884844135</v>
       </c>
       <c r="AX94" t="n">
         <v>0.856087632513602</v>
@@ -17239,7 +17303,7 @@
         <v>-0.0287539610726639</v>
       </c>
       <c r="K95" t="n">
-        <v>-0.308330734448603</v>
+        <v>-0.308330708763173</v>
       </c>
       <c r="L95" t="n">
         <v>0.0288711454493481</v>
@@ -17353,7 +17417,7 @@
         <v>-0.614107581478168</v>
       </c>
       <c r="AW95" t="n">
-        <v>-0.184081505528712</v>
+        <v>0.068845277725745</v>
       </c>
       <c r="AX95" t="n">
         <v>-1.30700603611334</v>
@@ -17415,7 +17479,7 @@
         <v>0.377831943856445</v>
       </c>
       <c r="K96" t="n">
-        <v>0.174892244409893</v>
+        <v>0.174892273712509</v>
       </c>
       <c r="L96" t="n">
         <v>0.279859646093041</v>
@@ -17454,7 +17518,7 @@
         <v>-1.14779533119537</v>
       </c>
       <c r="X96" t="n">
-        <v>0.574460567876554</v>
+        <v>0.574460567876555</v>
       </c>
       <c r="Y96" t="n">
         <v>0.389093096452541</v>
@@ -17529,7 +17593,7 @@
         <v>0.431974636417206</v>
       </c>
       <c r="AW96" t="n">
-        <v>0.387419695754002</v>
+        <v>0.505921671929023</v>
       </c>
       <c r="AX96" t="n">
         <v>-0.301936262368131</v>
@@ -17591,7 +17655,7 @@
         <v>-0.171474069327416</v>
       </c>
       <c r="K97" t="n">
-        <v>0.254155705459472</v>
+        <v>0.254155735355418</v>
       </c>
       <c r="L97" t="n">
         <v>0.298407132805472</v>
@@ -17705,7 +17769,7 @@
         <v>-0.198540672999184</v>
       </c>
       <c r="AW97" t="n">
-        <v>-1.31997729130225</v>
+        <v>-0.799872466212987</v>
       </c>
       <c r="AX97" t="n">
         <v>0.373416656726219</v>
@@ -17767,7 +17831,7 @@
         <v>-0.20898260103184</v>
       </c>
       <c r="K98" t="n">
-        <v>-0.146094679879352</v>
+        <v>-0.146094652979497</v>
       </c>
       <c r="L98" t="n">
         <v>-0.245159145055981</v>
@@ -17881,7 +17945,7 @@
         <v>-0.456478754124071</v>
       </c>
       <c r="AW98" t="n">
-        <v>-0.105650298389076</v>
+        <v>0.128828404852444</v>
       </c>
       <c r="AX98" t="n">
         <v>-0.0959827392886415</v>
@@ -17943,7 +18007,7 @@
         <v>-0.104148334962936</v>
       </c>
       <c r="K99" t="n">
-        <v>-0.210451627417046</v>
+        <v>-0.210451600998938</v>
       </c>
       <c r="L99" t="n">
         <v>0.278284603297549</v>
@@ -18057,7 +18121,7 @@
         <v>0.0737273015215299</v>
       </c>
       <c r="AW99" t="n">
-        <v>-0.294557093839071</v>
+        <v>-0.0156449590013186</v>
       </c>
       <c r="AX99" t="n">
         <v>-1.45002485874006</v>
@@ -18119,7 +18183,7 @@
         <v>-0.0347619048922276</v>
       </c>
       <c r="K100" t="n">
-        <v>0.232978658564185</v>
+        <v>0.232978688301609</v>
       </c>
       <c r="L100" t="n">
         <v>0.329731475298575</v>
@@ -18233,7 +18297,7 @@
         <v>1.10547962602108</v>
       </c>
       <c r="AW100" t="n">
-        <v>0.548933713751604</v>
+        <v>0.629445409834086</v>
       </c>
       <c r="AX100" t="n">
         <v>0.905249308114286</v>
@@ -18295,7 +18359,7 @@
         <v>0.0771154901632199</v>
       </c>
       <c r="K101" t="n">
-        <v>0.113558589753482</v>
+        <v>0.113558618596983</v>
       </c>
       <c r="L101" t="n">
         <v>0.118254824093515</v>
@@ -18409,7 +18473,7 @@
         <v>0.0164077279382219</v>
       </c>
       <c r="AW101" t="n">
-        <v>0.700886101883748</v>
+        <v>0.74565654245517</v>
       </c>
       <c r="AX101" t="n">
         <v>0.109623115202349</v>
@@ -18471,7 +18535,7 @@
         <v>0.635660772828051</v>
       </c>
       <c r="K102" t="n">
-        <v>0.243098291680704</v>
+        <v>0.243098321493879</v>
       </c>
       <c r="L102" t="n">
         <v>0.349147951139553</v>
@@ -18585,7 +18649,7 @@
         <v>0.345995276042244</v>
       </c>
       <c r="AW102" t="n">
-        <v>0.618190924668976</v>
+        <v>0.682412388647778</v>
       </c>
       <c r="AX102" t="n">
         <v>0.981228266570179</v>
@@ -18647,7 +18711,7 @@
         <v>0.233679990697835</v>
       </c>
       <c r="K103" t="n">
-        <v>0.258242749539726</v>
+        <v>0.258242779466266</v>
       </c>
       <c r="L103" t="n">
         <v>0.267069212357236</v>
@@ -18761,7 +18825,7 @@
         <v>0.403314849625552</v>
       </c>
       <c r="AW103" t="n">
-        <v>0.602814790155604</v>
+        <v>0.670652928799216</v>
       </c>
       <c r="AX103" t="n">
         <v>0.547077116681636</v>
@@ -18788,7 +18852,7 @@
         <v>-0.0387454815487357</v>
       </c>
       <c r="BF103" t="n">
-        <v>0.58112978213582</v>
+        <v>0.581129782135819</v>
       </c>
     </row>
     <row r="104">
@@ -18823,7 +18887,7 @@
         <v>0.229810139606329</v>
       </c>
       <c r="K104" t="n">
-        <v>-0.162120931495415</v>
+        <v>-0.162120904715525</v>
       </c>
       <c r="L104" t="n">
         <v>0.126483064904447</v>
@@ -18937,7 +19001,7 @@
         <v>1.0624899458336</v>
       </c>
       <c r="AW104" t="n">
-        <v>0.213501401174185</v>
+        <v>0.37291131095285</v>
       </c>
       <c r="AX104" t="n">
         <v>0.228699606763371</v>
@@ -18999,7 +19063,7 @@
         <v>0.112282761957284</v>
       </c>
       <c r="K105" t="n">
-        <v>-0.122972088028053</v>
+        <v>-0.122972060955113</v>
       </c>
       <c r="L105" t="n">
         <v>0.0232906058894586</v>
@@ -19113,7 +19177,7 @@
         <v>-0.80039619562392</v>
       </c>
       <c r="AW105" t="n">
-        <v>0.279786754160401</v>
+        <v>0.423605452989088</v>
       </c>
       <c r="AX105" t="n">
         <v>-0.599085930584754</v>
@@ -19140,7 +19204,7 @@
         <v>1.37672257859147</v>
       </c>
       <c r="BF105" t="n">
-        <v>-0.759683418542246</v>
+        <v>-0.759683418542245</v>
       </c>
     </row>
     <row r="106">
@@ -19175,7 +19239,7 @@
         <v>0.48266620992535</v>
       </c>
       <c r="K106" t="n">
-        <v>0.144211420355386</v>
+        <v>0.144211449428339</v>
       </c>
       <c r="L106" t="n">
         <v>0.34401548409907</v>
@@ -19259,7 +19323,7 @@
         <v>0.486606312045451</v>
       </c>
       <c r="AM106" t="n">
-        <v>0.735932552866716</v>
+        <v>0.735932552866717</v>
       </c>
       <c r="AN106" t="n">
         <v>-1.01784948094331</v>
@@ -19289,7 +19353,7 @@
         <v>0.560943676979649</v>
       </c>
       <c r="AW106" t="n">
-        <v>0.433548099294118</v>
+        <v>0.541200051474709</v>
       </c>
       <c r="AX106" t="n">
         <v>0.0695075088370415</v>
@@ -19351,7 +19415,7 @@
         <v>0.566516208450563</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0647799985901798</v>
+        <v>0.0647800270685459</v>
       </c>
       <c r="L107" t="n">
         <v>0.240578621891678</v>
@@ -19465,7 +19529,7 @@
         <v>0.374655062833898</v>
       </c>
       <c r="AW107" t="n">
-        <v>0.433548099294118</v>
+        <v>0.541200051474709</v>
       </c>
       <c r="AX107" t="n">
         <v>1.18383213651817</v>
@@ -19527,7 +19591,7 @@
         <v>-0.0928870682866527</v>
       </c>
       <c r="K108" t="n">
-        <v>-0.191262115656677</v>
+        <v>-0.191262089094924</v>
       </c>
       <c r="L108" t="n">
         <v>-0.61183182343753</v>
@@ -19566,7 +19630,7 @@
         <v>0.662887324086599</v>
       </c>
       <c r="X108" t="n">
-        <v>-2.83582813502281</v>
+        <v>-2.83582813502282</v>
       </c>
       <c r="Y108" t="n">
         <v>-1.75673942986871</v>
@@ -19590,7 +19654,7 @@
         <v>1.25485796944927</v>
       </c>
       <c r="AF108" t="n">
-        <v>0.534845580603878</v>
+        <v>0.534845580603879</v>
       </c>
       <c r="AG108" t="n">
         <v>0.779117819418051</v>
@@ -19611,7 +19675,7 @@
         <v>-0.650491538721379</v>
       </c>
       <c r="AM108" t="n">
-        <v>1.17876488514591</v>
+        <v>1.17876488514592</v>
       </c>
       <c r="AN108" t="n">
         <v>-0.768096160505447</v>
@@ -19641,7 +19705,7 @@
         <v>0.0307376213340492</v>
       </c>
       <c r="AW108" t="n">
-        <v>0.279786754160401</v>
+        <v>0.423605452989088</v>
       </c>
       <c r="AX108" t="n">
         <v>-0.712887219908738</v>
@@ -19703,7 +19767,7 @@
         <v>0.342326060091875</v>
       </c>
       <c r="K109" t="n">
-        <v>0.257178998340756</v>
+        <v>0.257179028259333</v>
       </c>
       <c r="L109" t="n">
         <v>0.323716441174411</v>
@@ -19817,7 +19881,7 @@
         <v>0.84754154489619</v>
       </c>
       <c r="AW109" t="n">
-        <v>0.452025302953043</v>
+        <v>0.555331167091048</v>
       </c>
       <c r="AX109" t="n">
         <v>-0.00477990821711425</v>
@@ -19879,7 +19943,7 @@
         <v>0.140484301786636</v>
       </c>
       <c r="K110" t="n">
-        <v>0.234154383573573</v>
+        <v>0.234154413319798</v>
       </c>
       <c r="L110" t="n">
         <v>0.375760743201313</v>
@@ -19993,7 +20057,7 @@
         <v>0.84754154489619</v>
       </c>
       <c r="AW110" t="n">
-        <v>0.710447731749206</v>
+        <v>0.75296914773915</v>
       </c>
       <c r="AX110" t="n">
         <v>0.917023238582504</v>
@@ -20055,7 +20119,7 @@
         <v>0.233573569792819</v>
       </c>
       <c r="K111" t="n">
-        <v>0.244288013416394</v>
+        <v>0.244288043238475</v>
       </c>
       <c r="L111" t="n">
         <v>0.250857133927776</v>
@@ -20169,7 +20233,7 @@
         <v>-0.427818967332417</v>
       </c>
       <c r="AW111" t="n">
-        <v>0.0643916597587989</v>
+        <v>0.258874196118895</v>
       </c>
       <c r="AX111" t="n">
         <v>-0.487651462036324</v>
@@ -20231,7 +20295,7 @@
         <v>-0.101584558614813</v>
       </c>
       <c r="K112" t="n">
-        <v>0.257570906677219</v>
+        <v>0.257570936598729</v>
       </c>
       <c r="L112" t="n">
         <v>0.230028550752909</v>
@@ -20345,7 +20409,7 @@
         <v>0.861871438292017</v>
       </c>
       <c r="AW112" t="n">
-        <v>0.558495343617062</v>
+        <v>0.636758015118066</v>
       </c>
       <c r="AX112" t="n">
         <v>-0.12151632274016</v>
@@ -20407,7 +20471,7 @@
         <v>-0.706190743896299</v>
       </c>
       <c r="K113" t="n">
-        <v>-0.150419668306744</v>
+        <v>-0.150419641439263</v>
       </c>
       <c r="L113" t="n">
         <v>-0.960296463984987</v>
@@ -20521,7 +20585,7 @@
         <v>0.31733548925059</v>
       </c>
       <c r="AW113" t="n">
-        <v>0.166339307918885</v>
+        <v>0.336842379484571</v>
       </c>
       <c r="AX113" t="n">
         <v>-0.00161746124864916</v>
@@ -20583,7 +20647,7 @@
         <v>-0.305438639487635</v>
       </c>
       <c r="K114" t="n">
-        <v>0.0462063427871087</v>
+        <v>0.046206371126441</v>
       </c>
       <c r="L114" t="n">
         <v>-0.0437844924702841</v>
@@ -20697,7 +20761,7 @@
         <v>-0.728746728644785</v>
       </c>
       <c r="AW114" t="n">
-        <v>0.548933713751604</v>
+        <v>0.629445409834086</v>
       </c>
       <c r="AX114" t="n">
         <v>-0.657226816076874</v>
@@ -20759,7 +20823,7 @@
         <v>0.550049992056203</v>
       </c>
       <c r="K115" t="n">
-        <v>0.248557014938577</v>
+        <v>0.248557044792613</v>
       </c>
       <c r="L115" t="n">
         <v>0.344382088887676</v>
@@ -20873,7 +20937,7 @@
         <v>0.646923037354612</v>
       </c>
       <c r="AW115" t="n">
-        <v>0.0213643253642378</v>
+        <v>0.225967472340986</v>
       </c>
       <c r="AX115" t="n">
         <v>-0.39778581784364</v>
@@ -20935,7 +20999,7 @@
         <v>-0.185676422833244</v>
       </c>
       <c r="K116" t="n">
-        <v>0.251020438767771</v>
+        <v>0.251020468640247</v>
       </c>
       <c r="L116" t="n">
         <v>0.296628420682977</v>
@@ -21049,7 +21113,7 @@
         <v>-0.513798327707379</v>
       </c>
       <c r="AW116" t="n">
-        <v>0.675560703861724</v>
+        <v>0.726288020351656</v>
       </c>
       <c r="AX116" t="n">
         <v>0.474715248733015</v>
@@ -21111,7 +21175,7 @@
         <v>0.0575533928956551</v>
       </c>
       <c r="K117" t="n">
-        <v>0.155100873418528</v>
+        <v>0.155100902572994</v>
       </c>
       <c r="L117" t="n">
         <v>0.0681793255609788</v>
@@ -21225,7 +21289,7 @@
         <v>0.962180692062807</v>
       </c>
       <c r="AW117" t="n">
-        <v>0.0643916597587989</v>
+        <v>0.258874196118895</v>
       </c>
       <c r="AX117" t="n">
         <v>-0.579128416418014</v>
@@ -21287,7 +21351,7 @@
         <v>0.0623810321323086</v>
       </c>
       <c r="K118" t="n">
-        <v>0.14974012724477</v>
+        <v>0.149740156359109</v>
       </c>
       <c r="L118" t="n">
         <v>0.0593943885895711</v>
@@ -21401,7 +21465,7 @@
         <v>-0.599777688082342</v>
       </c>
       <c r="AW118" t="n">
-        <v>-0.0278651473214312</v>
+        <v>0.188317437027523</v>
       </c>
       <c r="AX118" t="n">
         <v>-0.323785895968436</v>
@@ -21463,7 +21527,7 @@
         <v>0.329323360424414</v>
       </c>
       <c r="K119" t="n">
-        <v>0.231173080871196</v>
+        <v>0.231173110595104</v>
       </c>
       <c r="L119" t="n">
         <v>0.243864487033997</v>
@@ -21577,7 +21641,7 @@
         <v>1.24877855997935</v>
       </c>
       <c r="AW119" t="n">
-        <v>-0.22930543056804</v>
+        <v>0.0342586311123272</v>
       </c>
       <c r="AX119" t="n">
         <v>1.18383213651817</v>
@@ -21639,7 +21703,7 @@
         <v>0.576287582456617</v>
       </c>
       <c r="K120" t="n">
-        <v>0.255009505763909</v>
+        <v>0.255009535666246</v>
       </c>
       <c r="L120" t="n">
         <v>0.354253262269768</v>
@@ -21753,7 +21817,7 @@
         <v>0.661252930750439</v>
       </c>
       <c r="AW120" t="n">
-        <v>0.710447731749206</v>
+        <v>0.75296914773915</v>
       </c>
       <c r="AX120" t="n">
         <v>0.348090337240921</v>
@@ -21815,7 +21879,7 @@
         <v>-0.0293150894809331</v>
       </c>
       <c r="K121" t="n">
-        <v>-0.452077113572597</v>
+        <v>-0.452077088963186</v>
       </c>
       <c r="L121" t="n">
         <v>-0.468082012438624</v>
@@ -21929,7 +21993,7 @@
         <v>-0.413489073936589</v>
       </c>
       <c r="AW121" t="n">
-        <v>0.59299473786135</v>
+        <v>0.663142685534588</v>
       </c>
       <c r="AX121" t="n">
         <v>-0.51188128828097</v>
@@ -21991,7 +22055,7 @@
         <v>-0.121001536466446</v>
       </c>
       <c r="K122" t="n">
-        <v>0.143959479281945</v>
+        <v>0.143959508353013</v>
       </c>
       <c r="L122" t="n">
         <v>-0.00416401939058178</v>
@@ -22105,7 +22169,7 @@
         <v>-0.829055982415574</v>
       </c>
       <c r="AW122" t="n">
-        <v>0.351498978151336</v>
+        <v>0.478449992618936</v>
       </c>
       <c r="AX122" t="n">
         <v>-0.0717462271096011</v>
@@ -22167,7 +22231,7 @@
         <v>-0.11916335719798</v>
       </c>
       <c r="K123" t="n">
-        <v>0.254757564690469</v>
+        <v>0.25475759459092</v>
       </c>
       <c r="L123" t="n">
         <v>0.319955347602418</v>
@@ -22281,7 +22345,7 @@
         <v>0.345995276042244</v>
       </c>
       <c r="AW123" t="n">
-        <v>0.611084307877081</v>
+        <v>0.676977344179955</v>
       </c>
       <c r="AX123" t="n">
         <v>0.626666479710407</v>
@@ -22343,7 +22407,7 @@
         <v>0.405820641875764</v>
       </c>
       <c r="K124" t="n">
-        <v>0.212725395604845</v>
+        <v>0.212725425190663</v>
       </c>
       <c r="L124" t="n">
         <v>0.186932121159017</v>
@@ -22382,7 +22446,7 @@
         <v>-0.610721864647958</v>
       </c>
       <c r="X124" t="n">
-        <v>-0.085802094526895</v>
+        <v>-0.0858020945268951</v>
       </c>
       <c r="Y124" t="n">
         <v>0.90828088656766</v>
@@ -22457,7 +22521,7 @@
         <v>-0.900705449394709</v>
       </c>
       <c r="AW124" t="n">
-        <v>0.358088750085638</v>
+        <v>0.483489761125463</v>
       </c>
       <c r="AX124" t="n">
         <v>0.626666479710407</v>
@@ -22519,7 +22583,7 @@
         <v>0.149249514508897</v>
       </c>
       <c r="K125" t="n">
-        <v>-0.0243791479550822</v>
+        <v>-0.0243791201441205</v>
       </c>
       <c r="L125" t="n">
         <v>0.0336777415666253</v>
@@ -22633,7 +22697,7 @@
         <v>-0.0695716324367406</v>
       </c>
       <c r="AW125" t="n">
-        <v>0.387419695754002</v>
+        <v>0.505921671929023</v>
       </c>
       <c r="AX125" t="n">
         <v>0.0695075088370415</v>
@@ -22695,7 +22759,7 @@
         <v>0.346805412730293</v>
       </c>
       <c r="K126" t="n">
-        <v>0.166074306839483</v>
+        <v>0.166074336076092</v>
       </c>
       <c r="L126" t="n">
         <v>0.143197527673849</v>
@@ -22809,7 +22873,7 @@
         <v>0.517953996792168</v>
       </c>
       <c r="AW126" t="n">
-        <v>0.574388322988026</v>
+        <v>0.648912750927924</v>
       </c>
       <c r="AX126" t="n">
         <v>1.24938103731908</v>
@@ -22871,7 +22935,7 @@
         <v>0.336453561060514</v>
       </c>
       <c r="K127" t="n">
-        <v>0.139690477759762</v>
+        <v>0.139690506798874</v>
       </c>
       <c r="L127" t="n">
         <v>0.227842499976407</v>
@@ -22985,7 +23049,7 @@
         <v>0.532283890187995</v>
       </c>
       <c r="AW127" t="n">
-        <v>0.249034485133657</v>
+        <v>0.400086533291964</v>
       </c>
       <c r="AX127" t="n">
         <v>0.856087632513602</v>
@@ -23047,7 +23111,7 @@
         <v>-0.0287539610726639</v>
       </c>
       <c r="K128" t="n">
-        <v>-0.308330734448603</v>
+        <v>-0.308330708763173</v>
       </c>
       <c r="L128" t="n">
         <v>0.0288711454493481</v>
@@ -23161,7 +23225,7 @@
         <v>-0.786066302228093</v>
       </c>
       <c r="AW128" t="n">
-        <v>-0.184081505528712</v>
+        <v>0.068845277725745</v>
       </c>
       <c r="AX128" t="n">
         <v>-1.30700603611334</v>
@@ -23223,7 +23287,7 @@
         <v>0.377831943856445</v>
       </c>
       <c r="K129" t="n">
-        <v>0.174892244409893</v>
+        <v>0.174892273712509</v>
       </c>
       <c r="L129" t="n">
         <v>0.279859646093041</v>
@@ -23337,7 +23401,7 @@
         <v>0.747232291125401</v>
       </c>
       <c r="AW129" t="n">
-        <v>0.387419695754002</v>
+        <v>0.505921671929023</v>
       </c>
       <c r="AX129" t="n">
         <v>-0.301936262368131</v>
@@ -23399,7 +23463,7 @@
         <v>-0.171474069327416</v>
       </c>
       <c r="K130" t="n">
-        <v>0.254155705459472</v>
+        <v>0.254155735355418</v>
       </c>
       <c r="L130" t="n">
         <v>0.298407132805472</v>
@@ -23513,7 +23577,7 @@
         <v>0.202696342083973</v>
       </c>
       <c r="AW130" t="n">
-        <v>0.279786754160401</v>
+        <v>0.423605452989088</v>
       </c>
       <c r="AX130" t="n">
         <v>0.373416656726219</v>
@@ -23575,7 +23639,7 @@
         <v>-0.20898260103184</v>
       </c>
       <c r="K131" t="n">
-        <v>-0.146094679879352</v>
+        <v>-0.146094652979497</v>
       </c>
       <c r="L131" t="n">
         <v>-0.245159145055981</v>
@@ -23689,7 +23753,7 @@
         <v>-0.327509713561627</v>
       </c>
       <c r="AW131" t="n">
-        <v>0.710447731749206</v>
+        <v>0.75296914773915</v>
       </c>
       <c r="AX131" t="n">
         <v>-0.0959827392886415</v>
@@ -23751,7 +23815,7 @@
         <v>-0.104148334962936</v>
       </c>
       <c r="K132" t="n">
-        <v>-0.210451627417046</v>
+        <v>-0.210451600998938</v>
       </c>
       <c r="L132" t="n">
         <v>0.278284603297549</v>
@@ -23865,7 +23929,7 @@
         <v>0.245686022271455</v>
       </c>
       <c r="AW132" t="n">
-        <v>0.602814790155604</v>
+        <v>0.670652928799216</v>
       </c>
       <c r="AX132" t="n">
         <v>-1.45002485874006</v>
@@ -23927,7 +23991,7 @@
         <v>-0.0347619048922276</v>
       </c>
       <c r="K133" t="n">
-        <v>0.232978658564185</v>
+        <v>0.232978688301609</v>
       </c>
       <c r="L133" t="n">
         <v>0.329731475298575</v>
@@ -24041,7 +24105,7 @@
         <v>1.23444866658352</v>
       </c>
       <c r="AW133" t="n">
-        <v>0.525804906374348</v>
+        <v>0.611756810566081</v>
       </c>
       <c r="AX133" t="n">
         <v>0.905249308114286</v>
@@ -24103,7 +24167,7 @@
         <v>0.0771154901632199</v>
       </c>
       <c r="K134" t="n">
-        <v>0.113558589753482</v>
+        <v>0.113558618596983</v>
       </c>
       <c r="L134" t="n">
         <v>0.118254824093515</v>
@@ -24217,7 +24281,7 @@
         <v>-0.155550992811703</v>
       </c>
       <c r="AW134" t="n">
-        <v>0.700886101883748</v>
+        <v>0.74565654245517</v>
       </c>
       <c r="AX134" t="n">
         <v>0.557580719614952</v>
@@ -24279,7 +24343,7 @@
         <v>0.635660772828051</v>
       </c>
       <c r="K135" t="n">
-        <v>0.243098291680704</v>
+        <v>0.243098321493879</v>
       </c>
       <c r="L135" t="n">
         <v>0.349147951139553</v>
@@ -24393,7 +24457,7 @@
         <v>0.303005595854763</v>
       </c>
       <c r="AW135" t="n">
-        <v>0.618190924668976</v>
+        <v>0.682412388647778</v>
       </c>
       <c r="AX135" t="n">
         <v>-0.487651462036324</v>
@@ -24455,7 +24519,7 @@
         <v>0.233679990697835</v>
       </c>
       <c r="K136" t="n">
-        <v>0.258242749539726</v>
+        <v>0.258242779466266</v>
       </c>
       <c r="L136" t="n">
         <v>0.267069212357236</v>
@@ -24569,7 +24633,7 @@
         <v>-0.184210779603357</v>
       </c>
       <c r="AW136" t="n">
-        <v>0.602814790155604</v>
+        <v>0.670652928799216</v>
       </c>
       <c r="AX136" t="n">
         <v>0.626666479710407</v>
@@ -24596,7 +24660,7 @@
         <v>-0.377318491704849</v>
       </c>
       <c r="BF136" t="n">
-        <v>0.58112978213582</v>
+        <v>0.581129782135819</v>
       </c>
     </row>
     <row r="137">
@@ -24631,7 +24695,7 @@
         <v>0.229810139606329</v>
       </c>
       <c r="K137" t="n">
-        <v>-0.162120931495415</v>
+        <v>-0.162120904715525</v>
       </c>
       <c r="L137" t="n">
         <v>0.126483064904447</v>
@@ -24745,7 +24809,7 @@
         <v>0.560943676979649</v>
       </c>
       <c r="AW137" t="n">
-        <v>0.213501401174185</v>
+        <v>0.37291131095285</v>
       </c>
       <c r="AX137" t="n">
         <v>1.37762394493457</v>
@@ -24807,7 +24871,7 @@
         <v>0.112282761957284</v>
       </c>
       <c r="K138" t="n">
-        <v>-0.122972088028053</v>
+        <v>-0.122972060955113</v>
       </c>
       <c r="L138" t="n">
         <v>0.0232906058894586</v>
@@ -24921,7 +24985,7 @@
         <v>-0.65709726166565</v>
       </c>
       <c r="AW138" t="n">
-        <v>0.279786754160401</v>
+        <v>0.423605452989088</v>
       </c>
       <c r="AX138" t="n">
         <v>-0.599085930584754</v>
@@ -24948,7 +25012,7 @@
         <v>1.01849975309766</v>
       </c>
       <c r="BF138" t="n">
-        <v>-0.759683418542246</v>
+        <v>-0.759683418542245</v>
       </c>
     </row>
     <row r="139">
@@ -24983,7 +25047,7 @@
         <v>0.48266620992535</v>
       </c>
       <c r="K139" t="n">
-        <v>0.144211420355386</v>
+        <v>0.144211449428339</v>
       </c>
       <c r="L139" t="n">
         <v>0.34401548409907</v>
@@ -25067,7 +25131,7 @@
         <v>0.486606312045451</v>
       </c>
       <c r="AM139" t="n">
-        <v>0.735932552866716</v>
+        <v>0.735932552866717</v>
       </c>
       <c r="AN139" t="n">
         <v>0.480670441683862</v>
@@ -25097,7 +25161,7 @@
         <v>0.646923037354612</v>
       </c>
       <c r="AW139" t="n">
-        <v>0.433548099294118</v>
+        <v>0.541200051474709</v>
       </c>
       <c r="AX139" t="n">
         <v>0.738100948258837</v>
@@ -25159,7 +25223,7 @@
         <v>0.566516208450563</v>
       </c>
       <c r="K140" t="n">
-        <v>0.0647799985901798</v>
+        <v>0.0647800270685459</v>
       </c>
       <c r="L140" t="n">
         <v>0.240578621891678</v>
@@ -25273,7 +25337,7 @@
         <v>0.403314849625552</v>
       </c>
       <c r="AW140" t="n">
-        <v>0.433548099294118</v>
+        <v>0.541200051474709</v>
       </c>
       <c r="AX140" t="n">
         <v>0.981228266570179</v>
@@ -25335,7 +25399,7 @@
         <v>-0.0928870682866527</v>
       </c>
       <c r="K141" t="n">
-        <v>-0.191262115656677</v>
+        <v>-0.191262089094924</v>
       </c>
       <c r="L141" t="n">
         <v>-0.61183182343753</v>
@@ -25419,7 +25483,7 @@
         <v>-0.650491538721379</v>
       </c>
       <c r="AM141" t="n">
-        <v>1.17876488514591</v>
+        <v>1.17876488514592</v>
       </c>
       <c r="AN141" t="n">
         <v>0.0205985356141168</v>
@@ -25449,7 +25513,7 @@
         <v>-0.771736408832266</v>
       </c>
       <c r="AW141" t="n">
-        <v>0.279786754160401</v>
+        <v>0.423605452989088</v>
       </c>
       <c r="AX141" t="n">
         <v>0.221458739814433</v>
@@ -25511,7 +25575,7 @@
         <v>0.342326060091875</v>
       </c>
       <c r="K142" t="n">
-        <v>0.257178998340756</v>
+        <v>0.257179028259333</v>
       </c>
       <c r="L142" t="n">
         <v>0.323716441174411</v>
@@ -25625,7 +25689,7 @@
         <v>0.890531225083671</v>
       </c>
       <c r="AW142" t="n">
-        <v>0.452025302953043</v>
+        <v>0.555331167091048</v>
       </c>
       <c r="AX142" t="n">
         <v>1.37762394493457</v>
@@ -25687,7 +25751,7 @@
         <v>0.140484301786636</v>
       </c>
       <c r="K143" t="n">
-        <v>0.234154383573573</v>
+        <v>0.234154413319798</v>
       </c>
       <c r="L143" t="n">
         <v>0.375760743201313</v>
@@ -25801,7 +25865,7 @@
         <v>-0.55678800789486</v>
       </c>
       <c r="AW143" t="n">
-        <v>0.710447731749206</v>
+        <v>0.75296914773915</v>
       </c>
       <c r="AX143" t="n">
         <v>1.18383213651817</v>
@@ -25863,7 +25927,7 @@
         <v>0.233573569792819</v>
       </c>
       <c r="K144" t="n">
-        <v>0.244288013416394</v>
+        <v>0.244288043238475</v>
       </c>
       <c r="L144" t="n">
         <v>0.250857133927776</v>
@@ -25902,7 +25966,7 @@
         <v>-0.429886434437627</v>
       </c>
       <c r="X144" t="n">
-        <v>0.388561371665874</v>
+        <v>0.388561371665875</v>
       </c>
       <c r="Y144" t="n">
         <v>0.158924500360363</v>
@@ -25926,7 +25990,7 @@
         <v>-1.01969793490601</v>
       </c>
       <c r="AF144" t="n">
-        <v>0.67942911045338</v>
+        <v>0.679429110453381</v>
       </c>
       <c r="AG144" t="n">
         <v>0.365346861544547</v>
@@ -25977,7 +26041,7 @@
         <v>0.474964316604687</v>
       </c>
       <c r="AW144" t="n">
-        <v>0.0643916597587989</v>
+        <v>0.258874196118895</v>
       </c>
       <c r="AX144" t="n">
         <v>0.348090337240921</v>
@@ -26039,7 +26103,7 @@
         <v>-0.101584558614813</v>
       </c>
       <c r="K145" t="n">
-        <v>0.257570906677219</v>
+        <v>0.257570936598729</v>
       </c>
       <c r="L145" t="n">
         <v>0.230028550752909</v>
@@ -26153,7 +26217,7 @@
         <v>0.532283890187995</v>
       </c>
       <c r="AW145" t="n">
-        <v>0.558495343617062</v>
+        <v>0.636758015118066</v>
       </c>
       <c r="AX145" t="n">
         <v>0.206890088769432</v>
@@ -26215,7 +26279,7 @@
         <v>-0.706190743896299</v>
       </c>
       <c r="K146" t="n">
-        <v>-0.150419668306744</v>
+        <v>-0.150419641439263</v>
       </c>
       <c r="L146" t="n">
         <v>-0.960296463984987</v>
@@ -26329,7 +26393,7 @@
         <v>-1.80348873333181</v>
       </c>
       <c r="AW146" t="n">
-        <v>0.166339307918885</v>
+        <v>0.336842379484571</v>
       </c>
       <c r="AX146" t="n">
         <v>1.08693288934277</v>
@@ -26391,7 +26455,7 @@
         <v>-0.305438639487635</v>
       </c>
       <c r="K147" t="n">
-        <v>0.0462063427871087</v>
+        <v>0.046206371126441</v>
       </c>
       <c r="L147" t="n">
         <v>-0.0437844924702841</v>
@@ -26505,7 +26569,7 @@
         <v>-0.499468434311552</v>
       </c>
       <c r="AW147" t="n">
-        <v>0.548933713751604</v>
+        <v>0.629445409834086</v>
       </c>
       <c r="AX147" t="n">
         <v>-0.127139193565697</v>
@@ -26567,7 +26631,7 @@
         <v>0.550049992056203</v>
       </c>
       <c r="K148" t="n">
-        <v>0.248557014938577</v>
+        <v>0.248557044792613</v>
       </c>
       <c r="L148" t="n">
         <v>0.344382088887676</v>
@@ -26681,7 +26745,7 @@
         <v>0.288675702458936</v>
       </c>
       <c r="AW148" t="n">
-        <v>0.0213643253642378</v>
+        <v>0.225967472340986</v>
       </c>
       <c r="AX148" t="n">
         <v>0.723565726885808</v>
@@ -26743,7 +26807,7 @@
         <v>-0.185676422833244</v>
       </c>
       <c r="K149" t="n">
-        <v>0.251020438767771</v>
+        <v>0.251020468640247</v>
       </c>
       <c r="L149" t="n">
         <v>0.296628420682977</v>
@@ -26857,7 +26921,7 @@
         <v>-0.528128221103206</v>
       </c>
       <c r="AW149" t="n">
-        <v>0.675560703861724</v>
+        <v>0.726288020351656</v>
       </c>
       <c r="AX149" t="n">
         <v>0.485299082879062</v>
@@ -26919,7 +26983,7 @@
         <v>0.0575533928956551</v>
       </c>
       <c r="K150" t="n">
-        <v>0.155100873418528</v>
+        <v>0.155100902572994</v>
       </c>
       <c r="L150" t="n">
         <v>0.0681793255609788</v>
@@ -27033,7 +27097,7 @@
         <v>0.431974636417206</v>
       </c>
       <c r="AW150" t="n">
-        <v>0.0643916597587989</v>
+        <v>0.258874196118895</v>
       </c>
       <c r="AX150" t="n">
         <v>0.272111378785028</v>
@@ -27095,7 +27159,7 @@
         <v>0.0623810321323086</v>
       </c>
       <c r="K151" t="n">
-        <v>0.14974012724477</v>
+        <v>0.149740156359109</v>
       </c>
       <c r="L151" t="n">
         <v>0.0593943885895711</v>
@@ -27209,7 +27273,7 @@
         <v>-0.413489073936589</v>
       </c>
       <c r="AW151" t="n">
-        <v>-0.0278651473214312</v>
+        <v>0.188317437027523</v>
       </c>
       <c r="AX151" t="n">
         <v>0.812388365312993</v>
@@ -27271,7 +27335,7 @@
         <v>0.329323360424414</v>
       </c>
       <c r="K152" t="n">
-        <v>0.231173080871196</v>
+        <v>0.231173110595104</v>
       </c>
       <c r="L152" t="n">
         <v>0.243864487033997</v>
@@ -27385,7 +27449,7 @@
         <v>0.790221971312882</v>
       </c>
       <c r="AW152" t="n">
-        <v>-0.22930543056804</v>
+        <v>0.0342586311123272</v>
       </c>
       <c r="AX152" t="n">
         <v>1.54041307556499</v>
@@ -27447,7 +27511,7 @@
         <v>0.576287582456617</v>
       </c>
       <c r="K153" t="n">
-        <v>0.255009505763909</v>
+        <v>0.255009535666246</v>
       </c>
       <c r="L153" t="n">
         <v>0.354253262269768</v>
@@ -27561,7 +27625,7 @@
         <v>0.374655062833898</v>
       </c>
       <c r="AW153" t="n">
-        <v>0.710447731749206</v>
+        <v>0.75296914773915</v>
       </c>
       <c r="AX153" t="n">
         <v>1.13640880385998</v>
@@ -27623,7 +27687,7 @@
         <v>-0.0293150894809331</v>
       </c>
       <c r="K154" t="n">
-        <v>-0.452077113572597</v>
+        <v>-0.452077088963186</v>
       </c>
       <c r="L154" t="n">
         <v>-0.468082012438624</v>
@@ -27737,7 +27801,7 @@
         <v>-1.0010147031655</v>
       </c>
       <c r="AW154" t="n">
-        <v>0.59299473786135</v>
+        <v>0.663142685534588</v>
       </c>
       <c r="AX154" t="n">
         <v>-0.143874087354425</v>
@@ -27799,7 +27863,7 @@
         <v>-0.121001536466446</v>
       </c>
       <c r="K155" t="n">
-        <v>0.143959479281945</v>
+        <v>0.143959508353013</v>
       </c>
       <c r="L155" t="n">
         <v>-0.00416401939058178</v>
@@ -27913,7 +27977,7 @@
         <v>-0.198540672999184</v>
       </c>
       <c r="AW155" t="n">
-        <v>0.351498978151336</v>
+        <v>0.478449992618936</v>
       </c>
       <c r="AX155" t="n">
         <v>0.255229394439628</v>
@@ -27975,7 +28039,7 @@
         <v>-0.11916335719798</v>
       </c>
       <c r="K156" t="n">
-        <v>0.254757564690469</v>
+        <v>0.25475759459092</v>
       </c>
       <c r="L156" t="n">
         <v>0.319955347602418</v>
@@ -28089,7 +28153,7 @@
         <v>0.159706661896492</v>
       </c>
       <c r="AW156" t="n">
-        <v>0.611084307877081</v>
+        <v>0.676977344179955</v>
       </c>
       <c r="AX156" t="n">
         <v>1.08693288934277</v>
@@ -28151,7 +28215,7 @@
         <v>0.405820641875764</v>
       </c>
       <c r="K157" t="n">
-        <v>0.212725395604845</v>
+        <v>0.212725425190663</v>
       </c>
       <c r="L157" t="n">
         <v>0.186932121159017</v>
@@ -28265,7 +28329,7 @@
         <v>-0.757406515436438</v>
       </c>
       <c r="AW157" t="n">
-        <v>0.611084307877081</v>
+        <v>0.676977344179955</v>
       </c>
       <c r="AX157" t="n">
         <v>-0.487651462036324</v>
@@ -28327,7 +28391,7 @@
         <v>0.149249514508897</v>
       </c>
       <c r="K158" t="n">
-        <v>-0.0243791479550822</v>
+        <v>-0.0243791201441205</v>
       </c>
       <c r="L158" t="n">
         <v>0.0336777415666253</v>
@@ -28441,7 +28505,7 @@
         <v>0.345995276042244</v>
       </c>
       <c r="AW158" t="n">
-        <v>0.387419695754002</v>
+        <v>0.505921671929023</v>
       </c>
       <c r="AX158" t="n">
         <v>0.274177332512842</v>
@@ -28503,7 +28567,7 @@
         <v>0.346805412730293</v>
       </c>
       <c r="K159" t="n">
-        <v>0.166074306839483</v>
+        <v>0.166074336076092</v>
       </c>
       <c r="L159" t="n">
         <v>0.143197527673849</v>
@@ -28617,7 +28681,7 @@
         <v>0.388984956229725</v>
       </c>
       <c r="AW159" t="n">
-        <v>0.574388322988026</v>
+        <v>0.648912750927924</v>
       </c>
       <c r="AX159" t="n">
         <v>1.74099110739153</v>
@@ -28679,7 +28743,7 @@
         <v>0.336453561060514</v>
       </c>
       <c r="K160" t="n">
-        <v>0.139690477759762</v>
+        <v>0.139690506798874</v>
       </c>
       <c r="L160" t="n">
         <v>0.227842499976407</v>
@@ -28793,7 +28857,7 @@
         <v>-0.399159180540762</v>
       </c>
       <c r="AW160" t="n">
-        <v>0.249034485133657</v>
+        <v>0.400086533291964</v>
       </c>
       <c r="AX160" t="n">
         <v>0.773289020975607</v>
@@ -28855,7 +28919,7 @@
         <v>-0.0287539610726639</v>
       </c>
       <c r="K161" t="n">
-        <v>-0.308330734448603</v>
+        <v>-0.308330708763173</v>
       </c>
       <c r="L161" t="n">
         <v>0.0288711454493481</v>
@@ -28969,7 +29033,7 @@
         <v>-0.829055982415574</v>
       </c>
       <c r="AW161" t="n">
-        <v>0.638606296543873</v>
+        <v>0.698025789118978</v>
       </c>
       <c r="AX161" t="n">
         <v>-0.323785895968436</v>
@@ -29031,7 +29095,7 @@
         <v>0.377831943856445</v>
       </c>
       <c r="K162" t="n">
-        <v>0.174892244409893</v>
+        <v>0.174892273712509</v>
       </c>
       <c r="L162" t="n">
         <v>0.279859646093041</v>
@@ -29145,7 +29209,7 @@
         <v>0.102387088313184</v>
       </c>
       <c r="AW162" t="n">
-        <v>0.506423224214635</v>
+        <v>0.596933962017474</v>
       </c>
       <c r="AX162" t="n">
         <v>1.12015529734763</v>
@@ -29207,7 +29271,7 @@
         <v>-0.171474069327416</v>
       </c>
       <c r="K163" t="n">
-        <v>0.254155705459472</v>
+        <v>0.254155735355418</v>
       </c>
       <c r="L163" t="n">
         <v>0.298407132805472</v>
@@ -29321,7 +29385,7 @@
         <v>0.0450675147298754</v>
       </c>
       <c r="AW163" t="n">
-        <v>0.279786754160401</v>
+        <v>0.423605452989088</v>
       </c>
       <c r="AX163" t="n">
         <v>0.0695075088370415</v>
@@ -29383,7 +29447,7 @@
         <v>-0.20898260103184</v>
       </c>
       <c r="K164" t="n">
-        <v>-0.146094679879352</v>
+        <v>-0.146094652979497</v>
       </c>
       <c r="L164" t="n">
         <v>-0.245159145055981</v>
@@ -29497,7 +29561,7 @@
         <v>-0.413489073936589</v>
       </c>
       <c r="AW164" t="n">
-        <v>0.710447731749206</v>
+        <v>0.75296914773915</v>
       </c>
       <c r="AX164" t="n">
         <v>0.132582613912094</v>
@@ -29559,7 +29623,7 @@
         <v>-0.104148334962936</v>
       </c>
       <c r="K165" t="n">
-        <v>-0.210451627417046</v>
+        <v>-0.210451600998938</v>
       </c>
       <c r="L165" t="n">
         <v>0.278284603297549</v>
@@ -29673,7 +29737,7 @@
         <v>0.0880571949173571</v>
       </c>
       <c r="AW165" t="n">
-        <v>0.602814790155604</v>
+        <v>0.670652928799216</v>
       </c>
       <c r="AX165" t="n">
         <v>-0.842213248896096</v>
@@ -29735,7 +29799,7 @@
         <v>-0.0347619048922276</v>
       </c>
       <c r="K166" t="n">
-        <v>0.232978658564185</v>
+        <v>0.232978688301609</v>
       </c>
       <c r="L166" t="n">
         <v>0.329731475298575</v>
@@ -29849,7 +29913,7 @@
         <v>0.933520905271153</v>
       </c>
       <c r="AW166" t="n">
-        <v>0.525804906374348</v>
+        <v>0.611756810566081</v>
       </c>
       <c r="AX166" t="n">
         <v>1.08693288934277</v>
@@ -29911,7 +29975,7 @@
         <v>0.255167338883423</v>
       </c>
       <c r="K167" t="n">
-        <v>0.0841094776135717</v>
+        <v>0.0841095062366294</v>
       </c>
       <c r="L167" t="n">
         <v>-0.00952731166833453</v>
@@ -30025,7 +30089,7 @@
         <v>-0.284520033374146</v>
       </c>
       <c r="AW167" t="n">
-        <v>0.700886101883748</v>
+        <v>0.74565654245517</v>
       </c>
       <c r="AX167" t="n">
         <v>0.557580719614952</v>
@@ -30087,7 +30151,7 @@
         <v>0.749627887472912</v>
       </c>
       <c r="K168" t="n">
-        <v>0.224076740635961</v>
+        <v>0.224076770306749</v>
       </c>
       <c r="L168" t="n">
         <v>0.346975478318185</v>
@@ -30201,7 +30265,7 @@
         <v>0.260015915667281</v>
       </c>
       <c r="AW168" t="n">
-        <v>0.618190924668976</v>
+        <v>0.682412388647778</v>
       </c>
       <c r="AX168" t="n">
         <v>-0.487651462036324</v>
@@ -30263,7 +30327,7 @@
         <v>0.361220608046154</v>
       </c>
       <c r="K169" t="n">
-        <v>0.0701127513113328</v>
+        <v>0.0701127798296174</v>
       </c>
       <c r="L169" t="n">
         <v>0.188642943505845</v>
@@ -30377,7 +30441,7 @@
         <v>0.46063442320886</v>
       </c>
       <c r="AW169" t="n">
-        <v>0.602814790155604</v>
+        <v>0.670652928799216</v>
       </c>
       <c r="AX169" t="n">
         <v>0.626666479710407</v>
@@ -30404,7 +30468,7 @@
         <v>-0.988871846700956</v>
       </c>
       <c r="BF169" t="n">
-        <v>0.58112978213582</v>
+        <v>0.581129782135819</v>
       </c>
     </row>
     <row r="170">
@@ -30439,7 +30503,7 @@
         <v>0.52162593578909</v>
       </c>
       <c r="K170" t="n">
-        <v>0.126099656520288</v>
+        <v>0.126099685457665</v>
       </c>
       <c r="L170" t="n">
         <v>-0.041910734661854</v>
@@ -30553,7 +30617,7 @@
         <v>0.575273570375476</v>
       </c>
       <c r="AW170" t="n">
-        <v>0.213501401174185</v>
+        <v>0.37291131095285</v>
       </c>
       <c r="AX170" t="n">
         <v>1.37762394493457</v>
@@ -30615,7 +30679,7 @@
         <v>0.124898476515594</v>
       </c>
       <c r="K171" t="n">
-        <v>-0.139838143222251</v>
+        <v>-0.139838116275562</v>
       </c>
       <c r="L171" t="n">
         <v>0.0823682886755397</v>
@@ -30654,7 +30718,7 @@
         <v>-1.37364558952673</v>
       </c>
       <c r="X171" t="n">
-        <v>-1.47043059044092</v>
+        <v>-1.47043059044093</v>
       </c>
       <c r="Y171" t="n">
         <v>-0.236084975770874</v>
@@ -30729,7 +30793,7 @@
         <v>-0.126891206020049</v>
       </c>
       <c r="AW171" t="n">
-        <v>0.279786754160401</v>
+        <v>0.423605452989088</v>
       </c>
       <c r="AX171" t="n">
         <v>-0.599085930584754</v>
@@ -30756,7 +30820,7 @@
         <v>0.525684817841858</v>
       </c>
       <c r="BF171" t="n">
-        <v>-0.759683418542246</v>
+        <v>-0.759683418542245</v>
       </c>
     </row>
     <row r="172">
@@ -30791,7 +30855,7 @@
         <v>0.627804975112294</v>
       </c>
       <c r="K172" t="n">
-        <v>0.224076740635961</v>
+        <v>0.224076770306749</v>
       </c>
       <c r="L172" t="n">
         <v>0.314537743504131</v>
@@ -30875,7 +30939,7 @@
         <v>1.07571108253682</v>
       </c>
       <c r="AM172" t="n">
-        <v>0.735932552866716</v>
+        <v>0.735932552866717</v>
       </c>
       <c r="AN172" t="n">
         <v>0.480670441683862</v>
@@ -30905,7 +30969,7 @@
         <v>0.661252930750439</v>
       </c>
       <c r="AW172" t="n">
-        <v>0.433548099294118</v>
+        <v>0.541200051474709</v>
       </c>
       <c r="AX172" t="n">
         <v>0.738100948258837</v>
@@ -30967,7 +31031,7 @@
         <v>0.755123076022851</v>
       </c>
       <c r="K173" t="n">
-        <v>0.168089835427005</v>
+        <v>0.168089864678701</v>
       </c>
       <c r="L173" t="n">
         <v>0.164365559727055</v>
@@ -31030,7 +31094,7 @@
         <v>-0.332376729255229</v>
       </c>
       <c r="AF173" t="n">
-        <v>-0.758893769777108</v>
+        <v>-0.758893769777109</v>
       </c>
       <c r="AG173" t="n">
         <v>0.0959146099059861</v>
@@ -31081,7 +31145,7 @@
         <v>0.761562184521228</v>
       </c>
       <c r="AW173" t="n">
-        <v>0.433548099294118</v>
+        <v>0.541200051474709</v>
       </c>
       <c r="AX173" t="n">
         <v>0.981228266570179</v>
@@ -31143,7 +31207,7 @@
         <v>-0.445091890752368</v>
       </c>
       <c r="K174" t="n">
-        <v>-0.195825048431207</v>
+        <v>-0.19582502190361</v>
       </c>
       <c r="L174" t="n">
         <v>-1.10323159767588</v>
@@ -31227,7 +31291,7 @@
         <v>-0.137474473081019</v>
       </c>
       <c r="AM174" t="n">
-        <v>1.17876488514591</v>
+        <v>1.17876488514592</v>
       </c>
       <c r="AN174" t="n">
         <v>0.0205985356141168</v>
@@ -31257,7 +31321,7 @@
         <v>-0.571117901290687</v>
       </c>
       <c r="AW174" t="n">
-        <v>0.279786754160401</v>
+        <v>0.423605452989088</v>
       </c>
       <c r="AX174" t="n">
         <v>0.221458739814433</v>
@@ -31319,7 +31383,7 @@
         <v>0.398177685970039</v>
       </c>
       <c r="K175" t="n">
-        <v>0.224076740635961</v>
+        <v>0.224076770306749</v>
       </c>
       <c r="L175" t="n">
         <v>0.161106850495003</v>
@@ -31433,7 +31497,7 @@
         <v>0.618263250562958</v>
       </c>
       <c r="AW175" t="n">
-        <v>0.452025302953043</v>
+        <v>0.555331167091048</v>
       </c>
       <c r="AX175" t="n">
         <v>1.37762394493457</v>
@@ -31495,7 +31559,7 @@
         <v>0.765842563546324</v>
       </c>
       <c r="K176" t="n">
-        <v>0.210080014333722</v>
+        <v>0.210080043899737</v>
       </c>
       <c r="L176" t="n">
         <v>0.348577677023944</v>
@@ -31609,7 +31673,7 @@
         <v>-0.743076622040612</v>
       </c>
       <c r="AW176" t="n">
-        <v>0.710447731749206</v>
+        <v>0.75296914773915</v>
       </c>
       <c r="AX176" t="n">
         <v>1.18383213651817</v>
@@ -31671,7 +31735,7 @@
         <v>0.204375543307404</v>
       </c>
       <c r="K177" t="n">
-        <v>0.210080014333722</v>
+        <v>0.210080043899737</v>
       </c>
       <c r="L177" t="n">
         <v>-0.0519991553260825</v>
@@ -31785,7 +31849,7 @@
         <v>0.388984956229725</v>
       </c>
       <c r="AW177" t="n">
-        <v>0.0643916597587989</v>
+        <v>0.258874196118895</v>
       </c>
       <c r="AX177" t="n">
         <v>0.348090337240921</v>
@@ -31847,7 +31911,7 @@
         <v>0.486507037133671</v>
       </c>
       <c r="K178" t="n">
-        <v>0.210080014333722</v>
+        <v>0.210080043899737</v>
       </c>
       <c r="L178" t="n">
         <v>0.209525838501246</v>
@@ -31961,7 +32025,7 @@
         <v>0.102387088313184</v>
       </c>
       <c r="AW178" t="n">
-        <v>0.558495343617062</v>
+        <v>0.636758015118066</v>
       </c>
       <c r="AX178" t="n">
         <v>0.206890088769432</v>
@@ -32023,7 +32087,7 @@
         <v>-0.428857865423499</v>
       </c>
       <c r="K179" t="n">
-        <v>-0.167831595826729</v>
+        <v>-0.167831569089586</v>
       </c>
       <c r="L179" t="n">
         <v>-1.26045074016727</v>
@@ -32137,7 +32201,7 @@
         <v>-1.84647841351929</v>
       </c>
       <c r="AW179" t="n">
-        <v>0.166339307918885</v>
+        <v>0.336842379484571</v>
       </c>
       <c r="AX179" t="n">
         <v>1.08693288934277</v>
@@ -32199,7 +32263,7 @@
         <v>-0.0503961033019137</v>
       </c>
       <c r="K180" t="n">
-        <v>0.126099656520288</v>
+        <v>0.126099685457665</v>
       </c>
       <c r="L180" t="n">
         <v>0.0533114646897402</v>
@@ -32313,7 +32377,7 @@
         <v>-1.0010147031655</v>
       </c>
       <c r="AW180" t="n">
-        <v>0.548933713751604</v>
+        <v>0.629445409834086</v>
       </c>
       <c r="AX180" t="n">
         <v>-0.127139193565697</v>
@@ -32375,7 +32439,7 @@
         <v>0.737515253556498</v>
       </c>
       <c r="K181" t="n">
-        <v>0.210080014333722</v>
+        <v>0.210080043899737</v>
       </c>
       <c r="L181" t="n">
         <v>0.248956220209079</v>
@@ -32438,7 +32502,7 @@
         <v>-0.206710230711924</v>
       </c>
       <c r="AF181" t="n">
-        <v>-0.0797972038841208</v>
+        <v>-0.0797972038841209</v>
       </c>
       <c r="AG181" t="n">
         <v>0.500062987363828</v>
@@ -32489,7 +32553,7 @@
         <v>0.446304529813033</v>
       </c>
       <c r="AW181" t="n">
-        <v>0.0213643253642378</v>
+        <v>0.225967472340986</v>
       </c>
       <c r="AX181" t="n">
         <v>0.723565726885808</v>
@@ -32551,7 +32615,7 @@
         <v>0.476900131799007</v>
       </c>
       <c r="K182" t="n">
-        <v>0.210080014333722</v>
+        <v>0.210080043899737</v>
       </c>
       <c r="L182" t="n">
         <v>0.203863831210555</v>
@@ -32665,7 +32729,7 @@
         <v>-1.08699406354046</v>
       </c>
       <c r="AW182" t="n">
-        <v>0.675560703861724</v>
+        <v>0.726288020351656</v>
       </c>
       <c r="AX182" t="n">
         <v>0.485299082879062</v>
@@ -32727,7 +32791,7 @@
         <v>0.180730753138301</v>
       </c>
       <c r="K183" t="n">
-        <v>0.154093109124766</v>
+        <v>0.154093138271689</v>
       </c>
       <c r="L183" t="n">
         <v>-0.13331752862092</v>
@@ -32841,7 +32905,7 @@
         <v>0.260015915667281</v>
       </c>
       <c r="AW183" t="n">
-        <v>0.0643916597587989</v>
+        <v>0.258874196118895</v>
       </c>
       <c r="AX183" t="n">
         <v>0.272111378785028</v>
@@ -32903,7 +32967,7 @@
         <v>0.528988327490681</v>
       </c>
       <c r="K184" t="n">
-        <v>0.0561160250090939</v>
+        <v>0.0561160534226054</v>
       </c>
       <c r="L184" t="n">
         <v>-0.0132205154646605</v>
@@ -33017,7 +33081,7 @@
         <v>-0.141221099415876</v>
       </c>
       <c r="AW184" t="n">
-        <v>-0.0278651473214312</v>
+        <v>0.188317437027523</v>
       </c>
       <c r="AX184" t="n">
         <v>0.812388365312993</v>
@@ -33079,7 +33143,7 @@
         <v>0.370904910402649</v>
       </c>
       <c r="K185" t="n">
-        <v>0.140096382822527</v>
+        <v>0.140096411864677</v>
       </c>
       <c r="L185" t="n">
         <v>-0.0178234422549342</v>
@@ -33193,7 +33257,7 @@
         <v>0.331665382646417</v>
       </c>
       <c r="AW185" t="n">
-        <v>-0.22930543056804</v>
+        <v>0.0342586311123272</v>
       </c>
       <c r="AX185" t="n">
         <v>1.54041307556499</v>
@@ -33255,7 +33319,7 @@
         <v>0.693698864572918</v>
       </c>
       <c r="K186" t="n">
-        <v>0.196083288031483</v>
+        <v>0.196083317492725</v>
       </c>
       <c r="L186" t="n">
         <v>0.326269096739519</v>
@@ -33369,7 +33433,7 @@
         <v>0.94785079866698</v>
       </c>
       <c r="AW186" t="n">
-        <v>0.710447731749206</v>
+        <v>0.75296914773915</v>
       </c>
       <c r="AX186" t="n">
         <v>1.13640880385998</v>
@@ -33431,7 +33495,7 @@
         <v>-1.16535825053125</v>
       </c>
       <c r="K187" t="n">
-        <v>-0.531746479684941</v>
+        <v>-0.531746455671898</v>
       </c>
       <c r="L187" t="n">
         <v>-1.20091140690665</v>
@@ -33470,7 +33534,7 @@
         <v>0.183505275188543</v>
       </c>
       <c r="X187" t="n">
-        <v>-0.496062389612533</v>
+        <v>-0.496062389612534</v>
       </c>
       <c r="Y187" t="n">
         <v>-1.33680429807464</v>
@@ -33545,7 +33609,7 @@
         <v>-1.08699406354046</v>
       </c>
       <c r="AW187" t="n">
-        <v>0.59299473786135</v>
+        <v>0.663142685534588</v>
       </c>
       <c r="AX187" t="n">
         <v>-0.143874087354425</v>
@@ -33607,7 +33671,7 @@
         <v>0.017848720696801</v>
       </c>
       <c r="K188" t="n">
-        <v>0.154093109124766</v>
+        <v>0.154093138271689</v>
       </c>
       <c r="L188" t="n">
         <v>-0.226312943330612</v>
@@ -33721,7 +33785,7 @@
         <v>-0.0265819522492598</v>
       </c>
       <c r="AW188" t="n">
-        <v>0.351498978151336</v>
+        <v>0.478449992618936</v>
       </c>
       <c r="AX188" t="n">
         <v>0.255229394439628</v>
@@ -33783,7 +33847,7 @@
         <v>0.505062973117444</v>
       </c>
       <c r="K189" t="n">
-        <v>0.210080014333722</v>
+        <v>0.210080043899737</v>
       </c>
       <c r="L189" t="n">
         <v>0.246838059208245</v>
@@ -33897,7 +33961,7 @@
         <v>0.274345809063108</v>
       </c>
       <c r="AW189" t="n">
-        <v>0.611084307877081</v>
+        <v>0.676977344179955</v>
       </c>
       <c r="AX189" t="n">
         <v>1.08693288934277</v>
@@ -33959,7 +34023,7 @@
         <v>0.623664234444382</v>
       </c>
       <c r="K190" t="n">
-        <v>0.140096382822527</v>
+        <v>0.140096411864677</v>
       </c>
       <c r="L190" t="n">
         <v>0.184284419907975</v>
@@ -34073,7 +34137,7 @@
         <v>-0.743076622040612</v>
       </c>
       <c r="AW190" t="n">
-        <v>0.611084307877081</v>
+        <v>0.676977344179955</v>
       </c>
       <c r="AX190" t="n">
         <v>-0.487651462036324</v>
@@ -34135,7 +34199,7 @@
         <v>-0.849559052208878</v>
       </c>
       <c r="K191" t="n">
-        <v>-0.15383486952449</v>
+        <v>-0.153834842682574</v>
       </c>
       <c r="L191" t="n">
         <v>-0.189774666066226</v>
@@ -34249,7 +34313,7 @@
         <v>-0.184210779603357</v>
       </c>
       <c r="AW191" t="n">
-        <v>0.387419695754002</v>
+        <v>0.505921671929023</v>
       </c>
       <c r="AX191" t="n">
         <v>0.274177332512842</v>
@@ -34311,7 +34375,7 @@
         <v>0.33248696369172</v>
       </c>
       <c r="K192" t="n">
-        <v>0.11210293021805</v>
+        <v>0.112102959050653</v>
       </c>
       <c r="L192" t="n">
         <v>0.116218130823483</v>
@@ -34425,7 +34489,7 @@
         <v>0.2170262354798</v>
       </c>
       <c r="AW192" t="n">
-        <v>0.574388322988026</v>
+        <v>0.648912750927924</v>
       </c>
       <c r="AX192" t="n">
         <v>1.74099110739153</v>
@@ -34487,7 +34551,7 @@
         <v>0.230497038175071</v>
       </c>
       <c r="K193" t="n">
-        <v>0.0981062039158107</v>
+        <v>0.0981062326436414</v>
       </c>
       <c r="L193" t="n">
         <v>0.121785092428239</v>
@@ -34601,7 +34665,7 @@
         <v>0.861871438292017</v>
       </c>
       <c r="AW193" t="n">
-        <v>0.249034485133657</v>
+        <v>0.400086533291964</v>
       </c>
       <c r="AX193" t="n">
         <v>0.773289020975607</v>
@@ -34663,7 +34727,7 @@
         <v>0.582131057604791</v>
       </c>
       <c r="K194" t="n">
-        <v>-0.237815227337924</v>
+        <v>-0.237815201124646</v>
       </c>
       <c r="L194" t="n">
         <v>-0.035651297345287</v>
@@ -34777,7 +34841,7 @@
         <v>-1.73183926635268</v>
       </c>
       <c r="AW194" t="n">
-        <v>0.638606296543873</v>
+        <v>0.698025789118978</v>
       </c>
       <c r="AX194" t="n">
         <v>-0.323785895968436</v>
@@ -34839,7 +34903,7 @@
         <v>0.220928831351322</v>
       </c>
       <c r="K195" t="n">
-        <v>0.154093109124766</v>
+        <v>0.154093138271689</v>
       </c>
       <c r="L195" t="n">
         <v>0.239845412314466</v>
@@ -34953,7 +35017,7 @@
         <v>-0.155550992811703</v>
       </c>
       <c r="AW195" t="n">
-        <v>0.506423224214635</v>
+        <v>0.596933962017474</v>
       </c>
       <c r="AX195" t="n">
         <v>1.12015529734763</v>
@@ -35015,7 +35079,7 @@
         <v>0.405375609000241</v>
       </c>
       <c r="K196" t="n">
-        <v>0.224076740635961</v>
+        <v>0.224076770306749</v>
       </c>
       <c r="L196" t="n">
         <v>0.218704536171527</v>
@@ -35129,7 +35193,7 @@
         <v>-0.70008694185313</v>
       </c>
       <c r="AW196" t="n">
-        <v>0.279786754160401</v>
+        <v>0.423605452989088</v>
       </c>
       <c r="AX196" t="n">
         <v>0.0695075088370415</v>
@@ -35191,7 +35255,7 @@
         <v>-0.396612331203524</v>
       </c>
       <c r="K197" t="n">
-        <v>-0.223818501035685</v>
+        <v>-0.223818474717634</v>
       </c>
       <c r="L197" t="n">
         <v>-0.347360413346221</v>
@@ -35305,7 +35369,7 @@
         <v>-0.915035342790536</v>
       </c>
       <c r="AW197" t="n">
-        <v>0.710447731749206</v>
+        <v>0.75296914773915</v>
       </c>
       <c r="AX197" t="n">
         <v>0.132582613912094</v>
@@ -35367,7 +35431,7 @@
         <v>0.126678608017686</v>
       </c>
       <c r="K198" t="n">
-        <v>0.0141258461023771</v>
+        <v>0.0141258742015695</v>
       </c>
       <c r="L198" t="n">
         <v>0.231467813997065</v>
@@ -35481,7 +35545,7 @@
         <v>0.833211651500363</v>
       </c>
       <c r="AW198" t="n">
-        <v>0.602814790155604</v>
+        <v>0.670652928799216</v>
       </c>
       <c r="AX198" t="n">
         <v>-0.842213248896096</v>
@@ -35543,7 +35607,7 @@
         <v>0.429591202205342</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2380734669382</v>
+        <v>0.238073496713761</v>
       </c>
       <c r="L199" t="n">
         <v>0.260714729354734</v>
@@ -35657,7 +35721,7 @@
         <v>0.503624103396341</v>
       </c>
       <c r="AW199" t="n">
-        <v>0.525804906374348</v>
+        <v>0.611756810566081</v>
       </c>
       <c r="AX199" t="n">
         <v>1.08693288934277</v>
@@ -35717,7 +35781,7 @@
         <v>0.836699537031804</v>
       </c>
       <c r="K200" t="n">
-        <v>0.266066919542678</v>
+        <v>0.266066949527785</v>
       </c>
       <c r="L200" t="n">
         <v>0.393588598291666</v>
@@ -35747,7 +35811,7 @@
         <v>3.49225540447314</v>
       </c>
       <c r="U200" t="n">
-        <v>-11.6107067463258</v>
+        <v>1.2236182569976</v>
       </c>
       <c r="V200" t="n">
         <v>4.16321953444035</v>
@@ -35756,7 +35820,7 @@
         <v>3.31711908422905</v>
       </c>
       <c r="X200" t="n">
-        <v>2.37447422831194</v>
+        <v>2.37447422831193</v>
       </c>
       <c r="Y200" t="n">
         <v>2.88936701258061</v>
@@ -35792,16 +35856,16 @@
         <v>1.00107050527537</v>
       </c>
       <c r="AJ200" t="n">
-        <v>-3.78444216848196</v>
+        <v>5.22763643624254</v>
       </c>
       <c r="AK200" t="n">
-        <v>-10.2340288539751</v>
+        <v>1.59126662964727</v>
       </c>
       <c r="AL200" t="n">
         <v>2.92548851864058</v>
       </c>
       <c r="AM200" t="n">
-        <v>2.7710732043269</v>
+        <v>2.77107320432689</v>
       </c>
       <c r="AN200" t="n">
         <v>9.23518156861102</v>
@@ -35831,7 +35895,7 @@
         <v>4.87424158912359</v>
       </c>
       <c r="AW200" t="n">
-        <v>1.70604259104437</v>
+        <v>1.74875540387757</v>
       </c>
       <c r="AX200" t="n">
         <v>3.41247470594602</v>
@@ -35891,7 +35955,7 @@
         <v>-8.83792819173393</v>
       </c>
       <c r="K201" t="n">
-        <v>-13.7306593826962</v>
+        <v>-13.7306594574842</v>
       </c>
       <c r="L201" t="n">
         <v>-13.1843665352595</v>
@@ -35921,7 +35985,7 @@
         <v>-2.7221218309138</v>
       </c>
       <c r="U201" t="n">
-        <v>1.2236182569976</v>
+        <v>-11.6107067463258</v>
       </c>
       <c r="V201" t="n">
         <v>-3.5130531741419</v>
@@ -35966,16 +36030,16 @@
         <v>-7.43467460801765</v>
       </c>
       <c r="AJ201" t="n">
-        <v>5.22763643624254</v>
+        <v>-3.78444216848196</v>
       </c>
       <c r="AK201" t="n">
-        <v>1.59126662964727</v>
+        <v>-10.2340288539751</v>
       </c>
       <c r="AL201" t="n">
         <v>-5.95392621481896</v>
       </c>
       <c r="AM201" t="n">
-        <v>-3.20566976828206</v>
+        <v>-3.20566976828205</v>
       </c>
       <c r="AN201" t="n">
         <v>-2.27196587453233</v>
@@ -36005,7 +36069,7 @@
         <v>-9.45565180670346</v>
       </c>
       <c r="AW201" t="n">
-        <v>0.710447731749206</v>
+        <v>0.75296914773915</v>
       </c>
       <c r="AX201" t="n">
         <v>-3.27345968827194</v>

--- a/03_ips_clean/00_ips_wide_norm_complete.xlsx
+++ b/03_ips_clean/00_ips_wide_norm_complete.xlsx
@@ -1049,7 +1049,7 @@
         <v>-0.27019013997832</v>
       </c>
       <c r="AW2" t="n">
-        <v>-1.31685283767894</v>
+        <v>-0.86845896678918</v>
       </c>
       <c r="AX2" t="n">
         <v>-0.421093375844313</v>
@@ -1061,7 +1061,7 @@
         <v>-0.322998232950349</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.235182389877304</v>
+        <v>-0.232865055298747</v>
       </c>
       <c r="BB2" t="n">
         <v>-0.230029511693985</v>
@@ -1225,7 +1225,7 @@
         <v>0.933520905271153</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.91557986472448</v>
+        <v>-0.544695702503086</v>
       </c>
       <c r="AX3" t="n">
         <v>-1.48018928185944</v>
@@ -1237,7 +1237,7 @@
         <v>-0.089007934221616</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.40601737491567</v>
+        <v>1.41127832948073</v>
       </c>
       <c r="BB3" t="n">
         <v>0.0401013050719827</v>
@@ -1401,7 +1401,7 @@
         <v>-0.112561312624221</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.626533276356229</v>
+        <v>-0.311481224359092</v>
       </c>
       <c r="AX4" t="n">
         <v>-0.298495013354791</v>
@@ -1413,7 +1413,7 @@
         <v>0.887080528320713</v>
       </c>
       <c r="BA4" t="n">
-        <v>-0.354542372771339</v>
+        <v>-0.352439119646346</v>
       </c>
       <c r="BB4" t="n">
         <v>-0.025355367522779</v>
@@ -1577,7 +1577,7 @@
         <v>0.159706661896491</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0.482009982172104</v>
+        <v>-0.194873985287095</v>
       </c>
       <c r="AX5" t="n">
         <v>0.0707890154062104</v>
@@ -1589,7 +1589,7 @@
         <v>0.272674457325076</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.660017481827952</v>
+        <v>0.663940427308241</v>
       </c>
       <c r="BB5" t="n">
         <v>-0.180992123131013</v>
@@ -1753,7 +1753,7 @@
         <v>-0.857715769207228</v>
       </c>
       <c r="AW6" t="n">
-        <v>-1.50973131372437</v>
+        <v>-1.02408112233884</v>
       </c>
       <c r="AX6" t="n">
         <v>-2.58803472108311</v>
@@ -1765,7 +1765,7 @@
         <v>-0.810761768614631</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.466057509625146</v>
+        <v>0.469632572743393</v>
       </c>
       <c r="BB6" t="n">
         <v>-0.278384513132874</v>
@@ -1929,7 +1929,7 @@
         <v>0.517953996792167</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.577827893906935</v>
+        <v>0.660246078860188</v>
       </c>
       <c r="AX7" t="n">
         <v>-0.029927227732005</v>
@@ -1941,7 +1941,7 @@
         <v>-0.114050864018276</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.0532709021166116</v>
+        <v>0.0561056002079489</v>
       </c>
       <c r="BB7" t="n">
         <v>-0.0389926117409979</v>
@@ -2075,7 +2075,7 @@
         <v>-0.930871283144079</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.424580335738454</v>
+        <v>0.424580335738455</v>
       </c>
       <c r="AN8" t="n">
         <v>-0.20239981194563</v>
@@ -2105,7 +2105,7 @@
         <v>0.546613783583822</v>
       </c>
       <c r="AW8" t="n">
-        <v>-1.14268839395083</v>
+        <v>-0.727936049412472</v>
       </c>
       <c r="AX8" t="n">
         <v>1.73255385071203</v>
@@ -2117,7 +2117,7 @@
         <v>0.291127142438405</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.849004121410173</v>
+        <v>0.853266029191938</v>
       </c>
       <c r="BB8" t="n">
         <v>-0.0229092721395262</v>
@@ -2281,7 +2281,7 @@
         <v>-0.671427155061477</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.0238215474723357</v>
+        <v>0.213251351464895</v>
       </c>
       <c r="AX9" t="n">
         <v>-1.28883373754431</v>
@@ -2293,7 +2293,7 @@
         <v>-2.01636160433239</v>
       </c>
       <c r="BA9" t="n">
-        <v>-2.27424876431705</v>
+        <v>-2.27558865457022</v>
       </c>
       <c r="BB9" t="n">
         <v>-1.69617499170907</v>
@@ -2457,7 +2457,7 @@
         <v>0.962180692062807</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.0516139550371198</v>
+        <v>0.235675389967397</v>
       </c>
       <c r="AX10" t="n">
         <v>-0.946616534420768</v>
@@ -2469,7 +2469,7 @@
         <v>1.69188364988053</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.510817503210409</v>
+        <v>0.514472846873743</v>
       </c>
       <c r="BB10" t="n">
         <v>0.241426503203457</v>
@@ -2633,7 +2633,7 @@
         <v>-0.0409118456450861</v>
       </c>
       <c r="AW11" t="n">
-        <v>-0.482009982172104</v>
+        <v>-0.194873985287095</v>
       </c>
       <c r="AX11" t="n">
         <v>1.09533350696566</v>
@@ -2645,7 +2645,7 @@
         <v>0.782686170874012</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.0532709021166116</v>
+        <v>0.0561056002079489</v>
       </c>
       <c r="BB11" t="n">
         <v>3.18172763824401</v>
@@ -2809,7 +2809,7 @@
         <v>0.56094367697965</v>
       </c>
       <c r="AW12" t="n">
-        <v>-3.95056904259112</v>
+        <v>-2.99344772301502</v>
       </c>
       <c r="AX12" t="n">
         <v>0.403141982467375</v>
@@ -2821,7 +2821,7 @@
         <v>0.68521157034481</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.986155615585603</v>
+        <v>-0.985185210152387</v>
       </c>
       <c r="BB12" t="n">
         <v>-0.534384667298594</v>
@@ -2985,7 +2985,7 @@
         <v>0.102387088313184</v>
       </c>
       <c r="AW13" t="n">
-        <v>-3.5651739768289</v>
+        <v>-2.68249539644234</v>
       </c>
       <c r="AX13" t="n">
         <v>-0.78383005115421</v>
@@ -2997,7 +2997,7 @@
         <v>-2.33772146174255</v>
       </c>
       <c r="BA13" t="n">
-        <v>-0.21031572677438</v>
+        <v>-0.207953791892998</v>
       </c>
       <c r="BB13" t="n">
         <v>-1.20512921721871</v>
@@ -3161,7 +3161,7 @@
         <v>-1.33060225126952</v>
       </c>
       <c r="AW14" t="n">
-        <v>-2.92284771103885</v>
+        <v>-2.16424058596328</v>
       </c>
       <c r="AX14" t="n">
         <v>-0.940720592785103</v>
@@ -3173,7 +3173,7 @@
         <v>-2.11891313409912</v>
       </c>
       <c r="BA14" t="n">
-        <v>-1.52327553860876</v>
+        <v>-1.52326849971658</v>
       </c>
       <c r="BB14" t="n">
         <v>-1.41203949150422</v>
@@ -3337,7 +3337,7 @@
         <v>-0.65709726166565</v>
       </c>
       <c r="AW15" t="n">
-        <v>-0.867405047934321</v>
+        <v>-0.505826311859783</v>
       </c>
       <c r="AX15" t="n">
         <v>-1.51872228486052</v>
@@ -3349,7 +3349,7 @@
         <v>-1.32626535273301</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.0134842411519336</v>
+        <v>0.0162475787587495</v>
       </c>
       <c r="BB15" t="n">
         <v>-0.0250824126731455</v>
@@ -3513,7 +3513,7 @@
         <v>0.388984956229725</v>
       </c>
       <c r="AW16" t="n">
-        <v>-2.02359140140733</v>
+        <v>-1.43868422443576</v>
       </c>
       <c r="AX16" t="n">
         <v>-0.413894610577768</v>
@@ -3525,7 +3525,7 @@
         <v>0.322540642095618</v>
       </c>
       <c r="BA16" t="n">
-        <v>-0.831982304347475</v>
+        <v>-0.830735377036739</v>
       </c>
       <c r="BB16" t="n">
         <v>-0.284053575394489</v>
@@ -3689,7 +3689,7 @@
         <v>-0.857715769207228</v>
       </c>
       <c r="AW17" t="n">
-        <v>-4.89653990564837</v>
+        <v>-3.75669527564226</v>
       </c>
       <c r="AX17" t="n">
         <v>-0.0485190527094064</v>
@@ -3701,7 +3701,7 @@
         <v>0.145922084582332</v>
       </c>
       <c r="BA17" t="n">
-        <v>-0.130742404845025</v>
+        <v>-0.128237748994599</v>
       </c>
       <c r="BB17" t="n">
         <v>-0.690682813504017</v>
@@ -3865,7 +3865,7 @@
         <v>0.345995276042245</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.0960831945643985</v>
+        <v>0.271554971000894</v>
       </c>
       <c r="AX18" t="n">
         <v>0.2722148546233</v>
@@ -3877,7 +3877,7 @@
         <v>-1.03747838987806</v>
       </c>
       <c r="BA18" t="n">
-        <v>-0.593262338559407</v>
+        <v>-0.591587248341543</v>
       </c>
       <c r="BB18" t="n">
         <v>-1.01218163331829</v>
@@ -4041,7 +4041,7 @@
         <v>-0.843385875811401</v>
       </c>
       <c r="AW19" t="n">
-        <v>-2.79438268911811</v>
+        <v>-2.06058981043905</v>
       </c>
       <c r="AX19" t="n">
         <v>-1.73341565452269</v>
@@ -4053,7 +4053,7 @@
         <v>0.0573199060619862</v>
       </c>
       <c r="BA19" t="n">
-        <v>-0.707648988832856</v>
+        <v>-0.706179060007991</v>
       </c>
       <c r="BB19" t="n">
         <v>-0.223930020631025</v>
@@ -4217,7 +4217,7 @@
         <v>0.159706661896491</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.509007057402808</v>
+        <v>0.604718644472016</v>
       </c>
       <c r="AX20" t="n">
         <v>0.624708411488371</v>
@@ -4229,7 +4229,7 @@
         <v>0.531951768986889</v>
       </c>
       <c r="BA20" t="n">
-        <v>-0.0213290871921598</v>
+        <v>-0.0186281900093001</v>
       </c>
       <c r="BB20" t="n">
         <v>-0.335274602754528</v>
@@ -4342,7 +4342,7 @@
         <v>-0.0233975024599997</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.811860917151266</v>
+        <v>0.811860917151267</v>
       </c>
       <c r="AG21" t="n">
         <v>1.06779523188794</v>
@@ -4393,7 +4393,7 @@
         <v>0.618263250562957</v>
       </c>
       <c r="AW21" t="n">
-        <v>-0.0195354407829019</v>
+        <v>0.178269179743296</v>
       </c>
       <c r="AX21" t="n">
         <v>-0.172393650592444</v>
@@ -4405,7 +4405,7 @@
         <v>1.3300670126088</v>
       </c>
       <c r="BA21" t="n">
-        <v>-0.52363568187122</v>
+        <v>-0.521835710805443</v>
       </c>
       <c r="BB21" t="n">
         <v>0.370250693966941</v>
@@ -4569,7 +4569,7 @@
         <v>-1.45957129183196</v>
       </c>
       <c r="AW22" t="n">
-        <v>0.353013238405877</v>
+        <v>0.478856522049352</v>
       </c>
       <c r="AX22" t="n">
         <v>-0.651719746747396</v>
@@ -4581,7 +4581,7 @@
         <v>-2.97579139281408</v>
       </c>
       <c r="BA22" t="n">
-        <v>-1.38402222523238</v>
+        <v>-1.38376542464438</v>
       </c>
       <c r="BB22" t="n">
         <v>-1.3873370776124</v>
@@ -4745,7 +4745,7 @@
         <v>-1.20163321070708</v>
       </c>
       <c r="AW23" t="n">
-        <v>-0.659884627908512</v>
+        <v>-0.338390443705258</v>
       </c>
       <c r="AX23" t="n">
         <v>-0.574075446582567</v>
@@ -4757,7 +4757,7 @@
         <v>-1.12117449735637</v>
       </c>
       <c r="BA23" t="n">
-        <v>0.610284155622104</v>
+        <v>0.614117900496742</v>
       </c>
       <c r="BB23" t="n">
         <v>0.0972748478067178</v>
@@ -4852,7 +4852,7 @@
         <v>0.151295911614618</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.670401706181884</v>
+        <v>0.670401706181885</v>
       </c>
       <c r="AA24" t="n">
         <v>-0.426786682628269</v>
@@ -4921,7 +4921,7 @@
         <v>0.618263250562957</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.585239048432697</v>
+        <v>0.6662256980798</v>
       </c>
       <c r="AX24" t="n">
         <v>0.0707890154062104</v>
@@ -4933,7 +4933,7 @@
         <v>-0.0577286802894332</v>
       </c>
       <c r="BA24" t="n">
-        <v>0.560550829416257</v>
+        <v>0.564295373685242</v>
       </c>
       <c r="BB24" t="n">
         <v>-0.211006658327232</v>
@@ -5097,7 +5097,7 @@
         <v>-0.972354916373844</v>
       </c>
       <c r="AW25" t="n">
-        <v>-0.225079938330626</v>
+        <v>0.0124275657613642</v>
       </c>
       <c r="AX25" t="n">
         <v>0.347752036976961</v>
@@ -5109,7 +5109,7 @@
         <v>-0.095427320709454</v>
       </c>
       <c r="BA25" t="n">
-        <v>-0.0760357460185918</v>
+        <v>-0.0734329695019491</v>
       </c>
       <c r="BB25" t="n">
         <v>-1.06442099223273</v>
@@ -5273,7 +5273,7 @@
         <v>-0.427818967332417</v>
       </c>
       <c r="AW26" t="n">
-        <v>-0.482009982172104</v>
+        <v>-0.194873985287095</v>
       </c>
       <c r="AX26" t="n">
         <v>0.440073044167211</v>
@@ -5285,7 +5285,7 @@
         <v>-0.0805504535446741</v>
       </c>
       <c r="BA26" t="n">
-        <v>-0.677808993109348</v>
+        <v>-0.676285543921092</v>
       </c>
       <c r="BB26" t="n">
         <v>-0.539749279920234</v>
@@ -5449,7 +5449,7 @@
         <v>0.360325169438071</v>
       </c>
       <c r="AW27" t="n">
-        <v>-0.570947305040308</v>
+        <v>-0.266632214496176</v>
       </c>
       <c r="AX27" t="n">
         <v>-2.14489521598177</v>
@@ -5461,7 +5461,7 @@
         <v>-1.11202137974063</v>
       </c>
       <c r="BA27" t="n">
-        <v>0.590390825139765</v>
+        <v>0.594188889772142</v>
       </c>
       <c r="BB27" t="n">
         <v>0.578158303279958</v>
@@ -5625,7 +5625,7 @@
         <v>0.116716981709011</v>
       </c>
       <c r="AW28" t="n">
-        <v>0.0516139550371198</v>
+        <v>0.235675389967397</v>
       </c>
       <c r="AX28" t="n">
         <v>-0.166604061906238</v>
@@ -5637,7 +5637,7 @@
         <v>0.409299992935996</v>
       </c>
       <c r="BA28" t="n">
-        <v>1.2319507331952</v>
+        <v>1.23689948564048</v>
       </c>
       <c r="BB28" t="n">
         <v>0.447769871262806</v>
@@ -5801,7 +5801,7 @@
         <v>-1.33060225126952</v>
       </c>
       <c r="AW29" t="n">
-        <v>0.0960831945643985</v>
+        <v>0.271554971000894</v>
       </c>
       <c r="AX29" t="n">
         <v>-1.59097581989961</v>
@@ -5813,7 +5813,7 @@
         <v>-0.478589028261079</v>
       </c>
       <c r="BA29" t="n">
-        <v>-0.23020905725672</v>
+        <v>-0.227882802617598</v>
       </c>
       <c r="BB29" t="n">
         <v>-0.198314257819282</v>
@@ -5977,7 +5977,7 @@
         <v>-0.27019013997832</v>
       </c>
       <c r="AW30" t="n">
-        <v>-0.289311871197818</v>
+        <v>-0.0393973555717942</v>
       </c>
       <c r="AX30" t="n">
         <v>-2.47073406488854</v>
@@ -5989,7 +5989,7 @@
         <v>1.342393210998</v>
       </c>
       <c r="BA30" t="n">
-        <v>0.232310876457663</v>
+        <v>0.235466696729347</v>
       </c>
       <c r="BB30" t="n">
         <v>0.17803798850784</v>
@@ -6153,7 +6153,7 @@
         <v>-0.485138540915725</v>
       </c>
       <c r="AW31" t="n">
-        <v>-1.14268839395083</v>
+        <v>-0.727936049412472</v>
       </c>
       <c r="AX31" t="n">
         <v>0.372931097761515</v>
@@ -6165,7 +6165,7 @@
         <v>0.851969169146741</v>
       </c>
       <c r="BA31" t="n">
-        <v>-0.916528958897416</v>
+        <v>-0.915433672616288</v>
       </c>
       <c r="BB31" t="n">
         <v>-0.889120989187447</v>
@@ -6329,7 +6329,7 @@
         <v>-0.485138540915725</v>
       </c>
       <c r="AW32" t="n">
-        <v>-1.83089444661939</v>
+        <v>-1.28320852757837</v>
       </c>
       <c r="AX32" t="n">
         <v>-1.60680246819107</v>
@@ -6341,7 +6341,7 @@
         <v>-1.14602216064389</v>
       </c>
       <c r="BA32" t="n">
-        <v>-0.613155669041745</v>
+        <v>-0.611516259066142</v>
       </c>
       <c r="BB32" t="n">
         <v>-0.856376905494895</v>
@@ -6505,7 +6505,7 @@
         <v>-0.542458114499033</v>
       </c>
       <c r="AW33" t="n">
-        <v>-0.225079938330626</v>
+        <v>0.0124275657613642</v>
       </c>
       <c r="AX33" t="n">
         <v>-2.64846313755417</v>
@@ -6517,7 +6517,7 @@
         <v>-0.633960148749031</v>
       </c>
       <c r="BA33" t="n">
-        <v>1.66960400380666</v>
+        <v>1.67533772158168</v>
       </c>
       <c r="BB33" t="n">
         <v>0.00324190210803601</v>
@@ -6681,7 +6681,7 @@
         <v>0.474964316604687</v>
       </c>
       <c r="AW34" t="n">
-        <v>-0.166686746548472</v>
+        <v>0.0595415546360138</v>
       </c>
       <c r="AX34" t="n">
         <v>-1.13776601989633</v>
@@ -6693,7 +6693,7 @@
         <v>-0.363027867323178</v>
       </c>
       <c r="BA34" t="n">
-        <v>0.545630831554503</v>
+        <v>0.549348615641793</v>
       </c>
       <c r="BB34" t="n">
         <v>-0.328167278400614</v>
@@ -6856,7 +6856,9 @@
       <c r="AV35" t="n">
         <v>0.116716981709011</v>
       </c>
-      <c r="AW35"/>
+      <c r="AW35" t="n">
+        <v>-0.86845896678918</v>
+      </c>
       <c r="AX35" t="n">
         <v>-0.421093375844313</v>
       </c>
@@ -6867,7 +6869,7 @@
         <v>-0.1671633545032</v>
       </c>
       <c r="BA35" t="n">
-        <v>-0.384382368494847</v>
+        <v>-0.382332635733245</v>
       </c>
       <c r="BB35" t="n">
         <v>-0.125676773026474</v>
@@ -6962,7 +6964,7 @@
         <v>0.638341786256426</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.979830685993454</v>
+        <v>0.979830685993455</v>
       </c>
       <c r="AA36" t="n">
         <v>-0.208431277111013</v>
@@ -6980,7 +6982,7 @@
         <v>1.50225413447672</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.906641102081318</v>
+        <v>0.906641102081319</v>
       </c>
       <c r="AG36" t="n">
         <v>-1.28973696994947</v>
@@ -7030,7 +7032,9 @@
       <c r="AV36" t="n">
         <v>0.646923037354612</v>
       </c>
-      <c r="AW36"/>
+      <c r="AW36" t="n">
+        <v>-0.544695702503086</v>
+      </c>
       <c r="AX36" t="n">
         <v>-1.48018928185944</v>
       </c>
@@ -7041,7 +7045,7 @@
         <v>0.419661322077012</v>
       </c>
       <c r="BA36" t="n">
-        <v>1.00815076526889</v>
+        <v>1.01269811498874</v>
       </c>
       <c r="BB36" t="n">
         <v>0.20706568694</v>
@@ -7204,7 +7208,9 @@
       <c r="AV37" t="n">
         <v>0.31733548925059</v>
       </c>
-      <c r="AW37"/>
+      <c r="AW37" t="n">
+        <v>-0.311481224359092</v>
+      </c>
       <c r="AX37" t="n">
         <v>-0.298495013354791</v>
       </c>
@@ -7215,7 +7221,7 @@
         <v>0.819188803925576</v>
       </c>
       <c r="BA37" t="n">
-        <v>-0.638022332144669</v>
+        <v>-0.636427522471892</v>
       </c>
       <c r="BB37" t="n">
         <v>0.200882209769461</v>
@@ -7378,7 +7384,9 @@
       <c r="AV38" t="n">
         <v>0.876201331687844</v>
       </c>
-      <c r="AW38"/>
+      <c r="AW38" t="n">
+        <v>-0.194873985287095</v>
+      </c>
       <c r="AX38" t="n">
         <v>0.0707890154062104</v>
       </c>
@@ -7389,7 +7397,7 @@
         <v>0.0602244953853806</v>
       </c>
       <c r="BA38" t="n">
-        <v>0.466057509625146</v>
+        <v>0.469632572743393</v>
       </c>
       <c r="BB38" t="n">
         <v>-0.0392445700637361</v>
@@ -7552,7 +7560,9 @@
       <c r="AV39" t="n">
         <v>-0.198540672999185</v>
       </c>
-      <c r="AW39"/>
+      <c r="AW39" t="n">
+        <v>-1.02408112233884</v>
+      </c>
       <c r="AX39" t="n">
         <v>-2.58803472108311</v>
       </c>
@@ -7563,7 +7573,7 @@
         <v>-0.728603384895764</v>
       </c>
       <c r="BA39" t="n">
-        <v>0.68985747755146</v>
+        <v>0.69383394339514</v>
       </c>
       <c r="BB39" t="n">
         <v>-0.219699220461709</v>
@@ -7726,7 +7736,9 @@
       <c r="AV40" t="n">
         <v>0.575273570375476</v>
       </c>
-      <c r="AW40"/>
+      <c r="AW40" t="n">
+        <v>0.660246078860188</v>
+      </c>
       <c r="AX40" t="n">
         <v>-0.029927227732005</v>
       </c>
@@ -7737,7 +7749,7 @@
         <v>1.02604926204126</v>
       </c>
       <c r="BA40" t="n">
-        <v>0.540657498933918</v>
+        <v>0.544366362960642</v>
       </c>
       <c r="BB40" t="n">
         <v>0.0850548691539024</v>
@@ -7832,7 +7844,7 @@
         <v>0.334964425028935</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.720309606151492</v>
+        <v>0.720309606151493</v>
       </c>
       <c r="AA41" t="n">
         <v>0.253234437411183</v>
@@ -7871,7 +7883,7 @@
         <v>-0.957499020107757</v>
       </c>
       <c r="AM41" t="n">
-        <v>0.424580335738454</v>
+        <v>0.424580335738455</v>
       </c>
       <c r="AN41" t="n">
         <v>-0.20239981194563</v>
@@ -7900,7 +7912,9 @@
       <c r="AV41" t="n">
         <v>0.474964316604687</v>
       </c>
-      <c r="AW41"/>
+      <c r="AW41" t="n">
+        <v>-0.727936049412472</v>
+      </c>
       <c r="AX41" t="n">
         <v>1.73255385071203</v>
       </c>
@@ -7911,7 +7925,7 @@
         <v>-0.0521391764654224</v>
       </c>
       <c r="BA41" t="n">
-        <v>-0.309782379186076</v>
+        <v>-0.307598845515996</v>
       </c>
       <c r="BB41" t="n">
         <v>-0.071306266632205</v>
@@ -8074,7 +8088,9 @@
       <c r="AV42" t="n">
         <v>-0.212870566395011</v>
       </c>
-      <c r="AW42"/>
+      <c r="AW42" t="n">
+        <v>0.213251351464895</v>
+      </c>
       <c r="AX42" t="n">
         <v>-1.28883373754431</v>
       </c>
@@ -8085,7 +8101,7 @@
         <v>-2.25623430664884</v>
       </c>
       <c r="BA42" t="n">
-        <v>-2.33392875576407</v>
+        <v>-2.33537568674402</v>
       </c>
       <c r="BB42" t="n">
         <v>-1.6335948432989</v>
@@ -8248,7 +8264,9 @@
       <c r="AV43" t="n">
         <v>1.03383015904194</v>
       </c>
-      <c r="AW43"/>
+      <c r="AW43" t="n">
+        <v>0.235675389967397</v>
+      </c>
       <c r="AX43" t="n">
         <v>-0.946616534420768</v>
       </c>
@@ -8259,7 +8277,7 @@
         <v>0.555493587494568</v>
       </c>
       <c r="BA43" t="n">
-        <v>0.376537522454621</v>
+        <v>0.379952024482695</v>
       </c>
       <c r="BB43" t="n">
         <v>0.305066976221813</v>
@@ -8422,7 +8440,9 @@
       <c r="AV44" t="n">
         <v>0.761562184521228</v>
       </c>
-      <c r="AW44"/>
+      <c r="AW44" t="n">
+        <v>-0.194873985287095</v>
+      </c>
       <c r="AX44" t="n">
         <v>1.09533350696566</v>
       </c>
@@ -8433,7 +8453,7 @@
         <v>1.14688261872583</v>
       </c>
       <c r="BA44" t="n">
-        <v>1.04793742623356</v>
+        <v>1.05255613643794</v>
       </c>
       <c r="BB44" t="n">
         <v>3.28108320351055</v>
@@ -8596,7 +8616,9 @@
       <c r="AV45" t="n">
         <v>0.56094367697965</v>
       </c>
-      <c r="AW45"/>
+      <c r="AW45" t="n">
+        <v>-2.99344772301502</v>
+      </c>
       <c r="AX45" t="n">
         <v>0.403141982467375</v>
       </c>
@@ -8607,7 +8629,7 @@
         <v>0.968140537925691</v>
       </c>
       <c r="BA45" t="n">
-        <v>-1.11048893110022</v>
+        <v>-1.10974152718114</v>
       </c>
       <c r="BB45" t="n">
         <v>-0.435134084666537</v>
@@ -8770,7 +8792,9 @@
       <c r="AV46" t="n">
         <v>0.102387088313184</v>
       </c>
-      <c r="AW46"/>
+      <c r="AW46" t="n">
+        <v>-2.68249539644234</v>
+      </c>
       <c r="AX46" t="n">
         <v>-0.78383005115421</v>
       </c>
@@ -8781,7 +8805,7 @@
         <v>-0.919464193419139</v>
       </c>
       <c r="BA46" t="n">
-        <v>-0.797168976003382</v>
+        <v>-0.79585960826869</v>
       </c>
       <c r="BB46" t="n">
         <v>-1.05458411938248</v>
@@ -8944,7 +8968,9 @@
       <c r="AV47" t="n">
         <v>-1.01534459656133</v>
       </c>
-      <c r="AW47"/>
+      <c r="AW47" t="n">
+        <v>-2.16424058596328</v>
+      </c>
       <c r="AX47" t="n">
         <v>-0.940720592785103</v>
       </c>
@@ -8955,7 +8981,7 @@
         <v>-1.88497165199767</v>
       </c>
       <c r="BA47" t="n">
-        <v>-1.40391555571472</v>
+        <v>-1.40369443536898</v>
       </c>
       <c r="BB47" t="n">
         <v>-1.28393968091861</v>
@@ -9118,7 +9144,9 @@
       <c r="AV48" t="n">
         <v>-0.599777688082342</v>
       </c>
-      <c r="AW48"/>
+      <c r="AW48" t="n">
+        <v>-0.505826311859783</v>
+      </c>
       <c r="AX48" t="n">
         <v>-1.51872228486052</v>
       </c>
@@ -9129,7 +9157,7 @@
         <v>-0.977299692593783</v>
       </c>
       <c r="BA48" t="n">
-        <v>0.0482975694960271</v>
+        <v>0.0511233475267992</v>
       </c>
       <c r="BB48" t="n">
         <v>0.126302546238877</v>
@@ -9292,7 +9320,9 @@
       <c r="AV49" t="n">
         <v>0.603933357167131</v>
       </c>
-      <c r="AW49"/>
+      <c r="AW49" t="n">
+        <v>-1.43868422443576</v>
+      </c>
       <c r="AX49" t="n">
         <v>-0.413894610577768</v>
       </c>
@@ -9303,7 +9333,7 @@
         <v>0.286794666766955</v>
       </c>
       <c r="BA49" t="n">
-        <v>-1.32434223378537</v>
+        <v>-1.32397839247058</v>
       </c>
       <c r="BB49" t="n">
         <v>-0.244107682976997</v>
@@ -9398,7 +9428,7 @@
         <v>0.110684808151251</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.720309606151492</v>
+        <v>0.720309606151493</v>
       </c>
       <c r="AA50" t="n">
         <v>-0.308250891061759</v>
@@ -9466,7 +9496,9 @@
       <c r="AV50" t="n">
         <v>-0.399159180540762</v>
       </c>
-      <c r="AW50"/>
+      <c r="AW50" t="n">
+        <v>-3.75669527564226</v>
+      </c>
       <c r="AX50" t="n">
         <v>-0.0485190527094064</v>
       </c>
@@ -9477,7 +9509,7 @@
         <v>0.688030730570458</v>
       </c>
       <c r="BA50" t="n">
-        <v>-0.155609067947948</v>
+        <v>-0.153149012400349</v>
       </c>
       <c r="BB50" t="n">
         <v>-0.591810168356067</v>
@@ -9641,7 +9673,7 @@
         <v>0.761562184521228</v>
       </c>
       <c r="AW51" t="n">
-        <v>0.0960831945643985</v>
+        <v>0.271554971000894</v>
       </c>
       <c r="AX51" t="n">
         <v>0.2722148546233</v>
@@ -9653,7 +9685,7 @@
         <v>-0.945044106115922</v>
       </c>
       <c r="BA51" t="n">
-        <v>-1.00604894606794</v>
+        <v>-1.00511422087699</v>
       </c>
       <c r="BB51" t="n">
         <v>-0.85135873556702</v>
@@ -9742,7 +9774,7 @@
         <v>0.839259893560454</v>
       </c>
       <c r="X52" t="n">
-        <v>0.696256592980103</v>
+        <v>0.696256592980104</v>
       </c>
       <c r="Y52" t="n">
         <v>0.148124612405577</v>
@@ -9817,7 +9849,7 @@
         <v>-0.370499393749109</v>
       </c>
       <c r="AW52" t="n">
-        <v>-2.79438268911811</v>
+        <v>-2.06058981043905</v>
       </c>
       <c r="AX52" t="n">
         <v>-1.73341565452269</v>
@@ -9829,7 +9861,7 @@
         <v>-0.328868432381243</v>
       </c>
       <c r="BA52" t="n">
-        <v>-0.090955743880346</v>
+        <v>-0.0883797275453988</v>
       </c>
       <c r="BB52" t="n">
         <v>-0.145707459684182</v>
@@ -9942,7 +9974,7 @@
         <v>0.441202379850438</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.5195318049108</v>
+        <v>0.519531804910801</v>
       </c>
       <c r="AG53" t="n">
         <v>-0.519930536696439</v>
@@ -9993,7 +10025,7 @@
         <v>1.04816005243777</v>
       </c>
       <c r="AW53" t="n">
-        <v>0.509007057402808</v>
+        <v>0.604718644472016</v>
       </c>
       <c r="AX53" t="n">
         <v>0.624708411488371</v>
@@ -10005,7 +10037,7 @@
         <v>-0.135896304727838</v>
       </c>
       <c r="BA53" t="n">
-        <v>-0.125769072224439</v>
+        <v>-0.123255496313448</v>
       </c>
       <c r="BB53" t="n">
         <v>-0.358979681618838</v>
@@ -10169,7 +10201,7 @@
         <v>0.532283890187996</v>
       </c>
       <c r="AW54" t="n">
-        <v>-0.0195354407829019</v>
+        <v>0.178269179743296</v>
       </c>
       <c r="AX54" t="n">
         <v>-0.172393650592444</v>
@@ -10181,7 +10213,7 @@
         <v>0.0639589673726018</v>
       </c>
       <c r="BA54" t="n">
-        <v>-0.881715630553323</v>
+        <v>-0.880557903848239</v>
       </c>
       <c r="BB54" t="n">
         <v>0.494739101926634</v>
@@ -10345,7 +10377,7 @@
         <v>-0.685757048457303</v>
       </c>
       <c r="AW55" t="n">
-        <v>0.353013238405877</v>
+        <v>0.478856522049352</v>
       </c>
       <c r="AX55" t="n">
         <v>-0.651719746747396</v>
@@ -10357,7 +10389,7 @@
         <v>-2.27334453451186</v>
       </c>
       <c r="BA55" t="n">
-        <v>-1.59787552791753</v>
+        <v>-1.59800228993383</v>
       </c>
       <c r="BB55" t="n">
         <v>-1.29449043568328</v>
@@ -10521,7 +10553,7 @@
         <v>-0.585447794686514</v>
       </c>
       <c r="AW56" t="n">
-        <v>-0.659884627908512</v>
+        <v>-0.338390443705258</v>
       </c>
       <c r="AX56" t="n">
         <v>-0.574075446582567</v>
@@ -10533,7 +10565,7 @@
         <v>-1.0188914590397</v>
       </c>
       <c r="BA56" t="n">
-        <v>0.0781375652195353</v>
+        <v>0.0810168636136985</v>
       </c>
       <c r="BB56" t="n">
         <v>0.224881240010299</v>
@@ -10697,7 +10729,7 @@
         <v>0.331665382646416</v>
       </c>
       <c r="AW57" t="n">
-        <v>0.585239048432697</v>
+        <v>0.6662256980798</v>
       </c>
       <c r="AX57" t="n">
         <v>0.0707890154062104</v>
@@ -10709,7 +10741,7 @@
         <v>-0.322888395538961</v>
       </c>
       <c r="BA57" t="n">
-        <v>-0.250102387739058</v>
+        <v>-0.247811813342197</v>
       </c>
       <c r="BB57" t="n">
         <v>-0.0160539061083506</v>
@@ -10873,7 +10905,7 @@
         <v>-0.943695129582191</v>
       </c>
       <c r="AW58" t="n">
-        <v>0.358853135677269</v>
+        <v>0.483568387365774</v>
       </c>
       <c r="AX58" t="n">
         <v>0.347752036976961</v>
@@ -10885,7 +10917,7 @@
         <v>0.443398407093826</v>
       </c>
       <c r="BA58" t="n">
-        <v>-0.53358234711239</v>
+        <v>-0.531800216167743</v>
       </c>
       <c r="BB58" t="n">
         <v>-0.982775997402021</v>
@@ -11049,7 +11081,7 @@
         <v>0.231356128875627</v>
       </c>
       <c r="AW59" t="n">
-        <v>-0.482009982172104</v>
+        <v>-0.194873985287095</v>
       </c>
       <c r="AX59" t="n">
         <v>0.440073044167211</v>
@@ -11061,7 +11093,7 @@
         <v>-0.869659029432702</v>
       </c>
       <c r="BA59" t="n">
-        <v>-0.846902302209229</v>
+        <v>-0.845682135080189</v>
       </c>
       <c r="BB59" t="n">
         <v>-0.452676682887202</v>
@@ -11225,7 +11257,7 @@
         <v>1.13413941281273</v>
       </c>
       <c r="AW60" t="n">
-        <v>0.417246327459423</v>
+        <v>0.530682376240423</v>
       </c>
       <c r="AX60" t="n">
         <v>-2.14489521598177</v>
@@ -11237,7 +11269,7 @@
         <v>0.200230582435713</v>
       </c>
       <c r="BA60" t="n">
-        <v>0.436217513901638</v>
+        <v>0.439739056656494</v>
       </c>
       <c r="BB60" t="n">
         <v>0.770790939276956</v>
@@ -11401,7 +11433,7 @@
         <v>0.360325169438071</v>
       </c>
       <c r="AW61" t="n">
-        <v>0.0516139550371198</v>
+        <v>0.235675389967397</v>
       </c>
       <c r="AX61" t="n">
         <v>-0.166604061906238</v>
@@ -11413,7 +11445,7 @@
         <v>0.581610483091474</v>
       </c>
       <c r="BA61" t="n">
-        <v>0.973337436924792</v>
+        <v>0.977822346220687</v>
       </c>
       <c r="BB61" t="n">
         <v>0.542632179773835</v>
@@ -11577,7 +11609,7 @@
         <v>-0.485138540915725</v>
       </c>
       <c r="AW62" t="n">
-        <v>-0.126260690699288</v>
+        <v>0.0921589315492328</v>
       </c>
       <c r="AX62" t="n">
         <v>-1.59097581989961</v>
@@ -11589,7 +11621,7 @@
         <v>-0.261318424377095</v>
       </c>
       <c r="BA62" t="n">
-        <v>-0.717595654074026</v>
+        <v>-0.716143565370291</v>
       </c>
       <c r="BB62" t="n">
         <v>-0.127335498651169</v>
@@ -11753,7 +11785,7 @@
         <v>0.589603463771303</v>
       </c>
       <c r="AW63" t="n">
-        <v>0.38512978293265</v>
+        <v>0.504769449144888</v>
       </c>
       <c r="AX63" t="n">
         <v>-2.47073406488854</v>
@@ -11765,7 +11797,7 @@
         <v>0.237245790073758</v>
       </c>
       <c r="BA63" t="n">
-        <v>0.560550829416257</v>
+        <v>0.564295373685242</v>
       </c>
       <c r="BB63" t="n">
         <v>0.258192229929012</v>
@@ -11929,7 +11961,7 @@
         <v>-0.0122520588534316</v>
       </c>
       <c r="AW64" t="n">
-        <v>-1.14268839395083</v>
+        <v>-0.727936049412472</v>
       </c>
       <c r="AX64" t="n">
         <v>0.372931097761515</v>
@@ -11941,7 +11973,7 @@
         <v>-0.151908158476969</v>
       </c>
       <c r="BA64" t="n">
-        <v>-0.384382368494847</v>
+        <v>-0.382332635733245</v>
       </c>
       <c r="BB64" t="n">
         <v>-0.715332736078596</v>
@@ -12105,7 +12137,7 @@
         <v>-0.313179820165801</v>
       </c>
       <c r="AW65" t="n">
-        <v>-0.0560466496392259</v>
+        <v>0.148810459722059</v>
       </c>
       <c r="AX65" t="n">
         <v>-1.60680246819107</v>
@@ -12117,7 +12149,7 @@
         <v>-0.622903182669219</v>
       </c>
       <c r="BA65" t="n">
-        <v>-1.03588894179145</v>
+        <v>-1.03500773696389</v>
       </c>
       <c r="BB65" t="n">
         <v>-0.764748062125676</v>
@@ -12281,7 +12313,7 @@
         <v>0.17403655529232</v>
       </c>
       <c r="AW66" t="n">
-        <v>-0.225079938330626</v>
+        <v>0.0124275657613642</v>
       </c>
       <c r="AX66" t="n">
         <v>-2.64846313755417</v>
@@ -12293,7 +12325,7 @@
         <v>-0.602741915600953</v>
       </c>
       <c r="BA66" t="n">
-        <v>0.863924119271927</v>
+        <v>0.868212787235388</v>
       </c>
       <c r="BB66" t="n">
         <v>0.0954691464937586</v>
@@ -12457,7 +12489,7 @@
         <v>0.962180692062807</v>
       </c>
       <c r="AW67" t="n">
-        <v>0.529653077116775</v>
+        <v>0.621376688216885</v>
       </c>
       <c r="AX67" t="n">
         <v>-1.13776601989633</v>
@@ -12469,7 +12501,7 @@
         <v>-0.140729150828948</v>
       </c>
       <c r="BA67" t="n">
-        <v>0.0234309063931033</v>
+        <v>0.0262120841210496</v>
       </c>
       <c r="BB67" t="n">
         <v>-0.172016107883456</v>
@@ -12632,7 +12664,9 @@
       <c r="AV68" t="n">
         <v>-0.27019013997832</v>
       </c>
-      <c r="AW68"/>
+      <c r="AW68" t="n">
+        <v>-0.86845896678918</v>
+      </c>
       <c r="AX68" t="n">
         <v>0.11067137145355</v>
       </c>
@@ -12643,7 +12677,7 @@
         <v>-0.1671633545032</v>
       </c>
       <c r="BA68" t="n">
-        <v>-0.334649042288999</v>
+        <v>-0.332510108921746</v>
       </c>
       <c r="BB68" t="n">
         <v>-0.0312763881071327</v>
@@ -12738,7 +12772,7 @@
         <v>0.0324389014530642</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.810852518276355</v>
+        <v>0.810852518276356</v>
       </c>
       <c r="AA69" t="n">
         <v>0.150881900756438</v>
@@ -12806,7 +12840,9 @@
       <c r="AV69" t="n">
         <v>0.0164077279382209</v>
       </c>
-      <c r="AW69"/>
+      <c r="AW69" t="n">
+        <v>-0.544695702503086</v>
+      </c>
       <c r="AX69" t="n">
         <v>0.977208615412783</v>
       </c>
@@ -12817,7 +12853,7 @@
         <v>0.419661322077012</v>
       </c>
       <c r="BA69" t="n">
-        <v>1.03301742837181</v>
+        <v>1.03760937839449</v>
       </c>
       <c r="BB69" t="n">
         <v>0.425650030179059</v>
@@ -12980,7 +13016,9 @@
       <c r="AV70" t="n">
         <v>0.331665382646416</v>
       </c>
-      <c r="AW70"/>
+      <c r="AW70" t="n">
+        <v>-0.311481224359092</v>
+      </c>
       <c r="AX70" t="n">
         <v>0.545581817090449</v>
       </c>
@@ -12991,7 +13029,7 @@
         <v>0.819188803925576</v>
       </c>
       <c r="BA70" t="n">
-        <v>-0.558449010215313</v>
+        <v>-0.556711479573493</v>
       </c>
       <c r="BB70" t="n">
         <v>0.250664975037201</v>
@@ -13154,7 +13192,9 @@
       <c r="AV71" t="n">
         <v>0.704242610937921</v>
       </c>
-      <c r="AW71"/>
+      <c r="AW71" t="n">
+        <v>-0.194873985287095</v>
+      </c>
       <c r="AX71" t="n">
         <v>0.229055498320737</v>
       </c>
@@ -13165,7 +13205,7 @@
         <v>0.0602244953853806</v>
       </c>
       <c r="BA71" t="n">
-        <v>0.351670859351697</v>
+        <v>0.355040761076945</v>
       </c>
       <c r="BB71" t="n">
         <v>-0.00194424003499707</v>
@@ -13328,7 +13368,9 @@
       <c r="AV72" t="n">
         <v>-0.485138540915725</v>
       </c>
-      <c r="AW72"/>
+      <c r="AW72" t="n">
+        <v>-1.02408112233884</v>
+      </c>
       <c r="AX72" t="n">
         <v>-0.593916918716119</v>
       </c>
@@ -13339,7 +13381,7 @@
         <v>-0.728603384895764</v>
       </c>
       <c r="BA72" t="n">
-        <v>0.40637751817813</v>
+        <v>0.409845540569595</v>
       </c>
       <c r="BB72" t="n">
         <v>-0.187123108984316</v>
@@ -13502,7 +13544,9 @@
       <c r="AV73" t="n">
         <v>0.188366448688146</v>
       </c>
-      <c r="AW73"/>
+      <c r="AW73" t="n">
+        <v>0.660246078860188</v>
+      </c>
       <c r="AX73" t="n">
         <v>0.0707890154062104</v>
       </c>
@@ -13513,7 +13557,7 @@
         <v>1.02604926204126</v>
       </c>
       <c r="BA73" t="n">
-        <v>0.227337543837078</v>
+        <v>0.230484444048197</v>
       </c>
       <c r="BB73" t="n">
         <v>0.157818333108079</v>
@@ -13602,7 +13646,7 @@
         <v>-0.149119952415086</v>
       </c>
       <c r="X74" t="n">
-        <v>-0.246060022294722</v>
+        <v>-0.246060022294723</v>
       </c>
       <c r="Y74" t="n">
         <v>0.358282197853998</v>
@@ -13647,7 +13691,7 @@
         <v>-1.01380605226383</v>
       </c>
       <c r="AM74" t="n">
-        <v>0.424580335738454</v>
+        <v>0.424580335738455</v>
       </c>
       <c r="AN74" t="n">
         <v>-0.518259888082547</v>
@@ -13676,7 +13720,9 @@
       <c r="AV74" t="n">
         <v>0.489294210000515</v>
       </c>
-      <c r="AW74"/>
+      <c r="AW74" t="n">
+        <v>-0.727936049412472</v>
+      </c>
       <c r="AX74" t="n">
         <v>1.17863445462987</v>
       </c>
@@ -13687,7 +13733,7 @@
         <v>-0.0521391764654224</v>
       </c>
       <c r="BA74" t="n">
-        <v>-0.473902355665372</v>
+        <v>-0.472013183993944</v>
       </c>
       <c r="BB74" t="n">
         <v>-0.136080552102883</v>
@@ -13850,7 +13896,9 @@
       <c r="AV75" t="n">
         <v>-0.198540672999185</v>
       </c>
-      <c r="AW75"/>
+      <c r="AW75" t="n">
+        <v>0.213251351464895</v>
+      </c>
       <c r="AX75" t="n">
         <v>-0.707056515763081</v>
       </c>
@@ -13861,7 +13909,7 @@
         <v>-2.25623430664884</v>
       </c>
       <c r="BA75" t="n">
-        <v>-2.23943543597296</v>
+        <v>-2.24071288580217</v>
       </c>
       <c r="BB75" t="n">
         <v>-1.60358030810268</v>
@@ -14024,7 +14072,9 @@
       <c r="AV76" t="n">
         <v>0.790221971312882</v>
       </c>
-      <c r="AW76"/>
+      <c r="AW76" t="n">
+        <v>0.235675389967397</v>
+      </c>
       <c r="AX76" t="n">
         <v>-0.00306646093412165</v>
       </c>
@@ -14035,7 +14085,7 @@
         <v>0.555493587494568</v>
       </c>
       <c r="BA76" t="n">
-        <v>0.371564189834036</v>
+        <v>0.374969771801545</v>
       </c>
       <c r="BB76" t="n">
         <v>0.428054132508522</v>
@@ -14198,7 +14248,9 @@
       <c r="AV77" t="n">
         <v>0.0450675147298754</v>
       </c>
-      <c r="AW77"/>
+      <c r="AW77" t="n">
+        <v>-0.194873985287095</v>
+      </c>
       <c r="AX77" t="n">
         <v>0.913376904559016</v>
       </c>
@@ -14209,7 +14261,7 @@
         <v>1.14688261872583</v>
       </c>
       <c r="BA77" t="n">
-        <v>1.19216407223052</v>
+        <v>1.19704146419128</v>
       </c>
       <c r="BB77" t="n">
         <v>3.64831245890185</v>
@@ -14372,7 +14424,9 @@
       <c r="AV78" t="n">
         <v>0.46063442320886</v>
       </c>
-      <c r="AW78"/>
+      <c r="AW78" t="n">
+        <v>-2.99344772301502</v>
+      </c>
       <c r="AX78" t="n">
         <v>-0.48313038067595</v>
       </c>
@@ -14383,7 +14437,7 @@
         <v>0.968140537925691</v>
       </c>
       <c r="BA78" t="n">
-        <v>-0.881715630553323</v>
+        <v>-0.880557903848239</v>
       </c>
       <c r="BB78" t="n">
         <v>-0.351210966667736</v>
@@ -14546,7 +14600,9 @@
       <c r="AV79" t="n">
         <v>0.646923037354612</v>
       </c>
-      <c r="AW79"/>
+      <c r="AW79" t="n">
+        <v>-2.68249539644234</v>
+      </c>
       <c r="AX79" t="n">
         <v>-0.11912411703188</v>
       </c>
@@ -14557,7 +14613,7 @@
         <v>-0.919464193419139</v>
       </c>
       <c r="BA79" t="n">
-        <v>-0.787222310762212</v>
+        <v>-0.78589510290639</v>
       </c>
       <c r="BB79" t="n">
         <v>-0.851778666104918</v>
@@ -14720,7 +14776,9 @@
       <c r="AV80" t="n">
         <v>-0.929365236186363</v>
       </c>
-      <c r="AW80"/>
+      <c r="AW80" t="n">
+        <v>-2.16424058596328</v>
+      </c>
       <c r="AX80" t="n">
         <v>0.0000775981342769585</v>
       </c>
@@ -14731,7 +14789,7 @@
         <v>-1.88497165199767</v>
       </c>
       <c r="BA80" t="n">
-        <v>-1.4437022166794</v>
+        <v>-1.44355245681818</v>
       </c>
       <c r="BB80" t="n">
         <v>-1.20061496393631</v>
@@ -14820,13 +14878,13 @@
         <v>0.938392535955357</v>
       </c>
       <c r="X81" t="n">
-        <v>-0.246060022294722</v>
+        <v>-0.246060022294723</v>
       </c>
       <c r="Y81" t="n">
         <v>-0.69114073652467</v>
       </c>
       <c r="Z81" t="n">
-        <v>-0.568761542163513</v>
+        <v>-0.568761542163514</v>
       </c>
       <c r="AA81" t="n">
         <v>-1.07185222160734</v>
@@ -14894,7 +14952,9 @@
       <c r="AV81" t="n">
         <v>-1.11565385033211</v>
       </c>
-      <c r="AW81"/>
+      <c r="AW81" t="n">
+        <v>-0.505826311859783</v>
+      </c>
       <c r="AX81" t="n">
         <v>-0.651719746747396</v>
       </c>
@@ -14905,7 +14965,7 @@
         <v>-0.977299692593783</v>
       </c>
       <c r="BA81" t="n">
-        <v>0.137817556666553</v>
+        <v>0.140803895787498</v>
       </c>
       <c r="BB81" t="n">
         <v>0.251210884736468</v>
@@ -15068,7 +15128,9 @@
       <c r="AV82" t="n">
         <v>0.675582824146266</v>
       </c>
-      <c r="AW82"/>
+      <c r="AW82" t="n">
+        <v>-1.43868422443576</v>
+      </c>
       <c r="AX82" t="n">
         <v>-0.393787256070568</v>
       </c>
@@ -15079,7 +15141,7 @@
         <v>0.286794666766955</v>
       </c>
       <c r="BA82" t="n">
-        <v>-1.22487558137367</v>
+        <v>-1.22433333884758</v>
       </c>
       <c r="BB82" t="n">
         <v>-0.224559916437871</v>
@@ -15242,7 +15304,9 @@
       <c r="AV83" t="n">
         <v>-0.470808647519897</v>
       </c>
-      <c r="AW83"/>
+      <c r="AW83" t="n">
+        <v>-3.75669527564226</v>
+      </c>
       <c r="AX83" t="n">
         <v>0.473640693840389</v>
       </c>
@@ -15253,7 +15317,7 @@
         <v>0.688030730570458</v>
       </c>
       <c r="BA83" t="n">
-        <v>-0.120795739603855</v>
+        <v>-0.118273243632299</v>
       </c>
       <c r="BB83" t="n">
         <v>-0.481021994195278</v>
@@ -15417,7 +15481,7 @@
         <v>1.04816005243777</v>
       </c>
       <c r="AW84" t="n">
-        <v>0.0960831945643985</v>
+        <v>0.271554971000894</v>
       </c>
       <c r="AX84" t="n">
         <v>-0.574075446582567</v>
@@ -15429,7 +15493,7 @@
         <v>-0.945044106115922</v>
       </c>
       <c r="BA84" t="n">
-        <v>-0.563422342835898</v>
+        <v>-0.561693732254643</v>
       </c>
       <c r="BB84" t="n">
         <v>-0.824745637727771</v>
@@ -15542,7 +15606,7 @@
         <v>-0.0857491358744569</v>
       </c>
       <c r="AF85" t="n">
-        <v>-0.991294457660341</v>
+        <v>-0.991294457660342</v>
       </c>
       <c r="AG85" t="n">
         <v>-0.904833753322954</v>
@@ -15593,7 +15657,7 @@
         <v>-0.642767368269822</v>
       </c>
       <c r="AW85" t="n">
-        <v>-2.79438268911811</v>
+        <v>-2.06058981043905</v>
       </c>
       <c r="AX85" t="n">
         <v>-0.320217603281908</v>
@@ -15605,7 +15669,7 @@
         <v>-0.328868432381243</v>
       </c>
       <c r="BA85" t="n">
-        <v>-0.667862327868178</v>
+        <v>-0.666321038558792</v>
       </c>
       <c r="BB85" t="n">
         <v>0.0335398904173353</v>
@@ -15769,7 +15833,7 @@
         <v>0.575273570375476</v>
       </c>
       <c r="AW86" t="n">
-        <v>-0.166686746548472</v>
+        <v>0.0595415546360138</v>
       </c>
       <c r="AX86" t="n">
         <v>1.17863445462987</v>
@@ -15781,7 +15845,7 @@
         <v>-0.135896304727838</v>
       </c>
       <c r="BA86" t="n">
-        <v>-1.51332887336759</v>
+        <v>-1.51330399435428</v>
       </c>
       <c r="BB86" t="n">
         <v>-0.284599485093756</v>
@@ -15945,7 +16009,7 @@
         <v>0.56094367697965</v>
       </c>
       <c r="AW87" t="n">
-        <v>-0.0195354407829019</v>
+        <v>0.178269179743296</v>
       </c>
       <c r="AX87" t="n">
         <v>0.347752036976961</v>
@@ -15957,7 +16021,7 @@
         <v>0.0639589673726018</v>
       </c>
       <c r="BA87" t="n">
-        <v>0.326804196248773</v>
+        <v>0.330129497671195</v>
       </c>
       <c r="BB87" t="n">
         <v>0.609128180449893</v>
@@ -16121,7 +16185,7 @@
         <v>-0.771736408832266</v>
       </c>
       <c r="AW88" t="n">
-        <v>0.353013238405877</v>
+        <v>0.478856522049352</v>
       </c>
       <c r="AX88" t="n">
         <v>-0.507219323728544</v>
@@ -16133,7 +16197,7 @@
         <v>-2.27334453451186</v>
       </c>
       <c r="BA88" t="n">
-        <v>-0.0263024198127443</v>
+        <v>-0.0236104426904498</v>
       </c>
       <c r="BB88" t="n">
         <v>-1.33815271336117</v>
@@ -16297,7 +16361,7 @@
         <v>-0.585447794686514</v>
       </c>
       <c r="AW89" t="n">
-        <v>-0.659884627908512</v>
+        <v>-0.338390443705258</v>
       </c>
       <c r="AX89" t="n">
         <v>-0.0696434072958139</v>
@@ -16309,7 +16373,7 @@
         <v>-1.0188914590397</v>
       </c>
       <c r="BA89" t="n">
-        <v>0.326804196248773</v>
+        <v>0.330129497671195</v>
       </c>
       <c r="BB89" t="n">
         <v>0.386638483208388</v>
@@ -16473,7 +16537,7 @@
         <v>0.116716981709011</v>
       </c>
       <c r="AW90" t="n">
-        <v>0.585239048432697</v>
+        <v>0.6662256980798</v>
       </c>
       <c r="AX90" t="n">
         <v>0.624708411488371</v>
@@ -16485,7 +16549,7 @@
         <v>-0.322888395538961</v>
       </c>
       <c r="BA90" t="n">
-        <v>-0.0263024198127443</v>
+        <v>-0.0236104426904498</v>
       </c>
       <c r="BB90" t="n">
         <v>0.102838927433858</v>
@@ -16649,7 +16713,7 @@
         <v>-0.70008694185313</v>
       </c>
       <c r="AW91" t="n">
-        <v>0.358853135677269</v>
+        <v>0.483568387365774</v>
       </c>
       <c r="AX91" t="n">
         <v>0.624708411488371</v>
@@ -16661,7 +16725,7 @@
         <v>0.443398407093826</v>
       </c>
       <c r="BA91" t="n">
-        <v>-0.279942383462567</v>
+        <v>-0.277705329429097</v>
       </c>
       <c r="BB91" t="n">
         <v>-0.965800305407517</v>
@@ -16825,7 +16889,7 @@
         <v>0.489294210000515</v>
       </c>
       <c r="AW92" t="n">
-        <v>-0.482009982172104</v>
+        <v>-0.194873985287095</v>
       </c>
       <c r="AX92" t="n">
         <v>0.0707890154062104</v>
@@ -16837,7 +16901,7 @@
         <v>-0.869659029432702</v>
       </c>
       <c r="BA92" t="n">
-        <v>-0.807115641244551</v>
+        <v>-0.80582411363099</v>
       </c>
       <c r="BB92" t="n">
         <v>-0.390684437230094</v>
@@ -17001,7 +17065,7 @@
         <v>0.517953996792167</v>
       </c>
       <c r="AW93" t="n">
-        <v>0.417246327459423</v>
+        <v>0.530682376240423</v>
       </c>
       <c r="AX93" t="n">
         <v>1.24380222441123</v>
@@ -17013,7 +17077,7 @@
         <v>0.200230582435713</v>
       </c>
       <c r="BA93" t="n">
-        <v>0.90868411285719</v>
+        <v>0.913053061365738</v>
       </c>
       <c r="BB93" t="n">
         <v>0.893820088617455</v>
@@ -17177,7 +17241,7 @@
         <v>-0.0409118456450861</v>
       </c>
       <c r="AW94" t="n">
-        <v>0.0516139550371198</v>
+        <v>0.235675389967397</v>
       </c>
       <c r="AX94" t="n">
         <v>0.852795605723107</v>
@@ -17189,7 +17253,7 @@
         <v>0.581610483091474</v>
       </c>
       <c r="BA94" t="n">
-        <v>1.11756408292175</v>
+        <v>1.12230767397404</v>
       </c>
       <c r="BB94" t="n">
         <v>0.58301899925612</v>
@@ -17353,7 +17417,7 @@
         <v>-0.614107581478168</v>
       </c>
       <c r="AW95" t="n">
-        <v>-0.126260690699288</v>
+        <v>0.0921589315492328</v>
       </c>
       <c r="AX95" t="n">
         <v>-1.29772085588352</v>
@@ -17365,7 +17429,7 @@
         <v>-0.261318424377095</v>
       </c>
       <c r="BA95" t="n">
-        <v>-0.886688963173907</v>
+        <v>-0.885540156529389</v>
       </c>
       <c r="BB95" t="n">
         <v>-0.162473186409736</v>
@@ -17454,7 +17518,7 @@
         <v>-0.94032305832988</v>
       </c>
       <c r="X96" t="n">
-        <v>0.574460567876554</v>
+        <v>0.574460567876555</v>
       </c>
       <c r="Y96" t="n">
         <v>0.359513770362364</v>
@@ -17529,7 +17593,7 @@
         <v>0.431974636417206</v>
       </c>
       <c r="AW96" t="n">
-        <v>0.38512978293265</v>
+        <v>0.504769449144888</v>
       </c>
       <c r="AX96" t="n">
         <v>-0.298495013354791</v>
@@ -17541,7 +17605,7 @@
         <v>0.237245790073758</v>
       </c>
       <c r="BA96" t="n">
-        <v>0.704777475413215</v>
+        <v>0.708780701438591</v>
       </c>
       <c r="BB96" t="n">
         <v>0.275535361144176</v>
@@ -17636,7 +17700,7 @@
         <v>-0.907076449658175</v>
       </c>
       <c r="Z97" t="n">
-        <v>-0.837605417719798</v>
+        <v>-0.837605417719799</v>
       </c>
       <c r="AA97" t="n">
         <v>-1.40955445305446</v>
@@ -17705,7 +17769,7 @@
         <v>-0.198540672999185</v>
       </c>
       <c r="AW97" t="n">
-        <v>-1.14268839395083</v>
+        <v>-0.727936049412472</v>
       </c>
       <c r="AX97" t="n">
         <v>0.372931097761515</v>
@@ -17717,7 +17781,7 @@
         <v>-0.151908158476969</v>
       </c>
       <c r="BA97" t="n">
-        <v>-0.822035639106305</v>
+        <v>-0.820770871674439</v>
       </c>
       <c r="BB97" t="n">
         <v>-0.587715845611568</v>
@@ -17881,7 +17945,7 @@
         <v>-0.456478754124071</v>
       </c>
       <c r="AW98" t="n">
-        <v>-0.0560466496392259</v>
+        <v>0.148810459722059</v>
       </c>
       <c r="AX98" t="n">
         <v>-0.0937389974077486</v>
@@ -17893,7 +17957,7 @@
         <v>-0.622903182669219</v>
       </c>
       <c r="BA98" t="n">
-        <v>-1.508355540747</v>
+        <v>-1.50832174167313</v>
       </c>
       <c r="BB98" t="n">
         <v>-0.734534059923956</v>
@@ -18057,7 +18121,7 @@
         <v>0.0737273015215299</v>
       </c>
       <c r="AW99" t="n">
-        <v>-0.225079938330626</v>
+        <v>0.0124275657613642</v>
       </c>
       <c r="AX99" t="n">
         <v>-1.43990810225163</v>
@@ -18069,7 +18133,7 @@
         <v>-0.602741915600953</v>
       </c>
       <c r="BA99" t="n">
-        <v>0.799270795204325</v>
+        <v>0.803443502380439</v>
       </c>
       <c r="BB99" t="n">
         <v>0.132821967839735</v>
@@ -18233,7 +18297,7 @@
         <v>1.10547962602108</v>
       </c>
       <c r="AW100" t="n">
-        <v>0.529653077116775</v>
+        <v>0.621376688216885</v>
       </c>
       <c r="AX100" t="n">
         <v>0.901671433059122</v>
@@ -18245,7 +18309,7 @@
         <v>-0.140729150828948</v>
       </c>
       <c r="BA100" t="n">
-        <v>0.0532709021166116</v>
+        <v>0.0561056002079489</v>
       </c>
       <c r="BB100" t="n">
         <v>-0.0942239757379571</v>
@@ -18409,7 +18473,7 @@
         <v>0.0164077279382209</v>
       </c>
       <c r="AW101" t="n">
-        <v>0.665659902621219</v>
+        <v>0.731112495904847</v>
       </c>
       <c r="AX101" t="n">
         <v>0.11067137145355</v>
@@ -18421,7 +18485,7 @@
         <v>0.0387695876940898</v>
       </c>
       <c r="BA101" t="n">
-        <v>1.27173739415988</v>
+        <v>1.27675750708968</v>
       </c>
       <c r="BB101" t="n">
         <v>0.119394688890465</v>
@@ -18585,7 +18649,7 @@
         <v>0.345995276042245</v>
       </c>
       <c r="AW102" t="n">
-        <v>0.591591136258678</v>
+        <v>0.671350819451493</v>
       </c>
       <c r="AX102" t="n">
         <v>0.977208615412783</v>
@@ -18597,7 +18661,7 @@
         <v>0.669870945220833</v>
       </c>
       <c r="BA102" t="n">
-        <v>1.4607240337421</v>
+        <v>1.46608310897338</v>
       </c>
       <c r="BB102" t="n">
         <v>0.609044194342313</v>
@@ -18761,7 +18825,7 @@
         <v>0.403314849625552</v>
       </c>
       <c r="AW103" t="n">
-        <v>0.577827893906935</v>
+        <v>0.660246078860188</v>
       </c>
       <c r="AX103" t="n">
         <v>0.545581817090449</v>
@@ -18773,7 +18837,7 @@
         <v>0.789837806771109</v>
       </c>
       <c r="BA103" t="n">
-        <v>1.69944399953017</v>
+        <v>1.70523123766858</v>
       </c>
       <c r="BB103" t="n">
         <v>0.397588171984064</v>
@@ -18937,7 +19001,7 @@
         <v>1.0624899458336</v>
       </c>
       <c r="AW104" t="n">
-        <v>0.229489756959881</v>
+        <v>0.379192781243473</v>
       </c>
       <c r="AX104" t="n">
         <v>0.229055498320737</v>
@@ -18949,7 +19013,7 @@
         <v>1.02492647961373</v>
       </c>
       <c r="BA104" t="n">
-        <v>1.46569736636268</v>
+        <v>1.47106536165453</v>
       </c>
       <c r="BB104" t="n">
         <v>0.225574125397829</v>
@@ -19044,7 +19108,7 @@
         <v>-0.133063917462853</v>
       </c>
       <c r="Z105" t="n">
-        <v>-0.00576050418635905</v>
+        <v>-0.00576050418635906</v>
       </c>
       <c r="AA105" t="n">
         <v>0.0662723004814374</v>
@@ -19113,7 +19177,7 @@
         <v>-0.80039619562392</v>
       </c>
       <c r="AW105" t="n">
-        <v>0.288781305538684</v>
+        <v>0.427031600716194</v>
       </c>
       <c r="AX105" t="n">
         <v>-0.593916918716119</v>
@@ -19125,7 +19189,7 @@
         <v>-0.576954532238213</v>
       </c>
       <c r="BA105" t="n">
-        <v>1.32644405298631</v>
+        <v>1.33156228658233</v>
       </c>
       <c r="BB105" t="n">
         <v>-0.177422713558885</v>
@@ -19259,7 +19323,7 @@
         <v>0.488227846605137</v>
       </c>
       <c r="AM106" t="n">
-        <v>0.735932552866716</v>
+        <v>0.735932552866717</v>
       </c>
       <c r="AN106" t="n">
         <v>-1.24972532755751</v>
@@ -19289,7 +19353,7 @@
         <v>0.56094367697965</v>
       </c>
       <c r="AW106" t="n">
-        <v>0.426421822360585</v>
+        <v>0.538085536634626</v>
       </c>
       <c r="AX106" t="n">
         <v>0.0707890154062104</v>
@@ -19301,7 +19365,7 @@
         <v>1.1275024176941</v>
       </c>
       <c r="BA106" t="n">
-        <v>1.61987067760081</v>
+        <v>1.62551519477018</v>
       </c>
       <c r="BB106" t="n">
         <v>0.373190207732223</v>
@@ -19396,7 +19460,7 @@
         <v>0.533083389208079</v>
       </c>
       <c r="Z107" t="n">
-        <v>0.581785238995848</v>
+        <v>0.581785238995849</v>
       </c>
       <c r="AA107" t="n">
         <v>0.66064819175115</v>
@@ -19465,7 +19529,7 @@
         <v>0.374655062833897</v>
       </c>
       <c r="AW107" t="n">
-        <v>0.426421822360585</v>
+        <v>0.538085536634626</v>
       </c>
       <c r="AX107" t="n">
         <v>1.17863445462987</v>
@@ -19477,7 +19541,7 @@
         <v>0.165473143809549</v>
       </c>
       <c r="BA107" t="n">
-        <v>2.14207060276221</v>
+        <v>2.14865172629092</v>
       </c>
       <c r="BB107" t="n">
         <v>-0.240590764722106</v>
@@ -19566,7 +19630,7 @@
         <v>-1.11366442242669</v>
       </c>
       <c r="X108" t="n">
-        <v>-2.83582813502281</v>
+        <v>-2.83582813502282</v>
       </c>
       <c r="Y108" t="n">
         <v>-1.50034545314655</v>
@@ -19590,7 +19654,7 @@
         <v>1.25485796944927</v>
       </c>
       <c r="AF108" t="n">
-        <v>0.534845580603878</v>
+        <v>0.534845580603879</v>
       </c>
       <c r="AG108" t="n">
         <v>0.779117819418051</v>
@@ -19611,7 +19675,7 @@
         <v>-0.651079869922987</v>
       </c>
       <c r="AM108" t="n">
-        <v>1.17876488514591</v>
+        <v>1.17876488514592</v>
       </c>
       <c r="AN108" t="n">
         <v>-0.933865251420596</v>
@@ -19641,7 +19705,7 @@
         <v>0.0307376213340492</v>
       </c>
       <c r="AW108" t="n">
-        <v>0.288781305538684</v>
+        <v>0.427031600716194</v>
       </c>
       <c r="AX108" t="n">
         <v>-0.707056515763081</v>
@@ -19653,7 +19717,7 @@
         <v>-1.37373952276664</v>
       </c>
       <c r="BA108" t="n">
-        <v>0.714724140654384</v>
+        <v>0.71874520680089</v>
       </c>
       <c r="BB108" t="n">
         <v>-1.65452838061309</v>
@@ -19817,7 +19881,7 @@
         <v>0.847541544896191</v>
       </c>
       <c r="AW109" t="n">
-        <v>0.4429391006063</v>
+        <v>0.551412344773687</v>
       </c>
       <c r="AX109" t="n">
         <v>-0.00306646093412165</v>
@@ -19829,7 +19893,7 @@
         <v>1.30413317936421</v>
       </c>
       <c r="BA109" t="n">
-        <v>1.44580403588034</v>
+        <v>1.45113635092993</v>
       </c>
       <c r="BB109" t="n">
         <v>0.513058571642409</v>
@@ -19993,7 +20057,7 @@
         <v>0.847541544896191</v>
       </c>
       <c r="AW110" t="n">
-        <v>0.674176371300901</v>
+        <v>0.737983927288882</v>
       </c>
       <c r="AX110" t="n">
         <v>0.913376904559016</v>
@@ -20005,7 +20069,7 @@
         <v>1.53651252939257</v>
       </c>
       <c r="BA110" t="n">
-        <v>2.59961720385601</v>
+        <v>2.60701897295672</v>
       </c>
       <c r="BB110" t="n">
         <v>3.77814448295628</v>
@@ -20169,7 +20233,7 @@
         <v>-0.427818967332417</v>
       </c>
       <c r="AW111" t="n">
-        <v>0.0960831945643985</v>
+        <v>0.271554971000894</v>
       </c>
       <c r="AX111" t="n">
         <v>-0.48313038067595</v>
@@ -20181,7 +20245,7 @@
         <v>0.759425047973216</v>
       </c>
       <c r="BA111" t="n">
-        <v>1.8188039824242</v>
+        <v>1.82480530201618</v>
       </c>
       <c r="BB111" t="n">
         <v>-0.263728937360254</v>
@@ -20345,7 +20409,7 @@
         <v>0.861871438292017</v>
       </c>
       <c r="AW112" t="n">
-        <v>0.538154515373862</v>
+        <v>0.628235992448056</v>
       </c>
       <c r="AX112" t="n">
         <v>-0.11912411703188</v>
@@ -20357,7 +20421,7 @@
         <v>-0.82711533875475</v>
       </c>
       <c r="BA112" t="n">
-        <v>1.04793742623356</v>
+        <v>1.05255613643794</v>
       </c>
       <c r="BB112" t="n">
         <v>-0.592440064162914</v>
@@ -20521,7 +20585,7 @@
         <v>0.31733548925059</v>
       </c>
       <c r="AW113" t="n">
-        <v>0.187360638612032</v>
+        <v>0.345201304625029</v>
       </c>
       <c r="AX113" t="n">
         <v>0.0000775981342769585</v>
@@ -20533,7 +20597,7 @@
         <v>-1.77391382492672</v>
       </c>
       <c r="BA113" t="n">
-        <v>0.471030842245731</v>
+        <v>0.474614825424544</v>
       </c>
       <c r="BB113" t="n">
         <v>-1.06171244026329</v>
@@ -20697,7 +20761,7 @@
         <v>-0.728746728644785</v>
       </c>
       <c r="AW114" t="n">
-        <v>0.529653077116775</v>
+        <v>0.621376688216885</v>
       </c>
       <c r="AX114" t="n">
         <v>-0.651719746747396</v>
@@ -20709,7 +20773,7 @@
         <v>-0.418764251524614</v>
       </c>
       <c r="BA114" t="n">
-        <v>1.07777742195707</v>
+        <v>1.08244965252484</v>
       </c>
       <c r="BB114" t="n">
         <v>0.522895444492656</v>
@@ -20873,7 +20937,7 @@
         <v>0.646923037354612</v>
       </c>
       <c r="AW115" t="n">
-        <v>0.0575440348440829</v>
+        <v>0.240460018200999</v>
       </c>
       <c r="AX115" t="n">
         <v>-0.393787256070568</v>
@@ -20885,7 +20949,7 @@
         <v>0.347998513224192</v>
       </c>
       <c r="BA115" t="n">
-        <v>2.08736394393578</v>
+        <v>2.09384694679827</v>
       </c>
       <c r="BB115" t="n">
         <v>-0.0971739877666864</v>
@@ -21049,7 +21113,7 @@
         <v>-0.513798327707379</v>
       </c>
       <c r="AW116" t="n">
-        <v>0.642928122725586</v>
+        <v>0.712771576485691</v>
       </c>
       <c r="AX116" t="n">
         <v>0.473640693840389</v>
@@ -21061,7 +21125,7 @@
         <v>0.641532893082507</v>
       </c>
       <c r="BA116" t="n">
-        <v>0.769430799480817</v>
+        <v>0.77354998629354</v>
       </c>
       <c r="BB116" t="n">
         <v>-0.3218788185956</v>
@@ -21225,7 +21289,7 @@
         <v>0.962180692062807</v>
       </c>
       <c r="AW117" t="n">
-        <v>0.0960831945643985</v>
+        <v>0.271554971000894</v>
       </c>
       <c r="AX117" t="n">
         <v>-0.574075446582567</v>
@@ -21237,7 +21301,7 @@
         <v>-0.2244496666209</v>
       </c>
       <c r="BA117" t="n">
-        <v>1.47067069898327</v>
+        <v>1.47604761433568</v>
       </c>
       <c r="BB117" t="n">
         <v>-0.657193353106697</v>
@@ -21401,7 +21465,7 @@
         <v>-0.599777688082342</v>
       </c>
       <c r="AW118" t="n">
-        <v>0.0134979595221753</v>
+        <v>0.204921863163504</v>
       </c>
       <c r="AX118" t="n">
         <v>-0.320217603281908</v>
@@ -21413,7 +21477,7 @@
         <v>-0.0466473058959796</v>
       </c>
       <c r="BA118" t="n">
-        <v>1.75912399097718</v>
+        <v>1.76501826984238</v>
       </c>
       <c r="BB118" t="n">
         <v>0.224681773004798</v>
@@ -21577,7 +21641,7 @@
         <v>1.24877855997935</v>
       </c>
       <c r="AW119" t="n">
-        <v>-0.166686746548472</v>
+        <v>0.0595415546360138</v>
       </c>
       <c r="AX119" t="n">
         <v>1.17863445462987</v>
@@ -21589,7 +21653,7 @@
         <v>0.157223133798564</v>
       </c>
       <c r="BA119" t="n">
-        <v>1.74917732573601</v>
+        <v>1.75505376448008</v>
       </c>
       <c r="BB119" t="n">
         <v>-0.282489334140822</v>
@@ -21753,7 +21817,7 @@
         <v>0.661252930750438</v>
       </c>
       <c r="AW120" t="n">
-        <v>0.674176371300901</v>
+        <v>0.737983927288882</v>
       </c>
       <c r="AX120" t="n">
         <v>0.347752036976961</v>
@@ -21765,7 +21829,7 @@
         <v>1.08924238606032</v>
       </c>
       <c r="BA120" t="n">
-        <v>1.21703073533344</v>
+        <v>1.22195272759703</v>
       </c>
       <c r="BB120" t="n">
         <v>0.942206584846686</v>
@@ -21929,7 +21993,7 @@
         <v>-0.413489073936589</v>
       </c>
       <c r="AW121" t="n">
-        <v>0.569068626093024</v>
+        <v>0.653178747314513</v>
       </c>
       <c r="AX121" t="n">
         <v>-0.507219323728544</v>
@@ -21941,7 +22005,7 @@
         <v>-1.9469809728051</v>
       </c>
       <c r="BA121" t="n">
-        <v>0.301937533145849</v>
+        <v>0.305218234265446</v>
       </c>
       <c r="BB121" t="n">
         <v>-1.22334370430001</v>
@@ -22105,7 +22169,7 @@
         <v>-0.829055982415574</v>
       </c>
       <c r="AW122" t="n">
-        <v>0.353013238405877</v>
+        <v>0.478856522049352</v>
       </c>
       <c r="AX122" t="n">
         <v>-0.0696434072958139</v>
@@ -22117,7 +22181,7 @@
         <v>0.125004159791165</v>
       </c>
       <c r="BA122" t="n">
-        <v>1.01312409788947</v>
+        <v>1.01768036766989</v>
       </c>
       <c r="BB122" t="n">
         <v>0.662186403913233</v>
@@ -22281,7 +22345,7 @@
         <v>0.345995276042245</v>
       </c>
       <c r="AW123" t="n">
-        <v>0.585239048432697</v>
+        <v>0.6662256980798</v>
       </c>
       <c r="AX123" t="n">
         <v>0.624708411488371</v>
@@ -22293,7 +22357,7 @@
         <v>-0.649727919361742</v>
       </c>
       <c r="BA123" t="n">
-        <v>1.18221740698935</v>
+        <v>1.18707695882898</v>
       </c>
       <c r="BB123" t="n">
         <v>0.400737651018294</v>
@@ -22382,7 +22446,7 @@
         <v>-0.0106120196482577</v>
       </c>
       <c r="X124" t="n">
-        <v>-0.085802094526895</v>
+        <v>-0.0858020945268951</v>
       </c>
       <c r="Y124" t="n">
         <v>0.809509838710827</v>
@@ -22457,7 +22521,7 @@
         <v>-0.900705449394709</v>
       </c>
       <c r="AW124" t="n">
-        <v>0.358853135677269</v>
+        <v>0.483568387365774</v>
       </c>
       <c r="AX124" t="n">
         <v>0.624708411488371</v>
@@ -22469,7 +22533,7 @@
         <v>-0.242109081540865</v>
       </c>
       <c r="BA124" t="n">
-        <v>1.0678307567159</v>
+        <v>1.07248514716254</v>
       </c>
       <c r="BB124" t="n">
         <v>-0.897866042639161</v>
@@ -22564,7 +22628,7 @@
         <v>-0.664271929633818</v>
       </c>
       <c r="Z125" t="n">
-        <v>-0.333835075426574</v>
+        <v>-0.333835075426575</v>
       </c>
       <c r="AA125" t="n">
         <v>-0.831935779476728</v>
@@ -22633,7 +22697,7 @@
         <v>-0.0695716324367406</v>
       </c>
       <c r="AW125" t="n">
-        <v>0.38512978293265</v>
+        <v>0.504769449144888</v>
       </c>
       <c r="AX125" t="n">
         <v>0.0707890154062104</v>
@@ -22645,7 +22709,7 @@
         <v>-0.292439024270604</v>
       </c>
       <c r="BA125" t="n">
-        <v>0.684884144930876</v>
+        <v>0.688851690713991</v>
       </c>
       <c r="BB125" t="n">
         <v>-0.339221949810764</v>
@@ -22809,7 +22873,7 @@
         <v>0.517953996792167</v>
       </c>
       <c r="AW126" t="n">
-        <v>0.552472727175272</v>
+        <v>0.639788504837397</v>
       </c>
       <c r="AX126" t="n">
         <v>1.24380222441123</v>
@@ -22821,7 +22885,7 @@
         <v>0.198753879460374</v>
       </c>
       <c r="BA126" t="n">
-        <v>1.74917732573601</v>
+        <v>1.75505376448008</v>
       </c>
       <c r="BB126" t="n">
         <v>1.08498296773181</v>
@@ -22985,7 +23049,7 @@
         <v>0.532283890187996</v>
       </c>
       <c r="AW127" t="n">
-        <v>0.261252508462492</v>
+        <v>0.40482025381776</v>
       </c>
       <c r="AX127" t="n">
         <v>0.852795605723107</v>
@@ -22997,7 +23061,7 @@
         <v>0.854226938158623</v>
       </c>
       <c r="BA127" t="n">
-        <v>0.978310769545377</v>
+        <v>0.982804598901837</v>
       </c>
       <c r="BB127" t="n">
         <v>0.607647925303804</v>
@@ -23161,7 +23225,7 @@
         <v>-0.786066302228093</v>
       </c>
       <c r="AW128" t="n">
-        <v>-0.126260690699288</v>
+        <v>0.0921589315492328</v>
       </c>
       <c r="AX128" t="n">
         <v>-1.29772085588352</v>
@@ -23173,7 +23237,7 @@
         <v>-0.567410881604203</v>
       </c>
       <c r="BA128" t="n">
-        <v>1.29163072464222</v>
+        <v>1.29668651781428</v>
       </c>
       <c r="BB128" t="n">
         <v>-0.179060442656685</v>
@@ -23337,7 +23401,7 @@
         <v>0.747232291125401</v>
       </c>
       <c r="AW129" t="n">
-        <v>0.38512978293265</v>
+        <v>0.504769449144888</v>
       </c>
       <c r="AX129" t="n">
         <v>-0.298495013354791</v>
@@ -23349,7 +23413,7 @@
         <v>0.346192298014686</v>
       </c>
       <c r="BA129" t="n">
-        <v>1.56019068615379</v>
+        <v>1.56572816259638</v>
       </c>
       <c r="BB129" t="n">
         <v>0.631709945125328</v>
@@ -23513,7 +23577,7 @@
         <v>0.202696342083974</v>
       </c>
       <c r="AW130" t="n">
-        <v>0.288781305538684</v>
+        <v>0.427031600716194</v>
       </c>
       <c r="AX130" t="n">
         <v>0.372931097761515</v>
@@ -23525,7 +23589,7 @@
         <v>0.567990644079256</v>
       </c>
       <c r="BA130" t="n">
-        <v>0.719697473274969</v>
+        <v>0.72372745948204</v>
       </c>
       <c r="BB130" t="n">
         <v>-0.434063261794898</v>
@@ -23689,7 +23753,7 @@
         <v>-0.327509713561627</v>
       </c>
       <c r="AW131" t="n">
-        <v>0.674176371300901</v>
+        <v>0.737983927288882</v>
       </c>
       <c r="AX131" t="n">
         <v>-0.0937389974077486</v>
@@ -23701,7 +23765,7 @@
         <v>-0.804330177969972</v>
       </c>
       <c r="BA131" t="n">
-        <v>1.21205740271286</v>
+        <v>1.21697047491588</v>
       </c>
       <c r="BB131" t="n">
         <v>-0.65058994539826</v>
@@ -23865,7 +23929,7 @@
         <v>0.245686022271455</v>
       </c>
       <c r="AW132" t="n">
-        <v>0.577827893906935</v>
+        <v>0.660246078860188</v>
       </c>
       <c r="AX132" t="n">
         <v>-1.43990810225163</v>
@@ -23877,7 +23941,7 @@
         <v>-0.627906886965822</v>
       </c>
       <c r="BA132" t="n">
-        <v>1.52040402518911</v>
+        <v>1.52587014114718</v>
       </c>
       <c r="BB132" t="n">
         <v>0.340908047631358</v>
@@ -23972,7 +24036,7 @@
         <v>-0.687117599664007</v>
       </c>
       <c r="Z133" t="n">
-        <v>-0.583703967414414</v>
+        <v>-0.583703967414415</v>
       </c>
       <c r="AA133" t="n">
         <v>-0.559534291731016</v>
@@ -24041,7 +24105,7 @@
         <v>1.23444866658352</v>
       </c>
       <c r="AW133" t="n">
-        <v>0.509007057402808</v>
+        <v>0.604718644472016</v>
       </c>
       <c r="AX133" t="n">
         <v>0.901671433059122</v>
@@ -24053,7 +24117,7 @@
         <v>0.155819655764151</v>
       </c>
       <c r="BA133" t="n">
-        <v>1.00815076526889</v>
+        <v>1.01269811498874</v>
       </c>
       <c r="BB133" t="n">
         <v>0.0898210807590383</v>
@@ -24217,7 +24281,7 @@
         <v>-0.155550992811702</v>
       </c>
       <c r="AW134" t="n">
-        <v>0.665659902621219</v>
+        <v>0.731112495904847</v>
       </c>
       <c r="AX134" t="n">
         <v>0.556024347315511</v>
@@ -24229,7 +24293,7 @@
         <v>0.0387695876940898</v>
       </c>
       <c r="BA134" t="n">
-        <v>-0.424169029459525</v>
+        <v>-0.422190657182445</v>
       </c>
       <c r="BB134" t="n">
         <v>0.220461471098928</v>
@@ -24393,7 +24457,7 @@
         <v>0.303005595854762</v>
       </c>
       <c r="AW135" t="n">
-        <v>0.591591136258678</v>
+        <v>0.671350819451493</v>
       </c>
       <c r="AX135" t="n">
         <v>-0.48313038067595</v>
@@ -24405,7 +24469,7 @@
         <v>0.669870945220833</v>
       </c>
       <c r="BA135" t="n">
-        <v>0.50087083796924</v>
+        <v>0.504508341511443</v>
       </c>
       <c r="BB135" t="n">
         <v>0.636108717509803</v>
@@ -24569,7 +24633,7 @@
         <v>-0.184210779603357</v>
       </c>
       <c r="AW136" t="n">
-        <v>0.577827893906935</v>
+        <v>0.660246078860188</v>
       </c>
       <c r="AX136" t="n">
         <v>0.624708411488371</v>
@@ -24581,7 +24645,7 @@
         <v>0.789837806771109</v>
       </c>
       <c r="BA136" t="n">
-        <v>-0.822035639106305</v>
+        <v>-0.820770871674439</v>
       </c>
       <c r="BB136" t="n">
         <v>0.600897541907104</v>
@@ -24745,7 +24809,7 @@
         <v>0.56094367697965</v>
       </c>
       <c r="AW137" t="n">
-        <v>0.229489756959881</v>
+        <v>0.379192781243473</v>
       </c>
       <c r="AX137" t="n">
         <v>1.37129946963523</v>
@@ -24757,7 +24821,7 @@
         <v>1.02492647961373</v>
       </c>
       <c r="BA137" t="n">
-        <v>-0.265022385600812</v>
+        <v>-0.262758571385647</v>
       </c>
       <c r="BB137" t="n">
         <v>0.284563867708971</v>
@@ -24852,7 +24916,7 @@
         <v>-0.133063917462853</v>
       </c>
       <c r="Z138" t="n">
-        <v>-0.00576050418635905</v>
+        <v>-0.00576050418635906</v>
       </c>
       <c r="AA138" t="n">
         <v>0.0662723004814374</v>
@@ -24921,7 +24985,7 @@
         <v>-0.65709726166565</v>
       </c>
       <c r="AW138" t="n">
-        <v>0.288781305538684</v>
+        <v>0.427031600716194</v>
       </c>
       <c r="AX138" t="n">
         <v>-0.593916918716119</v>
@@ -24933,7 +24997,7 @@
         <v>-0.576954532238213</v>
       </c>
       <c r="BA138" t="n">
-        <v>0.416324183419299</v>
+        <v>0.419810045931894</v>
       </c>
       <c r="BB138" t="n">
         <v>-0.13707788713039</v>
@@ -25067,7 +25131,7 @@
         <v>0.488227846605137</v>
       </c>
       <c r="AM139" t="n">
-        <v>0.735932552866716</v>
+        <v>0.735932552866717</v>
       </c>
       <c r="AN139" t="n">
         <v>0.645435129263989</v>
@@ -25097,7 +25161,7 @@
         <v>0.646923037354612</v>
       </c>
       <c r="AW139" t="n">
-        <v>0.426421822360585</v>
+        <v>0.538085536634626</v>
       </c>
       <c r="AX139" t="n">
         <v>0.73549494952854</v>
@@ -25109,7 +25173,7 @@
         <v>1.1275024176941</v>
       </c>
       <c r="BA139" t="n">
-        <v>0.227337543837078</v>
+        <v>0.230484444048197</v>
       </c>
       <c r="BB139" t="n">
         <v>0.564059135470051</v>
@@ -25204,7 +25268,7 @@
         <v>0.533083389208079</v>
       </c>
       <c r="Z140" t="n">
-        <v>0.581785238995848</v>
+        <v>0.581785238995849</v>
       </c>
       <c r="AA140" t="n">
         <v>0.66064819175115</v>
@@ -25273,7 +25337,7 @@
         <v>0.403314849625552</v>
       </c>
       <c r="AW140" t="n">
-        <v>0.426421822360585</v>
+        <v>0.538085536634626</v>
       </c>
       <c r="AX140" t="n">
         <v>0.977208615412783</v>
@@ -25285,7 +25349,7 @@
         <v>0.165473143809549</v>
       </c>
       <c r="BA140" t="n">
-        <v>-0.409249031597771</v>
+        <v>-0.407243899138995</v>
       </c>
       <c r="BB140" t="n">
         <v>-0.23205567653934</v>
@@ -25419,7 +25483,7 @@
         <v>-0.651079869922987</v>
       </c>
       <c r="AM141" t="n">
-        <v>1.17876488514591</v>
+        <v>1.17876488514592</v>
       </c>
       <c r="AN141" t="n">
         <v>0.0635876205907209</v>
@@ -25449,7 +25513,7 @@
         <v>-0.771736408832266</v>
       </c>
       <c r="AW141" t="n">
-        <v>0.288781305538684</v>
+        <v>0.427031600716194</v>
       </c>
       <c r="AX141" t="n">
         <v>0.221856733054192</v>
@@ -25461,7 +25525,7 @@
         <v>-1.37373952276664</v>
       </c>
       <c r="BA141" t="n">
-        <v>-2.44334207341694</v>
+        <v>-2.44498524572932</v>
       </c>
       <c r="BB141" t="n">
         <v>-1.66460671352263</v>
@@ -25625,7 +25689,7 @@
         <v>0.890531225083672</v>
       </c>
       <c r="AW142" t="n">
-        <v>0.4429391006063</v>
+        <v>0.551412344773687</v>
       </c>
       <c r="AX142" t="n">
         <v>1.37129946963523</v>
@@ -25637,7 +25701,7 @@
         <v>1.30413317936421</v>
       </c>
       <c r="BA142" t="n">
-        <v>0.222364211216494</v>
+        <v>0.225502191367047</v>
       </c>
       <c r="BB142" t="n">
         <v>0.591417610014069</v>
@@ -25801,7 +25865,7 @@
         <v>-0.55678800789486</v>
       </c>
       <c r="AW143" t="n">
-        <v>0.674176371300901</v>
+        <v>0.737983927288882</v>
       </c>
       <c r="AX143" t="n">
         <v>1.17863445462987</v>
@@ -25813,7 +25877,7 @@
         <v>1.53651252939257</v>
       </c>
       <c r="BA143" t="n">
-        <v>1.07280408933649</v>
+        <v>1.07746739984369</v>
       </c>
       <c r="BB143" t="n">
         <v>4.05757676113668</v>
@@ -25902,7 +25966,7 @@
         <v>-0.958922158786782</v>
       </c>
       <c r="X144" t="n">
-        <v>0.388561371665874</v>
+        <v>0.388561371665875</v>
       </c>
       <c r="Y144" t="n">
         <v>0.160019550215545</v>
@@ -25926,7 +25990,7 @@
         <v>-1.01969793490601</v>
       </c>
       <c r="AF144" t="n">
-        <v>0.67942911045338</v>
+        <v>0.679429110453381</v>
       </c>
       <c r="AG144" t="n">
         <v>0.365346861544547</v>
@@ -25977,7 +26041,7 @@
         <v>0.474964316604687</v>
       </c>
       <c r="AW144" t="n">
-        <v>0.0960831945643985</v>
+        <v>0.271554971000894</v>
       </c>
       <c r="AX144" t="n">
         <v>0.347752036976961</v>
@@ -25989,7 +26053,7 @@
         <v>0.759425047973216</v>
       </c>
       <c r="BA144" t="n">
-        <v>-0.503742351388881</v>
+        <v>-0.501906700080844</v>
       </c>
       <c r="BB144" t="n">
         <v>-0.198891662308891</v>
@@ -26153,7 +26217,7 @@
         <v>0.532283890187996</v>
       </c>
       <c r="AW145" t="n">
-        <v>0.538154515373862</v>
+        <v>0.628235992448056</v>
       </c>
       <c r="AX145" t="n">
         <v>0.207372790749667</v>
@@ -26164,7 +26228,9 @@
       <c r="AZ145" t="n">
         <v>-0.82711533875475</v>
       </c>
-      <c r="BA145"/>
+      <c r="BA145" t="n">
+        <v>-0.546746974211193</v>
+      </c>
       <c r="BB145" t="n">
         <v>-0.492549087460563</v>
       </c>
@@ -26327,7 +26393,7 @@
         <v>-1.80348873333181</v>
       </c>
       <c r="AW146" t="n">
-        <v>0.187360638612032</v>
+        <v>0.345201304625029</v>
       </c>
       <c r="AX146" t="n">
         <v>1.08229862359752</v>
@@ -26339,7 +26405,7 @@
         <v>-1.77391382492672</v>
       </c>
       <c r="BA146" t="n">
-        <v>-1.17514225516782</v>
+        <v>-1.17451081203608</v>
       </c>
       <c r="BB146" t="n">
         <v>-0.973663504729646</v>
@@ -26503,7 +26569,7 @@
         <v>-0.499468434311552</v>
       </c>
       <c r="AW147" t="n">
-        <v>0.529653077116775</v>
+        <v>0.621376688216885</v>
       </c>
       <c r="AX147" t="n">
         <v>-0.124714293937849</v>
@@ -26515,7 +26581,7 @@
         <v>-0.418764251524614</v>
       </c>
       <c r="BA147" t="n">
-        <v>0.088084230460705</v>
+        <v>0.0909813689759986</v>
       </c>
       <c r="BB147" t="n">
         <v>0.627857082440118</v>
@@ -26679,7 +26745,7 @@
         <v>0.288675702458936</v>
       </c>
       <c r="AW148" t="n">
-        <v>0.0575440348440829</v>
+        <v>0.240460018200999</v>
       </c>
       <c r="AX148" t="n">
         <v>0.72104424252072</v>
@@ -26691,7 +26757,7 @@
         <v>0.347998513224192</v>
       </c>
       <c r="BA148" t="n">
-        <v>-1.45364888192057</v>
+        <v>-1.45351696218048</v>
       </c>
       <c r="BB148" t="n">
         <v>-0.0310349280478415</v>
@@ -26855,7 +26921,7 @@
         <v>-0.528128221103206</v>
       </c>
       <c r="AW149" t="n">
-        <v>0.642928122725586</v>
+        <v>0.712771576485691</v>
       </c>
       <c r="AX149" t="n">
         <v>0.484162988777546</v>
@@ -26867,7 +26933,7 @@
         <v>0.641532893082507</v>
       </c>
       <c r="BA149" t="n">
-        <v>-0.633048999524085</v>
+        <v>-0.631445269790742</v>
       </c>
       <c r="BB149" t="n">
         <v>-0.309711331260022</v>
@@ -27031,7 +27097,7 @@
         <v>0.431974636417206</v>
       </c>
       <c r="AW150" t="n">
-        <v>0.0960831945643985</v>
+        <v>0.271554971000894</v>
       </c>
       <c r="AX150" t="n">
         <v>0.2722148546233</v>
@@ -27043,7 +27109,7 @@
         <v>-0.2244496666209</v>
       </c>
       <c r="BA150" t="n">
-        <v>-0.652942330006424</v>
+        <v>-0.651374280515342</v>
       </c>
       <c r="BB150" t="n">
         <v>-0.638327973691655</v>
@@ -27207,7 +27273,7 @@
         <v>-0.413489073936589</v>
       </c>
       <c r="AW151" t="n">
-        <v>0.0134979595221753</v>
+        <v>0.204921863163504</v>
       </c>
       <c r="AX151" t="n">
         <v>0.809350425868872</v>
@@ -27219,7 +27285,7 @@
         <v>-0.0466473058959796</v>
       </c>
       <c r="BA151" t="n">
-        <v>-0.508715684009466</v>
+        <v>-0.506888952761994</v>
       </c>
       <c r="BB151" t="n">
         <v>0.280490541491366</v>
@@ -27383,7 +27449,7 @@
         <v>0.790221971312882</v>
       </c>
       <c r="AW152" t="n">
-        <v>-0.166686746548472</v>
+        <v>0.0595415546360138</v>
       </c>
       <c r="AX152" t="n">
         <v>1.53314207047533</v>
@@ -27395,7 +27461,7 @@
         <v>0.157223133798564</v>
       </c>
       <c r="BA152" t="n">
-        <v>-0.891662295794492</v>
+        <v>-0.890522409210539</v>
       </c>
       <c r="BB152" t="n">
         <v>-0.208907005637745</v>
@@ -27559,7 +27625,7 @@
         <v>0.374655062833897</v>
       </c>
       <c r="AW153" t="n">
-        <v>0.674176371300901</v>
+        <v>0.737983927288882</v>
       </c>
       <c r="AX153" t="n">
         <v>1.13148686272258</v>
@@ -27571,7 +27637,7 @@
         <v>1.08924238606032</v>
       </c>
       <c r="BA153" t="n">
-        <v>-0.389355701115431</v>
+        <v>-0.387314888414395</v>
       </c>
       <c r="BB153" t="n">
         <v>1.17146766201179</v>
@@ -27735,7 +27801,7 @@
         <v>-1.0010147031655</v>
       </c>
       <c r="AW154" t="n">
-        <v>0.569068626093024</v>
+        <v>0.653178747314513</v>
       </c>
       <c r="AX154" t="n">
         <v>-0.141351883468931</v>
@@ -27747,7 +27813,7 @@
         <v>-1.9469809728051</v>
       </c>
       <c r="BA154" t="n">
-        <v>-1.508355540747</v>
+        <v>-1.50832174167313</v>
       </c>
       <c r="BB154" t="n">
         <v>-1.1771093520775</v>
@@ -27911,7 +27977,7 @@
         <v>-0.198540672999185</v>
       </c>
       <c r="AW155" t="n">
-        <v>0.353013238405877</v>
+        <v>0.478856522049352</v>
       </c>
       <c r="AX155" t="n">
         <v>0.255431029786711</v>
@@ -27923,7 +27989,7 @@
         <v>0.125004159791165</v>
       </c>
       <c r="BA155" t="n">
-        <v>0.282044202663511</v>
+        <v>0.285289223540846</v>
       </c>
       <c r="BB155" t="n">
         <v>0.811083274388214</v>
@@ -28087,7 +28153,7 @@
         <v>0.159706661896491</v>
       </c>
       <c r="AW156" t="n">
-        <v>0.585239048432697</v>
+        <v>0.6662256980798</v>
       </c>
       <c r="AX156" t="n">
         <v>1.08229862359752</v>
@@ -28099,7 +28165,7 @@
         <v>-0.649727919361742</v>
       </c>
       <c r="BA156" t="n">
-        <v>-0.0263024198127443</v>
+        <v>-0.0236104426904498</v>
       </c>
       <c r="BB156" t="n">
         <v>0.618114693960898</v>
@@ -28263,7 +28329,7 @@
         <v>-0.757406515436438</v>
       </c>
       <c r="AW157" t="n">
-        <v>0.585239048432697</v>
+        <v>0.6662256980798</v>
       </c>
       <c r="AX157" t="n">
         <v>-0.48313038067595</v>
@@ -28275,7 +28341,7 @@
         <v>-0.242109081540865</v>
       </c>
       <c r="BA157" t="n">
-        <v>-0.692728990971102</v>
+        <v>-0.691232301964541</v>
       </c>
       <c r="BB157" t="n">
         <v>-0.826887283471048</v>
@@ -28370,7 +28436,7 @@
         <v>-0.664271929633818</v>
       </c>
       <c r="Z158" t="n">
-        <v>-0.333835075426574</v>
+        <v>-0.333835075426575</v>
       </c>
       <c r="AA158" t="n">
         <v>-0.831935779476728</v>
@@ -28439,7 +28505,7 @@
         <v>0.345995276042245</v>
       </c>
       <c r="AW158" t="n">
-        <v>0.38512978293265</v>
+        <v>0.504769449144888</v>
       </c>
       <c r="AX158" t="n">
         <v>0.274268795959738</v>
@@ -28451,7 +28517,7 @@
         <v>-0.292439024270604</v>
       </c>
       <c r="BA158" t="n">
-        <v>-0.812088973865136</v>
+        <v>-0.810806366312139</v>
       </c>
       <c r="BB158" t="n">
         <v>-0.261776260359031</v>
@@ -28615,7 +28681,7 @@
         <v>0.388984956229725</v>
       </c>
       <c r="AW159" t="n">
-        <v>0.552472727175272</v>
+        <v>0.639788504837397</v>
       </c>
       <c r="AX159" t="n">
         <v>1.73255385071203</v>
@@ -28627,7 +28693,7 @@
         <v>0.198753879460374</v>
       </c>
       <c r="BA159" t="n">
-        <v>1.22200406795403</v>
+        <v>1.22693498027818</v>
       </c>
       <c r="BB159" t="n">
         <v>1.14195704346104</v>
@@ -28791,7 +28857,7 @@
         <v>-0.399159180540762</v>
       </c>
       <c r="AW160" t="n">
-        <v>0.261252508462492</v>
+        <v>0.40482025381776</v>
       </c>
       <c r="AX160" t="n">
         <v>0.770478422841398</v>
@@ -28803,7 +28869,7 @@
         <v>0.854226938158623</v>
       </c>
       <c r="BA160" t="n">
-        <v>0.674937479689706</v>
+        <v>0.678887185351691</v>
       </c>
       <c r="BB160" t="n">
         <v>0.89289624143408</v>
@@ -28967,7 +29033,7 @@
         <v>-0.829055982415574</v>
       </c>
       <c r="AW161" t="n">
-        <v>0.609943282247355</v>
+        <v>0.686158073097811</v>
       </c>
       <c r="AX161" t="n">
         <v>-0.320217603281908</v>
@@ -28979,7 +29045,7 @@
         <v>-0.567410881604203</v>
       </c>
       <c r="BA161" t="n">
-        <v>-0.757382315038704</v>
+        <v>-0.75600158681949</v>
       </c>
       <c r="BB161" t="n">
         <v>-0.0759360008125242</v>
@@ -29143,7 +29209,7 @@
         <v>0.102387088313184</v>
       </c>
       <c r="AW162" t="n">
-        <v>0.491620327019281</v>
+        <v>0.590690327182698</v>
       </c>
       <c r="AX162" t="n">
         <v>1.11532786146406</v>
@@ -29155,7 +29221,7 @@
         <v>0.346192298014686</v>
       </c>
       <c r="BA162" t="n">
-        <v>0.655044149207368</v>
+        <v>0.658958174627091</v>
       </c>
       <c r="BB162" t="n">
         <v>0.916895271674918</v>
@@ -29319,7 +29385,7 @@
         <v>0.0450675147298754</v>
       </c>
       <c r="AW163" t="n">
-        <v>0.288781305538684</v>
+        <v>0.427031600716194</v>
       </c>
       <c r="AX163" t="n">
         <v>0.0707890154062104</v>
@@ -29331,7 +29397,7 @@
         <v>0.567990644079256</v>
       </c>
       <c r="BA163" t="n">
-        <v>-0.747435649797534</v>
+        <v>-0.74603708145719</v>
       </c>
       <c r="BB163" t="n">
         <v>-0.324093952183009</v>
@@ -29495,7 +29561,7 @@
         <v>-0.413489073936589</v>
       </c>
       <c r="AW164" t="n">
-        <v>0.674176371300901</v>
+        <v>0.737983927288882</v>
       </c>
       <c r="AX164" t="n">
         <v>0.133497373231311</v>
@@ -29507,7 +29573,7 @@
         <v>-0.804330177969972</v>
       </c>
       <c r="BA164" t="n">
-        <v>-1.30942223592361</v>
+        <v>-1.30903163442713</v>
       </c>
       <c r="BB164" t="n">
         <v>-0.592933482544943</v>
@@ -29671,7 +29737,7 @@
         <v>0.0880571949173561</v>
       </c>
       <c r="AW165" t="n">
-        <v>0.577827893906935</v>
+        <v>0.660246078860188</v>
       </c>
       <c r="AX165" t="n">
         <v>-0.835630584600363</v>
@@ -29683,7 +29749,7 @@
         <v>-0.627906886965822</v>
       </c>
       <c r="BA165" t="n">
-        <v>0.60531082300152</v>
+        <v>0.609135647815592</v>
       </c>
       <c r="BB165" t="n">
         <v>0.539566686847184</v>
@@ -29778,7 +29844,7 @@
         <v>-0.687117599664007</v>
       </c>
       <c r="Z166" t="n">
-        <v>-0.583703967414414</v>
+        <v>-0.583703967414415</v>
       </c>
       <c r="AA166" t="n">
         <v>-0.559534291731016</v>
@@ -29847,7 +29913,7 @@
         <v>0.933520905271153</v>
       </c>
       <c r="AW166" t="n">
-        <v>0.509007057402808</v>
+        <v>0.604718644472016</v>
       </c>
       <c r="AX166" t="n">
         <v>1.08229862359752</v>
@@ -29859,7 +29925,7 @@
         <v>0.155819655764151</v>
       </c>
       <c r="BA166" t="n">
-        <v>-0.359515705391923</v>
+        <v>-0.357421372327496</v>
       </c>
       <c r="BB166" t="n">
         <v>0.149640185882527</v>
@@ -30023,7 +30089,7 @@
         <v>-0.284520033374146</v>
       </c>
       <c r="AW167" t="n">
-        <v>0.665659902621219</v>
+        <v>0.731112495904847</v>
       </c>
       <c r="AX167" t="n">
         <v>0.556024347315511</v>
@@ -30035,7 +30101,7 @@
         <v>0.544302375689725</v>
       </c>
       <c r="BA167" t="n">
-        <v>-0.424169029459525</v>
+        <v>-0.422190657182445</v>
       </c>
       <c r="BB167" t="n">
         <v>0.199664411209558</v>
@@ -30199,7 +30265,7 @@
         <v>0.260015915667281</v>
       </c>
       <c r="AW168" t="n">
-        <v>0.591591136258678</v>
+        <v>0.671350819451493</v>
       </c>
       <c r="AX168" t="n">
         <v>-0.48313038067595</v>
@@ -30211,7 +30277,7 @@
         <v>1.49384679714641</v>
       </c>
       <c r="BA168" t="n">
-        <v>0.50087083796924</v>
+        <v>0.504508341511443</v>
       </c>
       <c r="BB168" t="n">
         <v>0.543041612048286</v>
@@ -30375,7 +30441,7 @@
         <v>0.46063442320886</v>
       </c>
       <c r="AW169" t="n">
-        <v>0.577827893906935</v>
+        <v>0.660246078860188</v>
       </c>
       <c r="AX169" t="n">
         <v>0.624708411488371</v>
@@ -30387,7 +30453,7 @@
         <v>1.88165828844683</v>
       </c>
       <c r="BA169" t="n">
-        <v>-0.822035639106305</v>
+        <v>-0.820770871674439</v>
       </c>
       <c r="BB169" t="n">
         <v>0.552259087355134</v>
@@ -30551,7 +30617,7 @@
         <v>0.575273570375476</v>
       </c>
       <c r="AW170" t="n">
-        <v>0.229489756959881</v>
+        <v>0.379192781243473</v>
       </c>
       <c r="AX170" t="n">
         <v>1.37129946963523</v>
@@ -30563,7 +30629,7 @@
         <v>1.10105600986303</v>
       </c>
       <c r="BA170" t="n">
-        <v>-0.265022385600812</v>
+        <v>-0.262758571385647</v>
       </c>
       <c r="BB170" t="n">
         <v>0.050704551153893</v>
@@ -30652,7 +30718,7 @@
         <v>-1.58682478732974</v>
       </c>
       <c r="X171" t="n">
-        <v>-1.47043059044092</v>
+        <v>-1.47043059044093</v>
       </c>
       <c r="Y171" t="n">
         <v>-0.182347344005966</v>
@@ -30727,7 +30793,7 @@
         <v>-0.12689120602005</v>
       </c>
       <c r="AW171" t="n">
-        <v>0.288781305538684</v>
+        <v>0.427031600716194</v>
       </c>
       <c r="AX171" t="n">
         <v>-0.593916918716119</v>
@@ -30739,7 +30805,7 @@
         <v>0.416768936910438</v>
       </c>
       <c r="BA171" t="n">
-        <v>0.416324183419299</v>
+        <v>0.419810045931894</v>
       </c>
       <c r="BB171" t="n">
         <v>-0.122621778363271</v>
@@ -30834,7 +30900,7 @@
         <v>0.594282279769633</v>
       </c>
       <c r="Z172" t="n">
-        <v>0.201267446467568</v>
+        <v>0.201267446467569</v>
       </c>
       <c r="AA172" t="n">
         <v>0.914539379834871</v>
@@ -30873,7 +30939,7 @@
         <v>1.07847749874522</v>
       </c>
       <c r="AM172" t="n">
-        <v>0.735932552866716</v>
+        <v>0.735932552866717</v>
       </c>
       <c r="AN172" t="n">
         <v>0.645435129263989</v>
@@ -30903,7 +30969,7 @@
         <v>0.661252930750438</v>
       </c>
       <c r="AW172" t="n">
-        <v>0.426421822360585</v>
+        <v>0.538085536634626</v>
       </c>
       <c r="AX172" t="n">
         <v>0.73549494952854</v>
@@ -30915,7 +30981,7 @@
         <v>1.52264860724394</v>
       </c>
       <c r="BA172" t="n">
-        <v>0.227337543837078</v>
+        <v>0.230484444048197</v>
       </c>
       <c r="BB172" t="n">
         <v>0.683508376974975</v>
@@ -31028,7 +31094,7 @@
         <v>-0.332376729255229</v>
       </c>
       <c r="AF173" t="n">
-        <v>-0.758893769777108</v>
+        <v>-0.758893769777109</v>
       </c>
       <c r="AG173" t="n">
         <v>0.0959146099059861</v>
@@ -31079,7 +31145,7 @@
         <v>0.761562184521228</v>
       </c>
       <c r="AW173" t="n">
-        <v>0.426421822360585</v>
+        <v>0.538085536634626</v>
       </c>
       <c r="AX173" t="n">
         <v>0.977208615412783</v>
@@ -31091,7 +31157,7 @@
         <v>1.13455642033663</v>
       </c>
       <c r="BA173" t="n">
-        <v>-0.409249031597771</v>
+        <v>-0.407243899138995</v>
       </c>
       <c r="BB173" t="n">
         <v>-0.21740010076672</v>
@@ -31225,7 +31291,7 @@
         <v>-0.13706579347344</v>
       </c>
       <c r="AM174" t="n">
-        <v>1.17876488514591</v>
+        <v>1.17876488514592</v>
       </c>
       <c r="AN174" t="n">
         <v>0.0635876205907209</v>
@@ -31255,7 +31321,7 @@
         <v>-0.571117901290687</v>
       </c>
       <c r="AW174" t="n">
-        <v>0.288781305538684</v>
+        <v>0.427031600716194</v>
       </c>
       <c r="AX174" t="n">
         <v>0.221856733054192</v>
@@ -31267,7 +31333,7 @@
         <v>-1.05263595264972</v>
       </c>
       <c r="BA174" t="n">
-        <v>-2.44334207341694</v>
+        <v>-2.44498524572932</v>
       </c>
       <c r="BB174" t="n">
         <v>-1.6993244707433</v>
@@ -31362,7 +31428,7 @@
         <v>0.88765311436665</v>
       </c>
       <c r="Z175" t="n">
-        <v>0.510696426279138</v>
+        <v>0.510696426279139</v>
       </c>
       <c r="AA175" t="n">
         <v>0.964449186810243</v>
@@ -31431,7 +31497,7 @@
         <v>0.618263250562957</v>
       </c>
       <c r="AW175" t="n">
-        <v>0.4429391006063</v>
+        <v>0.551412344773687</v>
       </c>
       <c r="AX175" t="n">
         <v>1.37129946963523</v>
@@ -31443,7 +31509,7 @@
         <v>1.49659273243113</v>
       </c>
       <c r="BA175" t="n">
-        <v>0.222364211216494</v>
+        <v>0.225502191367047</v>
       </c>
       <c r="BB175" t="n">
         <v>0.623300836103931</v>
@@ -31607,7 +31673,7 @@
         <v>-0.743076622040612</v>
       </c>
       <c r="AW176" t="n">
-        <v>0.674176371300901</v>
+        <v>0.737983927288882</v>
       </c>
       <c r="AX176" t="n">
         <v>1.17863445462987</v>
@@ -31619,7 +31685,7 @@
         <v>1.50978542595462</v>
       </c>
       <c r="BA176" t="n">
-        <v>1.07280408933649</v>
+        <v>1.07746739984369</v>
       </c>
       <c r="BB176" t="n">
         <v>4.12037737307924</v>
@@ -31783,7 +31849,7 @@
         <v>0.388984956229725</v>
       </c>
       <c r="AW177" t="n">
-        <v>0.0960831945643985</v>
+        <v>0.271554971000894</v>
       </c>
       <c r="AX177" t="n">
         <v>0.347752036976961</v>
@@ -31795,7 +31861,7 @@
         <v>1.44592107331041</v>
       </c>
       <c r="BA177" t="n">
-        <v>-0.503742351388881</v>
+        <v>-0.501906700080844</v>
       </c>
       <c r="BB177" t="n">
         <v>-0.192151777175637</v>
@@ -31959,7 +32025,7 @@
         <v>0.102387088313184</v>
       </c>
       <c r="AW178" t="n">
-        <v>0.538154515373862</v>
+        <v>0.628235992448056</v>
       </c>
       <c r="AX178" t="n">
         <v>0.207372790749667</v>
@@ -31971,7 +32037,7 @@
         <v>-0.434458797196399</v>
       </c>
       <c r="BA178" t="n">
-        <v>-0.548502344974144</v>
+        <v>-0.546746974211193</v>
       </c>
       <c r="BB178" t="n">
         <v>-0.520453471703847</v>
@@ -32135,7 +32201,7 @@
         <v>-1.84647841351929</v>
       </c>
       <c r="AW179" t="n">
-        <v>0.187360638612032</v>
+        <v>0.345201304625029</v>
       </c>
       <c r="AX179" t="n">
         <v>1.08229862359752</v>
@@ -32147,7 +32213,7 @@
         <v>-1.45619080624921</v>
       </c>
       <c r="BA179" t="n">
-        <v>-1.17514225516782</v>
+        <v>-1.17451081203608</v>
       </c>
       <c r="BB179" t="n">
         <v>-0.997032639163638</v>
@@ -32311,7 +32377,7 @@
         <v>-1.0010147031655</v>
       </c>
       <c r="AW180" t="n">
-        <v>0.529653077116775</v>
+        <v>0.621376688216885</v>
       </c>
       <c r="AX180" t="n">
         <v>-0.124714293937849</v>
@@ -32323,7 +32389,7 @@
         <v>0.0368413309163744</v>
       </c>
       <c r="BA180" t="n">
-        <v>0.088084230460705</v>
+        <v>0.0909813689759986</v>
       </c>
       <c r="BB180" t="n">
         <v>0.602178330047691</v>
@@ -32436,7 +32502,7 @@
         <v>-0.206710230711924</v>
       </c>
       <c r="AF181" t="n">
-        <v>-0.0797972038841208</v>
+        <v>-0.0797972038841209</v>
       </c>
       <c r="AG181" t="n">
         <v>0.500062987363828</v>
@@ -32487,7 +32553,7 @@
         <v>0.446304529813032</v>
       </c>
       <c r="AW181" t="n">
-        <v>0.0575440348440829</v>
+        <v>0.240460018200999</v>
       </c>
       <c r="AX181" t="n">
         <v>0.72104424252072</v>
@@ -32499,7 +32565,7 @@
         <v>1.09632079701649</v>
       </c>
       <c r="BA181" t="n">
-        <v>-1.45364888192057</v>
+        <v>-1.45351696218048</v>
       </c>
       <c r="BB181" t="n">
         <v>-0.00651098463463178</v>
@@ -32663,7 +32729,7 @@
         <v>-1.08699406354046</v>
       </c>
       <c r="AW182" t="n">
-        <v>0.642928122725586</v>
+        <v>0.712771576485691</v>
       </c>
       <c r="AX182" t="n">
         <v>0.484162988777546</v>
@@ -32675,7 +32741,7 @@
         <v>1.13469066606166</v>
       </c>
       <c r="BA182" t="n">
-        <v>-0.633048999524085</v>
+        <v>-0.631445269790742</v>
       </c>
       <c r="BB182" t="n">
         <v>-0.381550948030825</v>
@@ -32839,7 +32905,7 @@
         <v>0.260015915667281</v>
       </c>
       <c r="AW183" t="n">
-        <v>0.0960831945643985</v>
+        <v>0.271554971000894</v>
       </c>
       <c r="AX183" t="n">
         <v>0.2722148546233</v>
@@ -32851,7 +32917,7 @@
         <v>0.0827655730337386</v>
       </c>
       <c r="BA183" t="n">
-        <v>-0.652942330006424</v>
+        <v>-0.651374280515342</v>
       </c>
       <c r="BB183" t="n">
         <v>-0.571705993854228</v>
@@ -33015,7 +33081,7 @@
         <v>-0.141221099415876</v>
       </c>
       <c r="AW184" t="n">
-        <v>0.0134979595221753</v>
+        <v>0.204921863163504</v>
       </c>
       <c r="AX184" t="n">
         <v>0.809350425868872</v>
@@ -33027,7 +33093,7 @@
         <v>0.538249113906517</v>
       </c>
       <c r="BA184" t="n">
-        <v>-0.508715684009466</v>
+        <v>-0.506888952761994</v>
       </c>
       <c r="BB184" t="n">
         <v>0.306851681007877</v>
@@ -33191,7 +33257,7 @@
         <v>0.331665382646416</v>
       </c>
       <c r="AW185" t="n">
-        <v>-0.166686746548472</v>
+        <v>0.0595415546360138</v>
       </c>
       <c r="AX185" t="n">
         <v>1.53314207047533</v>
@@ -33203,7 +33269,7 @@
         <v>0.853372647181154</v>
       </c>
       <c r="BA185" t="n">
-        <v>-0.891662295794492</v>
+        <v>-0.890522409210539</v>
       </c>
       <c r="BB185" t="n">
         <v>-0.309921296528971</v>
@@ -33367,7 +33433,7 @@
         <v>0.947850798666979</v>
       </c>
       <c r="AW186" t="n">
-        <v>0.674176371300901</v>
+        <v>0.737983927288882</v>
       </c>
       <c r="AX186" t="n">
         <v>1.13148686272258</v>
@@ -33379,7 +33445,7 @@
         <v>1.73625796408163</v>
       </c>
       <c r="BA186" t="n">
-        <v>-0.389355701115431</v>
+        <v>-0.387314888414395</v>
       </c>
       <c r="BB186" t="n">
         <v>1.35269918390487</v>
@@ -33468,7 +33534,7 @@
         <v>-0.439780163087157</v>
       </c>
       <c r="X187" t="n">
-        <v>-0.496062389612533</v>
+        <v>-0.496062389612534</v>
       </c>
       <c r="Y187" t="n">
         <v>-1.13637472450745</v>
@@ -33543,7 +33609,7 @@
         <v>-1.08699406354046</v>
       </c>
       <c r="AW187" t="n">
-        <v>0.569068626093024</v>
+        <v>0.653178747314513</v>
       </c>
       <c r="AX187" t="n">
         <v>-0.141351883468931</v>
@@ -33555,7 +33621,7 @@
         <v>-1.42884129081338</v>
       </c>
       <c r="BA187" t="n">
-        <v>-1.508355540747</v>
+        <v>-1.50832174167313</v>
       </c>
       <c r="BB187" t="n">
         <v>-1.1787680777022</v>
@@ -33650,7 +33716,7 @@
         <v>-0.347254902876174</v>
       </c>
       <c r="Z188" t="n">
-        <v>-0.916669512851651</v>
+        <v>-0.916669512851652</v>
       </c>
       <c r="AA188" t="n">
         <v>-0.108611663160268</v>
@@ -33719,7 +33785,7 @@
         <v>-0.0265819522492598</v>
       </c>
       <c r="AW188" t="n">
-        <v>0.353013238405877</v>
+        <v>0.478856522049352</v>
       </c>
       <c r="AX188" t="n">
         <v>0.255431029786711</v>
@@ -33731,7 +33797,7 @@
         <v>-0.286873928760236</v>
       </c>
       <c r="BA188" t="n">
-        <v>0.282044202663511</v>
+        <v>0.285289223540846</v>
       </c>
       <c r="BB188" t="n">
         <v>0.596456776468838</v>
@@ -33895,7 +33961,7 @@
         <v>0.274345809063109</v>
       </c>
       <c r="AW189" t="n">
-        <v>0.585239048432697</v>
+        <v>0.6662256980798</v>
       </c>
       <c r="AX189" t="n">
         <v>1.08229862359752</v>
@@ -33907,7 +33973,7 @@
         <v>0.378020739003813</v>
       </c>
       <c r="BA189" t="n">
-        <v>-0.0263024198127443</v>
+        <v>-0.0236104426904498</v>
       </c>
       <c r="BB189" t="n">
         <v>0.72303433885457</v>
@@ -34071,7 +34137,7 @@
         <v>-0.743076622040612</v>
       </c>
       <c r="AW190" t="n">
-        <v>0.585239048432697</v>
+        <v>0.6662256980798</v>
       </c>
       <c r="AX190" t="n">
         <v>-0.48313038067595</v>
@@ -34083,7 +34149,7 @@
         <v>0.593070186346379</v>
       </c>
       <c r="BA190" t="n">
-        <v>-0.692728990971102</v>
+        <v>-0.691232301964541</v>
       </c>
       <c r="BB190" t="n">
         <v>-0.845836648993669</v>
@@ -34247,7 +34313,7 @@
         <v>-0.184210779603357</v>
       </c>
       <c r="AW191" t="n">
-        <v>0.38512978293265</v>
+        <v>0.504769449144888</v>
       </c>
       <c r="AX191" t="n">
         <v>0.274268795959738</v>
@@ -34259,7 +34325,7 @@
         <v>0.198692858676269</v>
       </c>
       <c r="BA191" t="n">
-        <v>-0.812088973865136</v>
+        <v>-0.810806366312139</v>
       </c>
       <c r="BB191" t="n">
         <v>-0.260537465272234</v>
@@ -34423,7 +34489,7 @@
         <v>0.2170262354798</v>
       </c>
       <c r="AW192" t="n">
-        <v>0.552472727175272</v>
+        <v>0.639788504837397</v>
       </c>
       <c r="AX192" t="n">
         <v>1.73255385071203</v>
@@ -34435,7 +34501,7 @@
         <v>1.16673878187357</v>
       </c>
       <c r="BA192" t="n">
-        <v>1.22200406795403</v>
+        <v>1.22693498027818</v>
       </c>
       <c r="BB192" t="n">
         <v>1.20795962575507</v>
@@ -34599,7 +34665,7 @@
         <v>0.861871438292017</v>
       </c>
       <c r="AW193" t="n">
-        <v>0.261252508462492</v>
+        <v>0.40482025381776</v>
       </c>
       <c r="AX193" t="n">
         <v>0.770478422841398</v>
@@ -34611,7 +34677,7 @@
         <v>1.63676967767696</v>
       </c>
       <c r="BA193" t="n">
-        <v>0.674937479689706</v>
+        <v>0.678887185351691</v>
       </c>
       <c r="BB193" t="n">
         <v>0.973491409920044</v>
@@ -34775,7 +34841,7 @@
         <v>-1.73183926635268</v>
       </c>
       <c r="AW194" t="n">
-        <v>0.609943282247355</v>
+        <v>0.686158073097811</v>
       </c>
       <c r="AX194" t="n">
         <v>-0.320217603281908</v>
@@ -34787,7 +34853,7 @@
         <v>0.661437872857533</v>
       </c>
       <c r="BA194" t="n">
-        <v>-0.757382315038704</v>
+        <v>-0.75600158681949</v>
       </c>
       <c r="BB194" t="n">
         <v>-0.312766325923226</v>
@@ -34951,7 +35017,7 @@
         <v>-0.155550992811702</v>
       </c>
       <c r="AW195" t="n">
-        <v>0.491620327019281</v>
+        <v>0.590690327182698</v>
       </c>
       <c r="AX195" t="n">
         <v>1.11532786146406</v>
@@ -34963,7 +35029,7 @@
         <v>1.11139293069041</v>
       </c>
       <c r="BA195" t="n">
-        <v>0.655044149207368</v>
+        <v>0.658958174627091</v>
       </c>
       <c r="BB195" t="n">
         <v>0.872739575615004</v>
@@ -35058,7 +35124,7 @@
         <v>0.202046962063534</v>
       </c>
       <c r="Z196" t="n">
-        <v>-0.746982652954984</v>
+        <v>-0.746982652954985</v>
       </c>
       <c r="AA196" t="n">
         <v>-0.183476373623327</v>
@@ -35127,7 +35193,7 @@
         <v>-0.70008694185313</v>
       </c>
       <c r="AW196" t="n">
-        <v>0.288781305538684</v>
+        <v>0.427031600716194</v>
       </c>
       <c r="AX196" t="n">
         <v>0.0707890154062104</v>
@@ -35139,7 +35205,7 @@
         <v>1.00738910626198</v>
       </c>
       <c r="BA196" t="n">
-        <v>-0.747435649797534</v>
+        <v>-0.74603708145719</v>
       </c>
       <c r="BB196" t="n">
         <v>-0.401088216306503</v>
@@ -35303,7 +35369,7 @@
         <v>-0.915035342790536</v>
       </c>
       <c r="AW197" t="n">
-        <v>0.674176371300901</v>
+        <v>0.737983927288882</v>
       </c>
       <c r="AX197" t="n">
         <v>0.133497373231311</v>
@@ -35315,7 +35381,7 @@
         <v>-0.167541683364651</v>
       </c>
       <c r="BA197" t="n">
-        <v>-1.30942223592361</v>
+        <v>-1.30903163442713</v>
       </c>
       <c r="BB197" t="n">
         <v>-0.675281861026629</v>
@@ -35479,7 +35545,7 @@
         <v>0.833211651500363</v>
       </c>
       <c r="AW198" t="n">
-        <v>0.577827893906935</v>
+        <v>0.660246078860188</v>
       </c>
       <c r="AX198" t="n">
         <v>-0.835630584600363</v>
@@ -35491,7 +35557,7 @@
         <v>0.377276285437733</v>
       </c>
       <c r="BA198" t="n">
-        <v>0.60531082300152</v>
+        <v>0.609135647815592</v>
       </c>
       <c r="BB198" t="n">
         <v>0.540941959358798</v>
@@ -35655,7 +35721,7 @@
         <v>0.503624103396341</v>
       </c>
       <c r="AW199" t="n">
-        <v>0.509007057402808</v>
+        <v>0.604718644472016</v>
       </c>
       <c r="AX199" t="n">
         <v>1.08229862359752</v>
@@ -35667,7 +35733,7 @@
         <v>0.709449025791285</v>
       </c>
       <c r="BA199" t="n">
-        <v>-0.359515705391923</v>
+        <v>-0.357421372327496</v>
       </c>
       <c r="BB199" t="n">
         <v>0.129242060004159</v>
@@ -35754,7 +35820,7 @@
         <v>4.95581700265847</v>
       </c>
       <c r="X200" t="n">
-        <v>2.37447422831194</v>
+        <v>2.37447422831193</v>
       </c>
       <c r="Y200" t="n">
         <v>2.65857227656306</v>
@@ -35799,13 +35865,13 @@
         <v>2.79667962056473</v>
       </c>
       <c r="AM200" t="n">
-        <v>2.7710732043269</v>
+        <v>2.77107320432689</v>
       </c>
       <c r="AN200" t="n">
         <v>4.20978285746912</v>
       </c>
       <c r="AO200" t="n">
-        <v>5.72626295645676</v>
+        <v>5.72626295645677</v>
       </c>
       <c r="AP200" t="n">
         <v>8.96392647649603</v>
@@ -35829,7 +35895,7 @@
         <v>4.87424158912359</v>
       </c>
       <c r="AW200" t="n">
-        <v>1.56503656480595</v>
+        <v>1.67801055144193</v>
       </c>
       <c r="AX200" t="n">
         <v>3.39431868601786</v>
@@ -35841,7 +35907,7 @@
         <v>2.78741419522983</v>
       </c>
       <c r="BA200" t="n">
-        <v>0.958417439063037</v>
+        <v>0.962875588177237</v>
       </c>
       <c r="BB200" t="n">
         <v>5.03396008197187</v>
@@ -35973,7 +36039,7 @@
         <v>-5.96482137994877</v>
       </c>
       <c r="AM201" t="n">
-        <v>-3.20566976828206</v>
+        <v>-3.20566976828205</v>
       </c>
       <c r="AN201" t="n">
         <v>-2.83579152627353</v>
@@ -36003,7 +36069,7 @@
         <v>-9.45565180670346</v>
       </c>
       <c r="AW201" t="n">
-        <v>-5.78740009915341</v>
+        <v>-4.69672189979531</v>
       </c>
       <c r="AX201" t="n">
         <v>-3.58987160122657</v>
@@ -36015,7 +36081,7 @@
         <v>-3.920594899873</v>
       </c>
       <c r="BA201" t="n">
-        <v>-3.41587964117055</v>
+        <v>-3.41761152219376</v>
       </c>
       <c r="BB201" t="n">
         <v>-3.03583739370944</v>
